--- a/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>KKPNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6191600</v>
+        <v>6315500</v>
       </c>
       <c r="E8" s="3">
-        <v>6304700</v>
+        <v>6245800</v>
       </c>
       <c r="F8" s="3">
-        <v>7473000</v>
+        <v>6359800</v>
       </c>
       <c r="G8" s="3">
-        <v>7694800</v>
+        <v>7538300</v>
       </c>
       <c r="H8" s="3">
-        <v>8128500</v>
+        <v>7762100</v>
       </c>
       <c r="I8" s="3">
-        <v>9296800</v>
+        <v>8199600</v>
       </c>
       <c r="J8" s="3">
+        <v>9378000</v>
+      </c>
+      <c r="K8" s="3">
         <v>10333300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15450900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1429600</v>
+        <v>1441000</v>
       </c>
       <c r="E9" s="3">
-        <v>1498800</v>
+        <v>1475300</v>
       </c>
       <c r="F9" s="3">
-        <v>2224500</v>
+        <v>1511900</v>
       </c>
       <c r="G9" s="3">
-        <v>3570700</v>
+        <v>2244000</v>
       </c>
       <c r="H9" s="3">
-        <v>3792500</v>
+        <v>3601900</v>
       </c>
       <c r="I9" s="3">
-        <v>4043900</v>
+        <v>3825700</v>
       </c>
       <c r="J9" s="3">
+        <v>4079300</v>
+      </c>
+      <c r="K9" s="3">
         <v>10175200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6329200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4762000</v>
+        <v>4874500</v>
       </c>
       <c r="E10" s="3">
-        <v>4805900</v>
+        <v>4770400</v>
       </c>
       <c r="F10" s="3">
-        <v>5248400</v>
+        <v>4848000</v>
       </c>
       <c r="G10" s="3">
-        <v>4124100</v>
+        <v>5294300</v>
       </c>
       <c r="H10" s="3">
-        <v>4336000</v>
+        <v>4160100</v>
       </c>
       <c r="I10" s="3">
-        <v>5252800</v>
+        <v>4373900</v>
       </c>
       <c r="J10" s="3">
+        <v>5298800</v>
+      </c>
+      <c r="K10" s="3">
         <v>158100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9121700</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,12 +853,15 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3">
         <v>66900</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,69 +889,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>37300</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>82400</v>
+        <v>37700</v>
       </c>
       <c r="G14" s="3">
-        <v>172400</v>
+        <v>83100</v>
       </c>
       <c r="H14" s="3">
-        <v>126300</v>
+        <v>173900</v>
       </c>
       <c r="I14" s="3">
-        <v>43900</v>
+        <v>127400</v>
       </c>
       <c r="J14" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K14" s="3">
         <v>452400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>387400</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1533900</v>
+        <v>1702400</v>
       </c>
       <c r="E15" s="3">
-        <v>3078800</v>
+        <v>1698000</v>
       </c>
       <c r="F15" s="3">
-        <v>1614100</v>
+        <v>3105700</v>
       </c>
       <c r="G15" s="3">
-        <v>1711800</v>
+        <v>1628200</v>
       </c>
       <c r="H15" s="3">
-        <v>1778800</v>
+        <v>1726700</v>
       </c>
       <c r="I15" s="3">
-        <v>1995100</v>
+        <v>1794300</v>
       </c>
       <c r="J15" s="3">
+        <v>2012500</v>
+      </c>
+      <c r="K15" s="3">
         <v>4328300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2651600</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,68 +970,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5325300</v>
+        <v>5162500</v>
       </c>
       <c r="E17" s="3">
-        <v>5475700</v>
+        <v>5337500</v>
       </c>
       <c r="F17" s="3">
-        <v>6502400</v>
+        <v>5523600</v>
       </c>
       <c r="G17" s="3">
-        <v>6917400</v>
+        <v>6559200</v>
       </c>
       <c r="H17" s="3">
-        <v>6797700</v>
+        <v>6977900</v>
       </c>
       <c r="I17" s="3">
-        <v>8170200</v>
+        <v>6857200</v>
       </c>
       <c r="J17" s="3">
+        <v>8241700</v>
+      </c>
+      <c r="K17" s="3">
         <v>8811500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12458800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>866300</v>
+        <v>1153000</v>
       </c>
       <c r="E18" s="3">
-        <v>829000</v>
+        <v>908200</v>
       </c>
       <c r="F18" s="3">
-        <v>970600</v>
+        <v>836200</v>
       </c>
       <c r="G18" s="3">
-        <v>777400</v>
+        <v>979100</v>
       </c>
       <c r="H18" s="3">
-        <v>1330800</v>
+        <v>784200</v>
       </c>
       <c r="I18" s="3">
-        <v>1126500</v>
+        <v>1342400</v>
       </c>
       <c r="J18" s="3">
+        <v>1136400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1521800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2992000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,158 +1051,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>37300</v>
+        <v>-90800</v>
       </c>
       <c r="E20" s="3">
-        <v>88900</v>
+        <v>37700</v>
       </c>
       <c r="F20" s="3">
-        <v>-17600</v>
+        <v>89700</v>
       </c>
       <c r="G20" s="3">
-        <v>417200</v>
+        <v>-17700</v>
       </c>
       <c r="H20" s="3">
-        <v>-348100</v>
+        <v>420900</v>
       </c>
       <c r="I20" s="3">
-        <v>-37300</v>
+        <v>-351100</v>
       </c>
       <c r="J20" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="K20" s="3">
         <v>608300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-136200</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2458600</v>
+        <v>2753300</v>
       </c>
       <c r="E21" s="3">
-        <v>2617000</v>
+        <v>2632700</v>
       </c>
       <c r="F21" s="3">
-        <v>2730200</v>
+        <v>2481800</v>
       </c>
       <c r="G21" s="3">
-        <v>3013500</v>
+        <v>2661400</v>
       </c>
       <c r="H21" s="3">
-        <v>3024900</v>
+        <v>2983200</v>
       </c>
       <c r="I21" s="3">
-        <v>3244600</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>2811200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3142000</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5896900</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>340400</v>
+        <v>327800</v>
       </c>
       <c r="E22" s="3">
-        <v>359000</v>
+        <v>375500</v>
       </c>
       <c r="F22" s="3">
-        <v>441400</v>
+        <v>362200</v>
       </c>
       <c r="G22" s="3">
-        <v>530300</v>
+        <v>445300</v>
       </c>
       <c r="H22" s="3">
-        <v>646700</v>
+        <v>535000</v>
       </c>
       <c r="I22" s="3">
-        <v>801500</v>
+        <v>652400</v>
       </c>
       <c r="J22" s="3">
+        <v>808500</v>
+      </c>
+      <c r="K22" s="3">
         <v>1561400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>777100</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>563300</v>
+        <v>734300</v>
       </c>
       <c r="E23" s="3">
-        <v>558900</v>
+        <v>570400</v>
       </c>
       <c r="F23" s="3">
-        <v>511700</v>
+        <v>563800</v>
       </c>
       <c r="G23" s="3">
-        <v>664300</v>
+        <v>516100</v>
       </c>
       <c r="H23" s="3">
-        <v>336000</v>
+        <v>670100</v>
       </c>
       <c r="I23" s="3">
-        <v>287700</v>
+        <v>338900</v>
       </c>
       <c r="J23" s="3">
+        <v>290200</v>
+      </c>
+      <c r="K23" s="3">
         <v>568800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2078800</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>255800</v>
+        <v>54300</v>
       </c>
       <c r="E24" s="3">
-        <v>130700</v>
+        <v>248100</v>
       </c>
       <c r="F24" s="3">
-        <v>105400</v>
+        <v>131800</v>
       </c>
       <c r="G24" s="3">
-        <v>88900</v>
+        <v>106300</v>
       </c>
       <c r="H24" s="3">
-        <v>49400</v>
+        <v>89700</v>
       </c>
       <c r="I24" s="3">
-        <v>-34000</v>
+        <v>49800</v>
       </c>
       <c r="J24" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="K24" s="3">
         <v>224000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>260600</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>307400</v>
+        <v>680100</v>
       </c>
       <c r="E26" s="3">
-        <v>428200</v>
+        <v>322300</v>
       </c>
       <c r="F26" s="3">
-        <v>406300</v>
+        <v>432000</v>
       </c>
       <c r="G26" s="3">
-        <v>575400</v>
+        <v>409800</v>
       </c>
       <c r="H26" s="3">
-        <v>286600</v>
+        <v>580400</v>
       </c>
       <c r="I26" s="3">
-        <v>321700</v>
+        <v>289100</v>
       </c>
       <c r="J26" s="3">
+        <v>324500</v>
+      </c>
+      <c r="K26" s="3">
         <v>344800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1818200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>256900</v>
+        <v>679000</v>
       </c>
       <c r="E27" s="3">
-        <v>372200</v>
+        <v>259200</v>
       </c>
       <c r="F27" s="3">
+        <v>375500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>345600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>500600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>189400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>316800</v>
+      </c>
+      <c r="K27" s="3">
         <v>342600</v>
       </c>
-      <c r="G27" s="3">
-        <v>496300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>187800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>314000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>342600</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1818200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,39 +1345,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-11000</v>
+        <v>13300</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-11100</v>
       </c>
       <c r="F29" s="3">
-        <v>472100</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>148200</v>
+        <v>476300</v>
       </c>
       <c r="H29" s="3">
-        <v>-927800</v>
+        <v>149500</v>
       </c>
       <c r="I29" s="3">
-        <v>-557800</v>
+        <v>-935900</v>
       </c>
       <c r="J29" s="3">
+        <v>-562700</v>
+      </c>
+      <c r="K29" s="3">
         <v>495200</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,69 +1444,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-37300</v>
+        <v>90800</v>
       </c>
       <c r="E32" s="3">
-        <v>-88900</v>
+        <v>-37700</v>
       </c>
       <c r="F32" s="3">
-        <v>17600</v>
+        <v>-89700</v>
       </c>
       <c r="G32" s="3">
-        <v>-417200</v>
+        <v>17700</v>
       </c>
       <c r="H32" s="3">
-        <v>348100</v>
+        <v>-420900</v>
       </c>
       <c r="I32" s="3">
-        <v>37300</v>
+        <v>351100</v>
       </c>
       <c r="J32" s="3">
+        <v>37700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-608300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>136200</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>246000</v>
+        <v>692300</v>
       </c>
       <c r="E33" s="3">
-        <v>372200</v>
+        <v>248100</v>
       </c>
       <c r="F33" s="3">
-        <v>814700</v>
+        <v>375500</v>
       </c>
       <c r="G33" s="3">
-        <v>644500</v>
+        <v>821800</v>
       </c>
       <c r="H33" s="3">
-        <v>-740100</v>
+        <v>650200</v>
       </c>
       <c r="I33" s="3">
-        <v>-243800</v>
+        <v>-746500</v>
       </c>
       <c r="J33" s="3">
+        <v>-245900</v>
+      </c>
+      <c r="K33" s="3">
         <v>837800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1818200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>246000</v>
+        <v>692300</v>
       </c>
       <c r="E35" s="3">
-        <v>372200</v>
+        <v>248100</v>
       </c>
       <c r="F35" s="3">
-        <v>814700</v>
+        <v>375500</v>
       </c>
       <c r="G35" s="3">
-        <v>644500</v>
+        <v>821800</v>
       </c>
       <c r="H35" s="3">
-        <v>-740100</v>
+        <v>650200</v>
       </c>
       <c r="I35" s="3">
-        <v>-243800</v>
+        <v>-746500</v>
       </c>
       <c r="J35" s="3">
+        <v>-245900</v>
+      </c>
+      <c r="K35" s="3">
         <v>837800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1818200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,278 +1647,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1304400</v>
+        <v>850100</v>
       </c>
       <c r="E41" s="3">
-        <v>1879800</v>
+        <v>659200</v>
       </c>
       <c r="F41" s="3">
-        <v>2589100</v>
+        <v>1900000</v>
       </c>
       <c r="G41" s="3">
-        <v>1587700</v>
+        <v>2616900</v>
       </c>
       <c r="H41" s="3">
-        <v>2169600</v>
+        <v>1604800</v>
       </c>
       <c r="I41" s="3">
-        <v>4332700</v>
+        <v>2193000</v>
       </c>
       <c r="J41" s="3">
+        <v>4379300</v>
+      </c>
+      <c r="K41" s="3">
         <v>2381600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>755900</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>547900</v>
+        <v>305200</v>
       </c>
       <c r="E42" s="3">
-        <v>1537200</v>
+        <v>553800</v>
       </c>
       <c r="F42" s="3">
-        <v>153700</v>
+        <v>1553700</v>
       </c>
       <c r="G42" s="3">
-        <v>631400</v>
+        <v>155400</v>
       </c>
       <c r="H42" s="3">
-        <v>329400</v>
-      </c>
-      <c r="I42" s="3" t="s">
+        <v>638100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>332900</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>442500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>406100</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1720600</v>
+        <v>749100</v>
       </c>
       <c r="E43" s="3">
-        <v>1838100</v>
+        <v>872300</v>
       </c>
       <c r="F43" s="3">
-        <v>1920400</v>
+        <v>1857800</v>
       </c>
       <c r="G43" s="3">
-        <v>805900</v>
+        <v>1941000</v>
       </c>
       <c r="H43" s="3">
-        <v>989300</v>
+        <v>814600</v>
       </c>
       <c r="I43" s="3">
-        <v>1228700</v>
+        <v>999900</v>
       </c>
       <c r="J43" s="3">
+        <v>1241900</v>
+      </c>
+      <c r="K43" s="3">
         <v>3428000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1760700</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>63700</v>
+        <v>59900</v>
       </c>
       <c r="E44" s="3">
-        <v>59300</v>
+        <v>64400</v>
       </c>
       <c r="F44" s="3">
-        <v>97700</v>
+        <v>59900</v>
       </c>
       <c r="G44" s="3">
-        <v>71400</v>
+        <v>98800</v>
       </c>
       <c r="H44" s="3">
-        <v>67000</v>
+        <v>72100</v>
       </c>
       <c r="I44" s="3">
-        <v>65900</v>
+        <v>67700</v>
       </c>
       <c r="J44" s="3">
+        <v>66600</v>
+      </c>
+      <c r="K44" s="3">
         <v>243800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>144400</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>131800</v>
+        <v>154300</v>
       </c>
       <c r="E45" s="3">
-        <v>1284700</v>
+        <v>109900</v>
       </c>
       <c r="F45" s="3">
-        <v>108700</v>
+        <v>1298500</v>
       </c>
       <c r="G45" s="3">
-        <v>224000</v>
+        <v>109900</v>
       </c>
       <c r="H45" s="3">
-        <v>161400</v>
+        <v>226400</v>
       </c>
       <c r="I45" s="3">
-        <v>105400</v>
+        <v>163100</v>
       </c>
       <c r="J45" s="3">
+        <v>106500</v>
+      </c>
+      <c r="K45" s="3">
         <v>307400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>126800</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2235500</v>
+        <v>2118600</v>
       </c>
       <c r="E46" s="3">
-        <v>3659600</v>
+        <v>2259600</v>
       </c>
       <c r="F46" s="3">
-        <v>2682400</v>
+        <v>3699000</v>
       </c>
       <c r="G46" s="3">
-        <v>3320400</v>
+        <v>2711200</v>
       </c>
       <c r="H46" s="3">
-        <v>3716700</v>
+        <v>3356000</v>
       </c>
       <c r="I46" s="3">
-        <v>5732700</v>
+        <v>3756700</v>
       </c>
       <c r="J46" s="3">
+        <v>5794300</v>
+      </c>
+      <c r="K46" s="3">
         <v>3401600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3193900</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>299800</v>
+        <v>74400</v>
       </c>
       <c r="E47" s="3">
-        <v>387600</v>
+        <v>84300</v>
       </c>
       <c r="F47" s="3">
-        <v>4334900</v>
+        <v>391800</v>
       </c>
       <c r="G47" s="3">
-        <v>2567100</v>
+        <v>4381500</v>
       </c>
       <c r="H47" s="3">
-        <v>3049100</v>
+        <v>2594700</v>
       </c>
       <c r="I47" s="3">
-        <v>881700</v>
+        <v>3081900</v>
       </c>
       <c r="J47" s="3">
+        <v>891200</v>
+      </c>
+      <c r="K47" s="3">
         <v>1637100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>818100</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12337100</v>
+        <v>6968400</v>
       </c>
       <c r="E48" s="3">
-        <v>12761000</v>
+        <v>7183700</v>
       </c>
       <c r="F48" s="3">
-        <v>13107900</v>
+        <v>12898100</v>
       </c>
       <c r="G48" s="3">
-        <v>6589100</v>
+        <v>13248800</v>
       </c>
       <c r="H48" s="3">
-        <v>7253400</v>
+        <v>6659900</v>
       </c>
       <c r="I48" s="3">
-        <v>5863300</v>
+        <v>7331300</v>
       </c>
       <c r="J48" s="3">
+        <v>5926300</v>
+      </c>
+      <c r="K48" s="3">
         <v>17337400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8842300</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7923200</v>
+        <v>3323900</v>
       </c>
       <c r="E49" s="3">
-        <v>7337900</v>
+        <v>3517000</v>
       </c>
       <c r="F49" s="3">
-        <v>7090900</v>
+        <v>7416800</v>
       </c>
       <c r="G49" s="3">
-        <v>3788100</v>
+        <v>7167100</v>
       </c>
       <c r="H49" s="3">
-        <v>4383200</v>
+        <v>3828800</v>
       </c>
       <c r="I49" s="3">
-        <v>4000000</v>
+        <v>4430300</v>
       </c>
       <c r="J49" s="3">
+        <v>4043000</v>
+      </c>
+      <c r="K49" s="3">
         <v>18573800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10813100</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1373600</v>
+        <v>1169700</v>
       </c>
       <c r="E52" s="3">
-        <v>1334100</v>
+        <v>1388400</v>
       </c>
       <c r="F52" s="3">
-        <v>1522900</v>
+        <v>1348400</v>
       </c>
       <c r="G52" s="3">
-        <v>3276400</v>
+        <v>1539300</v>
       </c>
       <c r="H52" s="3">
-        <v>1972000</v>
+        <v>3311600</v>
       </c>
       <c r="I52" s="3">
-        <v>11929800</v>
+        <v>1993200</v>
       </c>
       <c r="J52" s="3">
+        <v>12058000</v>
+      </c>
+      <c r="K52" s="3">
         <v>4744500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2610600</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14279500</v>
+        <v>13655000</v>
       </c>
       <c r="E54" s="3">
-        <v>15126000</v>
+        <v>14432900</v>
       </c>
       <c r="F54" s="3">
-        <v>16499600</v>
+        <v>15288600</v>
       </c>
       <c r="G54" s="3">
-        <v>19541100</v>
+        <v>16677000</v>
       </c>
       <c r="H54" s="3">
-        <v>20374500</v>
+        <v>19751100</v>
       </c>
       <c r="I54" s="3">
-        <v>28407500</v>
+        <v>20593400</v>
       </c>
       <c r="J54" s="3">
+        <v>28712700</v>
+      </c>
+      <c r="K54" s="3">
         <v>24486500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26278100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,188 +2139,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2120200</v>
+        <v>610400</v>
       </c>
       <c r="E57" s="3">
-        <v>2647300</v>
+        <v>637000</v>
       </c>
       <c r="F57" s="3">
-        <v>2468300</v>
+        <v>2675700</v>
       </c>
       <c r="G57" s="3">
-        <v>849900</v>
+        <v>2494800</v>
       </c>
       <c r="H57" s="3">
-        <v>899300</v>
+        <v>859000</v>
       </c>
       <c r="I57" s="3">
-        <v>1197900</v>
+        <v>908900</v>
       </c>
       <c r="J57" s="3">
+        <v>1210800</v>
+      </c>
+      <c r="K57" s="3">
         <v>3078800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1670300</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>800400</v>
+        <v>1200800</v>
       </c>
       <c r="E58" s="3">
-        <v>19800</v>
+        <v>809000</v>
       </c>
       <c r="F58" s="3">
-        <v>807000</v>
+        <v>20000</v>
       </c>
       <c r="G58" s="3">
-        <v>930000</v>
+        <v>815700</v>
       </c>
       <c r="H58" s="3">
-        <v>1146300</v>
+        <v>940000</v>
       </c>
       <c r="I58" s="3">
-        <v>2204800</v>
+        <v>1158600</v>
       </c>
       <c r="J58" s="3">
+        <v>2228500</v>
+      </c>
+      <c r="K58" s="3">
         <v>3353300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1711400</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1246200</v>
+        <v>1112000</v>
       </c>
       <c r="E59" s="3">
-        <v>1650300</v>
+        <v>1255200</v>
       </c>
       <c r="F59" s="3">
-        <v>1636000</v>
+        <v>1668000</v>
       </c>
       <c r="G59" s="3">
-        <v>1560300</v>
+        <v>1653600</v>
       </c>
       <c r="H59" s="3">
-        <v>2079600</v>
+        <v>1577000</v>
       </c>
       <c r="I59" s="3">
-        <v>2476000</v>
+        <v>2102000</v>
       </c>
       <c r="J59" s="3">
+        <v>2502600</v>
+      </c>
+      <c r="K59" s="3">
         <v>6428800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3202200</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2672500</v>
+        <v>2923200</v>
       </c>
       <c r="E60" s="3">
-        <v>2073000</v>
+        <v>2701300</v>
       </c>
       <c r="F60" s="3">
-        <v>2892100</v>
+        <v>2095300</v>
       </c>
       <c r="G60" s="3">
-        <v>3340100</v>
+        <v>2923200</v>
       </c>
       <c r="H60" s="3">
-        <v>4125200</v>
+        <v>3376000</v>
       </c>
       <c r="I60" s="3">
-        <v>5878700</v>
+        <v>4169500</v>
       </c>
       <c r="J60" s="3">
+        <v>5941900</v>
+      </c>
+      <c r="K60" s="3">
         <v>6431000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6583900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8527100</v>
+        <v>7221500</v>
       </c>
       <c r="E61" s="3">
-        <v>8321700</v>
+        <v>8618700</v>
       </c>
       <c r="F61" s="3">
-        <v>8670900</v>
+        <v>8411200</v>
       </c>
       <c r="G61" s="3">
-        <v>9720600</v>
+        <v>8764100</v>
       </c>
       <c r="H61" s="3">
-        <v>10317900</v>
+        <v>9825100</v>
       </c>
       <c r="I61" s="3">
-        <v>12798300</v>
+        <v>10428800</v>
       </c>
       <c r="J61" s="3">
+        <v>12935800</v>
+      </c>
+      <c r="K61" s="3">
         <v>13581200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13664300</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1040900</v>
+        <v>694700</v>
       </c>
       <c r="E62" s="3">
-        <v>1088100</v>
+        <v>1052100</v>
       </c>
       <c r="F62" s="3">
-        <v>812500</v>
+        <v>1099800</v>
       </c>
       <c r="G62" s="3">
-        <v>532500</v>
+        <v>821300</v>
       </c>
       <c r="H62" s="3">
-        <v>833400</v>
+        <v>538300</v>
       </c>
       <c r="I62" s="3">
-        <v>2219100</v>
+        <v>842300</v>
       </c>
       <c r="J62" s="3">
+        <v>2242900</v>
+      </c>
+      <c r="K62" s="3">
         <v>4892700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2365200</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12217400</v>
+        <v>10873800</v>
       </c>
       <c r="E66" s="3">
-        <v>11302800</v>
+        <v>12348700</v>
       </c>
       <c r="F66" s="3">
-        <v>12307500</v>
+        <v>11424300</v>
       </c>
       <c r="G66" s="3">
-        <v>14070900</v>
+        <v>12439700</v>
       </c>
       <c r="H66" s="3">
-        <v>15353300</v>
+        <v>14222100</v>
       </c>
       <c r="I66" s="3">
-        <v>22643000</v>
+        <v>15518300</v>
       </c>
       <c r="J66" s="3">
+        <v>22886300</v>
+      </c>
+      <c r="K66" s="3">
         <v>23077800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22838800</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7396100</v>
+        <v>-6994000</v>
       </c>
       <c r="E72" s="3">
-        <v>-6815300</v>
+        <v>-7033900</v>
       </c>
       <c r="F72" s="3">
-        <v>-6215800</v>
+        <v>-6888500</v>
       </c>
       <c r="G72" s="3">
-        <v>-6588000</v>
+        <v>-6282600</v>
       </c>
       <c r="H72" s="3">
-        <v>-6748300</v>
+        <v>-6658800</v>
       </c>
       <c r="I72" s="3">
-        <v>-5863300</v>
+        <v>-6820800</v>
       </c>
       <c r="J72" s="3">
+        <v>-5926300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-11313800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4697600</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2062000</v>
+        <v>2781200</v>
       </c>
       <c r="E76" s="3">
-        <v>3823200</v>
+        <v>2084200</v>
       </c>
       <c r="F76" s="3">
-        <v>4192200</v>
+        <v>3864300</v>
       </c>
       <c r="G76" s="3">
-        <v>5470200</v>
+        <v>4237200</v>
       </c>
       <c r="H76" s="3">
-        <v>5021200</v>
+        <v>5529000</v>
       </c>
       <c r="I76" s="3">
-        <v>5764500</v>
+        <v>5075100</v>
       </c>
       <c r="J76" s="3">
+        <v>5826400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1408700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3439300</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>246000</v>
+        <v>692300</v>
       </c>
       <c r="E81" s="3">
-        <v>372200</v>
+        <v>248100</v>
       </c>
       <c r="F81" s="3">
-        <v>814700</v>
+        <v>375500</v>
       </c>
       <c r="G81" s="3">
-        <v>644500</v>
+        <v>821800</v>
       </c>
       <c r="H81" s="3">
-        <v>-740100</v>
+        <v>650200</v>
       </c>
       <c r="I81" s="3">
-        <v>-243800</v>
+        <v>-746500</v>
       </c>
       <c r="J81" s="3">
+        <v>-245900</v>
+      </c>
+      <c r="K81" s="3">
         <v>837800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1818200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1552600</v>
+        <v>1702400</v>
       </c>
       <c r="E83" s="3">
-        <v>1696400</v>
+        <v>1698000</v>
       </c>
       <c r="F83" s="3">
-        <v>1774400</v>
+        <v>1566100</v>
       </c>
       <c r="G83" s="3">
-        <v>1816100</v>
+        <v>1711200</v>
       </c>
       <c r="H83" s="3">
-        <v>2039000</v>
+        <v>1789900</v>
       </c>
       <c r="I83" s="3">
-        <v>2152100</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>1832000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2056800</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3039000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2141100</v>
+        <v>2223000</v>
       </c>
       <c r="E89" s="3">
-        <v>2104900</v>
+        <v>2334800</v>
       </c>
       <c r="F89" s="3">
-        <v>2435400</v>
+        <v>2159800</v>
       </c>
       <c r="G89" s="3">
-        <v>1706300</v>
+        <v>2123300</v>
       </c>
       <c r="H89" s="3">
-        <v>3132600</v>
+        <v>2456700</v>
       </c>
       <c r="I89" s="3">
-        <v>3301700</v>
+        <v>1721200</v>
       </c>
       <c r="J89" s="3">
+        <v>3160000</v>
+      </c>
+      <c r="K89" s="3">
         <v>4395300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4698800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-904800</v>
+        <v>-951400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1006900</v>
+        <v>-904900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1111200</v>
+        <v>-912700</v>
       </c>
       <c r="G91" s="3">
-        <v>-983800</v>
+        <v>-1015700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1440600</v>
+        <v>-1120900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1382400</v>
+        <v>-992400</v>
       </c>
       <c r="J91" s="3">
+        <v>-1453200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1739200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2434500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-669800</v>
+        <v>-783100</v>
       </c>
       <c r="E94" s="3">
-        <v>446900</v>
+        <v>-427500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1200100</v>
+        <v>-675600</v>
       </c>
       <c r="G94" s="3">
-        <v>1617400</v>
+        <v>450800</v>
       </c>
       <c r="H94" s="3">
-        <v>-4378800</v>
+        <v>-1210600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2342000</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>1631500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-4417100</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2331200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,38 +3293,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-564400</v>
+        <v>-567100</v>
       </c>
       <c r="E96" s="3">
-        <v>-534700</v>
+        <v>-585900</v>
       </c>
       <c r="F96" s="3">
-        <v>-543500</v>
+        <v>-569300</v>
       </c>
       <c r="G96" s="3">
-        <v>-103200</v>
+        <v>-539400</v>
       </c>
       <c r="H96" s="3">
+        <v>-548300</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-6600</v>
       </c>
-      <c r="I96" s="3">
-        <v>-1074900</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1317600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1408600</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,97 +3422,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1828200</v>
+        <v>-1268200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2987700</v>
+        <v>-2173100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1642600</v>
+        <v>-1844200</v>
       </c>
       <c r="G100" s="3">
-        <v>-5165000</v>
+        <v>-3013800</v>
       </c>
       <c r="H100" s="3">
-        <v>4181200</v>
+        <v>-1657000</v>
       </c>
       <c r="I100" s="3">
-        <v>-961800</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-5210200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>4217700</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2051800</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>2200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-357900</v>
+        <v>171700</v>
       </c>
       <c r="E102" s="3">
-        <v>-435900</v>
+        <v>-265800</v>
       </c>
       <c r="F102" s="3">
-        <v>-406300</v>
+        <v>-361100</v>
       </c>
       <c r="G102" s="3">
-        <v>-1839200</v>
+        <v>-439700</v>
       </c>
       <c r="H102" s="3">
-        <v>2935000</v>
+        <v>-409800</v>
       </c>
       <c r="I102" s="3">
-        <v>-3300</v>
+        <v>-1855200</v>
       </c>
       <c r="J102" s="3">
+        <v>2960600</v>
+      </c>
+      <c r="K102" s="3">
         <v>294300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>314600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6315500</v>
+        <v>6744900</v>
       </c>
       <c r="E8" s="3">
-        <v>6245800</v>
+        <v>6670400</v>
       </c>
       <c r="F8" s="3">
-        <v>6359800</v>
+        <v>6792200</v>
       </c>
       <c r="G8" s="3">
-        <v>7538300</v>
+        <v>8050800</v>
       </c>
       <c r="H8" s="3">
-        <v>7762100</v>
+        <v>8289800</v>
       </c>
       <c r="I8" s="3">
-        <v>8199600</v>
+        <v>8757000</v>
       </c>
       <c r="J8" s="3">
-        <v>9378000</v>
+        <v>10015600</v>
       </c>
       <c r="K8" s="3">
         <v>10333300</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1441000</v>
+        <v>1539000</v>
       </c>
       <c r="E9" s="3">
-        <v>1475300</v>
+        <v>1575600</v>
       </c>
       <c r="F9" s="3">
-        <v>1511900</v>
+        <v>1614700</v>
       </c>
       <c r="G9" s="3">
-        <v>2244000</v>
+        <v>2396600</v>
       </c>
       <c r="H9" s="3">
-        <v>3601900</v>
+        <v>3846800</v>
       </c>
       <c r="I9" s="3">
-        <v>3825700</v>
+        <v>4085700</v>
       </c>
       <c r="J9" s="3">
-        <v>4079300</v>
+        <v>4356600</v>
       </c>
       <c r="K9" s="3">
         <v>10175200</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4874500</v>
+        <v>5205900</v>
       </c>
       <c r="E10" s="3">
-        <v>4770400</v>
+        <v>5094800</v>
       </c>
       <c r="F10" s="3">
-        <v>4848000</v>
+        <v>5177600</v>
       </c>
       <c r="G10" s="3">
-        <v>5294300</v>
+        <v>5654300</v>
       </c>
       <c r="H10" s="3">
-        <v>4160100</v>
+        <v>4443000</v>
       </c>
       <c r="I10" s="3">
-        <v>4373900</v>
+        <v>4671300</v>
       </c>
       <c r="J10" s="3">
-        <v>5298800</v>
+        <v>5659000</v>
       </c>
       <c r="K10" s="3">
         <v>158100</v>
@@ -905,19 +905,19 @@
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>37700</v>
+        <v>40200</v>
       </c>
       <c r="G14" s="3">
-        <v>83100</v>
+        <v>88700</v>
       </c>
       <c r="H14" s="3">
-        <v>173900</v>
+        <v>185700</v>
       </c>
       <c r="I14" s="3">
-        <v>127400</v>
+        <v>136000</v>
       </c>
       <c r="J14" s="3">
-        <v>44300</v>
+        <v>47300</v>
       </c>
       <c r="K14" s="3">
         <v>452400</v>
@@ -932,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1702400</v>
+        <v>1818100</v>
       </c>
       <c r="E15" s="3">
-        <v>1698000</v>
+        <v>1813400</v>
       </c>
       <c r="F15" s="3">
-        <v>3105700</v>
+        <v>3316900</v>
       </c>
       <c r="G15" s="3">
-        <v>1628200</v>
+        <v>1738900</v>
       </c>
       <c r="H15" s="3">
-        <v>1726700</v>
+        <v>1844100</v>
       </c>
       <c r="I15" s="3">
-        <v>1794300</v>
+        <v>1916300</v>
       </c>
       <c r="J15" s="3">
-        <v>2012500</v>
+        <v>2149300</v>
       </c>
       <c r="K15" s="3">
         <v>4328300</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5162500</v>
+        <v>5513500</v>
       </c>
       <c r="E17" s="3">
-        <v>5337500</v>
+        <v>5700400</v>
       </c>
       <c r="F17" s="3">
-        <v>5523600</v>
+        <v>5899100</v>
       </c>
       <c r="G17" s="3">
-        <v>6559200</v>
+        <v>7005100</v>
       </c>
       <c r="H17" s="3">
-        <v>6977900</v>
+        <v>7452300</v>
       </c>
       <c r="I17" s="3">
-        <v>6857200</v>
+        <v>7323300</v>
       </c>
       <c r="J17" s="3">
-        <v>8241700</v>
+        <v>8802000</v>
       </c>
       <c r="K17" s="3">
         <v>8811500</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1153000</v>
+        <v>1231400</v>
       </c>
       <c r="E18" s="3">
-        <v>908200</v>
+        <v>970000</v>
       </c>
       <c r="F18" s="3">
-        <v>836200</v>
+        <v>893100</v>
       </c>
       <c r="G18" s="3">
-        <v>979100</v>
+        <v>1045700</v>
       </c>
       <c r="H18" s="3">
-        <v>784200</v>
+        <v>837500</v>
       </c>
       <c r="I18" s="3">
-        <v>1342400</v>
+        <v>1433700</v>
       </c>
       <c r="J18" s="3">
-        <v>1136400</v>
+        <v>1213700</v>
       </c>
       <c r="K18" s="3">
         <v>1521800</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-90800</v>
+        <v>-97000</v>
       </c>
       <c r="E20" s="3">
-        <v>37700</v>
+        <v>40200</v>
       </c>
       <c r="F20" s="3">
-        <v>89700</v>
+        <v>95800</v>
       </c>
       <c r="G20" s="3">
-        <v>-17700</v>
+        <v>-18900</v>
       </c>
       <c r="H20" s="3">
-        <v>420900</v>
+        <v>449500</v>
       </c>
       <c r="I20" s="3">
-        <v>-351100</v>
+        <v>-375000</v>
       </c>
       <c r="J20" s="3">
-        <v>-37700</v>
+        <v>-40200</v>
       </c>
       <c r="K20" s="3">
         <v>608300</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2753300</v>
+        <v>2953100</v>
       </c>
       <c r="E21" s="3">
-        <v>2632700</v>
+        <v>2824200</v>
       </c>
       <c r="F21" s="3">
-        <v>2481800</v>
+        <v>2662100</v>
       </c>
       <c r="G21" s="3">
-        <v>2661400</v>
+        <v>2855000</v>
       </c>
       <c r="H21" s="3">
-        <v>2983200</v>
+        <v>3199200</v>
       </c>
       <c r="I21" s="3">
-        <v>2811200</v>
+        <v>3015900</v>
       </c>
       <c r="J21" s="3">
-        <v>3142000</v>
+        <v>3370800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1124,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>327800</v>
+        <v>350100</v>
       </c>
       <c r="E22" s="3">
-        <v>375500</v>
+        <v>401000</v>
       </c>
       <c r="F22" s="3">
-        <v>362200</v>
+        <v>386800</v>
       </c>
       <c r="G22" s="3">
-        <v>445300</v>
+        <v>475500</v>
       </c>
       <c r="H22" s="3">
-        <v>535000</v>
+        <v>571300</v>
       </c>
       <c r="I22" s="3">
-        <v>652400</v>
+        <v>696700</v>
       </c>
       <c r="J22" s="3">
-        <v>808500</v>
+        <v>863500</v>
       </c>
       <c r="K22" s="3">
         <v>1561400</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>734300</v>
+        <v>784300</v>
       </c>
       <c r="E23" s="3">
-        <v>570400</v>
+        <v>609200</v>
       </c>
       <c r="F23" s="3">
-        <v>563800</v>
+        <v>602100</v>
       </c>
       <c r="G23" s="3">
-        <v>516100</v>
+        <v>551200</v>
       </c>
       <c r="H23" s="3">
-        <v>670100</v>
+        <v>715700</v>
       </c>
       <c r="I23" s="3">
-        <v>338900</v>
+        <v>362000</v>
       </c>
       <c r="J23" s="3">
-        <v>290200</v>
+        <v>309900</v>
       </c>
       <c r="K23" s="3">
         <v>568800</v>
@@ -1190,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>54300</v>
+        <v>58000</v>
       </c>
       <c r="E24" s="3">
-        <v>248100</v>
+        <v>265000</v>
       </c>
       <c r="F24" s="3">
-        <v>131800</v>
+        <v>140800</v>
       </c>
       <c r="G24" s="3">
-        <v>106300</v>
+        <v>113600</v>
       </c>
       <c r="H24" s="3">
-        <v>89700</v>
+        <v>95800</v>
       </c>
       <c r="I24" s="3">
-        <v>49800</v>
+        <v>53200</v>
       </c>
       <c r="J24" s="3">
-        <v>-34300</v>
+        <v>-36700</v>
       </c>
       <c r="K24" s="3">
         <v>224000</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>680100</v>
+        <v>726300</v>
       </c>
       <c r="E26" s="3">
-        <v>322300</v>
+        <v>344200</v>
       </c>
       <c r="F26" s="3">
-        <v>432000</v>
+        <v>461300</v>
       </c>
       <c r="G26" s="3">
-        <v>409800</v>
+        <v>437700</v>
       </c>
       <c r="H26" s="3">
-        <v>580400</v>
+        <v>619800</v>
       </c>
       <c r="I26" s="3">
-        <v>289100</v>
+        <v>308700</v>
       </c>
       <c r="J26" s="3">
-        <v>324500</v>
+        <v>346600</v>
       </c>
       <c r="K26" s="3">
         <v>344800</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>679000</v>
+        <v>725100</v>
       </c>
       <c r="E27" s="3">
-        <v>259200</v>
+        <v>276800</v>
       </c>
       <c r="F27" s="3">
-        <v>375500</v>
+        <v>401000</v>
       </c>
       <c r="G27" s="3">
-        <v>345600</v>
+        <v>369100</v>
       </c>
       <c r="H27" s="3">
-        <v>500600</v>
+        <v>534700</v>
       </c>
       <c r="I27" s="3">
-        <v>189400</v>
+        <v>202300</v>
       </c>
       <c r="J27" s="3">
-        <v>316800</v>
+        <v>338300</v>
       </c>
       <c r="K27" s="3">
         <v>342600</v>
@@ -1355,25 +1355,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>13300</v>
+        <v>14200</v>
       </c>
       <c r="E29" s="3">
-        <v>-11100</v>
+        <v>-11800</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>476300</v>
+        <v>508600</v>
       </c>
       <c r="H29" s="3">
-        <v>149500</v>
+        <v>159700</v>
       </c>
       <c r="I29" s="3">
-        <v>-935900</v>
+        <v>-999600</v>
       </c>
       <c r="J29" s="3">
-        <v>-562700</v>
+        <v>-600900</v>
       </c>
       <c r="K29" s="3">
         <v>495200</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>90800</v>
+        <v>97000</v>
       </c>
       <c r="E32" s="3">
-        <v>-37700</v>
+        <v>-40200</v>
       </c>
       <c r="F32" s="3">
-        <v>-89700</v>
+        <v>-95800</v>
       </c>
       <c r="G32" s="3">
-        <v>17700</v>
+        <v>18900</v>
       </c>
       <c r="H32" s="3">
-        <v>-420900</v>
+        <v>-449500</v>
       </c>
       <c r="I32" s="3">
-        <v>351100</v>
+        <v>375000</v>
       </c>
       <c r="J32" s="3">
-        <v>37700</v>
+        <v>40200</v>
       </c>
       <c r="K32" s="3">
         <v>-608300</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>692300</v>
+        <v>739300</v>
       </c>
       <c r="E33" s="3">
-        <v>248100</v>
+        <v>265000</v>
       </c>
       <c r="F33" s="3">
-        <v>375500</v>
+        <v>401000</v>
       </c>
       <c r="G33" s="3">
-        <v>821800</v>
+        <v>877700</v>
       </c>
       <c r="H33" s="3">
-        <v>650200</v>
+        <v>694400</v>
       </c>
       <c r="I33" s="3">
-        <v>-746500</v>
+        <v>-797300</v>
       </c>
       <c r="J33" s="3">
-        <v>-245900</v>
+        <v>-262600</v>
       </c>
       <c r="K33" s="3">
         <v>837800</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>692300</v>
+        <v>739300</v>
       </c>
       <c r="E35" s="3">
-        <v>248100</v>
+        <v>265000</v>
       </c>
       <c r="F35" s="3">
-        <v>375500</v>
+        <v>401000</v>
       </c>
       <c r="G35" s="3">
-        <v>821800</v>
+        <v>877700</v>
       </c>
       <c r="H35" s="3">
-        <v>650200</v>
+        <v>694400</v>
       </c>
       <c r="I35" s="3">
-        <v>-746500</v>
+        <v>-797300</v>
       </c>
       <c r="J35" s="3">
-        <v>-245900</v>
+        <v>-262600</v>
       </c>
       <c r="K35" s="3">
         <v>837800</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>850100</v>
+        <v>906100</v>
       </c>
       <c r="E41" s="3">
-        <v>659200</v>
+        <v>702600</v>
       </c>
       <c r="F41" s="3">
-        <v>1900000</v>
+        <v>2025100</v>
       </c>
       <c r="G41" s="3">
-        <v>2616900</v>
+        <v>2789300</v>
       </c>
       <c r="H41" s="3">
-        <v>1604800</v>
+        <v>1710500</v>
       </c>
       <c r="I41" s="3">
-        <v>2193000</v>
+        <v>2337400</v>
       </c>
       <c r="J41" s="3">
-        <v>4379300</v>
+        <v>4667700</v>
       </c>
       <c r="K41" s="3">
         <v>2381600</v>
@@ -1687,22 +1687,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>305200</v>
+        <v>325300</v>
       </c>
       <c r="E42" s="3">
-        <v>553800</v>
+        <v>590300</v>
       </c>
       <c r="F42" s="3">
-        <v>1553700</v>
+        <v>1656100</v>
       </c>
       <c r="G42" s="3">
-        <v>155400</v>
+        <v>165600</v>
       </c>
       <c r="H42" s="3">
-        <v>638100</v>
+        <v>680200</v>
       </c>
       <c r="I42" s="3">
-        <v>332900</v>
+        <v>354900</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>749100</v>
+        <v>798500</v>
       </c>
       <c r="E43" s="3">
-        <v>872300</v>
+        <v>929800</v>
       </c>
       <c r="F43" s="3">
-        <v>1857800</v>
+        <v>1980200</v>
       </c>
       <c r="G43" s="3">
-        <v>1941000</v>
+        <v>2068900</v>
       </c>
       <c r="H43" s="3">
-        <v>814600</v>
+        <v>868200</v>
       </c>
       <c r="I43" s="3">
-        <v>999900</v>
+        <v>1065800</v>
       </c>
       <c r="J43" s="3">
-        <v>1241900</v>
+        <v>1323700</v>
       </c>
       <c r="K43" s="3">
         <v>3428000</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>59900</v>
+        <v>63900</v>
       </c>
       <c r="E44" s="3">
-        <v>64400</v>
+        <v>68600</v>
       </c>
       <c r="F44" s="3">
-        <v>59900</v>
+        <v>63900</v>
       </c>
       <c r="G44" s="3">
-        <v>98800</v>
+        <v>105300</v>
       </c>
       <c r="H44" s="3">
-        <v>72100</v>
+        <v>76900</v>
       </c>
       <c r="I44" s="3">
-        <v>67700</v>
+        <v>72200</v>
       </c>
       <c r="J44" s="3">
-        <v>66600</v>
+        <v>71000</v>
       </c>
       <c r="K44" s="3">
         <v>243800</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>154300</v>
+        <v>164400</v>
       </c>
       <c r="E45" s="3">
-        <v>109900</v>
+        <v>117100</v>
       </c>
       <c r="F45" s="3">
-        <v>1298500</v>
+        <v>1384000</v>
       </c>
       <c r="G45" s="3">
-        <v>109900</v>
+        <v>117100</v>
       </c>
       <c r="H45" s="3">
-        <v>226400</v>
+        <v>241300</v>
       </c>
       <c r="I45" s="3">
-        <v>163100</v>
+        <v>173900</v>
       </c>
       <c r="J45" s="3">
-        <v>106500</v>
+        <v>113600</v>
       </c>
       <c r="K45" s="3">
         <v>307400</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2118600</v>
+        <v>2258200</v>
       </c>
       <c r="E46" s="3">
-        <v>2259600</v>
+        <v>2408400</v>
       </c>
       <c r="F46" s="3">
-        <v>3699000</v>
+        <v>3942600</v>
       </c>
       <c r="G46" s="3">
-        <v>2711200</v>
+        <v>2889800</v>
       </c>
       <c r="H46" s="3">
-        <v>3356000</v>
+        <v>3577100</v>
       </c>
       <c r="I46" s="3">
-        <v>3756700</v>
+        <v>4004100</v>
       </c>
       <c r="J46" s="3">
-        <v>5794300</v>
+        <v>6175900</v>
       </c>
       <c r="K46" s="3">
         <v>3401600</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>74400</v>
+        <v>79300</v>
       </c>
       <c r="E47" s="3">
-        <v>84300</v>
+        <v>89900</v>
       </c>
       <c r="F47" s="3">
-        <v>391800</v>
+        <v>417600</v>
       </c>
       <c r="G47" s="3">
-        <v>4381500</v>
+        <v>4670100</v>
       </c>
       <c r="H47" s="3">
-        <v>2594700</v>
+        <v>2765600</v>
       </c>
       <c r="I47" s="3">
-        <v>3081900</v>
+        <v>3284900</v>
       </c>
       <c r="J47" s="3">
-        <v>891200</v>
+        <v>949900</v>
       </c>
       <c r="K47" s="3">
         <v>1637100</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6968400</v>
+        <v>7427400</v>
       </c>
       <c r="E48" s="3">
-        <v>7183700</v>
+        <v>7656900</v>
       </c>
       <c r="F48" s="3">
-        <v>12898100</v>
+        <v>13747700</v>
       </c>
       <c r="G48" s="3">
-        <v>13248800</v>
+        <v>14121500</v>
       </c>
       <c r="H48" s="3">
-        <v>6659900</v>
+        <v>7098600</v>
       </c>
       <c r="I48" s="3">
-        <v>7331300</v>
+        <v>7814200</v>
       </c>
       <c r="J48" s="3">
-        <v>5926300</v>
+        <v>6316700</v>
       </c>
       <c r="K48" s="3">
         <v>17337400</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3323900</v>
+        <v>3542800</v>
       </c>
       <c r="E49" s="3">
-        <v>3517000</v>
+        <v>3748600</v>
       </c>
       <c r="F49" s="3">
-        <v>7416800</v>
+        <v>7905300</v>
       </c>
       <c r="G49" s="3">
-        <v>7167100</v>
+        <v>7639200</v>
       </c>
       <c r="H49" s="3">
-        <v>3828800</v>
+        <v>4081000</v>
       </c>
       <c r="I49" s="3">
-        <v>4430300</v>
+        <v>4722100</v>
       </c>
       <c r="J49" s="3">
-        <v>4043000</v>
+        <v>4309300</v>
       </c>
       <c r="K49" s="3">
         <v>18573800</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1169700</v>
+        <v>1246800</v>
       </c>
       <c r="E52" s="3">
-        <v>1388400</v>
+        <v>1479800</v>
       </c>
       <c r="F52" s="3">
-        <v>1348400</v>
+        <v>1437200</v>
       </c>
       <c r="G52" s="3">
-        <v>1539300</v>
+        <v>1640700</v>
       </c>
       <c r="H52" s="3">
-        <v>3311600</v>
+        <v>3529800</v>
       </c>
       <c r="I52" s="3">
-        <v>1993200</v>
+        <v>2124500</v>
       </c>
       <c r="J52" s="3">
-        <v>12058000</v>
+        <v>12852200</v>
       </c>
       <c r="K52" s="3">
         <v>4744500</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13655000</v>
+        <v>14554400</v>
       </c>
       <c r="E54" s="3">
-        <v>14432900</v>
+        <v>15383600</v>
       </c>
       <c r="F54" s="3">
-        <v>15288600</v>
+        <v>16295600</v>
       </c>
       <c r="G54" s="3">
-        <v>16677000</v>
+        <v>17775400</v>
       </c>
       <c r="H54" s="3">
-        <v>19751100</v>
+        <v>21052100</v>
       </c>
       <c r="I54" s="3">
-        <v>20593400</v>
+        <v>21949900</v>
       </c>
       <c r="J54" s="3">
-        <v>28712700</v>
+        <v>30604000</v>
       </c>
       <c r="K54" s="3">
         <v>24486500</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>610400</v>
+        <v>650600</v>
       </c>
       <c r="E57" s="3">
-        <v>637000</v>
+        <v>679000</v>
       </c>
       <c r="F57" s="3">
-        <v>2675700</v>
+        <v>2852000</v>
       </c>
       <c r="G57" s="3">
-        <v>2494800</v>
+        <v>2659200</v>
       </c>
       <c r="H57" s="3">
-        <v>859000</v>
+        <v>915600</v>
       </c>
       <c r="I57" s="3">
-        <v>908900</v>
+        <v>968800</v>
       </c>
       <c r="J57" s="3">
-        <v>1210800</v>
+        <v>1290500</v>
       </c>
       <c r="K57" s="3">
         <v>3078800</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1200800</v>
+        <v>1279900</v>
       </c>
       <c r="E58" s="3">
-        <v>809000</v>
+        <v>862300</v>
       </c>
       <c r="F58" s="3">
-        <v>20000</v>
+        <v>21300</v>
       </c>
       <c r="G58" s="3">
-        <v>815700</v>
+        <v>869400</v>
       </c>
       <c r="H58" s="3">
-        <v>940000</v>
+        <v>1001900</v>
       </c>
       <c r="I58" s="3">
-        <v>1158600</v>
+        <v>1234900</v>
       </c>
       <c r="J58" s="3">
-        <v>2228500</v>
+        <v>2375300</v>
       </c>
       <c r="K58" s="3">
         <v>3353300</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1112000</v>
+        <v>1185300</v>
       </c>
       <c r="E59" s="3">
-        <v>1255200</v>
+        <v>1337900</v>
       </c>
       <c r="F59" s="3">
-        <v>1668000</v>
+        <v>1777900</v>
       </c>
       <c r="G59" s="3">
-        <v>1653600</v>
+        <v>1762500</v>
       </c>
       <c r="H59" s="3">
-        <v>1577000</v>
+        <v>1680900</v>
       </c>
       <c r="I59" s="3">
-        <v>2102000</v>
+        <v>2240400</v>
       </c>
       <c r="J59" s="3">
-        <v>2502600</v>
+        <v>2667400</v>
       </c>
       <c r="K59" s="3">
         <v>6428800</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2923200</v>
+        <v>3115800</v>
       </c>
       <c r="E60" s="3">
-        <v>2701300</v>
+        <v>2879200</v>
       </c>
       <c r="F60" s="3">
-        <v>2095300</v>
+        <v>2233300</v>
       </c>
       <c r="G60" s="3">
-        <v>2923200</v>
+        <v>3115800</v>
       </c>
       <c r="H60" s="3">
-        <v>3376000</v>
+        <v>3598400</v>
       </c>
       <c r="I60" s="3">
-        <v>4169500</v>
+        <v>4444200</v>
       </c>
       <c r="J60" s="3">
-        <v>5941900</v>
+        <v>6333200</v>
       </c>
       <c r="K60" s="3">
         <v>6431000</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7221500</v>
+        <v>7697100</v>
       </c>
       <c r="E61" s="3">
-        <v>8618700</v>
+        <v>9186400</v>
       </c>
       <c r="F61" s="3">
-        <v>8411200</v>
+        <v>8965200</v>
       </c>
       <c r="G61" s="3">
-        <v>8764100</v>
+        <v>9341400</v>
       </c>
       <c r="H61" s="3">
-        <v>9825100</v>
+        <v>10472200</v>
       </c>
       <c r="I61" s="3">
-        <v>10428800</v>
+        <v>11115700</v>
       </c>
       <c r="J61" s="3">
-        <v>12935800</v>
+        <v>13787900</v>
       </c>
       <c r="K61" s="3">
         <v>13581200</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>694700</v>
+        <v>740500</v>
       </c>
       <c r="E62" s="3">
-        <v>1052100</v>
+        <v>1121400</v>
       </c>
       <c r="F62" s="3">
-        <v>1099800</v>
+        <v>1172300</v>
       </c>
       <c r="G62" s="3">
-        <v>821300</v>
+        <v>875300</v>
       </c>
       <c r="H62" s="3">
-        <v>538300</v>
+        <v>573700</v>
       </c>
       <c r="I62" s="3">
-        <v>842300</v>
+        <v>897800</v>
       </c>
       <c r="J62" s="3">
-        <v>2242900</v>
+        <v>2390600</v>
       </c>
       <c r="K62" s="3">
         <v>4892700</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10873800</v>
+        <v>11590100</v>
       </c>
       <c r="E66" s="3">
-        <v>12348700</v>
+        <v>13162100</v>
       </c>
       <c r="F66" s="3">
-        <v>11424300</v>
+        <v>12176800</v>
       </c>
       <c r="G66" s="3">
-        <v>12439700</v>
+        <v>13259100</v>
       </c>
       <c r="H66" s="3">
-        <v>14222100</v>
+        <v>15158900</v>
       </c>
       <c r="I66" s="3">
-        <v>15518300</v>
+        <v>16540500</v>
       </c>
       <c r="J66" s="3">
-        <v>22886300</v>
+        <v>24393800</v>
       </c>
       <c r="K66" s="3">
         <v>23077800</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6994000</v>
+        <v>-7454600</v>
       </c>
       <c r="E72" s="3">
-        <v>-7033900</v>
+        <v>-7497200</v>
       </c>
       <c r="F72" s="3">
-        <v>-6888500</v>
+        <v>-7342300</v>
       </c>
       <c r="G72" s="3">
-        <v>-6282600</v>
+        <v>-6696400</v>
       </c>
       <c r="H72" s="3">
-        <v>-6658800</v>
+        <v>-7097400</v>
       </c>
       <c r="I72" s="3">
-        <v>-6820800</v>
+        <v>-7270100</v>
       </c>
       <c r="J72" s="3">
-        <v>-5926300</v>
+        <v>-6316700</v>
       </c>
       <c r="K72" s="3">
         <v>-11313800</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2781200</v>
+        <v>2964300</v>
       </c>
       <c r="E76" s="3">
-        <v>2084200</v>
+        <v>2221500</v>
       </c>
       <c r="F76" s="3">
-        <v>3864300</v>
+        <v>4118900</v>
       </c>
       <c r="G76" s="3">
-        <v>4237200</v>
+        <v>4516300</v>
       </c>
       <c r="H76" s="3">
-        <v>5529000</v>
+        <v>5893200</v>
       </c>
       <c r="I76" s="3">
-        <v>5075100</v>
+        <v>5409400</v>
       </c>
       <c r="J76" s="3">
-        <v>5826400</v>
+        <v>6210200</v>
       </c>
       <c r="K76" s="3">
         <v>1408700</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>692300</v>
+        <v>739300</v>
       </c>
       <c r="E81" s="3">
-        <v>248100</v>
+        <v>265000</v>
       </c>
       <c r="F81" s="3">
-        <v>375500</v>
+        <v>401000</v>
       </c>
       <c r="G81" s="3">
-        <v>821800</v>
+        <v>877700</v>
       </c>
       <c r="H81" s="3">
-        <v>650200</v>
+        <v>694400</v>
       </c>
       <c r="I81" s="3">
-        <v>-746500</v>
+        <v>-797300</v>
       </c>
       <c r="J81" s="3">
-        <v>-245900</v>
+        <v>-262600</v>
       </c>
       <c r="K81" s="3">
         <v>837800</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1702400</v>
+        <v>1818100</v>
       </c>
       <c r="E83" s="3">
-        <v>1698000</v>
+        <v>1813400</v>
       </c>
       <c r="F83" s="3">
-        <v>1566100</v>
+        <v>1672600</v>
       </c>
       <c r="G83" s="3">
-        <v>1711200</v>
+        <v>1827600</v>
       </c>
       <c r="H83" s="3">
-        <v>1789900</v>
+        <v>1911600</v>
       </c>
       <c r="I83" s="3">
-        <v>1832000</v>
+        <v>1956500</v>
       </c>
       <c r="J83" s="3">
-        <v>2056800</v>
+        <v>2196600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2223000</v>
+        <v>2374100</v>
       </c>
       <c r="E89" s="3">
-        <v>2334800</v>
+        <v>2493600</v>
       </c>
       <c r="F89" s="3">
-        <v>2159800</v>
+        <v>2306700</v>
       </c>
       <c r="G89" s="3">
-        <v>2123300</v>
+        <v>2267600</v>
       </c>
       <c r="H89" s="3">
-        <v>2456700</v>
+        <v>2623700</v>
       </c>
       <c r="I89" s="3">
-        <v>1721200</v>
+        <v>1838200</v>
       </c>
       <c r="J89" s="3">
-        <v>3160000</v>
+        <v>3374800</v>
       </c>
       <c r="K89" s="3">
         <v>4395300</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-951400</v>
+        <v>-1016100</v>
       </c>
       <c r="E91" s="3">
-        <v>-904900</v>
+        <v>-966400</v>
       </c>
       <c r="F91" s="3">
-        <v>-912700</v>
+        <v>-974700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1015700</v>
+        <v>-1084700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1120900</v>
+        <v>-1197100</v>
       </c>
       <c r="I91" s="3">
-        <v>-992400</v>
+        <v>-1059900</v>
       </c>
       <c r="J91" s="3">
-        <v>-1453200</v>
+        <v>-1552000</v>
       </c>
       <c r="K91" s="3">
         <v>-1739200</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-783100</v>
+        <v>-836300</v>
       </c>
       <c r="E94" s="3">
-        <v>-427500</v>
+        <v>-456600</v>
       </c>
       <c r="F94" s="3">
-        <v>-675600</v>
+        <v>-721600</v>
       </c>
       <c r="G94" s="3">
-        <v>450800</v>
+        <v>481400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1210600</v>
+        <v>-1292900</v>
       </c>
       <c r="I94" s="3">
-        <v>1631500</v>
+        <v>1742400</v>
       </c>
       <c r="J94" s="3">
-        <v>-4417100</v>
+        <v>-4717400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3300,25 +3300,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-567100</v>
+        <v>-605600</v>
       </c>
       <c r="E96" s="3">
-        <v>-585900</v>
+        <v>-625800</v>
       </c>
       <c r="F96" s="3">
-        <v>-569300</v>
+        <v>-608000</v>
       </c>
       <c r="G96" s="3">
-        <v>-539400</v>
+        <v>-576100</v>
       </c>
       <c r="H96" s="3">
-        <v>-548300</v>
+        <v>-585500</v>
       </c>
       <c r="I96" s="3">
-        <v>-104100</v>
+        <v>-111200</v>
       </c>
       <c r="J96" s="3">
-        <v>-6600</v>
+        <v>-7100</v>
       </c>
       <c r="K96" s="3">
         <v>-1317600</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1268200</v>
+        <v>-1354400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2173100</v>
+        <v>-2320800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1844200</v>
+        <v>-1969500</v>
       </c>
       <c r="G100" s="3">
-        <v>-3013800</v>
+        <v>-3218700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1657000</v>
+        <v>-1769600</v>
       </c>
       <c r="I100" s="3">
-        <v>-5210200</v>
+        <v>-5564400</v>
       </c>
       <c r="J100" s="3">
-        <v>4217700</v>
+        <v>4504500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I101" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>171700</v>
+        <v>183300</v>
       </c>
       <c r="E102" s="3">
-        <v>-265800</v>
+        <v>-283900</v>
       </c>
       <c r="F102" s="3">
-        <v>-361100</v>
+        <v>-385600</v>
       </c>
       <c r="G102" s="3">
-        <v>-439700</v>
+        <v>-469600</v>
       </c>
       <c r="H102" s="3">
-        <v>-409800</v>
+        <v>-437700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1855200</v>
+        <v>-1981400</v>
       </c>
       <c r="J102" s="3">
-        <v>2960600</v>
+        <v>3161900</v>
       </c>
       <c r="K102" s="3">
         <v>294300</v>

--- a/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6744900</v>
+        <v>6820700</v>
       </c>
       <c r="E8" s="3">
-        <v>6670400</v>
+        <v>6745400</v>
       </c>
       <c r="F8" s="3">
-        <v>6792200</v>
+        <v>6868600</v>
       </c>
       <c r="G8" s="3">
-        <v>8050800</v>
+        <v>8141300</v>
       </c>
       <c r="H8" s="3">
-        <v>8289800</v>
+        <v>8383000</v>
       </c>
       <c r="I8" s="3">
-        <v>8757000</v>
+        <v>8855500</v>
       </c>
       <c r="J8" s="3">
-        <v>10015600</v>
+        <v>10128200</v>
       </c>
       <c r="K8" s="3">
         <v>10333300</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1539000</v>
+        <v>1556300</v>
       </c>
       <c r="E9" s="3">
-        <v>1575600</v>
+        <v>1593300</v>
       </c>
       <c r="F9" s="3">
-        <v>1614700</v>
+        <v>1632800</v>
       </c>
       <c r="G9" s="3">
-        <v>2396600</v>
+        <v>2423500</v>
       </c>
       <c r="H9" s="3">
-        <v>3846800</v>
+        <v>3890000</v>
       </c>
       <c r="I9" s="3">
-        <v>4085700</v>
+        <v>4131700</v>
       </c>
       <c r="J9" s="3">
-        <v>4356600</v>
+        <v>4405600</v>
       </c>
       <c r="K9" s="3">
         <v>10175200</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5205900</v>
+        <v>5264500</v>
       </c>
       <c r="E10" s="3">
-        <v>5094800</v>
+        <v>5152000</v>
       </c>
       <c r="F10" s="3">
-        <v>5177600</v>
+        <v>5235800</v>
       </c>
       <c r="G10" s="3">
-        <v>5654300</v>
+        <v>5717800</v>
       </c>
       <c r="H10" s="3">
-        <v>4443000</v>
+        <v>4492900</v>
       </c>
       <c r="I10" s="3">
-        <v>4671300</v>
+        <v>4723800</v>
       </c>
       <c r="J10" s="3">
-        <v>5659000</v>
+        <v>5722600</v>
       </c>
       <c r="K10" s="3">
         <v>158100</v>
@@ -905,19 +905,19 @@
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>40200</v>
+        <v>40700</v>
       </c>
       <c r="G14" s="3">
-        <v>88700</v>
+        <v>89700</v>
       </c>
       <c r="H14" s="3">
-        <v>185700</v>
+        <v>187800</v>
       </c>
       <c r="I14" s="3">
-        <v>136000</v>
+        <v>137600</v>
       </c>
       <c r="J14" s="3">
-        <v>47300</v>
+        <v>47800</v>
       </c>
       <c r="K14" s="3">
         <v>452400</v>
@@ -932,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1818100</v>
+        <v>1838600</v>
       </c>
       <c r="E15" s="3">
-        <v>1813400</v>
+        <v>1833800</v>
       </c>
       <c r="F15" s="3">
-        <v>3316900</v>
+        <v>3354100</v>
       </c>
       <c r="G15" s="3">
-        <v>1738900</v>
+        <v>1758400</v>
       </c>
       <c r="H15" s="3">
-        <v>1844100</v>
+        <v>1864900</v>
       </c>
       <c r="I15" s="3">
-        <v>1916300</v>
+        <v>1937800</v>
       </c>
       <c r="J15" s="3">
-        <v>2149300</v>
+        <v>2173500</v>
       </c>
       <c r="K15" s="3">
         <v>4328300</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5513500</v>
+        <v>5575500</v>
       </c>
       <c r="E17" s="3">
-        <v>5700400</v>
+        <v>5764500</v>
       </c>
       <c r="F17" s="3">
-        <v>5899100</v>
+        <v>5965400</v>
       </c>
       <c r="G17" s="3">
-        <v>7005100</v>
+        <v>7083900</v>
       </c>
       <c r="H17" s="3">
-        <v>7452300</v>
+        <v>7536100</v>
       </c>
       <c r="I17" s="3">
-        <v>7323300</v>
+        <v>7405700</v>
       </c>
       <c r="J17" s="3">
-        <v>8802000</v>
+        <v>8900900</v>
       </c>
       <c r="K17" s="3">
         <v>8811500</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1231400</v>
+        <v>1245200</v>
       </c>
       <c r="E18" s="3">
-        <v>970000</v>
+        <v>980900</v>
       </c>
       <c r="F18" s="3">
-        <v>893100</v>
+        <v>903100</v>
       </c>
       <c r="G18" s="3">
-        <v>1045700</v>
+        <v>1057400</v>
       </c>
       <c r="H18" s="3">
-        <v>837500</v>
+        <v>846900</v>
       </c>
       <c r="I18" s="3">
-        <v>1433700</v>
+        <v>1449800</v>
       </c>
       <c r="J18" s="3">
-        <v>1213700</v>
+        <v>1227300</v>
       </c>
       <c r="K18" s="3">
         <v>1521800</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-97000</v>
+        <v>-98100</v>
       </c>
       <c r="E20" s="3">
-        <v>40200</v>
+        <v>40700</v>
       </c>
       <c r="F20" s="3">
-        <v>95800</v>
+        <v>96900</v>
       </c>
       <c r="G20" s="3">
-        <v>-18900</v>
+        <v>-19100</v>
       </c>
       <c r="H20" s="3">
-        <v>449500</v>
+        <v>454600</v>
       </c>
       <c r="I20" s="3">
-        <v>-375000</v>
+        <v>-379200</v>
       </c>
       <c r="J20" s="3">
-        <v>-40200</v>
+        <v>-40700</v>
       </c>
       <c r="K20" s="3">
         <v>608300</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2953100</v>
+        <v>2978200</v>
       </c>
       <c r="E21" s="3">
-        <v>2824200</v>
+        <v>2847800</v>
       </c>
       <c r="F21" s="3">
-        <v>2662100</v>
+        <v>2684500</v>
       </c>
       <c r="G21" s="3">
-        <v>2855000</v>
+        <v>2878900</v>
       </c>
       <c r="H21" s="3">
-        <v>3199200</v>
+        <v>3226600</v>
       </c>
       <c r="I21" s="3">
-        <v>3015900</v>
+        <v>3041000</v>
       </c>
       <c r="J21" s="3">
-        <v>3370800</v>
+        <v>3398900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1124,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>350100</v>
+        <v>354100</v>
       </c>
       <c r="E22" s="3">
-        <v>401000</v>
+        <v>405500</v>
       </c>
       <c r="F22" s="3">
-        <v>386800</v>
+        <v>391200</v>
       </c>
       <c r="G22" s="3">
-        <v>475500</v>
+        <v>480900</v>
       </c>
       <c r="H22" s="3">
-        <v>571300</v>
+        <v>577800</v>
       </c>
       <c r="I22" s="3">
-        <v>696700</v>
+        <v>704600</v>
       </c>
       <c r="J22" s="3">
-        <v>863500</v>
+        <v>873200</v>
       </c>
       <c r="K22" s="3">
         <v>1561400</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>784300</v>
+        <v>793100</v>
       </c>
       <c r="E23" s="3">
-        <v>609200</v>
+        <v>616000</v>
       </c>
       <c r="F23" s="3">
-        <v>602100</v>
+        <v>608900</v>
       </c>
       <c r="G23" s="3">
-        <v>551200</v>
+        <v>557400</v>
       </c>
       <c r="H23" s="3">
-        <v>715700</v>
+        <v>723700</v>
       </c>
       <c r="I23" s="3">
-        <v>362000</v>
+        <v>366000</v>
       </c>
       <c r="J23" s="3">
-        <v>309900</v>
+        <v>313400</v>
       </c>
       <c r="K23" s="3">
         <v>568800</v>
@@ -1190,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>58000</v>
+        <v>58600</v>
       </c>
       <c r="E24" s="3">
-        <v>265000</v>
+        <v>267900</v>
       </c>
       <c r="F24" s="3">
-        <v>140800</v>
+        <v>142300</v>
       </c>
       <c r="G24" s="3">
-        <v>113600</v>
+        <v>114800</v>
       </c>
       <c r="H24" s="3">
-        <v>95800</v>
+        <v>96900</v>
       </c>
       <c r="I24" s="3">
-        <v>53200</v>
+        <v>53800</v>
       </c>
       <c r="J24" s="3">
-        <v>-36700</v>
+        <v>-37100</v>
       </c>
       <c r="K24" s="3">
         <v>224000</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>726300</v>
+        <v>734500</v>
       </c>
       <c r="E26" s="3">
-        <v>344200</v>
+        <v>348100</v>
       </c>
       <c r="F26" s="3">
-        <v>461300</v>
+        <v>466500</v>
       </c>
       <c r="G26" s="3">
-        <v>437700</v>
+        <v>442600</v>
       </c>
       <c r="H26" s="3">
-        <v>619800</v>
+        <v>626800</v>
       </c>
       <c r="I26" s="3">
-        <v>308700</v>
+        <v>312200</v>
       </c>
       <c r="J26" s="3">
-        <v>346600</v>
+        <v>350500</v>
       </c>
       <c r="K26" s="3">
         <v>344800</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>725100</v>
+        <v>733300</v>
       </c>
       <c r="E27" s="3">
-        <v>276800</v>
+        <v>279900</v>
       </c>
       <c r="F27" s="3">
-        <v>401000</v>
+        <v>405500</v>
       </c>
       <c r="G27" s="3">
-        <v>369100</v>
+        <v>373200</v>
       </c>
       <c r="H27" s="3">
-        <v>534700</v>
+        <v>540700</v>
       </c>
       <c r="I27" s="3">
-        <v>202300</v>
+        <v>204600</v>
       </c>
       <c r="J27" s="3">
-        <v>338300</v>
+        <v>342100</v>
       </c>
       <c r="K27" s="3">
         <v>342600</v>
@@ -1355,25 +1355,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="E29" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>508600</v>
+        <v>514400</v>
       </c>
       <c r="H29" s="3">
-        <v>159700</v>
+        <v>161500</v>
       </c>
       <c r="I29" s="3">
-        <v>-999600</v>
+        <v>-1010800</v>
       </c>
       <c r="J29" s="3">
-        <v>-600900</v>
+        <v>-607700</v>
       </c>
       <c r="K29" s="3">
         <v>495200</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>97000</v>
+        <v>98100</v>
       </c>
       <c r="E32" s="3">
-        <v>-40200</v>
+        <v>-40700</v>
       </c>
       <c r="F32" s="3">
-        <v>-95800</v>
+        <v>-96900</v>
       </c>
       <c r="G32" s="3">
-        <v>18900</v>
+        <v>19100</v>
       </c>
       <c r="H32" s="3">
-        <v>-449500</v>
+        <v>-454600</v>
       </c>
       <c r="I32" s="3">
-        <v>375000</v>
+        <v>379200</v>
       </c>
       <c r="J32" s="3">
-        <v>40200</v>
+        <v>40700</v>
       </c>
       <c r="K32" s="3">
         <v>-608300</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>739300</v>
+        <v>747600</v>
       </c>
       <c r="E33" s="3">
-        <v>265000</v>
+        <v>267900</v>
       </c>
       <c r="F33" s="3">
-        <v>401000</v>
+        <v>405500</v>
       </c>
       <c r="G33" s="3">
-        <v>877700</v>
+        <v>887600</v>
       </c>
       <c r="H33" s="3">
-        <v>694400</v>
+        <v>702200</v>
       </c>
       <c r="I33" s="3">
-        <v>-797300</v>
+        <v>-806200</v>
       </c>
       <c r="J33" s="3">
-        <v>-262600</v>
+        <v>-265600</v>
       </c>
       <c r="K33" s="3">
         <v>837800</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>739300</v>
+        <v>747600</v>
       </c>
       <c r="E35" s="3">
-        <v>265000</v>
+        <v>267900</v>
       </c>
       <c r="F35" s="3">
-        <v>401000</v>
+        <v>405500</v>
       </c>
       <c r="G35" s="3">
-        <v>877700</v>
+        <v>887600</v>
       </c>
       <c r="H35" s="3">
-        <v>694400</v>
+        <v>702200</v>
       </c>
       <c r="I35" s="3">
-        <v>-797300</v>
+        <v>-806200</v>
       </c>
       <c r="J35" s="3">
-        <v>-262600</v>
+        <v>-265600</v>
       </c>
       <c r="K35" s="3">
         <v>837800</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>906100</v>
+        <v>916300</v>
       </c>
       <c r="E41" s="3">
-        <v>702600</v>
+        <v>710500</v>
       </c>
       <c r="F41" s="3">
-        <v>2025100</v>
+        <v>2047900</v>
       </c>
       <c r="G41" s="3">
-        <v>2789300</v>
+        <v>2820600</v>
       </c>
       <c r="H41" s="3">
-        <v>1710500</v>
+        <v>1729700</v>
       </c>
       <c r="I41" s="3">
-        <v>2337400</v>
+        <v>2363700</v>
       </c>
       <c r="J41" s="3">
-        <v>4667700</v>
+        <v>4720200</v>
       </c>
       <c r="K41" s="3">
         <v>2381600</v>
@@ -1687,22 +1687,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>325300</v>
+        <v>329000</v>
       </c>
       <c r="E42" s="3">
-        <v>590300</v>
+        <v>596900</v>
       </c>
       <c r="F42" s="3">
-        <v>1656100</v>
+        <v>1674700</v>
       </c>
       <c r="G42" s="3">
-        <v>165600</v>
+        <v>167500</v>
       </c>
       <c r="H42" s="3">
-        <v>680200</v>
+        <v>687800</v>
       </c>
       <c r="I42" s="3">
-        <v>354900</v>
+        <v>358900</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>798500</v>
+        <v>807400</v>
       </c>
       <c r="E43" s="3">
-        <v>929800</v>
+        <v>940200</v>
       </c>
       <c r="F43" s="3">
-        <v>1980200</v>
+        <v>2002400</v>
       </c>
       <c r="G43" s="3">
-        <v>2068900</v>
+        <v>2092200</v>
       </c>
       <c r="H43" s="3">
-        <v>868200</v>
+        <v>878000</v>
       </c>
       <c r="I43" s="3">
-        <v>1065800</v>
+        <v>1077800</v>
       </c>
       <c r="J43" s="3">
-        <v>1323700</v>
+        <v>1338500</v>
       </c>
       <c r="K43" s="3">
         <v>3428000</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>63900</v>
+        <v>64600</v>
       </c>
       <c r="E44" s="3">
-        <v>68600</v>
+        <v>69400</v>
       </c>
       <c r="F44" s="3">
-        <v>63900</v>
+        <v>64600</v>
       </c>
       <c r="G44" s="3">
-        <v>105300</v>
+        <v>106500</v>
       </c>
       <c r="H44" s="3">
-        <v>76900</v>
+        <v>77800</v>
       </c>
       <c r="I44" s="3">
-        <v>72200</v>
+        <v>73000</v>
       </c>
       <c r="J44" s="3">
-        <v>71000</v>
+        <v>71800</v>
       </c>
       <c r="K44" s="3">
         <v>243800</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>164400</v>
+        <v>166300</v>
       </c>
       <c r="E45" s="3">
-        <v>117100</v>
+        <v>118400</v>
       </c>
       <c r="F45" s="3">
-        <v>1384000</v>
+        <v>1399600</v>
       </c>
       <c r="G45" s="3">
-        <v>117100</v>
+        <v>118400</v>
       </c>
       <c r="H45" s="3">
-        <v>241300</v>
+        <v>244000</v>
       </c>
       <c r="I45" s="3">
-        <v>173900</v>
+        <v>175800</v>
       </c>
       <c r="J45" s="3">
-        <v>113600</v>
+        <v>114800</v>
       </c>
       <c r="K45" s="3">
         <v>307400</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2258200</v>
+        <v>2283500</v>
       </c>
       <c r="E46" s="3">
-        <v>2408400</v>
+        <v>2435500</v>
       </c>
       <c r="F46" s="3">
-        <v>3942600</v>
+        <v>3986900</v>
       </c>
       <c r="G46" s="3">
-        <v>2889800</v>
+        <v>2922300</v>
       </c>
       <c r="H46" s="3">
-        <v>3577100</v>
+        <v>3617300</v>
       </c>
       <c r="I46" s="3">
-        <v>4004100</v>
+        <v>4049100</v>
       </c>
       <c r="J46" s="3">
-        <v>6175900</v>
+        <v>6245400</v>
       </c>
       <c r="K46" s="3">
         <v>3401600</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>79300</v>
+        <v>80100</v>
       </c>
       <c r="E47" s="3">
-        <v>89900</v>
+        <v>90900</v>
       </c>
       <c r="F47" s="3">
-        <v>417600</v>
+        <v>422300</v>
       </c>
       <c r="G47" s="3">
-        <v>4670100</v>
+        <v>4722600</v>
       </c>
       <c r="H47" s="3">
-        <v>2765600</v>
+        <v>2796700</v>
       </c>
       <c r="I47" s="3">
-        <v>3284900</v>
+        <v>3321800</v>
       </c>
       <c r="J47" s="3">
-        <v>949900</v>
+        <v>960500</v>
       </c>
       <c r="K47" s="3">
         <v>1637100</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7427400</v>
+        <v>7510900</v>
       </c>
       <c r="E48" s="3">
-        <v>7656900</v>
+        <v>7743000</v>
       </c>
       <c r="F48" s="3">
-        <v>13747700</v>
+        <v>13902200</v>
       </c>
       <c r="G48" s="3">
-        <v>14121500</v>
+        <v>14280200</v>
       </c>
       <c r="H48" s="3">
-        <v>7098600</v>
+        <v>7178400</v>
       </c>
       <c r="I48" s="3">
-        <v>7814200</v>
+        <v>7902100</v>
       </c>
       <c r="J48" s="3">
-        <v>6316700</v>
+        <v>6387700</v>
       </c>
       <c r="K48" s="3">
         <v>17337400</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3542800</v>
+        <v>3582600</v>
       </c>
       <c r="E49" s="3">
-        <v>3748600</v>
+        <v>3790800</v>
       </c>
       <c r="F49" s="3">
-        <v>7905300</v>
+        <v>7994200</v>
       </c>
       <c r="G49" s="3">
-        <v>7639200</v>
+        <v>7725100</v>
       </c>
       <c r="H49" s="3">
-        <v>4081000</v>
+        <v>4126900</v>
       </c>
       <c r="I49" s="3">
-        <v>4722100</v>
+        <v>4775200</v>
       </c>
       <c r="J49" s="3">
-        <v>4309300</v>
+        <v>4357800</v>
       </c>
       <c r="K49" s="3">
         <v>18573800</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1246800</v>
+        <v>1260800</v>
       </c>
       <c r="E52" s="3">
-        <v>1479800</v>
+        <v>1496400</v>
       </c>
       <c r="F52" s="3">
-        <v>1437200</v>
+        <v>1453400</v>
       </c>
       <c r="G52" s="3">
-        <v>1640700</v>
+        <v>1659100</v>
       </c>
       <c r="H52" s="3">
-        <v>3529800</v>
+        <v>3569500</v>
       </c>
       <c r="I52" s="3">
-        <v>2124500</v>
+        <v>2148400</v>
       </c>
       <c r="J52" s="3">
-        <v>12852200</v>
+        <v>12996700</v>
       </c>
       <c r="K52" s="3">
         <v>4744500</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14554400</v>
+        <v>14718000</v>
       </c>
       <c r="E54" s="3">
-        <v>15383600</v>
+        <v>15556600</v>
       </c>
       <c r="F54" s="3">
-        <v>16295600</v>
+        <v>16478900</v>
       </c>
       <c r="G54" s="3">
-        <v>17775400</v>
+        <v>17975300</v>
       </c>
       <c r="H54" s="3">
-        <v>21052100</v>
+        <v>21288800</v>
       </c>
       <c r="I54" s="3">
-        <v>21949900</v>
+        <v>22196700</v>
       </c>
       <c r="J54" s="3">
-        <v>30604000</v>
+        <v>30948100</v>
       </c>
       <c r="K54" s="3">
         <v>24486500</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>650600</v>
+        <v>657900</v>
       </c>
       <c r="E57" s="3">
-        <v>679000</v>
+        <v>686600</v>
       </c>
       <c r="F57" s="3">
-        <v>2852000</v>
+        <v>2884000</v>
       </c>
       <c r="G57" s="3">
-        <v>2659200</v>
+        <v>2689100</v>
       </c>
       <c r="H57" s="3">
-        <v>915600</v>
+        <v>925900</v>
       </c>
       <c r="I57" s="3">
-        <v>968800</v>
+        <v>979700</v>
       </c>
       <c r="J57" s="3">
-        <v>1290500</v>
+        <v>1305100</v>
       </c>
       <c r="K57" s="3">
         <v>3078800</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1279900</v>
+        <v>1294300</v>
       </c>
       <c r="E58" s="3">
-        <v>862300</v>
+        <v>872000</v>
       </c>
       <c r="F58" s="3">
-        <v>21300</v>
+        <v>21500</v>
       </c>
       <c r="G58" s="3">
-        <v>869400</v>
+        <v>879200</v>
       </c>
       <c r="H58" s="3">
-        <v>1001900</v>
+        <v>1013200</v>
       </c>
       <c r="I58" s="3">
-        <v>1234900</v>
+        <v>1248800</v>
       </c>
       <c r="J58" s="3">
-        <v>2375300</v>
+        <v>2402000</v>
       </c>
       <c r="K58" s="3">
         <v>3353300</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1185300</v>
+        <v>1198600</v>
       </c>
       <c r="E59" s="3">
-        <v>1337900</v>
+        <v>1352900</v>
       </c>
       <c r="F59" s="3">
-        <v>1777900</v>
+        <v>1797900</v>
       </c>
       <c r="G59" s="3">
-        <v>1762500</v>
+        <v>1782300</v>
       </c>
       <c r="H59" s="3">
-        <v>1680900</v>
+        <v>1699800</v>
       </c>
       <c r="I59" s="3">
-        <v>2240400</v>
+        <v>2265600</v>
       </c>
       <c r="J59" s="3">
-        <v>2667400</v>
+        <v>2697400</v>
       </c>
       <c r="K59" s="3">
         <v>6428800</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3115800</v>
+        <v>3150800</v>
       </c>
       <c r="E60" s="3">
-        <v>2879200</v>
+        <v>2911600</v>
       </c>
       <c r="F60" s="3">
-        <v>2233300</v>
+        <v>2258400</v>
       </c>
       <c r="G60" s="3">
-        <v>3115800</v>
+        <v>3150800</v>
       </c>
       <c r="H60" s="3">
-        <v>3598400</v>
+        <v>3638800</v>
       </c>
       <c r="I60" s="3">
-        <v>4444200</v>
+        <v>4494100</v>
       </c>
       <c r="J60" s="3">
-        <v>6333200</v>
+        <v>6404500</v>
       </c>
       <c r="K60" s="3">
         <v>6431000</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7697100</v>
+        <v>7783700</v>
       </c>
       <c r="E61" s="3">
-        <v>9186400</v>
+        <v>9289700</v>
       </c>
       <c r="F61" s="3">
-        <v>8965200</v>
+        <v>9066000</v>
       </c>
       <c r="G61" s="3">
-        <v>9341400</v>
+        <v>9446400</v>
       </c>
       <c r="H61" s="3">
-        <v>10472200</v>
+        <v>10590000</v>
       </c>
       <c r="I61" s="3">
-        <v>11115700</v>
+        <v>11240700</v>
       </c>
       <c r="J61" s="3">
-        <v>13787900</v>
+        <v>13942900</v>
       </c>
       <c r="K61" s="3">
         <v>13581200</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>740500</v>
+        <v>748800</v>
       </c>
       <c r="E62" s="3">
-        <v>1121400</v>
+        <v>1134000</v>
       </c>
       <c r="F62" s="3">
-        <v>1172300</v>
+        <v>1185400</v>
       </c>
       <c r="G62" s="3">
-        <v>875300</v>
+        <v>885200</v>
       </c>
       <c r="H62" s="3">
-        <v>573700</v>
+        <v>580200</v>
       </c>
       <c r="I62" s="3">
-        <v>897800</v>
+        <v>907900</v>
       </c>
       <c r="J62" s="3">
-        <v>2390600</v>
+        <v>2417500</v>
       </c>
       <c r="K62" s="3">
         <v>4892700</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11590100</v>
+        <v>11720400</v>
       </c>
       <c r="E66" s="3">
-        <v>13162100</v>
+        <v>13310100</v>
       </c>
       <c r="F66" s="3">
-        <v>12176800</v>
+        <v>12313700</v>
       </c>
       <c r="G66" s="3">
-        <v>13259100</v>
+        <v>13408200</v>
       </c>
       <c r="H66" s="3">
-        <v>15158900</v>
+        <v>15329300</v>
       </c>
       <c r="I66" s="3">
-        <v>16540500</v>
+        <v>16726500</v>
       </c>
       <c r="J66" s="3">
-        <v>24393800</v>
+        <v>24668000</v>
       </c>
       <c r="K66" s="3">
         <v>23077800</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7454600</v>
+        <v>-7538500</v>
       </c>
       <c r="E72" s="3">
-        <v>-7497200</v>
+        <v>-7581500</v>
       </c>
       <c r="F72" s="3">
-        <v>-7342300</v>
+        <v>-7424800</v>
       </c>
       <c r="G72" s="3">
-        <v>-6696400</v>
+        <v>-6771700</v>
       </c>
       <c r="H72" s="3">
-        <v>-7097400</v>
+        <v>-7177200</v>
       </c>
       <c r="I72" s="3">
-        <v>-7270100</v>
+        <v>-7351800</v>
       </c>
       <c r="J72" s="3">
-        <v>-6316700</v>
+        <v>-6387700</v>
       </c>
       <c r="K72" s="3">
         <v>-11313800</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2964300</v>
+        <v>2997700</v>
       </c>
       <c r="E76" s="3">
-        <v>2221500</v>
+        <v>2246500</v>
       </c>
       <c r="F76" s="3">
-        <v>4118900</v>
+        <v>4165200</v>
       </c>
       <c r="G76" s="3">
-        <v>4516300</v>
+        <v>4567100</v>
       </c>
       <c r="H76" s="3">
-        <v>5893200</v>
+        <v>5959500</v>
       </c>
       <c r="I76" s="3">
-        <v>5409400</v>
+        <v>5470200</v>
       </c>
       <c r="J76" s="3">
-        <v>6210200</v>
+        <v>6280000</v>
       </c>
       <c r="K76" s="3">
         <v>1408700</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>739300</v>
+        <v>747600</v>
       </c>
       <c r="E81" s="3">
-        <v>265000</v>
+        <v>267900</v>
       </c>
       <c r="F81" s="3">
-        <v>401000</v>
+        <v>405500</v>
       </c>
       <c r="G81" s="3">
-        <v>877700</v>
+        <v>887600</v>
       </c>
       <c r="H81" s="3">
-        <v>694400</v>
+        <v>702200</v>
       </c>
       <c r="I81" s="3">
-        <v>-797300</v>
+        <v>-806200</v>
       </c>
       <c r="J81" s="3">
-        <v>-262600</v>
+        <v>-265600</v>
       </c>
       <c r="K81" s="3">
         <v>837800</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1818100</v>
+        <v>1838600</v>
       </c>
       <c r="E83" s="3">
-        <v>1813400</v>
+        <v>1833800</v>
       </c>
       <c r="F83" s="3">
-        <v>1672600</v>
+        <v>1691400</v>
       </c>
       <c r="G83" s="3">
-        <v>1827600</v>
+        <v>1848100</v>
       </c>
       <c r="H83" s="3">
-        <v>1911600</v>
+        <v>1933100</v>
       </c>
       <c r="I83" s="3">
-        <v>1956500</v>
+        <v>1978500</v>
       </c>
       <c r="J83" s="3">
-        <v>2196600</v>
+        <v>2221300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2374100</v>
+        <v>2400800</v>
       </c>
       <c r="E89" s="3">
-        <v>2493600</v>
+        <v>2521600</v>
       </c>
       <c r="F89" s="3">
-        <v>2306700</v>
+        <v>2332600</v>
       </c>
       <c r="G89" s="3">
-        <v>2267600</v>
+        <v>2293100</v>
       </c>
       <c r="H89" s="3">
-        <v>2623700</v>
+        <v>2653200</v>
       </c>
       <c r="I89" s="3">
-        <v>1838200</v>
+        <v>1858900</v>
       </c>
       <c r="J89" s="3">
-        <v>3374800</v>
+        <v>3412800</v>
       </c>
       <c r="K89" s="3">
         <v>4395300</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1016100</v>
+        <v>-1027500</v>
       </c>
       <c r="E91" s="3">
-        <v>-966400</v>
+        <v>-977300</v>
       </c>
       <c r="F91" s="3">
-        <v>-974700</v>
+        <v>-985700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1084700</v>
+        <v>-1096900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1197100</v>
+        <v>-1210600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1059900</v>
+        <v>-1071800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1552000</v>
+        <v>-1569400</v>
       </c>
       <c r="K91" s="3">
         <v>-1739200</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-836300</v>
+        <v>-845700</v>
       </c>
       <c r="E94" s="3">
-        <v>-456600</v>
+        <v>-461700</v>
       </c>
       <c r="F94" s="3">
-        <v>-721600</v>
+        <v>-729700</v>
       </c>
       <c r="G94" s="3">
-        <v>481400</v>
+        <v>486900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1292900</v>
+        <v>-1307400</v>
       </c>
       <c r="I94" s="3">
-        <v>1742400</v>
+        <v>1762000</v>
       </c>
       <c r="J94" s="3">
-        <v>-4717400</v>
+        <v>-4770400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3300,25 +3300,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-605600</v>
+        <v>-612500</v>
       </c>
       <c r="E96" s="3">
-        <v>-625800</v>
+        <v>-632800</v>
       </c>
       <c r="F96" s="3">
-        <v>-608000</v>
+        <v>-614800</v>
       </c>
       <c r="G96" s="3">
-        <v>-576100</v>
+        <v>-582500</v>
       </c>
       <c r="H96" s="3">
-        <v>-585500</v>
+        <v>-592100</v>
       </c>
       <c r="I96" s="3">
-        <v>-111200</v>
+        <v>-112400</v>
       </c>
       <c r="J96" s="3">
-        <v>-7100</v>
+        <v>-7200</v>
       </c>
       <c r="K96" s="3">
         <v>-1317600</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1354400</v>
+        <v>-1369600</v>
       </c>
       <c r="E100" s="3">
-        <v>-2320800</v>
+        <v>-2346900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1969500</v>
+        <v>-1991700</v>
       </c>
       <c r="G100" s="3">
-        <v>-3218700</v>
+        <v>-3254900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1769600</v>
+        <v>-1789500</v>
       </c>
       <c r="I100" s="3">
-        <v>-5564400</v>
+        <v>-5626900</v>
       </c>
       <c r="J100" s="3">
-        <v>4504500</v>
+        <v>4555100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>183300</v>
+        <v>185400</v>
       </c>
       <c r="E102" s="3">
-        <v>-283900</v>
+        <v>-287100</v>
       </c>
       <c r="F102" s="3">
-        <v>-385600</v>
+        <v>-390000</v>
       </c>
       <c r="G102" s="3">
-        <v>-469600</v>
+        <v>-474900</v>
       </c>
       <c r="H102" s="3">
-        <v>-437700</v>
+        <v>-442600</v>
       </c>
       <c r="I102" s="3">
-        <v>-1981400</v>
+        <v>-2003600</v>
       </c>
       <c r="J102" s="3">
-        <v>3161900</v>
+        <v>3197400</v>
       </c>
       <c r="K102" s="3">
         <v>294300</v>

--- a/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6820700</v>
+        <v>6238400</v>
       </c>
       <c r="E8" s="3">
-        <v>6745400</v>
+        <v>6707800</v>
       </c>
       <c r="F8" s="3">
-        <v>6868600</v>
+        <v>6633700</v>
       </c>
       <c r="G8" s="3">
-        <v>8141300</v>
+        <v>6754900</v>
       </c>
       <c r="H8" s="3">
-        <v>8383000</v>
+        <v>8006600</v>
       </c>
       <c r="I8" s="3">
-        <v>8855500</v>
+        <v>8244200</v>
       </c>
       <c r="J8" s="3">
+        <v>8708900</v>
+      </c>
+      <c r="K8" s="3">
         <v>10128200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10333300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15450900</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1556300</v>
+        <v>1510500</v>
       </c>
       <c r="E9" s="3">
-        <v>1593300</v>
+        <v>1530500</v>
       </c>
       <c r="F9" s="3">
-        <v>1632800</v>
+        <v>1567000</v>
       </c>
       <c r="G9" s="3">
-        <v>2423500</v>
+        <v>1605800</v>
       </c>
       <c r="H9" s="3">
-        <v>3890000</v>
+        <v>2383400</v>
       </c>
       <c r="I9" s="3">
-        <v>4131700</v>
+        <v>3825700</v>
       </c>
       <c r="J9" s="3">
+        <v>4063300</v>
+      </c>
+      <c r="K9" s="3">
         <v>4405600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10175200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6329200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5264500</v>
+        <v>4728000</v>
       </c>
       <c r="E10" s="3">
-        <v>5152000</v>
+        <v>5177300</v>
       </c>
       <c r="F10" s="3">
-        <v>5235800</v>
+        <v>5066800</v>
       </c>
       <c r="G10" s="3">
-        <v>5717800</v>
+        <v>5149100</v>
       </c>
       <c r="H10" s="3">
-        <v>4492900</v>
+        <v>5623200</v>
       </c>
       <c r="I10" s="3">
-        <v>4723800</v>
+        <v>4418600</v>
       </c>
       <c r="J10" s="3">
+        <v>4645600</v>
+      </c>
+      <c r="K10" s="3">
         <v>5722600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>158100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9121700</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +839,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -856,12 +869,15 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3">
         <v>66900</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,75 +908,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>24700</v>
       </c>
       <c r="F14" s="3">
-        <v>40700</v>
+        <v>22400</v>
       </c>
       <c r="G14" s="3">
-        <v>89700</v>
+        <v>40000</v>
       </c>
       <c r="H14" s="3">
-        <v>187800</v>
+        <v>88200</v>
       </c>
       <c r="I14" s="3">
-        <v>137600</v>
+        <v>184700</v>
       </c>
       <c r="J14" s="3">
+        <v>135300</v>
+      </c>
+      <c r="K14" s="3">
         <v>47800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>452400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>387400</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1838600</v>
+        <v>1794000</v>
       </c>
       <c r="E15" s="3">
-        <v>1833800</v>
+        <v>1783400</v>
       </c>
       <c r="F15" s="3">
-        <v>3354100</v>
+        <v>3425700</v>
       </c>
       <c r="G15" s="3">
-        <v>1758400</v>
+        <v>3298600</v>
       </c>
       <c r="H15" s="3">
-        <v>1864900</v>
+        <v>1729300</v>
       </c>
       <c r="I15" s="3">
-        <v>1937800</v>
+        <v>1834000</v>
       </c>
       <c r="J15" s="3">
+        <v>1905800</v>
+      </c>
+      <c r="K15" s="3">
         <v>2173500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4328300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2651600</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5575500</v>
+        <v>5165600</v>
       </c>
       <c r="E17" s="3">
-        <v>5764500</v>
+        <v>5483200</v>
       </c>
       <c r="F17" s="3">
-        <v>5965400</v>
+        <v>5669100</v>
       </c>
       <c r="G17" s="3">
-        <v>7083900</v>
+        <v>5866700</v>
       </c>
       <c r="H17" s="3">
-        <v>7536100</v>
+        <v>6966600</v>
       </c>
       <c r="I17" s="3">
-        <v>7405700</v>
+        <v>7411300</v>
       </c>
       <c r="J17" s="3">
+        <v>7283100</v>
+      </c>
+      <c r="K17" s="3">
         <v>8900900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8811500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12458800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1245200</v>
+        <v>1072900</v>
       </c>
       <c r="E18" s="3">
-        <v>980900</v>
+        <v>1224600</v>
       </c>
       <c r="F18" s="3">
-        <v>903100</v>
+        <v>964600</v>
       </c>
       <c r="G18" s="3">
-        <v>1057400</v>
+        <v>888200</v>
       </c>
       <c r="H18" s="3">
-        <v>846900</v>
+        <v>1039900</v>
       </c>
       <c r="I18" s="3">
-        <v>1449800</v>
+        <v>832900</v>
       </c>
       <c r="J18" s="3">
+        <v>1425800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1227300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1521800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2992000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-98100</v>
+        <v>-40000</v>
       </c>
       <c r="E20" s="3">
-        <v>40700</v>
+        <v>-96500</v>
       </c>
       <c r="F20" s="3">
-        <v>96900</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="3">
-        <v>-19100</v>
+        <v>95300</v>
       </c>
       <c r="H20" s="3">
-        <v>454600</v>
+        <v>-18800</v>
       </c>
       <c r="I20" s="3">
-        <v>-379200</v>
+        <v>447000</v>
       </c>
       <c r="J20" s="3">
+        <v>-372900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-40700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>608300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-136200</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2978200</v>
+        <v>2866100</v>
       </c>
       <c r="E21" s="3">
-        <v>2847800</v>
+        <v>2943700</v>
       </c>
       <c r="F21" s="3">
-        <v>2684500</v>
+        <v>2815400</v>
       </c>
       <c r="G21" s="3">
-        <v>2878900</v>
+        <v>2653700</v>
       </c>
       <c r="H21" s="3">
-        <v>3226600</v>
+        <v>2846100</v>
       </c>
       <c r="I21" s="3">
-        <v>3041000</v>
+        <v>3188700</v>
       </c>
       <c r="J21" s="3">
+        <v>3006600</v>
+      </c>
+      <c r="K21" s="3">
         <v>3398900</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5896900</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>354100</v>
+        <v>269400</v>
       </c>
       <c r="E22" s="3">
-        <v>405500</v>
+        <v>348200</v>
       </c>
       <c r="F22" s="3">
-        <v>391200</v>
+        <v>398800</v>
       </c>
       <c r="G22" s="3">
-        <v>480900</v>
+        <v>384700</v>
       </c>
       <c r="H22" s="3">
-        <v>577800</v>
+        <v>472900</v>
       </c>
       <c r="I22" s="3">
-        <v>704600</v>
+        <v>568200</v>
       </c>
       <c r="J22" s="3">
+        <v>692900</v>
+      </c>
+      <c r="K22" s="3">
         <v>873200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1561400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>777100</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>793100</v>
+        <v>763500</v>
       </c>
       <c r="E23" s="3">
-        <v>616000</v>
+        <v>780000</v>
       </c>
       <c r="F23" s="3">
-        <v>608900</v>
+        <v>605800</v>
       </c>
       <c r="G23" s="3">
-        <v>557400</v>
+        <v>598800</v>
       </c>
       <c r="H23" s="3">
-        <v>723700</v>
+        <v>548200</v>
       </c>
       <c r="I23" s="3">
-        <v>366000</v>
+        <v>711700</v>
       </c>
       <c r="J23" s="3">
+        <v>360000</v>
+      </c>
+      <c r="K23" s="3">
         <v>313400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>568800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2078800</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>58600</v>
+        <v>103500</v>
       </c>
       <c r="E24" s="3">
-        <v>267900</v>
+        <v>57600</v>
       </c>
       <c r="F24" s="3">
-        <v>142300</v>
+        <v>263500</v>
       </c>
       <c r="G24" s="3">
-        <v>114800</v>
+        <v>140000</v>
       </c>
       <c r="H24" s="3">
-        <v>96900</v>
+        <v>112900</v>
       </c>
       <c r="I24" s="3">
-        <v>53800</v>
+        <v>95300</v>
       </c>
       <c r="J24" s="3">
+        <v>52900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-37100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>224000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>260600</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>734500</v>
+        <v>660000</v>
       </c>
       <c r="E26" s="3">
-        <v>348100</v>
+        <v>722300</v>
       </c>
       <c r="F26" s="3">
-        <v>466500</v>
+        <v>342300</v>
       </c>
       <c r="G26" s="3">
-        <v>442600</v>
+        <v>458800</v>
       </c>
       <c r="H26" s="3">
-        <v>626800</v>
+        <v>435300</v>
       </c>
       <c r="I26" s="3">
-        <v>312200</v>
+        <v>616400</v>
       </c>
       <c r="J26" s="3">
+        <v>307000</v>
+      </c>
+      <c r="K26" s="3">
         <v>350500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>344800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1818200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>733300</v>
+        <v>648200</v>
       </c>
       <c r="E27" s="3">
-        <v>279900</v>
+        <v>721100</v>
       </c>
       <c r="F27" s="3">
-        <v>405500</v>
+        <v>275300</v>
       </c>
       <c r="G27" s="3">
-        <v>373200</v>
+        <v>398800</v>
       </c>
       <c r="H27" s="3">
-        <v>540700</v>
+        <v>367000</v>
       </c>
       <c r="I27" s="3">
-        <v>204600</v>
+        <v>531700</v>
       </c>
       <c r="J27" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K27" s="3">
         <v>342100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>342600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1818200</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,42 +1405,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>14400</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-12000</v>
+        <v>14100</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-11800</v>
       </c>
       <c r="G29" s="3">
-        <v>514400</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>161500</v>
+        <v>505900</v>
       </c>
       <c r="I29" s="3">
-        <v>-1010800</v>
+        <v>158800</v>
       </c>
       <c r="J29" s="3">
+        <v>-994100</v>
+      </c>
+      <c r="K29" s="3">
         <v>-607700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>495200</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>98100</v>
+        <v>40000</v>
       </c>
       <c r="E32" s="3">
-        <v>-40700</v>
+        <v>96500</v>
       </c>
       <c r="F32" s="3">
-        <v>-96900</v>
+        <v>-40000</v>
       </c>
       <c r="G32" s="3">
-        <v>19100</v>
+        <v>-95300</v>
       </c>
       <c r="H32" s="3">
-        <v>-454600</v>
+        <v>18800</v>
       </c>
       <c r="I32" s="3">
-        <v>379200</v>
+        <v>-447000</v>
       </c>
       <c r="J32" s="3">
+        <v>372900</v>
+      </c>
+      <c r="K32" s="3">
         <v>40700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-608300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>136200</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>747600</v>
+        <v>648200</v>
       </c>
       <c r="E33" s="3">
-        <v>267900</v>
+        <v>735300</v>
       </c>
       <c r="F33" s="3">
-        <v>405500</v>
+        <v>263500</v>
       </c>
       <c r="G33" s="3">
-        <v>887600</v>
+        <v>398800</v>
       </c>
       <c r="H33" s="3">
-        <v>702200</v>
+        <v>872900</v>
       </c>
       <c r="I33" s="3">
-        <v>-806200</v>
+        <v>690500</v>
       </c>
       <c r="J33" s="3">
+        <v>-792900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-265600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>837800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1818200</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>747600</v>
+        <v>648200</v>
       </c>
       <c r="E35" s="3">
-        <v>267900</v>
+        <v>735300</v>
       </c>
       <c r="F35" s="3">
-        <v>405500</v>
+        <v>263500</v>
       </c>
       <c r="G35" s="3">
-        <v>887600</v>
+        <v>398800</v>
       </c>
       <c r="H35" s="3">
-        <v>702200</v>
+        <v>872900</v>
       </c>
       <c r="I35" s="3">
-        <v>-806200</v>
+        <v>690500</v>
       </c>
       <c r="J35" s="3">
+        <v>-792900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-265600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>837800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1818200</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,305 +1733,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>916300</v>
+        <v>702300</v>
       </c>
       <c r="E41" s="3">
-        <v>710500</v>
+        <v>901100</v>
       </c>
       <c r="F41" s="3">
-        <v>2047900</v>
+        <v>698800</v>
       </c>
       <c r="G41" s="3">
-        <v>2820600</v>
+        <v>2014000</v>
       </c>
       <c r="H41" s="3">
-        <v>1729700</v>
+        <v>2774000</v>
       </c>
       <c r="I41" s="3">
-        <v>2363700</v>
+        <v>1701100</v>
       </c>
       <c r="J41" s="3">
+        <v>2324600</v>
+      </c>
+      <c r="K41" s="3">
         <v>4720200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2381600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>755900</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>329000</v>
+        <v>317600</v>
       </c>
       <c r="E42" s="3">
-        <v>596900</v>
+        <v>323500</v>
       </c>
       <c r="F42" s="3">
-        <v>1674700</v>
+        <v>587000</v>
       </c>
       <c r="G42" s="3">
-        <v>167500</v>
+        <v>1647000</v>
       </c>
       <c r="H42" s="3">
-        <v>687800</v>
+        <v>164700</v>
       </c>
       <c r="I42" s="3">
-        <v>358900</v>
-      </c>
-      <c r="J42" s="3" t="s">
+        <v>676400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>352900</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>442500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>406100</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>807400</v>
+        <v>687000</v>
       </c>
       <c r="E43" s="3">
-        <v>940200</v>
+        <v>794100</v>
       </c>
       <c r="F43" s="3">
-        <v>2002400</v>
+        <v>924700</v>
       </c>
       <c r="G43" s="3">
-        <v>2092200</v>
+        <v>1969300</v>
       </c>
       <c r="H43" s="3">
-        <v>878000</v>
+        <v>2057500</v>
       </c>
       <c r="I43" s="3">
-        <v>1077800</v>
+        <v>863500</v>
       </c>
       <c r="J43" s="3">
+        <v>1059900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1338500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3428000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1760700</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>64600</v>
+        <v>55300</v>
       </c>
       <c r="E44" s="3">
-        <v>69400</v>
+        <v>63500</v>
       </c>
       <c r="F44" s="3">
-        <v>64600</v>
+        <v>68200</v>
       </c>
       <c r="G44" s="3">
-        <v>106500</v>
+        <v>63500</v>
       </c>
       <c r="H44" s="3">
-        <v>77800</v>
+        <v>104700</v>
       </c>
       <c r="I44" s="3">
-        <v>73000</v>
+        <v>76500</v>
       </c>
       <c r="J44" s="3">
         <v>71800</v>
       </c>
       <c r="K44" s="3">
+        <v>71800</v>
+      </c>
+      <c r="L44" s="3">
         <v>243800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>144400</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>166300</v>
+        <v>132900</v>
       </c>
       <c r="E45" s="3">
-        <v>118400</v>
+        <v>163500</v>
       </c>
       <c r="F45" s="3">
-        <v>1399600</v>
+        <v>116500</v>
       </c>
       <c r="G45" s="3">
-        <v>118400</v>
+        <v>1376400</v>
       </c>
       <c r="H45" s="3">
-        <v>244000</v>
+        <v>116500</v>
       </c>
       <c r="I45" s="3">
-        <v>175800</v>
+        <v>240000</v>
       </c>
       <c r="J45" s="3">
+        <v>172900</v>
+      </c>
+      <c r="K45" s="3">
         <v>114800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>307400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>126800</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2283500</v>
+        <v>1895200</v>
       </c>
       <c r="E46" s="3">
-        <v>2435500</v>
+        <v>2245700</v>
       </c>
       <c r="F46" s="3">
-        <v>3986900</v>
+        <v>2395200</v>
       </c>
       <c r="G46" s="3">
-        <v>2922300</v>
+        <v>3920900</v>
       </c>
       <c r="H46" s="3">
-        <v>3617300</v>
+        <v>2873900</v>
       </c>
       <c r="I46" s="3">
-        <v>4049100</v>
+        <v>3557400</v>
       </c>
       <c r="J46" s="3">
+        <v>3982100</v>
+      </c>
+      <c r="K46" s="3">
         <v>6245400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3401600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3193900</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>80100</v>
+        <v>74100</v>
       </c>
       <c r="E47" s="3">
-        <v>90900</v>
+        <v>78800</v>
       </c>
       <c r="F47" s="3">
-        <v>422300</v>
+        <v>89400</v>
       </c>
       <c r="G47" s="3">
-        <v>4722600</v>
+        <v>415300</v>
       </c>
       <c r="H47" s="3">
-        <v>2796700</v>
+        <v>4644400</v>
       </c>
       <c r="I47" s="3">
-        <v>3321800</v>
+        <v>2750400</v>
       </c>
       <c r="J47" s="3">
+        <v>3266900</v>
+      </c>
+      <c r="K47" s="3">
         <v>960500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1637100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>818100</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7510900</v>
+        <v>7386600</v>
       </c>
       <c r="E48" s="3">
-        <v>7743000</v>
+        <v>7386600</v>
       </c>
       <c r="F48" s="3">
-        <v>13902200</v>
+        <v>7614800</v>
       </c>
       <c r="G48" s="3">
-        <v>14280200</v>
+        <v>13672100</v>
       </c>
       <c r="H48" s="3">
-        <v>7178400</v>
+        <v>14043900</v>
       </c>
       <c r="I48" s="3">
-        <v>7902100</v>
+        <v>7059600</v>
       </c>
       <c r="J48" s="3">
+        <v>7771300</v>
+      </c>
+      <c r="K48" s="3">
         <v>6387700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17337400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8842300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3582600</v>
+        <v>3809200</v>
       </c>
       <c r="E49" s="3">
-        <v>3790800</v>
+        <v>3523300</v>
       </c>
       <c r="F49" s="3">
-        <v>7994200</v>
+        <v>3728000</v>
       </c>
       <c r="G49" s="3">
-        <v>7725100</v>
+        <v>7861900</v>
       </c>
       <c r="H49" s="3">
-        <v>4126900</v>
+        <v>7597200</v>
       </c>
       <c r="I49" s="3">
-        <v>4775200</v>
+        <v>4058600</v>
       </c>
       <c r="J49" s="3">
+        <v>4696200</v>
+      </c>
+      <c r="K49" s="3">
         <v>4357800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18573800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10813100</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1260800</v>
+        <v>1045800</v>
       </c>
       <c r="E52" s="3">
-        <v>1496400</v>
+        <v>1239900</v>
       </c>
       <c r="F52" s="3">
-        <v>1453400</v>
+        <v>1471700</v>
       </c>
       <c r="G52" s="3">
-        <v>1659100</v>
+        <v>1429300</v>
       </c>
       <c r="H52" s="3">
-        <v>3569500</v>
+        <v>1631700</v>
       </c>
       <c r="I52" s="3">
-        <v>2148400</v>
+        <v>3510400</v>
       </c>
       <c r="J52" s="3">
+        <v>2112800</v>
+      </c>
+      <c r="K52" s="3">
         <v>12996700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4744500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2610600</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14718000</v>
+        <v>14210900</v>
       </c>
       <c r="E54" s="3">
-        <v>15556600</v>
+        <v>14474400</v>
       </c>
       <c r="F54" s="3">
-        <v>16478900</v>
+        <v>15299100</v>
       </c>
       <c r="G54" s="3">
-        <v>17975300</v>
+        <v>16206100</v>
       </c>
       <c r="H54" s="3">
-        <v>21288800</v>
+        <v>17677800</v>
       </c>
       <c r="I54" s="3">
-        <v>22196700</v>
+        <v>20936400</v>
       </c>
       <c r="J54" s="3">
+        <v>21829300</v>
+      </c>
+      <c r="K54" s="3">
         <v>30948100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24486500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26278100</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,206 +2269,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>657900</v>
+        <v>624700</v>
       </c>
       <c r="E57" s="3">
-        <v>686600</v>
+        <v>647000</v>
       </c>
       <c r="F57" s="3">
-        <v>2884000</v>
+        <v>675300</v>
       </c>
       <c r="G57" s="3">
-        <v>2689100</v>
+        <v>2836300</v>
       </c>
       <c r="H57" s="3">
-        <v>925900</v>
+        <v>2644500</v>
       </c>
       <c r="I57" s="3">
-        <v>979700</v>
+        <v>910500</v>
       </c>
       <c r="J57" s="3">
+        <v>963500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1305100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3078800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1670300</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1294300</v>
+        <v>975200</v>
       </c>
       <c r="E58" s="3">
-        <v>872000</v>
+        <v>1272900</v>
       </c>
       <c r="F58" s="3">
-        <v>21500</v>
+        <v>857600</v>
       </c>
       <c r="G58" s="3">
-        <v>879200</v>
+        <v>21200</v>
       </c>
       <c r="H58" s="3">
-        <v>1013200</v>
+        <v>864700</v>
       </c>
       <c r="I58" s="3">
-        <v>1248800</v>
+        <v>996400</v>
       </c>
       <c r="J58" s="3">
+        <v>1228200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2402000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3353300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1711400</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1198600</v>
+        <v>998800</v>
       </c>
       <c r="E59" s="3">
-        <v>1352900</v>
+        <v>1178800</v>
       </c>
       <c r="F59" s="3">
-        <v>1797900</v>
+        <v>1330500</v>
       </c>
       <c r="G59" s="3">
-        <v>1782300</v>
+        <v>1768100</v>
       </c>
       <c r="H59" s="3">
-        <v>1699800</v>
+        <v>1752800</v>
       </c>
       <c r="I59" s="3">
-        <v>2265600</v>
+        <v>1671700</v>
       </c>
       <c r="J59" s="3">
+        <v>2228100</v>
+      </c>
+      <c r="K59" s="3">
         <v>2697400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6428800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3202200</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3150800</v>
+        <v>2598700</v>
       </c>
       <c r="E60" s="3">
-        <v>2911600</v>
+        <v>3098600</v>
       </c>
       <c r="F60" s="3">
-        <v>2258400</v>
+        <v>2863400</v>
       </c>
       <c r="G60" s="3">
-        <v>3150800</v>
+        <v>2221000</v>
       </c>
       <c r="H60" s="3">
-        <v>3638800</v>
+        <v>3098600</v>
       </c>
       <c r="I60" s="3">
-        <v>4494100</v>
+        <v>3578600</v>
       </c>
       <c r="J60" s="3">
+        <v>4419700</v>
+      </c>
+      <c r="K60" s="3">
         <v>6404500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6431000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6583900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7783700</v>
+        <v>7773700</v>
       </c>
       <c r="E61" s="3">
-        <v>9289700</v>
+        <v>7654800</v>
       </c>
       <c r="F61" s="3">
-        <v>9066000</v>
+        <v>9135900</v>
       </c>
       <c r="G61" s="3">
-        <v>9446400</v>
+        <v>8915900</v>
       </c>
       <c r="H61" s="3">
-        <v>10590000</v>
+        <v>9290000</v>
       </c>
       <c r="I61" s="3">
-        <v>11240700</v>
+        <v>10414700</v>
       </c>
       <c r="J61" s="3">
+        <v>11054600</v>
+      </c>
+      <c r="K61" s="3">
         <v>13942900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13581200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13664300</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>748800</v>
+        <v>754100</v>
       </c>
       <c r="E62" s="3">
-        <v>1134000</v>
+        <v>736400</v>
       </c>
       <c r="F62" s="3">
-        <v>1185400</v>
+        <v>1115200</v>
       </c>
       <c r="G62" s="3">
-        <v>885200</v>
+        <v>1165800</v>
       </c>
       <c r="H62" s="3">
-        <v>580200</v>
+        <v>870500</v>
       </c>
       <c r="I62" s="3">
-        <v>907900</v>
+        <v>570600</v>
       </c>
       <c r="J62" s="3">
+        <v>892900</v>
+      </c>
+      <c r="K62" s="3">
         <v>2417500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4892700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2365200</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11720400</v>
+        <v>11127600</v>
       </c>
       <c r="E66" s="3">
-        <v>13310100</v>
+        <v>11526400</v>
       </c>
       <c r="F66" s="3">
-        <v>12313700</v>
+        <v>13089800</v>
       </c>
       <c r="G66" s="3">
-        <v>13408200</v>
+        <v>12109900</v>
       </c>
       <c r="H66" s="3">
-        <v>15329300</v>
+        <v>13186300</v>
       </c>
       <c r="I66" s="3">
-        <v>16726500</v>
+        <v>15075600</v>
       </c>
       <c r="J66" s="3">
+        <v>16449600</v>
+      </c>
+      <c r="K66" s="3">
         <v>24668000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23077800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22838800</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7538500</v>
+        <v>-7398400</v>
       </c>
       <c r="E72" s="3">
-        <v>-7581500</v>
+        <v>-7413700</v>
       </c>
       <c r="F72" s="3">
-        <v>-7424800</v>
+        <v>-7456000</v>
       </c>
       <c r="G72" s="3">
-        <v>-6771700</v>
+        <v>-7301900</v>
       </c>
       <c r="H72" s="3">
-        <v>-7177200</v>
+        <v>-6659600</v>
       </c>
       <c r="I72" s="3">
-        <v>-7351800</v>
+        <v>-7058400</v>
       </c>
       <c r="J72" s="3">
+        <v>-7230200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-6387700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11313800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4697600</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2997700</v>
+        <v>3083300</v>
       </c>
       <c r="E76" s="3">
-        <v>2246500</v>
+        <v>2948100</v>
       </c>
       <c r="F76" s="3">
-        <v>4165200</v>
+        <v>2209300</v>
       </c>
       <c r="G76" s="3">
-        <v>4567100</v>
+        <v>4096200</v>
       </c>
       <c r="H76" s="3">
-        <v>5959500</v>
+        <v>4491500</v>
       </c>
       <c r="I76" s="3">
-        <v>5470200</v>
+        <v>5860800</v>
       </c>
       <c r="J76" s="3">
+        <v>5379700</v>
+      </c>
+      <c r="K76" s="3">
         <v>6280000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1408700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3439300</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>747600</v>
+        <v>648200</v>
       </c>
       <c r="E81" s="3">
-        <v>267900</v>
+        <v>735300</v>
       </c>
       <c r="F81" s="3">
-        <v>405500</v>
+        <v>263500</v>
       </c>
       <c r="G81" s="3">
-        <v>887600</v>
+        <v>398800</v>
       </c>
       <c r="H81" s="3">
-        <v>702200</v>
+        <v>872900</v>
       </c>
       <c r="I81" s="3">
-        <v>-806200</v>
+        <v>690500</v>
       </c>
       <c r="J81" s="3">
+        <v>-792900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-265600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>837800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1818200</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1838600</v>
+        <v>1825800</v>
       </c>
       <c r="E83" s="3">
-        <v>1833800</v>
+        <v>1808100</v>
       </c>
       <c r="F83" s="3">
-        <v>1691400</v>
+        <v>1803400</v>
       </c>
       <c r="G83" s="3">
-        <v>1848100</v>
+        <v>1663400</v>
       </c>
       <c r="H83" s="3">
-        <v>1933100</v>
+        <v>1817500</v>
       </c>
       <c r="I83" s="3">
-        <v>1978500</v>
+        <v>1901100</v>
       </c>
       <c r="J83" s="3">
+        <v>1945800</v>
+      </c>
+      <c r="K83" s="3">
         <v>2221300</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3039000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2400800</v>
+        <v>2402200</v>
       </c>
       <c r="E89" s="3">
-        <v>2521600</v>
+        <v>2361000</v>
       </c>
       <c r="F89" s="3">
-        <v>2332600</v>
+        <v>2479900</v>
       </c>
       <c r="G89" s="3">
-        <v>2293100</v>
+        <v>2294000</v>
       </c>
       <c r="H89" s="3">
-        <v>2653200</v>
+        <v>2255200</v>
       </c>
       <c r="I89" s="3">
-        <v>1858900</v>
+        <v>2609300</v>
       </c>
       <c r="J89" s="3">
+        <v>1828100</v>
+      </c>
+      <c r="K89" s="3">
         <v>3412800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4395300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4698800</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1027500</v>
+        <v>-1084600</v>
       </c>
       <c r="E91" s="3">
-        <v>-977300</v>
+        <v>-1010500</v>
       </c>
       <c r="F91" s="3">
-        <v>-985700</v>
+        <v>-961100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1096900</v>
+        <v>-969400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1210600</v>
+        <v>-1078800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1071800</v>
+        <v>-1190500</v>
       </c>
       <c r="J91" s="3">
+        <v>-1054100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1569400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1739200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2434500</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-845700</v>
+        <v>-1817500</v>
       </c>
       <c r="E94" s="3">
-        <v>-461700</v>
+        <v>-831700</v>
       </c>
       <c r="F94" s="3">
-        <v>-729700</v>
+        <v>-454100</v>
       </c>
       <c r="G94" s="3">
-        <v>486900</v>
+        <v>-717600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1307400</v>
+        <v>478800</v>
       </c>
       <c r="I94" s="3">
-        <v>1762000</v>
+        <v>-1285800</v>
       </c>
       <c r="J94" s="3">
+        <v>1732800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4770400</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2331200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,41 +3526,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-612500</v>
+        <v>-622300</v>
       </c>
       <c r="E96" s="3">
-        <v>-632800</v>
+        <v>-602300</v>
       </c>
       <c r="F96" s="3">
-        <v>-614800</v>
+        <v>-622300</v>
       </c>
       <c r="G96" s="3">
-        <v>-582500</v>
+        <v>-604700</v>
       </c>
       <c r="H96" s="3">
-        <v>-592100</v>
+        <v>-572900</v>
       </c>
       <c r="I96" s="3">
-        <v>-112400</v>
+        <v>-582300</v>
       </c>
       <c r="J96" s="3">
+        <v>-110600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-7200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1317600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1408600</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1369600</v>
+        <v>-788200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2346900</v>
+        <v>-1347000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1991700</v>
+        <v>-2308100</v>
       </c>
       <c r="G100" s="3">
-        <v>-3254900</v>
+        <v>-1958700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1789500</v>
+        <v>-3201000</v>
       </c>
       <c r="I100" s="3">
-        <v>-5626900</v>
+        <v>-1759900</v>
       </c>
       <c r="J100" s="3">
+        <v>-5533800</v>
+      </c>
+      <c r="K100" s="3">
         <v>4555100</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2051800</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2400</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>185400</v>
+        <v>-203500</v>
       </c>
       <c r="E102" s="3">
-        <v>-287100</v>
+        <v>182300</v>
       </c>
       <c r="F102" s="3">
-        <v>-390000</v>
+        <v>-282300</v>
       </c>
       <c r="G102" s="3">
-        <v>-474900</v>
+        <v>-383500</v>
       </c>
       <c r="H102" s="3">
-        <v>-442600</v>
+        <v>-467000</v>
       </c>
       <c r="I102" s="3">
-        <v>-2003600</v>
+        <v>-435300</v>
       </c>
       <c r="J102" s="3">
+        <v>-1970500</v>
+      </c>
+      <c r="K102" s="3">
         <v>3197400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>294300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>314600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6238400</v>
+        <v>6496100</v>
       </c>
       <c r="E8" s="3">
-        <v>6707800</v>
+        <v>6984900</v>
       </c>
       <c r="F8" s="3">
-        <v>6633700</v>
+        <v>6907700</v>
       </c>
       <c r="G8" s="3">
-        <v>6754900</v>
+        <v>7033900</v>
       </c>
       <c r="H8" s="3">
-        <v>8006600</v>
+        <v>8337300</v>
       </c>
       <c r="I8" s="3">
-        <v>8244200</v>
+        <v>8584700</v>
       </c>
       <c r="J8" s="3">
-        <v>8708900</v>
+        <v>9068600</v>
       </c>
       <c r="K8" s="3">
         <v>10128200</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1510500</v>
+        <v>1572900</v>
       </c>
       <c r="E9" s="3">
-        <v>1530500</v>
+        <v>1593700</v>
       </c>
       <c r="F9" s="3">
-        <v>1567000</v>
+        <v>1631700</v>
       </c>
       <c r="G9" s="3">
-        <v>1605800</v>
+        <v>1672100</v>
       </c>
       <c r="H9" s="3">
-        <v>2383400</v>
+        <v>2481800</v>
       </c>
       <c r="I9" s="3">
-        <v>3825700</v>
+        <v>3983700</v>
       </c>
       <c r="J9" s="3">
-        <v>4063300</v>
+        <v>4231100</v>
       </c>
       <c r="K9" s="3">
         <v>4405600</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4728000</v>
+        <v>4923200</v>
       </c>
       <c r="E10" s="3">
-        <v>5177300</v>
+        <v>5391200</v>
       </c>
       <c r="F10" s="3">
-        <v>5066800</v>
+        <v>5276000</v>
       </c>
       <c r="G10" s="3">
-        <v>5149100</v>
+        <v>5361800</v>
       </c>
       <c r="H10" s="3">
-        <v>5623200</v>
+        <v>5855500</v>
       </c>
       <c r="I10" s="3">
-        <v>4418600</v>
+        <v>4601100</v>
       </c>
       <c r="J10" s="3">
-        <v>4645600</v>
+        <v>4837500</v>
       </c>
       <c r="K10" s="3">
         <v>5722600</v>
@@ -918,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>75300</v>
+        <v>78400</v>
       </c>
       <c r="E14" s="3">
-        <v>24700</v>
+        <v>25700</v>
       </c>
       <c r="F14" s="3">
-        <v>22400</v>
+        <v>23300</v>
       </c>
       <c r="G14" s="3">
-        <v>40000</v>
+        <v>41600</v>
       </c>
       <c r="H14" s="3">
-        <v>88200</v>
+        <v>91900</v>
       </c>
       <c r="I14" s="3">
-        <v>184700</v>
+        <v>192300</v>
       </c>
       <c r="J14" s="3">
-        <v>135300</v>
+        <v>140900</v>
       </c>
       <c r="K14" s="3">
         <v>47800</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1794000</v>
+        <v>1868100</v>
       </c>
       <c r="E15" s="3">
-        <v>1783400</v>
+        <v>1857100</v>
       </c>
       <c r="F15" s="3">
-        <v>3425700</v>
+        <v>3567200</v>
       </c>
       <c r="G15" s="3">
-        <v>3298600</v>
+        <v>3434900</v>
       </c>
       <c r="H15" s="3">
-        <v>1729300</v>
+        <v>1800700</v>
       </c>
       <c r="I15" s="3">
-        <v>1834000</v>
+        <v>1909800</v>
       </c>
       <c r="J15" s="3">
-        <v>1905800</v>
+        <v>1984500</v>
       </c>
       <c r="K15" s="3">
         <v>2173500</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5165600</v>
+        <v>5378900</v>
       </c>
       <c r="E17" s="3">
-        <v>5483200</v>
+        <v>5709700</v>
       </c>
       <c r="F17" s="3">
-        <v>5669100</v>
+        <v>5903200</v>
       </c>
       <c r="G17" s="3">
-        <v>5866700</v>
+        <v>6109000</v>
       </c>
       <c r="H17" s="3">
-        <v>6966600</v>
+        <v>7254400</v>
       </c>
       <c r="I17" s="3">
-        <v>7411300</v>
+        <v>7717400</v>
       </c>
       <c r="J17" s="3">
-        <v>7283100</v>
+        <v>7583900</v>
       </c>
       <c r="K17" s="3">
         <v>8900900</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1072900</v>
+        <v>1117200</v>
       </c>
       <c r="E18" s="3">
-        <v>1224600</v>
+        <v>1275200</v>
       </c>
       <c r="F18" s="3">
-        <v>964600</v>
+        <v>1004500</v>
       </c>
       <c r="G18" s="3">
-        <v>888200</v>
+        <v>924900</v>
       </c>
       <c r="H18" s="3">
-        <v>1039900</v>
+        <v>1082900</v>
       </c>
       <c r="I18" s="3">
-        <v>832900</v>
+        <v>867300</v>
       </c>
       <c r="J18" s="3">
-        <v>1425800</v>
+        <v>1484700</v>
       </c>
       <c r="K18" s="3">
         <v>1227300</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-40000</v>
+        <v>-41600</v>
       </c>
       <c r="E20" s="3">
-        <v>-96500</v>
+        <v>-100400</v>
       </c>
       <c r="F20" s="3">
-        <v>40000</v>
+        <v>41600</v>
       </c>
       <c r="G20" s="3">
-        <v>95300</v>
+        <v>99200</v>
       </c>
       <c r="H20" s="3">
-        <v>-18800</v>
+        <v>-19600</v>
       </c>
       <c r="I20" s="3">
-        <v>447000</v>
+        <v>465500</v>
       </c>
       <c r="J20" s="3">
-        <v>-372900</v>
+        <v>-388300</v>
       </c>
       <c r="K20" s="3">
         <v>-40700</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2866100</v>
+        <v>2971300</v>
       </c>
       <c r="E21" s="3">
-        <v>2943700</v>
+        <v>3052200</v>
       </c>
       <c r="F21" s="3">
-        <v>2815400</v>
+        <v>2918700</v>
       </c>
       <c r="G21" s="3">
-        <v>2653700</v>
+        <v>2751300</v>
       </c>
       <c r="H21" s="3">
-        <v>2846100</v>
+        <v>2950500</v>
       </c>
       <c r="I21" s="3">
-        <v>3188700</v>
+        <v>3306700</v>
       </c>
       <c r="J21" s="3">
-        <v>3006600</v>
+        <v>3116700</v>
       </c>
       <c r="K21" s="3">
         <v>3398900</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>269400</v>
+        <v>280500</v>
       </c>
       <c r="E22" s="3">
-        <v>348200</v>
+        <v>362600</v>
       </c>
       <c r="F22" s="3">
-        <v>398800</v>
+        <v>415300</v>
       </c>
       <c r="G22" s="3">
-        <v>384700</v>
+        <v>400600</v>
       </c>
       <c r="H22" s="3">
-        <v>472900</v>
+        <v>492400</v>
       </c>
       <c r="I22" s="3">
-        <v>568200</v>
+        <v>591700</v>
       </c>
       <c r="J22" s="3">
-        <v>692900</v>
+        <v>721500</v>
       </c>
       <c r="K22" s="3">
         <v>873200</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>763500</v>
+        <v>795000</v>
       </c>
       <c r="E23" s="3">
-        <v>780000</v>
+        <v>812200</v>
       </c>
       <c r="F23" s="3">
-        <v>605800</v>
+        <v>630900</v>
       </c>
       <c r="G23" s="3">
-        <v>598800</v>
+        <v>623500</v>
       </c>
       <c r="H23" s="3">
-        <v>548200</v>
+        <v>570800</v>
       </c>
       <c r="I23" s="3">
-        <v>711700</v>
+        <v>741100</v>
       </c>
       <c r="J23" s="3">
-        <v>360000</v>
+        <v>374800</v>
       </c>
       <c r="K23" s="3">
         <v>313400</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>103500</v>
+        <v>107800</v>
       </c>
       <c r="E24" s="3">
-        <v>57600</v>
+        <v>60000</v>
       </c>
       <c r="F24" s="3">
-        <v>263500</v>
+        <v>274400</v>
       </c>
       <c r="G24" s="3">
-        <v>140000</v>
+        <v>145800</v>
       </c>
       <c r="H24" s="3">
-        <v>112900</v>
+        <v>117600</v>
       </c>
       <c r="I24" s="3">
-        <v>95300</v>
+        <v>99200</v>
       </c>
       <c r="J24" s="3">
-        <v>52900</v>
+        <v>55100</v>
       </c>
       <c r="K24" s="3">
         <v>-37100</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>660000</v>
+        <v>687200</v>
       </c>
       <c r="E26" s="3">
-        <v>722300</v>
+        <v>752100</v>
       </c>
       <c r="F26" s="3">
-        <v>342300</v>
+        <v>356500</v>
       </c>
       <c r="G26" s="3">
-        <v>458800</v>
+        <v>477700</v>
       </c>
       <c r="H26" s="3">
-        <v>435300</v>
+        <v>453200</v>
       </c>
       <c r="I26" s="3">
-        <v>616400</v>
+        <v>641900</v>
       </c>
       <c r="J26" s="3">
-        <v>307000</v>
+        <v>319700</v>
       </c>
       <c r="K26" s="3">
         <v>350500</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>648200</v>
+        <v>675000</v>
       </c>
       <c r="E27" s="3">
-        <v>721100</v>
+        <v>750900</v>
       </c>
       <c r="F27" s="3">
-        <v>275300</v>
+        <v>286600</v>
       </c>
       <c r="G27" s="3">
-        <v>398800</v>
+        <v>415300</v>
       </c>
       <c r="H27" s="3">
-        <v>367000</v>
+        <v>382200</v>
       </c>
       <c r="I27" s="3">
-        <v>531700</v>
+        <v>553700</v>
       </c>
       <c r="J27" s="3">
-        <v>201200</v>
+        <v>209500</v>
       </c>
       <c r="K27" s="3">
         <v>342100</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>14100</v>
+        <v>14700</v>
       </c>
       <c r="F29" s="3">
-        <v>-11800</v>
+        <v>-12200</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>505900</v>
+        <v>526700</v>
       </c>
       <c r="I29" s="3">
-        <v>158800</v>
+        <v>165400</v>
       </c>
       <c r="J29" s="3">
-        <v>-994100</v>
+        <v>-1035100</v>
       </c>
       <c r="K29" s="3">
         <v>-607700</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>40000</v>
+        <v>41600</v>
       </c>
       <c r="E32" s="3">
-        <v>96500</v>
+        <v>100400</v>
       </c>
       <c r="F32" s="3">
-        <v>-40000</v>
+        <v>-41600</v>
       </c>
       <c r="G32" s="3">
-        <v>-95300</v>
+        <v>-99200</v>
       </c>
       <c r="H32" s="3">
-        <v>18800</v>
+        <v>19600</v>
       </c>
       <c r="I32" s="3">
-        <v>-447000</v>
+        <v>-465500</v>
       </c>
       <c r="J32" s="3">
-        <v>372900</v>
+        <v>388300</v>
       </c>
       <c r="K32" s="3">
         <v>40700</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>648200</v>
+        <v>675000</v>
       </c>
       <c r="E33" s="3">
-        <v>735300</v>
+        <v>765600</v>
       </c>
       <c r="F33" s="3">
-        <v>263500</v>
+        <v>274400</v>
       </c>
       <c r="G33" s="3">
-        <v>398800</v>
+        <v>415300</v>
       </c>
       <c r="H33" s="3">
-        <v>872900</v>
+        <v>908900</v>
       </c>
       <c r="I33" s="3">
-        <v>690500</v>
+        <v>719100</v>
       </c>
       <c r="J33" s="3">
-        <v>-792900</v>
+        <v>-825600</v>
       </c>
       <c r="K33" s="3">
         <v>-265600</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>648200</v>
+        <v>675000</v>
       </c>
       <c r="E35" s="3">
-        <v>735300</v>
+        <v>765600</v>
       </c>
       <c r="F35" s="3">
-        <v>263500</v>
+        <v>274400</v>
       </c>
       <c r="G35" s="3">
-        <v>398800</v>
+        <v>415300</v>
       </c>
       <c r="H35" s="3">
-        <v>872900</v>
+        <v>908900</v>
       </c>
       <c r="I35" s="3">
-        <v>690500</v>
+        <v>719100</v>
       </c>
       <c r="J35" s="3">
-        <v>-792900</v>
+        <v>-825600</v>
       </c>
       <c r="K35" s="3">
         <v>-265600</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>702300</v>
+        <v>731300</v>
       </c>
       <c r="E41" s="3">
-        <v>901100</v>
+        <v>938300</v>
       </c>
       <c r="F41" s="3">
-        <v>698800</v>
+        <v>727600</v>
       </c>
       <c r="G41" s="3">
-        <v>2014000</v>
+        <v>2097200</v>
       </c>
       <c r="H41" s="3">
-        <v>2774000</v>
+        <v>2888500</v>
       </c>
       <c r="I41" s="3">
-        <v>1701100</v>
+        <v>1771300</v>
       </c>
       <c r="J41" s="3">
-        <v>2324600</v>
+        <v>2420600</v>
       </c>
       <c r="K41" s="3">
         <v>4720200</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>317600</v>
+        <v>330700</v>
       </c>
       <c r="E42" s="3">
-        <v>323500</v>
+        <v>336900</v>
       </c>
       <c r="F42" s="3">
-        <v>587000</v>
+        <v>611300</v>
       </c>
       <c r="G42" s="3">
-        <v>1647000</v>
+        <v>1715000</v>
       </c>
       <c r="H42" s="3">
-        <v>164700</v>
+        <v>171500</v>
       </c>
       <c r="I42" s="3">
-        <v>676400</v>
+        <v>704400</v>
       </c>
       <c r="J42" s="3">
-        <v>352900</v>
+        <v>367500</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>687000</v>
+        <v>715400</v>
       </c>
       <c r="E43" s="3">
-        <v>794100</v>
+        <v>826900</v>
       </c>
       <c r="F43" s="3">
-        <v>924700</v>
+        <v>962800</v>
       </c>
       <c r="G43" s="3">
-        <v>1969300</v>
+        <v>2050600</v>
       </c>
       <c r="H43" s="3">
-        <v>2057500</v>
+        <v>2142500</v>
       </c>
       <c r="I43" s="3">
-        <v>863500</v>
+        <v>899100</v>
       </c>
       <c r="J43" s="3">
-        <v>1059900</v>
+        <v>1103700</v>
       </c>
       <c r="K43" s="3">
         <v>1338500</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>55300</v>
+        <v>57600</v>
       </c>
       <c r="E44" s="3">
-        <v>63500</v>
+        <v>66100</v>
       </c>
       <c r="F44" s="3">
-        <v>68200</v>
+        <v>71000</v>
       </c>
       <c r="G44" s="3">
-        <v>63500</v>
+        <v>66100</v>
       </c>
       <c r="H44" s="3">
-        <v>104700</v>
+        <v>109000</v>
       </c>
       <c r="I44" s="3">
-        <v>76500</v>
+        <v>79600</v>
       </c>
       <c r="J44" s="3">
-        <v>71800</v>
+        <v>74700</v>
       </c>
       <c r="K44" s="3">
         <v>71800</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>132900</v>
+        <v>138400</v>
       </c>
       <c r="E45" s="3">
-        <v>163500</v>
+        <v>170300</v>
       </c>
       <c r="F45" s="3">
-        <v>116500</v>
+        <v>121300</v>
       </c>
       <c r="G45" s="3">
-        <v>1376400</v>
+        <v>1433200</v>
       </c>
       <c r="H45" s="3">
-        <v>116500</v>
+        <v>121300</v>
       </c>
       <c r="I45" s="3">
-        <v>240000</v>
+        <v>249900</v>
       </c>
       <c r="J45" s="3">
-        <v>172900</v>
+        <v>180100</v>
       </c>
       <c r="K45" s="3">
         <v>114800</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1895200</v>
+        <v>1973500</v>
       </c>
       <c r="E46" s="3">
-        <v>2245700</v>
+        <v>2338500</v>
       </c>
       <c r="F46" s="3">
-        <v>2395200</v>
+        <v>2494100</v>
       </c>
       <c r="G46" s="3">
-        <v>3920900</v>
+        <v>4082900</v>
       </c>
       <c r="H46" s="3">
-        <v>2873900</v>
+        <v>2992700</v>
       </c>
       <c r="I46" s="3">
-        <v>3557400</v>
+        <v>3704400</v>
       </c>
       <c r="J46" s="3">
-        <v>3982100</v>
+        <v>4146600</v>
       </c>
       <c r="K46" s="3">
         <v>6245400</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>74100</v>
+        <v>77200</v>
       </c>
       <c r="E47" s="3">
-        <v>78800</v>
+        <v>82100</v>
       </c>
       <c r="F47" s="3">
-        <v>89400</v>
+        <v>93100</v>
       </c>
       <c r="G47" s="3">
-        <v>415300</v>
+        <v>432400</v>
       </c>
       <c r="H47" s="3">
-        <v>4644400</v>
+        <v>4836300</v>
       </c>
       <c r="I47" s="3">
-        <v>2750400</v>
+        <v>2864000</v>
       </c>
       <c r="J47" s="3">
-        <v>3266900</v>
+        <v>3401800</v>
       </c>
       <c r="K47" s="3">
         <v>960500</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7386600</v>
+        <v>7691700</v>
       </c>
       <c r="E48" s="3">
-        <v>7386600</v>
+        <v>7691700</v>
       </c>
       <c r="F48" s="3">
-        <v>7614800</v>
+        <v>7929400</v>
       </c>
       <c r="G48" s="3">
-        <v>13672100</v>
+        <v>14236800</v>
       </c>
       <c r="H48" s="3">
-        <v>14043900</v>
+        <v>14623900</v>
       </c>
       <c r="I48" s="3">
-        <v>7059600</v>
+        <v>7351200</v>
       </c>
       <c r="J48" s="3">
-        <v>7771300</v>
+        <v>8092300</v>
       </c>
       <c r="K48" s="3">
         <v>6387700</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3809200</v>
+        <v>3966500</v>
       </c>
       <c r="E49" s="3">
-        <v>3523300</v>
+        <v>3668800</v>
       </c>
       <c r="F49" s="3">
-        <v>3728000</v>
+        <v>3882000</v>
       </c>
       <c r="G49" s="3">
-        <v>7861900</v>
+        <v>8186600</v>
       </c>
       <c r="H49" s="3">
-        <v>7597200</v>
+        <v>7911000</v>
       </c>
       <c r="I49" s="3">
-        <v>4058600</v>
+        <v>4226200</v>
       </c>
       <c r="J49" s="3">
-        <v>4696200</v>
+        <v>4890200</v>
       </c>
       <c r="K49" s="3">
         <v>4357800</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1045800</v>
+        <v>1089000</v>
       </c>
       <c r="E52" s="3">
-        <v>1239900</v>
+        <v>1291100</v>
       </c>
       <c r="F52" s="3">
-        <v>1471700</v>
+        <v>1532500</v>
       </c>
       <c r="G52" s="3">
-        <v>1429300</v>
+        <v>1488400</v>
       </c>
       <c r="H52" s="3">
-        <v>1631700</v>
+        <v>1699100</v>
       </c>
       <c r="I52" s="3">
-        <v>3510400</v>
+        <v>3655400</v>
       </c>
       <c r="J52" s="3">
-        <v>2112800</v>
+        <v>2200100</v>
       </c>
       <c r="K52" s="3">
         <v>12996700</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14210900</v>
+        <v>14797900</v>
       </c>
       <c r="E54" s="3">
-        <v>14474400</v>
+        <v>15072300</v>
       </c>
       <c r="F54" s="3">
-        <v>15299100</v>
+        <v>15931000</v>
       </c>
       <c r="G54" s="3">
-        <v>16206100</v>
+        <v>16875500</v>
       </c>
       <c r="H54" s="3">
-        <v>17677800</v>
+        <v>18407900</v>
       </c>
       <c r="I54" s="3">
-        <v>20936400</v>
+        <v>21801100</v>
       </c>
       <c r="J54" s="3">
-        <v>21829300</v>
+        <v>22730900</v>
       </c>
       <c r="K54" s="3">
         <v>30948100</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>624700</v>
+        <v>650500</v>
       </c>
       <c r="E57" s="3">
-        <v>647000</v>
+        <v>673700</v>
       </c>
       <c r="F57" s="3">
-        <v>675300</v>
+        <v>703100</v>
       </c>
       <c r="G57" s="3">
-        <v>2836300</v>
+        <v>2953500</v>
       </c>
       <c r="H57" s="3">
-        <v>2644500</v>
+        <v>2753800</v>
       </c>
       <c r="I57" s="3">
-        <v>910500</v>
+        <v>948100</v>
       </c>
       <c r="J57" s="3">
-        <v>963500</v>
+        <v>1003300</v>
       </c>
       <c r="K57" s="3">
         <v>1305100</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>975200</v>
+        <v>1015500</v>
       </c>
       <c r="E58" s="3">
-        <v>1272900</v>
+        <v>1325400</v>
       </c>
       <c r="F58" s="3">
-        <v>857600</v>
+        <v>893000</v>
       </c>
       <c r="G58" s="3">
-        <v>21200</v>
+        <v>22000</v>
       </c>
       <c r="H58" s="3">
-        <v>864700</v>
+        <v>900400</v>
       </c>
       <c r="I58" s="3">
-        <v>996400</v>
+        <v>1037600</v>
       </c>
       <c r="J58" s="3">
-        <v>1228200</v>
+        <v>1278900</v>
       </c>
       <c r="K58" s="3">
         <v>2402000</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>998800</v>
+        <v>1040000</v>
       </c>
       <c r="E59" s="3">
-        <v>1178800</v>
+        <v>1227400</v>
       </c>
       <c r="F59" s="3">
-        <v>1330500</v>
+        <v>1385500</v>
       </c>
       <c r="G59" s="3">
-        <v>1768100</v>
+        <v>1841200</v>
       </c>
       <c r="H59" s="3">
-        <v>1752800</v>
+        <v>1825200</v>
       </c>
       <c r="I59" s="3">
-        <v>1671700</v>
+        <v>1740700</v>
       </c>
       <c r="J59" s="3">
-        <v>2228100</v>
+        <v>2320100</v>
       </c>
       <c r="K59" s="3">
         <v>2697400</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2598700</v>
+        <v>2706000</v>
       </c>
       <c r="E60" s="3">
-        <v>3098600</v>
+        <v>3226600</v>
       </c>
       <c r="F60" s="3">
-        <v>2863400</v>
+        <v>2981600</v>
       </c>
       <c r="G60" s="3">
-        <v>2221000</v>
+        <v>2312800</v>
       </c>
       <c r="H60" s="3">
-        <v>3098600</v>
+        <v>3226600</v>
       </c>
       <c r="I60" s="3">
-        <v>3578600</v>
+        <v>3726400</v>
       </c>
       <c r="J60" s="3">
-        <v>4419700</v>
+        <v>4602300</v>
       </c>
       <c r="K60" s="3">
         <v>6404500</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7773700</v>
+        <v>8094700</v>
       </c>
       <c r="E61" s="3">
-        <v>7654800</v>
+        <v>7971000</v>
       </c>
       <c r="F61" s="3">
-        <v>9135900</v>
+        <v>9513300</v>
       </c>
       <c r="G61" s="3">
-        <v>8915900</v>
+        <v>9284200</v>
       </c>
       <c r="H61" s="3">
-        <v>9290000</v>
+        <v>9673700</v>
       </c>
       <c r="I61" s="3">
-        <v>10414700</v>
+        <v>10844800</v>
       </c>
       <c r="J61" s="3">
-        <v>11054600</v>
+        <v>11511200</v>
       </c>
       <c r="K61" s="3">
         <v>13942900</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>754100</v>
+        <v>785200</v>
       </c>
       <c r="E62" s="3">
-        <v>736400</v>
+        <v>766800</v>
       </c>
       <c r="F62" s="3">
-        <v>1115200</v>
+        <v>1161300</v>
       </c>
       <c r="G62" s="3">
-        <v>1165800</v>
+        <v>1214000</v>
       </c>
       <c r="H62" s="3">
-        <v>870500</v>
+        <v>906500</v>
       </c>
       <c r="I62" s="3">
-        <v>570600</v>
+        <v>594100</v>
       </c>
       <c r="J62" s="3">
-        <v>892900</v>
+        <v>929800</v>
       </c>
       <c r="K62" s="3">
         <v>2417500</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11127600</v>
+        <v>11587200</v>
       </c>
       <c r="E66" s="3">
-        <v>11526400</v>
+        <v>12002500</v>
       </c>
       <c r="F66" s="3">
-        <v>13089800</v>
+        <v>13630500</v>
       </c>
       <c r="G66" s="3">
-        <v>12109900</v>
+        <v>12610000</v>
       </c>
       <c r="H66" s="3">
-        <v>13186300</v>
+        <v>13730900</v>
       </c>
       <c r="I66" s="3">
-        <v>15075600</v>
+        <v>15698200</v>
       </c>
       <c r="J66" s="3">
-        <v>16449600</v>
+        <v>17129000</v>
       </c>
       <c r="K66" s="3">
         <v>24668000</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7398400</v>
+        <v>-7704000</v>
       </c>
       <c r="E72" s="3">
-        <v>-7413700</v>
+        <v>-7719900</v>
       </c>
       <c r="F72" s="3">
-        <v>-7456000</v>
+        <v>-7764000</v>
       </c>
       <c r="G72" s="3">
-        <v>-7301900</v>
+        <v>-7603500</v>
       </c>
       <c r="H72" s="3">
-        <v>-6659600</v>
+        <v>-6934700</v>
       </c>
       <c r="I72" s="3">
-        <v>-7058400</v>
+        <v>-7349900</v>
       </c>
       <c r="J72" s="3">
-        <v>-7230200</v>
+        <v>-7528800</v>
       </c>
       <c r="K72" s="3">
         <v>-6387700</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3083300</v>
+        <v>3210700</v>
       </c>
       <c r="E76" s="3">
-        <v>2948100</v>
+        <v>3069800</v>
       </c>
       <c r="F76" s="3">
-        <v>2209300</v>
+        <v>2300500</v>
       </c>
       <c r="G76" s="3">
-        <v>4096200</v>
+        <v>4265400</v>
       </c>
       <c r="H76" s="3">
-        <v>4491500</v>
+        <v>4677000</v>
       </c>
       <c r="I76" s="3">
-        <v>5860800</v>
+        <v>6102900</v>
       </c>
       <c r="J76" s="3">
-        <v>5379700</v>
+        <v>5601900</v>
       </c>
       <c r="K76" s="3">
         <v>6280000</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>648200</v>
+        <v>675000</v>
       </c>
       <c r="E81" s="3">
-        <v>735300</v>
+        <v>765600</v>
       </c>
       <c r="F81" s="3">
-        <v>263500</v>
+        <v>274400</v>
       </c>
       <c r="G81" s="3">
-        <v>398800</v>
+        <v>415300</v>
       </c>
       <c r="H81" s="3">
-        <v>872900</v>
+        <v>908900</v>
       </c>
       <c r="I81" s="3">
-        <v>690500</v>
+        <v>719100</v>
       </c>
       <c r="J81" s="3">
-        <v>-792900</v>
+        <v>-825600</v>
       </c>
       <c r="K81" s="3">
         <v>-265600</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1825800</v>
+        <v>1901200</v>
       </c>
       <c r="E83" s="3">
-        <v>1808100</v>
+        <v>1882800</v>
       </c>
       <c r="F83" s="3">
-        <v>1803400</v>
+        <v>1877900</v>
       </c>
       <c r="G83" s="3">
-        <v>1663400</v>
+        <v>1732100</v>
       </c>
       <c r="H83" s="3">
-        <v>1817500</v>
+        <v>1892600</v>
       </c>
       <c r="I83" s="3">
-        <v>1901100</v>
+        <v>1979600</v>
       </c>
       <c r="J83" s="3">
-        <v>1945800</v>
+        <v>2026100</v>
       </c>
       <c r="K83" s="3">
         <v>2221300</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2402200</v>
+        <v>2501400</v>
       </c>
       <c r="E89" s="3">
-        <v>2361000</v>
+        <v>2458600</v>
       </c>
       <c r="F89" s="3">
-        <v>2479900</v>
+        <v>2582300</v>
       </c>
       <c r="G89" s="3">
-        <v>2294000</v>
+        <v>2388700</v>
       </c>
       <c r="H89" s="3">
-        <v>2255200</v>
+        <v>2348300</v>
       </c>
       <c r="I89" s="3">
-        <v>2609300</v>
+        <v>2717000</v>
       </c>
       <c r="J89" s="3">
-        <v>1828100</v>
+        <v>1903600</v>
       </c>
       <c r="K89" s="3">
         <v>3412800</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1084600</v>
+        <v>-1129400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1010500</v>
+        <v>-1052300</v>
       </c>
       <c r="F91" s="3">
-        <v>-961100</v>
+        <v>-1000800</v>
       </c>
       <c r="G91" s="3">
-        <v>-969400</v>
+        <v>-1009400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1078800</v>
+        <v>-1123300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1190500</v>
+        <v>-1239700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1054100</v>
+        <v>-1097600</v>
       </c>
       <c r="K91" s="3">
         <v>-1569400</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1817500</v>
+        <v>-1892600</v>
       </c>
       <c r="E94" s="3">
-        <v>-831700</v>
+        <v>-866100</v>
       </c>
       <c r="F94" s="3">
-        <v>-454100</v>
+        <v>-472800</v>
       </c>
       <c r="G94" s="3">
-        <v>-717600</v>
+        <v>-747200</v>
       </c>
       <c r="H94" s="3">
-        <v>478800</v>
+        <v>498600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1285800</v>
+        <v>-1338900</v>
       </c>
       <c r="J94" s="3">
-        <v>1732800</v>
+        <v>1804400</v>
       </c>
       <c r="K94" s="3">
         <v>-4770400</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-622300</v>
+        <v>-648000</v>
       </c>
       <c r="E96" s="3">
-        <v>-602300</v>
+        <v>-627200</v>
       </c>
       <c r="F96" s="3">
-        <v>-622300</v>
+        <v>-648000</v>
       </c>
       <c r="G96" s="3">
-        <v>-604700</v>
+        <v>-629600</v>
       </c>
       <c r="H96" s="3">
-        <v>-572900</v>
+        <v>-596600</v>
       </c>
       <c r="I96" s="3">
-        <v>-582300</v>
+        <v>-606400</v>
       </c>
       <c r="J96" s="3">
-        <v>-110600</v>
+        <v>-115100</v>
       </c>
       <c r="K96" s="3">
         <v>-7200</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-788200</v>
+        <v>-820700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1347000</v>
+        <v>-1402600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2308100</v>
+        <v>-2403400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1958700</v>
+        <v>-2039600</v>
       </c>
       <c r="H100" s="3">
-        <v>-3201000</v>
+        <v>-3333200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1759900</v>
+        <v>-1832600</v>
       </c>
       <c r="J100" s="3">
-        <v>-5533800</v>
+        <v>-5762400</v>
       </c>
       <c r="K100" s="3">
         <v>4555100</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-203500</v>
+        <v>-211900</v>
       </c>
       <c r="E102" s="3">
-        <v>182300</v>
+        <v>189900</v>
       </c>
       <c r="F102" s="3">
-        <v>-282300</v>
+        <v>-294000</v>
       </c>
       <c r="G102" s="3">
-        <v>-383500</v>
+        <v>-399300</v>
       </c>
       <c r="H102" s="3">
-        <v>-467000</v>
+        <v>-486300</v>
       </c>
       <c r="I102" s="3">
-        <v>-435300</v>
+        <v>-453200</v>
       </c>
       <c r="J102" s="3">
-        <v>-1970500</v>
+        <v>-2051900</v>
       </c>
       <c r="K102" s="3">
         <v>3197400</v>

--- a/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6496100</v>
+        <v>6158100</v>
       </c>
       <c r="E8" s="3">
-        <v>6984900</v>
+        <v>6656600</v>
       </c>
       <c r="F8" s="3">
-        <v>6907700</v>
+        <v>6583000</v>
       </c>
       <c r="G8" s="3">
-        <v>7033900</v>
+        <v>6703300</v>
       </c>
       <c r="H8" s="3">
-        <v>8337300</v>
+        <v>7945400</v>
       </c>
       <c r="I8" s="3">
-        <v>8584700</v>
+        <v>8181200</v>
       </c>
       <c r="J8" s="3">
-        <v>9068600</v>
+        <v>8642300</v>
       </c>
       <c r="K8" s="3">
         <v>10128200</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1572900</v>
+        <v>1499000</v>
       </c>
       <c r="E9" s="3">
-        <v>1593700</v>
+        <v>1518800</v>
       </c>
       <c r="F9" s="3">
-        <v>1631700</v>
+        <v>1555000</v>
       </c>
       <c r="G9" s="3">
-        <v>1672100</v>
+        <v>1593500</v>
       </c>
       <c r="H9" s="3">
-        <v>2481800</v>
+        <v>2365200</v>
       </c>
       <c r="I9" s="3">
-        <v>3983700</v>
+        <v>3796400</v>
       </c>
       <c r="J9" s="3">
-        <v>4231100</v>
+        <v>4032200</v>
       </c>
       <c r="K9" s="3">
         <v>4405600</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4923200</v>
+        <v>4659100</v>
       </c>
       <c r="E10" s="3">
-        <v>5391200</v>
+        <v>5137800</v>
       </c>
       <c r="F10" s="3">
-        <v>5276000</v>
+        <v>5028000</v>
       </c>
       <c r="G10" s="3">
-        <v>5361800</v>
+        <v>5109800</v>
       </c>
       <c r="H10" s="3">
-        <v>5855500</v>
+        <v>5580200</v>
       </c>
       <c r="I10" s="3">
-        <v>4601100</v>
+        <v>4384800</v>
       </c>
       <c r="J10" s="3">
-        <v>4837500</v>
+        <v>4610100</v>
       </c>
       <c r="K10" s="3">
         <v>5722600</v>
@@ -918,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>78400</v>
+        <v>42000</v>
       </c>
       <c r="E14" s="3">
-        <v>25700</v>
+        <v>24500</v>
       </c>
       <c r="F14" s="3">
-        <v>23300</v>
+        <v>22200</v>
       </c>
       <c r="G14" s="3">
-        <v>41600</v>
+        <v>39700</v>
       </c>
       <c r="H14" s="3">
-        <v>91900</v>
+        <v>87600</v>
       </c>
       <c r="I14" s="3">
-        <v>192300</v>
+        <v>183300</v>
       </c>
       <c r="J14" s="3">
-        <v>140900</v>
+        <v>134300</v>
       </c>
       <c r="K14" s="3">
         <v>47800</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1868100</v>
+        <v>1780300</v>
       </c>
       <c r="E15" s="3">
-        <v>1857100</v>
+        <v>1769800</v>
       </c>
       <c r="F15" s="3">
-        <v>3567200</v>
+        <v>3377300</v>
       </c>
       <c r="G15" s="3">
-        <v>3434900</v>
+        <v>3273400</v>
       </c>
       <c r="H15" s="3">
-        <v>1800700</v>
+        <v>1716100</v>
       </c>
       <c r="I15" s="3">
-        <v>1909800</v>
+        <v>1820000</v>
       </c>
       <c r="J15" s="3">
-        <v>1984500</v>
+        <v>1891200</v>
       </c>
       <c r="K15" s="3">
         <v>2173500</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5378900</v>
+        <v>5093400</v>
       </c>
       <c r="E17" s="3">
-        <v>5709700</v>
+        <v>5441300</v>
       </c>
       <c r="F17" s="3">
-        <v>5903200</v>
+        <v>5625700</v>
       </c>
       <c r="G17" s="3">
-        <v>6109000</v>
+        <v>5821900</v>
       </c>
       <c r="H17" s="3">
-        <v>7254400</v>
+        <v>6913400</v>
       </c>
       <c r="I17" s="3">
-        <v>7717400</v>
+        <v>7354700</v>
       </c>
       <c r="J17" s="3">
-        <v>7583900</v>
+        <v>7227400</v>
       </c>
       <c r="K17" s="3">
         <v>8900900</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1117200</v>
+        <v>1064700</v>
       </c>
       <c r="E18" s="3">
-        <v>1275200</v>
+        <v>1215300</v>
       </c>
       <c r="F18" s="3">
-        <v>1004500</v>
+        <v>957300</v>
       </c>
       <c r="G18" s="3">
-        <v>924900</v>
+        <v>881400</v>
       </c>
       <c r="H18" s="3">
-        <v>1082900</v>
+        <v>1032000</v>
       </c>
       <c r="I18" s="3">
-        <v>867300</v>
+        <v>826500</v>
       </c>
       <c r="J18" s="3">
-        <v>1484700</v>
+        <v>1414900</v>
       </c>
       <c r="K18" s="3">
         <v>1227300</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-41600</v>
+        <v>-39700</v>
       </c>
       <c r="E20" s="3">
-        <v>-100400</v>
+        <v>-95700</v>
       </c>
       <c r="F20" s="3">
-        <v>41600</v>
+        <v>39700</v>
       </c>
       <c r="G20" s="3">
-        <v>99200</v>
+        <v>94600</v>
       </c>
       <c r="H20" s="3">
-        <v>-19600</v>
+        <v>-18700</v>
       </c>
       <c r="I20" s="3">
-        <v>465500</v>
+        <v>443600</v>
       </c>
       <c r="J20" s="3">
-        <v>-388300</v>
+        <v>-370100</v>
       </c>
       <c r="K20" s="3">
         <v>-40700</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2971300</v>
+        <v>2842400</v>
       </c>
       <c r="E21" s="3">
-        <v>3052200</v>
+        <v>2919400</v>
       </c>
       <c r="F21" s="3">
-        <v>2918700</v>
+        <v>2792100</v>
       </c>
       <c r="G21" s="3">
-        <v>2751300</v>
+        <v>2631700</v>
       </c>
       <c r="H21" s="3">
-        <v>2950500</v>
+        <v>2822500</v>
       </c>
       <c r="I21" s="3">
-        <v>3306700</v>
+        <v>3162500</v>
       </c>
       <c r="J21" s="3">
-        <v>3116700</v>
+        <v>2981700</v>
       </c>
       <c r="K21" s="3">
         <v>3398900</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>280500</v>
+        <v>267300</v>
       </c>
       <c r="E22" s="3">
-        <v>362600</v>
+        <v>345600</v>
       </c>
       <c r="F22" s="3">
-        <v>415300</v>
+        <v>395800</v>
       </c>
       <c r="G22" s="3">
-        <v>400600</v>
+        <v>381700</v>
       </c>
       <c r="H22" s="3">
-        <v>492400</v>
+        <v>469300</v>
       </c>
       <c r="I22" s="3">
-        <v>591700</v>
+        <v>563900</v>
       </c>
       <c r="J22" s="3">
-        <v>721500</v>
+        <v>687600</v>
       </c>
       <c r="K22" s="3">
         <v>873200</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>795000</v>
+        <v>757600</v>
       </c>
       <c r="E23" s="3">
-        <v>812200</v>
+        <v>774000</v>
       </c>
       <c r="F23" s="3">
-        <v>630900</v>
+        <v>601200</v>
       </c>
       <c r="G23" s="3">
-        <v>623500</v>
+        <v>594200</v>
       </c>
       <c r="H23" s="3">
-        <v>570800</v>
+        <v>544000</v>
       </c>
       <c r="I23" s="3">
-        <v>741100</v>
+        <v>706300</v>
       </c>
       <c r="J23" s="3">
-        <v>374800</v>
+        <v>357200</v>
       </c>
       <c r="K23" s="3">
         <v>313400</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>107800</v>
+        <v>102700</v>
       </c>
       <c r="E24" s="3">
-        <v>60000</v>
+        <v>57200</v>
       </c>
       <c r="F24" s="3">
-        <v>274400</v>
+        <v>261500</v>
       </c>
       <c r="G24" s="3">
-        <v>145800</v>
+        <v>138900</v>
       </c>
       <c r="H24" s="3">
-        <v>117600</v>
+        <v>112100</v>
       </c>
       <c r="I24" s="3">
-        <v>99200</v>
+        <v>94600</v>
       </c>
       <c r="J24" s="3">
-        <v>55100</v>
+        <v>52500</v>
       </c>
       <c r="K24" s="3">
         <v>-37100</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>687200</v>
+        <v>654900</v>
       </c>
       <c r="E26" s="3">
-        <v>752100</v>
+        <v>716800</v>
       </c>
       <c r="F26" s="3">
-        <v>356500</v>
+        <v>339700</v>
       </c>
       <c r="G26" s="3">
-        <v>477700</v>
+        <v>455300</v>
       </c>
       <c r="H26" s="3">
-        <v>453200</v>
+        <v>431900</v>
       </c>
       <c r="I26" s="3">
-        <v>641900</v>
+        <v>611700</v>
       </c>
       <c r="J26" s="3">
-        <v>319700</v>
+        <v>304700</v>
       </c>
       <c r="K26" s="3">
         <v>350500</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>675000</v>
+        <v>643200</v>
       </c>
       <c r="E27" s="3">
-        <v>750900</v>
+        <v>715600</v>
       </c>
       <c r="F27" s="3">
-        <v>286600</v>
+        <v>273200</v>
       </c>
       <c r="G27" s="3">
-        <v>415300</v>
+        <v>395800</v>
       </c>
       <c r="H27" s="3">
-        <v>382200</v>
+        <v>364200</v>
       </c>
       <c r="I27" s="3">
-        <v>553700</v>
+        <v>527700</v>
       </c>
       <c r="J27" s="3">
-        <v>209500</v>
+        <v>199600</v>
       </c>
       <c r="K27" s="3">
         <v>342100</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="F29" s="3">
-        <v>-12200</v>
+        <v>-11700</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>526700</v>
+        <v>502000</v>
       </c>
       <c r="I29" s="3">
-        <v>165400</v>
+        <v>157600</v>
       </c>
       <c r="J29" s="3">
-        <v>-1035100</v>
+        <v>-986500</v>
       </c>
       <c r="K29" s="3">
         <v>-607700</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>41600</v>
+        <v>39700</v>
       </c>
       <c r="E32" s="3">
-        <v>100400</v>
+        <v>95700</v>
       </c>
       <c r="F32" s="3">
-        <v>-41600</v>
+        <v>-39700</v>
       </c>
       <c r="G32" s="3">
-        <v>-99200</v>
+        <v>-94600</v>
       </c>
       <c r="H32" s="3">
-        <v>19600</v>
+        <v>18700</v>
       </c>
       <c r="I32" s="3">
-        <v>-465500</v>
+        <v>-443600</v>
       </c>
       <c r="J32" s="3">
-        <v>388300</v>
+        <v>370100</v>
       </c>
       <c r="K32" s="3">
         <v>40700</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>675000</v>
+        <v>643200</v>
       </c>
       <c r="E33" s="3">
-        <v>765600</v>
+        <v>729600</v>
       </c>
       <c r="F33" s="3">
-        <v>274400</v>
+        <v>261500</v>
       </c>
       <c r="G33" s="3">
-        <v>415300</v>
+        <v>395800</v>
       </c>
       <c r="H33" s="3">
-        <v>908900</v>
+        <v>866200</v>
       </c>
       <c r="I33" s="3">
-        <v>719100</v>
+        <v>685300</v>
       </c>
       <c r="J33" s="3">
-        <v>-825600</v>
+        <v>-786800</v>
       </c>
       <c r="K33" s="3">
         <v>-265600</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>675000</v>
+        <v>643200</v>
       </c>
       <c r="E35" s="3">
-        <v>765600</v>
+        <v>729600</v>
       </c>
       <c r="F35" s="3">
-        <v>274400</v>
+        <v>261500</v>
       </c>
       <c r="G35" s="3">
-        <v>415300</v>
+        <v>395800</v>
       </c>
       <c r="H35" s="3">
-        <v>908900</v>
+        <v>866200</v>
       </c>
       <c r="I35" s="3">
-        <v>719100</v>
+        <v>685300</v>
       </c>
       <c r="J35" s="3">
-        <v>-825600</v>
+        <v>-786800</v>
       </c>
       <c r="K35" s="3">
         <v>-265600</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>731300</v>
+        <v>696900</v>
       </c>
       <c r="E41" s="3">
-        <v>938300</v>
+        <v>894200</v>
       </c>
       <c r="F41" s="3">
-        <v>727600</v>
+        <v>693400</v>
       </c>
       <c r="G41" s="3">
-        <v>2097200</v>
+        <v>1998600</v>
       </c>
       <c r="H41" s="3">
-        <v>2888500</v>
+        <v>2752800</v>
       </c>
       <c r="I41" s="3">
-        <v>1771300</v>
+        <v>1688100</v>
       </c>
       <c r="J41" s="3">
-        <v>2420600</v>
+        <v>2306800</v>
       </c>
       <c r="K41" s="3">
         <v>4720200</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>330700</v>
+        <v>315200</v>
       </c>
       <c r="E42" s="3">
-        <v>336900</v>
+        <v>321000</v>
       </c>
       <c r="F42" s="3">
-        <v>611300</v>
+        <v>582500</v>
       </c>
       <c r="G42" s="3">
-        <v>1715000</v>
+        <v>1634400</v>
       </c>
       <c r="H42" s="3">
-        <v>171500</v>
+        <v>163400</v>
       </c>
       <c r="I42" s="3">
-        <v>704400</v>
+        <v>671300</v>
       </c>
       <c r="J42" s="3">
-        <v>367500</v>
+        <v>350200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>715400</v>
+        <v>681800</v>
       </c>
       <c r="E43" s="3">
-        <v>826900</v>
+        <v>788000</v>
       </c>
       <c r="F43" s="3">
-        <v>962800</v>
+        <v>917600</v>
       </c>
       <c r="G43" s="3">
-        <v>2050600</v>
+        <v>1954200</v>
       </c>
       <c r="H43" s="3">
-        <v>2142500</v>
+        <v>2041800</v>
       </c>
       <c r="I43" s="3">
-        <v>899100</v>
+        <v>856900</v>
       </c>
       <c r="J43" s="3">
-        <v>1103700</v>
+        <v>1051800</v>
       </c>
       <c r="K43" s="3">
         <v>1338500</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>57600</v>
+        <v>54900</v>
       </c>
       <c r="E44" s="3">
-        <v>66100</v>
+        <v>63000</v>
       </c>
       <c r="F44" s="3">
-        <v>71000</v>
+        <v>67700</v>
       </c>
       <c r="G44" s="3">
-        <v>66100</v>
+        <v>63000</v>
       </c>
       <c r="H44" s="3">
-        <v>109000</v>
+        <v>103900</v>
       </c>
       <c r="I44" s="3">
-        <v>79600</v>
+        <v>75900</v>
       </c>
       <c r="J44" s="3">
-        <v>74700</v>
+        <v>71200</v>
       </c>
       <c r="K44" s="3">
         <v>71800</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>138400</v>
+        <v>131900</v>
       </c>
       <c r="E45" s="3">
-        <v>170300</v>
+        <v>162300</v>
       </c>
       <c r="F45" s="3">
-        <v>121300</v>
+        <v>115600</v>
       </c>
       <c r="G45" s="3">
-        <v>1433200</v>
+        <v>1365900</v>
       </c>
       <c r="H45" s="3">
-        <v>121300</v>
+        <v>115600</v>
       </c>
       <c r="I45" s="3">
-        <v>249900</v>
+        <v>238200</v>
       </c>
       <c r="J45" s="3">
-        <v>180100</v>
+        <v>171600</v>
       </c>
       <c r="K45" s="3">
         <v>114800</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1973500</v>
+        <v>1880700</v>
       </c>
       <c r="E46" s="3">
-        <v>2338500</v>
+        <v>2228600</v>
       </c>
       <c r="F46" s="3">
-        <v>2494100</v>
+        <v>2376800</v>
       </c>
       <c r="G46" s="3">
-        <v>4082900</v>
+        <v>3891000</v>
       </c>
       <c r="H46" s="3">
-        <v>2992700</v>
+        <v>2852000</v>
       </c>
       <c r="I46" s="3">
-        <v>3704400</v>
+        <v>3530200</v>
       </c>
       <c r="J46" s="3">
-        <v>4146600</v>
+        <v>3951700</v>
       </c>
       <c r="K46" s="3">
         <v>6245400</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>77200</v>
+        <v>73500</v>
       </c>
       <c r="E47" s="3">
-        <v>82100</v>
+        <v>78200</v>
       </c>
       <c r="F47" s="3">
-        <v>93100</v>
+        <v>88700</v>
       </c>
       <c r="G47" s="3">
-        <v>432400</v>
+        <v>412100</v>
       </c>
       <c r="H47" s="3">
-        <v>4836300</v>
+        <v>4608900</v>
       </c>
       <c r="I47" s="3">
-        <v>2864000</v>
+        <v>2729400</v>
       </c>
       <c r="J47" s="3">
-        <v>3401800</v>
+        <v>3241900</v>
       </c>
       <c r="K47" s="3">
         <v>960500</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7691700</v>
+        <v>7330200</v>
       </c>
       <c r="E48" s="3">
-        <v>7691700</v>
+        <v>7330200</v>
       </c>
       <c r="F48" s="3">
-        <v>7929400</v>
+        <v>7556600</v>
       </c>
       <c r="G48" s="3">
-        <v>14236800</v>
+        <v>13567600</v>
       </c>
       <c r="H48" s="3">
-        <v>14623900</v>
+        <v>13936500</v>
       </c>
       <c r="I48" s="3">
-        <v>7351200</v>
+        <v>7005600</v>
       </c>
       <c r="J48" s="3">
-        <v>8092300</v>
+        <v>7711900</v>
       </c>
       <c r="K48" s="3">
         <v>6387700</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3966500</v>
+        <v>3780100</v>
       </c>
       <c r="E49" s="3">
-        <v>3668800</v>
+        <v>3496400</v>
       </c>
       <c r="F49" s="3">
-        <v>3882000</v>
+        <v>3699500</v>
       </c>
       <c r="G49" s="3">
-        <v>8186600</v>
+        <v>7801800</v>
       </c>
       <c r="H49" s="3">
-        <v>7911000</v>
+        <v>7539100</v>
       </c>
       <c r="I49" s="3">
-        <v>4226200</v>
+        <v>4027600</v>
       </c>
       <c r="J49" s="3">
-        <v>4890200</v>
+        <v>4660300</v>
       </c>
       <c r="K49" s="3">
         <v>4357800</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1089000</v>
+        <v>1037800</v>
       </c>
       <c r="E52" s="3">
-        <v>1291100</v>
+        <v>1230500</v>
       </c>
       <c r="F52" s="3">
-        <v>1532500</v>
+        <v>1460400</v>
       </c>
       <c r="G52" s="3">
-        <v>1488400</v>
+        <v>1418400</v>
       </c>
       <c r="H52" s="3">
-        <v>1699100</v>
+        <v>1619200</v>
       </c>
       <c r="I52" s="3">
-        <v>3655400</v>
+        <v>3483600</v>
       </c>
       <c r="J52" s="3">
-        <v>2200100</v>
+        <v>2096700</v>
       </c>
       <c r="K52" s="3">
         <v>12996700</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14797900</v>
+        <v>14102300</v>
       </c>
       <c r="E54" s="3">
-        <v>15072300</v>
+        <v>14363800</v>
       </c>
       <c r="F54" s="3">
-        <v>15931000</v>
+        <v>15182200</v>
       </c>
       <c r="G54" s="3">
-        <v>16875500</v>
+        <v>16082200</v>
       </c>
       <c r="H54" s="3">
-        <v>18407900</v>
+        <v>17542700</v>
       </c>
       <c r="I54" s="3">
-        <v>21801100</v>
+        <v>20776400</v>
       </c>
       <c r="J54" s="3">
-        <v>22730900</v>
+        <v>21662500</v>
       </c>
       <c r="K54" s="3">
         <v>30948100</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>650500</v>
+        <v>619900</v>
       </c>
       <c r="E57" s="3">
-        <v>673700</v>
+        <v>642100</v>
       </c>
       <c r="F57" s="3">
-        <v>703100</v>
+        <v>670100</v>
       </c>
       <c r="G57" s="3">
-        <v>2953500</v>
+        <v>2814600</v>
       </c>
       <c r="H57" s="3">
-        <v>2753800</v>
+        <v>2624300</v>
       </c>
       <c r="I57" s="3">
-        <v>948100</v>
+        <v>903600</v>
       </c>
       <c r="J57" s="3">
-        <v>1003300</v>
+        <v>956100</v>
       </c>
       <c r="K57" s="3">
         <v>1305100</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1015500</v>
+        <v>967800</v>
       </c>
       <c r="E58" s="3">
-        <v>1325400</v>
+        <v>1263100</v>
       </c>
       <c r="F58" s="3">
-        <v>893000</v>
+        <v>851000</v>
       </c>
       <c r="G58" s="3">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="H58" s="3">
-        <v>900400</v>
+        <v>858000</v>
       </c>
       <c r="I58" s="3">
-        <v>1037600</v>
+        <v>988800</v>
       </c>
       <c r="J58" s="3">
-        <v>1278900</v>
+        <v>1218800</v>
       </c>
       <c r="K58" s="3">
         <v>2402000</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1040000</v>
+        <v>991100</v>
       </c>
       <c r="E59" s="3">
-        <v>1227400</v>
+        <v>1169700</v>
       </c>
       <c r="F59" s="3">
-        <v>1385500</v>
+        <v>1320300</v>
       </c>
       <c r="G59" s="3">
-        <v>1841200</v>
+        <v>1754600</v>
       </c>
       <c r="H59" s="3">
-        <v>1825200</v>
+        <v>1739400</v>
       </c>
       <c r="I59" s="3">
-        <v>1740700</v>
+        <v>1658900</v>
       </c>
       <c r="J59" s="3">
-        <v>2320100</v>
+        <v>2211100</v>
       </c>
       <c r="K59" s="3">
         <v>2697400</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2706000</v>
+        <v>2578800</v>
       </c>
       <c r="E60" s="3">
-        <v>3226600</v>
+        <v>3075000</v>
       </c>
       <c r="F60" s="3">
-        <v>2981600</v>
+        <v>2841500</v>
       </c>
       <c r="G60" s="3">
-        <v>2312800</v>
+        <v>2204100</v>
       </c>
       <c r="H60" s="3">
-        <v>3226600</v>
+        <v>3075000</v>
       </c>
       <c r="I60" s="3">
-        <v>3726400</v>
+        <v>3551300</v>
       </c>
       <c r="J60" s="3">
-        <v>4602300</v>
+        <v>4386000</v>
       </c>
       <c r="K60" s="3">
         <v>6404500</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8094700</v>
+        <v>7714200</v>
       </c>
       <c r="E61" s="3">
-        <v>7971000</v>
+        <v>7596300</v>
       </c>
       <c r="F61" s="3">
-        <v>9513300</v>
+        <v>9066100</v>
       </c>
       <c r="G61" s="3">
-        <v>9284200</v>
+        <v>8847800</v>
       </c>
       <c r="H61" s="3">
-        <v>9673700</v>
+        <v>9219000</v>
       </c>
       <c r="I61" s="3">
-        <v>10844800</v>
+        <v>10335100</v>
       </c>
       <c r="J61" s="3">
-        <v>11511200</v>
+        <v>10970200</v>
       </c>
       <c r="K61" s="3">
         <v>13942900</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>785200</v>
+        <v>748300</v>
       </c>
       <c r="E62" s="3">
-        <v>766800</v>
+        <v>730800</v>
       </c>
       <c r="F62" s="3">
-        <v>1161300</v>
+        <v>1106700</v>
       </c>
       <c r="G62" s="3">
-        <v>1214000</v>
+        <v>1156900</v>
       </c>
       <c r="H62" s="3">
-        <v>906500</v>
+        <v>863900</v>
       </c>
       <c r="I62" s="3">
-        <v>594100</v>
+        <v>566200</v>
       </c>
       <c r="J62" s="3">
-        <v>929800</v>
+        <v>886100</v>
       </c>
       <c r="K62" s="3">
         <v>2417500</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11587200</v>
+        <v>11042500</v>
       </c>
       <c r="E66" s="3">
-        <v>12002500</v>
+        <v>11438300</v>
       </c>
       <c r="F66" s="3">
-        <v>13630500</v>
+        <v>12989800</v>
       </c>
       <c r="G66" s="3">
-        <v>12610000</v>
+        <v>12017300</v>
       </c>
       <c r="H66" s="3">
-        <v>13730900</v>
+        <v>13085500</v>
       </c>
       <c r="I66" s="3">
-        <v>15698200</v>
+        <v>14960400</v>
       </c>
       <c r="J66" s="3">
-        <v>17129000</v>
+        <v>16323900</v>
       </c>
       <c r="K66" s="3">
         <v>24668000</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7704000</v>
+        <v>-7341800</v>
       </c>
       <c r="E72" s="3">
-        <v>-7719900</v>
+        <v>-7357000</v>
       </c>
       <c r="F72" s="3">
-        <v>-7764000</v>
+        <v>-7399000</v>
       </c>
       <c r="G72" s="3">
-        <v>-7603500</v>
+        <v>-7246100</v>
       </c>
       <c r="H72" s="3">
-        <v>-6934700</v>
+        <v>-6608700</v>
       </c>
       <c r="I72" s="3">
-        <v>-7349900</v>
+        <v>-7004500</v>
       </c>
       <c r="J72" s="3">
-        <v>-7528800</v>
+        <v>-7174900</v>
       </c>
       <c r="K72" s="3">
         <v>-6387700</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3210700</v>
+        <v>3059800</v>
       </c>
       <c r="E76" s="3">
-        <v>3069800</v>
+        <v>2925500</v>
       </c>
       <c r="F76" s="3">
-        <v>2300500</v>
+        <v>2192400</v>
       </c>
       <c r="G76" s="3">
-        <v>4265400</v>
+        <v>4064900</v>
       </c>
       <c r="H76" s="3">
-        <v>4677000</v>
+        <v>4457200</v>
       </c>
       <c r="I76" s="3">
-        <v>6102900</v>
+        <v>5816000</v>
       </c>
       <c r="J76" s="3">
-        <v>5601900</v>
+        <v>5338600</v>
       </c>
       <c r="K76" s="3">
         <v>6280000</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>675000</v>
+        <v>643200</v>
       </c>
       <c r="E81" s="3">
-        <v>765600</v>
+        <v>729600</v>
       </c>
       <c r="F81" s="3">
-        <v>274400</v>
+        <v>261500</v>
       </c>
       <c r="G81" s="3">
-        <v>415300</v>
+        <v>395800</v>
       </c>
       <c r="H81" s="3">
-        <v>908900</v>
+        <v>866200</v>
       </c>
       <c r="I81" s="3">
-        <v>719100</v>
+        <v>685300</v>
       </c>
       <c r="J81" s="3">
-        <v>-825600</v>
+        <v>-786800</v>
       </c>
       <c r="K81" s="3">
         <v>-265600</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1901200</v>
+        <v>1811800</v>
       </c>
       <c r="E83" s="3">
-        <v>1882800</v>
+        <v>1794300</v>
       </c>
       <c r="F83" s="3">
-        <v>1877900</v>
+        <v>1789600</v>
       </c>
       <c r="G83" s="3">
-        <v>1732100</v>
+        <v>1650700</v>
       </c>
       <c r="H83" s="3">
-        <v>1892600</v>
+        <v>1803600</v>
       </c>
       <c r="I83" s="3">
-        <v>1979600</v>
+        <v>1886500</v>
       </c>
       <c r="J83" s="3">
-        <v>2026100</v>
+        <v>1930900</v>
       </c>
       <c r="K83" s="3">
         <v>2221300</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2501400</v>
+        <v>2383900</v>
       </c>
       <c r="E89" s="3">
-        <v>2458600</v>
+        <v>2343000</v>
       </c>
       <c r="F89" s="3">
-        <v>2582300</v>
+        <v>2460900</v>
       </c>
       <c r="G89" s="3">
-        <v>2388700</v>
+        <v>2276400</v>
       </c>
       <c r="H89" s="3">
-        <v>2348300</v>
+        <v>2237900</v>
       </c>
       <c r="I89" s="3">
-        <v>2717000</v>
+        <v>2589300</v>
       </c>
       <c r="J89" s="3">
-        <v>1903600</v>
+        <v>1814200</v>
       </c>
       <c r="K89" s="3">
         <v>3412800</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1129400</v>
+        <v>-1076400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1052300</v>
+        <v>-1002800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1000800</v>
+        <v>-953800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1009400</v>
+        <v>-961900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1123300</v>
+        <v>-1070500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1239700</v>
+        <v>-1181400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1097600</v>
+        <v>-1046000</v>
       </c>
       <c r="K91" s="3">
         <v>-1569400</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1892600</v>
+        <v>-1803600</v>
       </c>
       <c r="E94" s="3">
-        <v>-866100</v>
+        <v>-825400</v>
       </c>
       <c r="F94" s="3">
-        <v>-472800</v>
+        <v>-450600</v>
       </c>
       <c r="G94" s="3">
-        <v>-747200</v>
+        <v>-712100</v>
       </c>
       <c r="H94" s="3">
-        <v>498600</v>
+        <v>475100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1338900</v>
+        <v>-1276000</v>
       </c>
       <c r="J94" s="3">
-        <v>1804400</v>
+        <v>1719600</v>
       </c>
       <c r="K94" s="3">
         <v>-4770400</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-648000</v>
+        <v>-617600</v>
       </c>
       <c r="E96" s="3">
-        <v>-627200</v>
+        <v>-597700</v>
       </c>
       <c r="F96" s="3">
-        <v>-648000</v>
+        <v>-617600</v>
       </c>
       <c r="G96" s="3">
-        <v>-629600</v>
+        <v>-600000</v>
       </c>
       <c r="H96" s="3">
-        <v>-596600</v>
+        <v>-568500</v>
       </c>
       <c r="I96" s="3">
-        <v>-606400</v>
+        <v>-577900</v>
       </c>
       <c r="J96" s="3">
-        <v>-115100</v>
+        <v>-109700</v>
       </c>
       <c r="K96" s="3">
         <v>-7200</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-820700</v>
+        <v>-782200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1402600</v>
+        <v>-1336700</v>
       </c>
       <c r="F100" s="3">
-        <v>-2403400</v>
+        <v>-2290500</v>
       </c>
       <c r="G100" s="3">
-        <v>-2039600</v>
+        <v>-1943700</v>
       </c>
       <c r="H100" s="3">
-        <v>-3333200</v>
+        <v>-3176500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1832600</v>
+        <v>-1746400</v>
       </c>
       <c r="J100" s="3">
-        <v>-5762400</v>
+        <v>-5491500</v>
       </c>
       <c r="K100" s="3">
         <v>4555100</v>
@@ -3731,7 +3731,7 @@
         <v>1200</v>
       </c>
       <c r="J101" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-211900</v>
+        <v>-202000</v>
       </c>
       <c r="E102" s="3">
-        <v>189900</v>
+        <v>180900</v>
       </c>
       <c r="F102" s="3">
-        <v>-294000</v>
+        <v>-280200</v>
       </c>
       <c r="G102" s="3">
-        <v>-399300</v>
+        <v>-380600</v>
       </c>
       <c r="H102" s="3">
-        <v>-486300</v>
+        <v>-463500</v>
       </c>
       <c r="I102" s="3">
-        <v>-453200</v>
+        <v>-431900</v>
       </c>
       <c r="J102" s="3">
-        <v>-2051900</v>
+        <v>-1955400</v>
       </c>
       <c r="K102" s="3">
         <v>3197400</v>

--- a/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6158100</v>
+        <v>5956000</v>
       </c>
       <c r="E8" s="3">
-        <v>6656600</v>
+        <v>6195400</v>
       </c>
       <c r="F8" s="3">
-        <v>6583000</v>
+        <v>6367000</v>
       </c>
       <c r="G8" s="3">
-        <v>6703300</v>
+        <v>6491200</v>
       </c>
       <c r="H8" s="3">
-        <v>7945400</v>
+        <v>7684700</v>
       </c>
       <c r="I8" s="3">
-        <v>8181200</v>
+        <v>7912700</v>
       </c>
       <c r="J8" s="3">
-        <v>8642300</v>
+        <v>8358700</v>
       </c>
       <c r="K8" s="3">
         <v>10128200</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1499000</v>
+        <v>1449800</v>
       </c>
       <c r="E9" s="3">
-        <v>1518800</v>
+        <v>1469000</v>
       </c>
       <c r="F9" s="3">
-        <v>1555000</v>
+        <v>1504000</v>
       </c>
       <c r="G9" s="3">
-        <v>1593500</v>
+        <v>1541200</v>
       </c>
       <c r="H9" s="3">
-        <v>2365200</v>
+        <v>2287600</v>
       </c>
       <c r="I9" s="3">
-        <v>3796400</v>
+        <v>3671800</v>
       </c>
       <c r="J9" s="3">
-        <v>4032200</v>
+        <v>3899900</v>
       </c>
       <c r="K9" s="3">
         <v>4405600</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4659100</v>
+        <v>4506200</v>
       </c>
       <c r="E10" s="3">
-        <v>5137800</v>
+        <v>4726400</v>
       </c>
       <c r="F10" s="3">
-        <v>5028000</v>
+        <v>4863000</v>
       </c>
       <c r="G10" s="3">
-        <v>5109800</v>
+        <v>4950000</v>
       </c>
       <c r="H10" s="3">
-        <v>5580200</v>
+        <v>5397100</v>
       </c>
       <c r="I10" s="3">
-        <v>4384800</v>
+        <v>4240900</v>
       </c>
       <c r="J10" s="3">
-        <v>4610100</v>
+        <v>4458800</v>
       </c>
       <c r="K10" s="3">
         <v>5722600</v>
@@ -918,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>42000</v>
+        <v>40600</v>
       </c>
       <c r="E14" s="3">
-        <v>24500</v>
+        <v>-89200</v>
       </c>
       <c r="F14" s="3">
-        <v>22200</v>
+        <v>153600</v>
       </c>
       <c r="G14" s="3">
-        <v>39700</v>
+        <v>170500</v>
       </c>
       <c r="H14" s="3">
-        <v>87600</v>
+        <v>84700</v>
       </c>
       <c r="I14" s="3">
-        <v>183300</v>
+        <v>177300</v>
       </c>
       <c r="J14" s="3">
-        <v>134300</v>
+        <v>129800</v>
       </c>
       <c r="K14" s="3">
         <v>47800</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1780300</v>
+        <v>1721900</v>
       </c>
       <c r="E15" s="3">
-        <v>1769800</v>
+        <v>1712800</v>
       </c>
       <c r="F15" s="3">
-        <v>3377300</v>
+        <v>1710600</v>
       </c>
       <c r="G15" s="3">
-        <v>3273400</v>
+        <v>1606700</v>
       </c>
       <c r="H15" s="3">
-        <v>1716100</v>
+        <v>1659800</v>
       </c>
       <c r="I15" s="3">
-        <v>1820000</v>
+        <v>1760300</v>
       </c>
       <c r="J15" s="3">
-        <v>1891200</v>
+        <v>1829100</v>
       </c>
       <c r="K15" s="3">
         <v>2173500</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5093400</v>
+        <v>4926300</v>
       </c>
       <c r="E17" s="3">
-        <v>5441300</v>
+        <v>5020000</v>
       </c>
       <c r="F17" s="3">
-        <v>5625700</v>
+        <v>5441100</v>
       </c>
       <c r="G17" s="3">
-        <v>5821900</v>
+        <v>5638700</v>
       </c>
       <c r="H17" s="3">
-        <v>6913400</v>
+        <v>6686500</v>
       </c>
       <c r="I17" s="3">
-        <v>7354700</v>
+        <v>7113300</v>
       </c>
       <c r="J17" s="3">
-        <v>7227400</v>
+        <v>6990300</v>
       </c>
       <c r="K17" s="3">
         <v>8900900</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1064700</v>
+        <v>1029700</v>
       </c>
       <c r="E18" s="3">
-        <v>1215300</v>
+        <v>1175400</v>
       </c>
       <c r="F18" s="3">
-        <v>957300</v>
+        <v>925900</v>
       </c>
       <c r="G18" s="3">
-        <v>881400</v>
+        <v>852500</v>
       </c>
       <c r="H18" s="3">
-        <v>1032000</v>
+        <v>998100</v>
       </c>
       <c r="I18" s="3">
-        <v>826500</v>
+        <v>799400</v>
       </c>
       <c r="J18" s="3">
-        <v>1414900</v>
+        <v>1368500</v>
       </c>
       <c r="K18" s="3">
         <v>1227300</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-39700</v>
+        <v>-38400</v>
       </c>
       <c r="E20" s="3">
-        <v>-95700</v>
+        <v>-92600</v>
       </c>
       <c r="F20" s="3">
-        <v>39700</v>
+        <v>38400</v>
       </c>
       <c r="G20" s="3">
-        <v>94600</v>
+        <v>91500</v>
       </c>
       <c r="H20" s="3">
-        <v>-18700</v>
+        <v>-18100</v>
       </c>
       <c r="I20" s="3">
-        <v>443600</v>
+        <v>429100</v>
       </c>
       <c r="J20" s="3">
-        <v>-370100</v>
+        <v>-357900</v>
       </c>
       <c r="K20" s="3">
         <v>-40700</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2842400</v>
+        <v>2747700</v>
       </c>
       <c r="E21" s="3">
-        <v>2919400</v>
+        <v>2822200</v>
       </c>
       <c r="F21" s="3">
-        <v>2792100</v>
+        <v>2699100</v>
       </c>
       <c r="G21" s="3">
-        <v>2631700</v>
+        <v>2544200</v>
       </c>
       <c r="H21" s="3">
-        <v>2822500</v>
+        <v>2728500</v>
       </c>
       <c r="I21" s="3">
-        <v>3162500</v>
+        <v>3057300</v>
       </c>
       <c r="J21" s="3">
-        <v>2981700</v>
+        <v>2882400</v>
       </c>
       <c r="K21" s="3">
         <v>3398900</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>267300</v>
+        <v>258600</v>
       </c>
       <c r="E22" s="3">
-        <v>345600</v>
+        <v>334200</v>
       </c>
       <c r="F22" s="3">
-        <v>395800</v>
+        <v>382800</v>
       </c>
       <c r="G22" s="3">
-        <v>381700</v>
+        <v>369200</v>
       </c>
       <c r="H22" s="3">
-        <v>469300</v>
+        <v>453900</v>
       </c>
       <c r="I22" s="3">
-        <v>563900</v>
+        <v>545400</v>
       </c>
       <c r="J22" s="3">
-        <v>687600</v>
+        <v>665000</v>
       </c>
       <c r="K22" s="3">
         <v>873200</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>757600</v>
+        <v>732800</v>
       </c>
       <c r="E23" s="3">
-        <v>774000</v>
+        <v>748600</v>
       </c>
       <c r="F23" s="3">
-        <v>601200</v>
+        <v>581500</v>
       </c>
       <c r="G23" s="3">
-        <v>594200</v>
+        <v>574700</v>
       </c>
       <c r="H23" s="3">
-        <v>544000</v>
+        <v>526200</v>
       </c>
       <c r="I23" s="3">
-        <v>706300</v>
+        <v>683100</v>
       </c>
       <c r="J23" s="3">
-        <v>357200</v>
+        <v>345500</v>
       </c>
       <c r="K23" s="3">
         <v>313400</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>102700</v>
+        <v>99400</v>
       </c>
       <c r="E24" s="3">
-        <v>57200</v>
+        <v>55300</v>
       </c>
       <c r="F24" s="3">
-        <v>261500</v>
+        <v>252900</v>
       </c>
       <c r="G24" s="3">
-        <v>138900</v>
+        <v>134400</v>
       </c>
       <c r="H24" s="3">
-        <v>112100</v>
+        <v>108400</v>
       </c>
       <c r="I24" s="3">
-        <v>94600</v>
+        <v>91500</v>
       </c>
       <c r="J24" s="3">
-        <v>52500</v>
+        <v>50800</v>
       </c>
       <c r="K24" s="3">
         <v>-37100</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>654900</v>
+        <v>633400</v>
       </c>
       <c r="E26" s="3">
-        <v>716800</v>
+        <v>693300</v>
       </c>
       <c r="F26" s="3">
-        <v>339700</v>
+        <v>328600</v>
       </c>
       <c r="G26" s="3">
-        <v>455300</v>
+        <v>440300</v>
       </c>
       <c r="H26" s="3">
-        <v>431900</v>
+        <v>417800</v>
       </c>
       <c r="I26" s="3">
-        <v>611700</v>
+        <v>591600</v>
       </c>
       <c r="J26" s="3">
-        <v>304700</v>
+        <v>294700</v>
       </c>
       <c r="K26" s="3">
         <v>350500</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>643200</v>
+        <v>622100</v>
       </c>
       <c r="E27" s="3">
-        <v>715600</v>
+        <v>692100</v>
       </c>
       <c r="F27" s="3">
-        <v>273200</v>
+        <v>264200</v>
       </c>
       <c r="G27" s="3">
-        <v>395800</v>
+        <v>382800</v>
       </c>
       <c r="H27" s="3">
-        <v>364200</v>
+        <v>352300</v>
       </c>
       <c r="I27" s="3">
-        <v>527700</v>
+        <v>510400</v>
       </c>
       <c r="J27" s="3">
-        <v>199600</v>
+        <v>193100</v>
       </c>
       <c r="K27" s="3">
         <v>342100</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="F29" s="3">
-        <v>-11700</v>
+        <v>-11300</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>502000</v>
+        <v>485500</v>
       </c>
       <c r="I29" s="3">
-        <v>157600</v>
+        <v>152400</v>
       </c>
       <c r="J29" s="3">
-        <v>-986500</v>
+        <v>-954100</v>
       </c>
       <c r="K29" s="3">
         <v>-607700</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>39700</v>
+        <v>38400</v>
       </c>
       <c r="E32" s="3">
-        <v>95700</v>
+        <v>92600</v>
       </c>
       <c r="F32" s="3">
-        <v>-39700</v>
+        <v>-38400</v>
       </c>
       <c r="G32" s="3">
-        <v>-94600</v>
+        <v>-91500</v>
       </c>
       <c r="H32" s="3">
-        <v>18700</v>
+        <v>18100</v>
       </c>
       <c r="I32" s="3">
-        <v>-443600</v>
+        <v>-429100</v>
       </c>
       <c r="J32" s="3">
-        <v>370100</v>
+        <v>357900</v>
       </c>
       <c r="K32" s="3">
         <v>40700</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>643200</v>
+        <v>622100</v>
       </c>
       <c r="E33" s="3">
-        <v>729600</v>
+        <v>705700</v>
       </c>
       <c r="F33" s="3">
-        <v>261500</v>
+        <v>252900</v>
       </c>
       <c r="G33" s="3">
-        <v>395800</v>
+        <v>382800</v>
       </c>
       <c r="H33" s="3">
-        <v>866200</v>
+        <v>837800</v>
       </c>
       <c r="I33" s="3">
-        <v>685300</v>
+        <v>662800</v>
       </c>
       <c r="J33" s="3">
-        <v>-786800</v>
+        <v>-761000</v>
       </c>
       <c r="K33" s="3">
         <v>-265600</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>643200</v>
+        <v>622100</v>
       </c>
       <c r="E35" s="3">
-        <v>729600</v>
+        <v>705700</v>
       </c>
       <c r="F35" s="3">
-        <v>261500</v>
+        <v>252900</v>
       </c>
       <c r="G35" s="3">
-        <v>395800</v>
+        <v>382800</v>
       </c>
       <c r="H35" s="3">
-        <v>866200</v>
+        <v>837800</v>
       </c>
       <c r="I35" s="3">
-        <v>685300</v>
+        <v>662800</v>
       </c>
       <c r="J35" s="3">
-        <v>-786800</v>
+        <v>-761000</v>
       </c>
       <c r="K35" s="3">
         <v>-265600</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>696900</v>
+        <v>674100</v>
       </c>
       <c r="E41" s="3">
-        <v>894200</v>
+        <v>864900</v>
       </c>
       <c r="F41" s="3">
-        <v>693400</v>
+        <v>670700</v>
       </c>
       <c r="G41" s="3">
-        <v>1998600</v>
+        <v>1933000</v>
       </c>
       <c r="H41" s="3">
-        <v>2752800</v>
+        <v>2662400</v>
       </c>
       <c r="I41" s="3">
-        <v>1688100</v>
+        <v>1632700</v>
       </c>
       <c r="J41" s="3">
-        <v>2306800</v>
+        <v>2231100</v>
       </c>
       <c r="K41" s="3">
         <v>4720200</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>315200</v>
+        <v>304900</v>
       </c>
       <c r="E42" s="3">
-        <v>321000</v>
+        <v>310500</v>
       </c>
       <c r="F42" s="3">
-        <v>582500</v>
+        <v>563400</v>
       </c>
       <c r="G42" s="3">
-        <v>1634400</v>
+        <v>1580700</v>
       </c>
       <c r="H42" s="3">
-        <v>163400</v>
+        <v>158100</v>
       </c>
       <c r="I42" s="3">
-        <v>671300</v>
+        <v>649200</v>
       </c>
       <c r="J42" s="3">
-        <v>350200</v>
+        <v>338700</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>681800</v>
+        <v>659400</v>
       </c>
       <c r="E43" s="3">
-        <v>788000</v>
+        <v>762100</v>
       </c>
       <c r="F43" s="3">
-        <v>917600</v>
+        <v>887500</v>
       </c>
       <c r="G43" s="3">
-        <v>1954200</v>
+        <v>1890100</v>
       </c>
       <c r="H43" s="3">
-        <v>2041800</v>
+        <v>1974800</v>
       </c>
       <c r="I43" s="3">
-        <v>856900</v>
+        <v>828800</v>
       </c>
       <c r="J43" s="3">
-        <v>1051800</v>
+        <v>1017300</v>
       </c>
       <c r="K43" s="3">
         <v>1338500</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>54900</v>
+        <v>53100</v>
       </c>
       <c r="E44" s="3">
-        <v>63000</v>
+        <v>61000</v>
       </c>
       <c r="F44" s="3">
-        <v>67700</v>
+        <v>65500</v>
       </c>
       <c r="G44" s="3">
-        <v>63000</v>
+        <v>61000</v>
       </c>
       <c r="H44" s="3">
-        <v>103900</v>
+        <v>100500</v>
       </c>
       <c r="I44" s="3">
-        <v>75900</v>
+        <v>73400</v>
       </c>
       <c r="J44" s="3">
-        <v>71200</v>
+        <v>68900</v>
       </c>
       <c r="K44" s="3">
         <v>71800</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>131900</v>
+        <v>127600</v>
       </c>
       <c r="E45" s="3">
-        <v>162300</v>
+        <v>156900</v>
       </c>
       <c r="F45" s="3">
-        <v>115600</v>
+        <v>111800</v>
       </c>
       <c r="G45" s="3">
-        <v>1365900</v>
+        <v>1321000</v>
       </c>
       <c r="H45" s="3">
-        <v>115600</v>
+        <v>111800</v>
       </c>
       <c r="I45" s="3">
-        <v>238200</v>
+        <v>230300</v>
       </c>
       <c r="J45" s="3">
-        <v>171600</v>
+        <v>166000</v>
       </c>
       <c r="K45" s="3">
         <v>114800</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1880700</v>
+        <v>1819000</v>
       </c>
       <c r="E46" s="3">
-        <v>2228600</v>
+        <v>2155500</v>
       </c>
       <c r="F46" s="3">
-        <v>2376800</v>
+        <v>2298800</v>
       </c>
       <c r="G46" s="3">
-        <v>3891000</v>
+        <v>3763300</v>
       </c>
       <c r="H46" s="3">
-        <v>2852000</v>
+        <v>2758400</v>
       </c>
       <c r="I46" s="3">
-        <v>3530200</v>
+        <v>3414400</v>
       </c>
       <c r="J46" s="3">
-        <v>3951700</v>
+        <v>3822000</v>
       </c>
       <c r="K46" s="3">
         <v>6245400</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>73500</v>
+        <v>71100</v>
       </c>
       <c r="E47" s="3">
-        <v>78200</v>
+        <v>75600</v>
       </c>
       <c r="F47" s="3">
-        <v>88700</v>
+        <v>85800</v>
       </c>
       <c r="G47" s="3">
-        <v>412100</v>
+        <v>398600</v>
       </c>
       <c r="H47" s="3">
-        <v>4608900</v>
+        <v>4457700</v>
       </c>
       <c r="I47" s="3">
-        <v>2729400</v>
+        <v>2639800</v>
       </c>
       <c r="J47" s="3">
-        <v>3241900</v>
+        <v>3135500</v>
       </c>
       <c r="K47" s="3">
         <v>960500</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7330200</v>
+        <v>7089600</v>
       </c>
       <c r="E48" s="3">
-        <v>7330200</v>
+        <v>7089600</v>
       </c>
       <c r="F48" s="3">
-        <v>7556600</v>
+        <v>7308700</v>
       </c>
       <c r="G48" s="3">
-        <v>13567600</v>
+        <v>13122400</v>
       </c>
       <c r="H48" s="3">
-        <v>13936500</v>
+        <v>13479200</v>
       </c>
       <c r="I48" s="3">
-        <v>7005600</v>
+        <v>6775700</v>
       </c>
       <c r="J48" s="3">
-        <v>7711900</v>
+        <v>7458800</v>
       </c>
       <c r="K48" s="3">
         <v>6387700</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3780100</v>
+        <v>3656000</v>
       </c>
       <c r="E49" s="3">
-        <v>3496400</v>
+        <v>3381700</v>
       </c>
       <c r="F49" s="3">
-        <v>3699500</v>
+        <v>3578100</v>
       </c>
       <c r="G49" s="3">
-        <v>7801800</v>
+        <v>7545800</v>
       </c>
       <c r="H49" s="3">
-        <v>7539100</v>
+        <v>7291700</v>
       </c>
       <c r="I49" s="3">
-        <v>4027600</v>
+        <v>3895400</v>
       </c>
       <c r="J49" s="3">
-        <v>4660300</v>
+        <v>4507400</v>
       </c>
       <c r="K49" s="3">
         <v>4357800</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1037800</v>
+        <v>1003800</v>
       </c>
       <c r="E52" s="3">
-        <v>1230500</v>
+        <v>1190100</v>
       </c>
       <c r="F52" s="3">
-        <v>1460400</v>
+        <v>1412500</v>
       </c>
       <c r="G52" s="3">
-        <v>1418400</v>
+        <v>1371900</v>
       </c>
       <c r="H52" s="3">
-        <v>1619200</v>
+        <v>1566100</v>
       </c>
       <c r="I52" s="3">
-        <v>3483600</v>
+        <v>3369200</v>
       </c>
       <c r="J52" s="3">
-        <v>2096700</v>
+        <v>2027900</v>
       </c>
       <c r="K52" s="3">
         <v>12996700</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14102300</v>
+        <v>13639500</v>
       </c>
       <c r="E54" s="3">
-        <v>14363800</v>
+        <v>13892400</v>
       </c>
       <c r="F54" s="3">
-        <v>15182200</v>
+        <v>14683900</v>
       </c>
       <c r="G54" s="3">
-        <v>16082200</v>
+        <v>15554500</v>
       </c>
       <c r="H54" s="3">
-        <v>17542700</v>
+        <v>16967000</v>
       </c>
       <c r="I54" s="3">
-        <v>20776400</v>
+        <v>20094600</v>
       </c>
       <c r="J54" s="3">
-        <v>21662500</v>
+        <v>20951600</v>
       </c>
       <c r="K54" s="3">
         <v>30948100</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>619900</v>
+        <v>599600</v>
       </c>
       <c r="E57" s="3">
-        <v>642100</v>
+        <v>621000</v>
       </c>
       <c r="F57" s="3">
-        <v>670100</v>
+        <v>648100</v>
       </c>
       <c r="G57" s="3">
-        <v>2814600</v>
+        <v>2722300</v>
       </c>
       <c r="H57" s="3">
-        <v>2624300</v>
+        <v>2538200</v>
       </c>
       <c r="I57" s="3">
-        <v>903600</v>
+        <v>873900</v>
       </c>
       <c r="J57" s="3">
-        <v>956100</v>
+        <v>924700</v>
       </c>
       <c r="K57" s="3">
         <v>1305100</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>967800</v>
+        <v>936000</v>
       </c>
       <c r="E58" s="3">
-        <v>1263100</v>
+        <v>1221700</v>
       </c>
       <c r="F58" s="3">
-        <v>851000</v>
+        <v>823100</v>
       </c>
       <c r="G58" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="H58" s="3">
-        <v>858000</v>
+        <v>829900</v>
       </c>
       <c r="I58" s="3">
-        <v>988800</v>
+        <v>956300</v>
       </c>
       <c r="J58" s="3">
-        <v>1218800</v>
+        <v>1178800</v>
       </c>
       <c r="K58" s="3">
         <v>2402000</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>991100</v>
+        <v>958600</v>
       </c>
       <c r="E59" s="3">
-        <v>1169700</v>
+        <v>1131400</v>
       </c>
       <c r="F59" s="3">
-        <v>1320300</v>
+        <v>1277000</v>
       </c>
       <c r="G59" s="3">
-        <v>1754600</v>
+        <v>1697000</v>
       </c>
       <c r="H59" s="3">
-        <v>1739400</v>
+        <v>1682400</v>
       </c>
       <c r="I59" s="3">
-        <v>1658900</v>
+        <v>1604500</v>
       </c>
       <c r="J59" s="3">
-        <v>2211100</v>
+        <v>2138500</v>
       </c>
       <c r="K59" s="3">
         <v>2697400</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2578800</v>
+        <v>2494200</v>
       </c>
       <c r="E60" s="3">
-        <v>3075000</v>
+        <v>2974000</v>
       </c>
       <c r="F60" s="3">
-        <v>2841500</v>
+        <v>2748200</v>
       </c>
       <c r="G60" s="3">
-        <v>2204100</v>
+        <v>2131700</v>
       </c>
       <c r="H60" s="3">
-        <v>3075000</v>
+        <v>2974000</v>
       </c>
       <c r="I60" s="3">
-        <v>3551300</v>
+        <v>3434700</v>
       </c>
       <c r="J60" s="3">
-        <v>4386000</v>
+        <v>4242000</v>
       </c>
       <c r="K60" s="3">
         <v>6404500</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7714200</v>
+        <v>7461100</v>
       </c>
       <c r="E61" s="3">
-        <v>7596300</v>
+        <v>7347100</v>
       </c>
       <c r="F61" s="3">
-        <v>9066100</v>
+        <v>8768600</v>
       </c>
       <c r="G61" s="3">
-        <v>8847800</v>
+        <v>8557400</v>
       </c>
       <c r="H61" s="3">
-        <v>9219000</v>
+        <v>8916500</v>
       </c>
       <c r="I61" s="3">
-        <v>10335100</v>
+        <v>9995900</v>
       </c>
       <c r="J61" s="3">
-        <v>10970200</v>
+        <v>10610200</v>
       </c>
       <c r="K61" s="3">
         <v>13942900</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>748300</v>
+        <v>723800</v>
       </c>
       <c r="E62" s="3">
-        <v>730800</v>
+        <v>706800</v>
       </c>
       <c r="F62" s="3">
-        <v>1106700</v>
+        <v>1070400</v>
       </c>
       <c r="G62" s="3">
-        <v>1156900</v>
+        <v>1118900</v>
       </c>
       <c r="H62" s="3">
-        <v>863900</v>
+        <v>835500</v>
       </c>
       <c r="I62" s="3">
-        <v>566200</v>
+        <v>547600</v>
       </c>
       <c r="J62" s="3">
-        <v>886100</v>
+        <v>857000</v>
       </c>
       <c r="K62" s="3">
         <v>2417500</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11042500</v>
+        <v>10680200</v>
       </c>
       <c r="E66" s="3">
-        <v>11438300</v>
+        <v>11062900</v>
       </c>
       <c r="F66" s="3">
-        <v>12989800</v>
+        <v>12563500</v>
       </c>
       <c r="G66" s="3">
-        <v>12017300</v>
+        <v>11623000</v>
       </c>
       <c r="H66" s="3">
-        <v>13085500</v>
+        <v>12656100</v>
       </c>
       <c r="I66" s="3">
-        <v>14960400</v>
+        <v>14469400</v>
       </c>
       <c r="J66" s="3">
-        <v>16323900</v>
+        <v>15788200</v>
       </c>
       <c r="K66" s="3">
         <v>24668000</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7341800</v>
+        <v>-7100900</v>
       </c>
       <c r="E72" s="3">
-        <v>-7357000</v>
+        <v>-7115600</v>
       </c>
       <c r="F72" s="3">
-        <v>-7399000</v>
+        <v>-7156200</v>
       </c>
       <c r="G72" s="3">
-        <v>-7246100</v>
+        <v>-7008300</v>
       </c>
       <c r="H72" s="3">
-        <v>-6608700</v>
+        <v>-6391800</v>
       </c>
       <c r="I72" s="3">
-        <v>-7004500</v>
+        <v>-6774600</v>
       </c>
       <c r="J72" s="3">
-        <v>-7174900</v>
+        <v>-6939400</v>
       </c>
       <c r="K72" s="3">
         <v>-6387700</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3059800</v>
+        <v>2959400</v>
       </c>
       <c r="E76" s="3">
-        <v>2925500</v>
+        <v>2829500</v>
       </c>
       <c r="F76" s="3">
-        <v>2192400</v>
+        <v>2120400</v>
       </c>
       <c r="G76" s="3">
-        <v>4064900</v>
+        <v>3931500</v>
       </c>
       <c r="H76" s="3">
-        <v>4457200</v>
+        <v>4310900</v>
       </c>
       <c r="I76" s="3">
-        <v>5816000</v>
+        <v>5625200</v>
       </c>
       <c r="J76" s="3">
-        <v>5338600</v>
+        <v>5163400</v>
       </c>
       <c r="K76" s="3">
         <v>6280000</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>643200</v>
+        <v>622100</v>
       </c>
       <c r="E81" s="3">
-        <v>729600</v>
+        <v>705700</v>
       </c>
       <c r="F81" s="3">
-        <v>261500</v>
+        <v>252900</v>
       </c>
       <c r="G81" s="3">
-        <v>395800</v>
+        <v>382800</v>
       </c>
       <c r="H81" s="3">
-        <v>866200</v>
+        <v>837800</v>
       </c>
       <c r="I81" s="3">
-        <v>685300</v>
+        <v>662800</v>
       </c>
       <c r="J81" s="3">
-        <v>-786800</v>
+        <v>-761000</v>
       </c>
       <c r="K81" s="3">
         <v>-265600</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1811800</v>
+        <v>1752400</v>
       </c>
       <c r="E83" s="3">
-        <v>1794300</v>
+        <v>1735400</v>
       </c>
       <c r="F83" s="3">
-        <v>1789600</v>
+        <v>1730900</v>
       </c>
       <c r="G83" s="3">
-        <v>1650700</v>
+        <v>1596500</v>
       </c>
       <c r="H83" s="3">
-        <v>1803600</v>
+        <v>1744500</v>
       </c>
       <c r="I83" s="3">
-        <v>1886500</v>
+        <v>1824600</v>
       </c>
       <c r="J83" s="3">
-        <v>1930900</v>
+        <v>1867500</v>
       </c>
       <c r="K83" s="3">
         <v>2221300</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2383900</v>
+        <v>2305600</v>
       </c>
       <c r="E89" s="3">
-        <v>2343000</v>
+        <v>2266100</v>
       </c>
       <c r="F89" s="3">
-        <v>2460900</v>
+        <v>2380100</v>
       </c>
       <c r="G89" s="3">
-        <v>2276400</v>
+        <v>2201700</v>
       </c>
       <c r="H89" s="3">
-        <v>2237900</v>
+        <v>2164500</v>
       </c>
       <c r="I89" s="3">
-        <v>2589300</v>
+        <v>2504300</v>
       </c>
       <c r="J89" s="3">
-        <v>1814200</v>
+        <v>1754600</v>
       </c>
       <c r="K89" s="3">
         <v>3412800</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1076400</v>
+        <v>-1041000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1002800</v>
+        <v>-969900</v>
       </c>
       <c r="F91" s="3">
-        <v>-953800</v>
+        <v>-922500</v>
       </c>
       <c r="G91" s="3">
-        <v>-961900</v>
+        <v>-930400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1070500</v>
+        <v>-1035400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1181400</v>
+        <v>-1142600</v>
       </c>
       <c r="J91" s="3">
-        <v>-1046000</v>
+        <v>-1011700</v>
       </c>
       <c r="K91" s="3">
         <v>-1569400</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1803600</v>
+        <v>-1744500</v>
       </c>
       <c r="E94" s="3">
-        <v>-825400</v>
+        <v>-798300</v>
       </c>
       <c r="F94" s="3">
-        <v>-450600</v>
+        <v>-435800</v>
       </c>
       <c r="G94" s="3">
-        <v>-712100</v>
+        <v>-688800</v>
       </c>
       <c r="H94" s="3">
-        <v>475100</v>
+        <v>459500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1276000</v>
+        <v>-1234100</v>
       </c>
       <c r="J94" s="3">
-        <v>1719600</v>
+        <v>1663200</v>
       </c>
       <c r="K94" s="3">
         <v>-4770400</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-617600</v>
+        <v>-597300</v>
       </c>
       <c r="E96" s="3">
-        <v>-597700</v>
+        <v>-578100</v>
       </c>
       <c r="F96" s="3">
-        <v>-617600</v>
+        <v>-597300</v>
       </c>
       <c r="G96" s="3">
-        <v>-600000</v>
+        <v>-580400</v>
       </c>
       <c r="H96" s="3">
-        <v>-568500</v>
+        <v>-549900</v>
       </c>
       <c r="I96" s="3">
-        <v>-577900</v>
+        <v>-558900</v>
       </c>
       <c r="J96" s="3">
-        <v>-109700</v>
+        <v>-106100</v>
       </c>
       <c r="K96" s="3">
         <v>-7200</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-782200</v>
+        <v>-756500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1336700</v>
+        <v>-1292800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2290500</v>
+        <v>-2215300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1943700</v>
+        <v>-1880000</v>
       </c>
       <c r="H100" s="3">
-        <v>-3176500</v>
+        <v>-3072300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1746400</v>
+        <v>-1689100</v>
       </c>
       <c r="J100" s="3">
-        <v>-5491500</v>
+        <v>-5311300</v>
       </c>
       <c r="K100" s="3">
         <v>4555100</v>
@@ -3722,13 +3722,13 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J101" s="3">
         <v>2300</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-202000</v>
+        <v>-195300</v>
       </c>
       <c r="E102" s="3">
-        <v>180900</v>
+        <v>175000</v>
       </c>
       <c r="F102" s="3">
-        <v>-280200</v>
+        <v>-271000</v>
       </c>
       <c r="G102" s="3">
-        <v>-380600</v>
+        <v>-368100</v>
       </c>
       <c r="H102" s="3">
-        <v>-463500</v>
+        <v>-448300</v>
       </c>
       <c r="I102" s="3">
-        <v>-431900</v>
+        <v>-417800</v>
       </c>
       <c r="J102" s="3">
-        <v>-1955400</v>
+        <v>-1891200</v>
       </c>
       <c r="K102" s="3">
         <v>3197400</v>

--- a/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>KKPNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,179 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5956000</v>
+        <v>5733800</v>
       </c>
       <c r="E8" s="3">
-        <v>6195400</v>
+        <v>5754600</v>
       </c>
       <c r="F8" s="3">
-        <v>6367000</v>
+        <v>5985800</v>
       </c>
       <c r="G8" s="3">
-        <v>6491200</v>
+        <v>6151600</v>
       </c>
       <c r="H8" s="3">
-        <v>7684700</v>
+        <v>6271600</v>
       </c>
       <c r="I8" s="3">
-        <v>7912700</v>
+        <v>7424700</v>
       </c>
       <c r="J8" s="3">
+        <v>7645100</v>
+      </c>
+      <c r="K8" s="3">
         <v>8358700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10128200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10333300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15450900</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1449800</v>
+        <v>1416000</v>
       </c>
       <c r="E9" s="3">
-        <v>1469000</v>
+        <v>1400700</v>
       </c>
       <c r="F9" s="3">
-        <v>1504000</v>
+        <v>1419300</v>
       </c>
       <c r="G9" s="3">
-        <v>1541200</v>
+        <v>1453100</v>
       </c>
       <c r="H9" s="3">
-        <v>2287600</v>
+        <v>1489100</v>
       </c>
       <c r="I9" s="3">
-        <v>3671800</v>
+        <v>2210200</v>
       </c>
       <c r="J9" s="3">
+        <v>3547600</v>
+      </c>
+      <c r="K9" s="3">
         <v>3899900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4405600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10175200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6329200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4506200</v>
+        <v>4317800</v>
       </c>
       <c r="E10" s="3">
-        <v>4726400</v>
+        <v>4353800</v>
       </c>
       <c r="F10" s="3">
-        <v>4863000</v>
+        <v>4566500</v>
       </c>
       <c r="G10" s="3">
-        <v>4950000</v>
+        <v>4698500</v>
       </c>
       <c r="H10" s="3">
-        <v>5397100</v>
+        <v>4782500</v>
       </c>
       <c r="I10" s="3">
-        <v>4240900</v>
+        <v>5214500</v>
       </c>
       <c r="J10" s="3">
+        <v>4097500</v>
+      </c>
+      <c r="K10" s="3">
         <v>4458800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5722600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>158100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9121700</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -872,12 +885,15 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3">
         <v>66900</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,81 +927,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>40600</v>
+        <v>-883600</v>
       </c>
       <c r="E14" s="3">
-        <v>-89200</v>
+        <v>39300</v>
       </c>
       <c r="F14" s="3">
-        <v>153600</v>
+        <v>-86200</v>
       </c>
       <c r="G14" s="3">
-        <v>170500</v>
+        <v>148400</v>
       </c>
       <c r="H14" s="3">
-        <v>84700</v>
+        <v>164700</v>
       </c>
       <c r="I14" s="3">
-        <v>177300</v>
+        <v>81800</v>
       </c>
       <c r="J14" s="3">
+        <v>171300</v>
+      </c>
+      <c r="K14" s="3">
         <v>129800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>47800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>452400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>387400</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1721900</v>
+        <v>1573100</v>
       </c>
       <c r="E15" s="3">
-        <v>1712800</v>
+        <v>1663600</v>
       </c>
       <c r="F15" s="3">
-        <v>1710600</v>
+        <v>1654900</v>
       </c>
       <c r="G15" s="3">
-        <v>1606700</v>
+        <v>1652700</v>
       </c>
       <c r="H15" s="3">
-        <v>1659800</v>
+        <v>1552400</v>
       </c>
       <c r="I15" s="3">
-        <v>1760300</v>
+        <v>1603600</v>
       </c>
       <c r="J15" s="3">
+        <v>1700700</v>
+      </c>
+      <c r="K15" s="3">
         <v>1829100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2173500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4328300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2651600</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4926300</v>
+        <v>3702500</v>
       </c>
       <c r="E17" s="3">
-        <v>5020000</v>
+        <v>4759600</v>
       </c>
       <c r="F17" s="3">
-        <v>5441100</v>
+        <v>4850200</v>
       </c>
       <c r="G17" s="3">
-        <v>5638700</v>
+        <v>5257100</v>
       </c>
       <c r="H17" s="3">
-        <v>6686500</v>
+        <v>5448000</v>
       </c>
       <c r="I17" s="3">
-        <v>7113300</v>
+        <v>6460400</v>
       </c>
       <c r="J17" s="3">
+        <v>6872700</v>
+      </c>
+      <c r="K17" s="3">
         <v>6990300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8900900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8811500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12458800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1029700</v>
+        <v>2031300</v>
       </c>
       <c r="E18" s="3">
-        <v>1175400</v>
+        <v>994900</v>
       </c>
       <c r="F18" s="3">
-        <v>925900</v>
+        <v>1135600</v>
       </c>
       <c r="G18" s="3">
-        <v>852500</v>
+        <v>894500</v>
       </c>
       <c r="H18" s="3">
-        <v>998100</v>
+        <v>823600</v>
       </c>
       <c r="I18" s="3">
-        <v>799400</v>
+        <v>964400</v>
       </c>
       <c r="J18" s="3">
+        <v>772400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1368500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1227300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1521800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2992000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,188 +1117,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-38400</v>
+        <v>-25100</v>
       </c>
       <c r="E20" s="3">
-        <v>-92600</v>
+        <v>-37100</v>
       </c>
       <c r="F20" s="3">
-        <v>38400</v>
+        <v>-89500</v>
       </c>
       <c r="G20" s="3">
-        <v>91500</v>
+        <v>37100</v>
       </c>
       <c r="H20" s="3">
-        <v>-18100</v>
+        <v>88400</v>
       </c>
       <c r="I20" s="3">
-        <v>429100</v>
+        <v>-17500</v>
       </c>
       <c r="J20" s="3">
+        <v>414500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-357900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-40700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>608300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-136200</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2747700</v>
+        <v>3623100</v>
       </c>
       <c r="E21" s="3">
-        <v>2822200</v>
+        <v>2676700</v>
       </c>
       <c r="F21" s="3">
-        <v>2699100</v>
+        <v>2748400</v>
       </c>
       <c r="G21" s="3">
-        <v>2544200</v>
+        <v>2629400</v>
       </c>
       <c r="H21" s="3">
-        <v>2728500</v>
+        <v>2478000</v>
       </c>
       <c r="I21" s="3">
-        <v>3057300</v>
+        <v>2658000</v>
       </c>
       <c r="J21" s="3">
+        <v>2976600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2882400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3398900</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5896900</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>258600</v>
+        <v>231300</v>
       </c>
       <c r="E22" s="3">
-        <v>334200</v>
+        <v>249800</v>
       </c>
       <c r="F22" s="3">
-        <v>382800</v>
+        <v>322900</v>
       </c>
       <c r="G22" s="3">
-        <v>369200</v>
+        <v>369800</v>
       </c>
       <c r="H22" s="3">
-        <v>453900</v>
+        <v>356700</v>
       </c>
       <c r="I22" s="3">
-        <v>545400</v>
+        <v>438500</v>
       </c>
       <c r="J22" s="3">
+        <v>526900</v>
+      </c>
+      <c r="K22" s="3">
         <v>665000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>873200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1561400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>777100</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>732800</v>
+        <v>1774900</v>
       </c>
       <c r="E23" s="3">
-        <v>748600</v>
+        <v>708000</v>
       </c>
       <c r="F23" s="3">
-        <v>581500</v>
+        <v>723300</v>
       </c>
       <c r="G23" s="3">
-        <v>574700</v>
+        <v>561800</v>
       </c>
       <c r="H23" s="3">
-        <v>526200</v>
+        <v>555300</v>
       </c>
       <c r="I23" s="3">
-        <v>683100</v>
+        <v>508400</v>
       </c>
       <c r="J23" s="3">
+        <v>660000</v>
+      </c>
+      <c r="K23" s="3">
         <v>345500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>313400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>568800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2078800</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>99400</v>
+        <v>375300</v>
       </c>
       <c r="E24" s="3">
-        <v>55300</v>
+        <v>96000</v>
       </c>
       <c r="F24" s="3">
-        <v>252900</v>
+        <v>53500</v>
       </c>
       <c r="G24" s="3">
-        <v>134400</v>
+        <v>244400</v>
       </c>
       <c r="H24" s="3">
-        <v>108400</v>
+        <v>129800</v>
       </c>
       <c r="I24" s="3">
-        <v>91500</v>
+        <v>104700</v>
       </c>
       <c r="J24" s="3">
+        <v>88400</v>
+      </c>
+      <c r="K24" s="3">
         <v>50800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-37100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>224000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>260600</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>633400</v>
+        <v>1399600</v>
       </c>
       <c r="E26" s="3">
-        <v>693300</v>
+        <v>612000</v>
       </c>
       <c r="F26" s="3">
-        <v>328600</v>
+        <v>669800</v>
       </c>
       <c r="G26" s="3">
-        <v>440300</v>
+        <v>317500</v>
       </c>
       <c r="H26" s="3">
-        <v>417800</v>
+        <v>425500</v>
       </c>
       <c r="I26" s="3">
-        <v>591600</v>
+        <v>403600</v>
       </c>
       <c r="J26" s="3">
+        <v>571600</v>
+      </c>
+      <c r="K26" s="3">
         <v>294700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>350500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>344800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1818200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>622100</v>
+        <v>1388700</v>
       </c>
       <c r="E27" s="3">
-        <v>692100</v>
+        <v>601100</v>
       </c>
       <c r="F27" s="3">
-        <v>264200</v>
+        <v>668700</v>
       </c>
       <c r="G27" s="3">
-        <v>382800</v>
+        <v>255300</v>
       </c>
       <c r="H27" s="3">
-        <v>352300</v>
+        <v>369800</v>
       </c>
       <c r="I27" s="3">
-        <v>510400</v>
+        <v>340400</v>
       </c>
       <c r="J27" s="3">
+        <v>493100</v>
+      </c>
+      <c r="K27" s="3">
         <v>193100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>342100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>342600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1818200</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,45 +1465,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="E29" s="3">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-11300</v>
+        <v>13100</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>-10900</v>
       </c>
       <c r="H29" s="3">
-        <v>485500</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>152400</v>
+        <v>469100</v>
       </c>
       <c r="J29" s="3">
+        <v>147300</v>
+      </c>
+      <c r="K29" s="3">
         <v>-954100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-607700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>495200</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>38400</v>
+        <v>25100</v>
       </c>
       <c r="E32" s="3">
-        <v>92600</v>
+        <v>37100</v>
       </c>
       <c r="F32" s="3">
-        <v>-38400</v>
+        <v>89500</v>
       </c>
       <c r="G32" s="3">
-        <v>-91500</v>
+        <v>-37100</v>
       </c>
       <c r="H32" s="3">
-        <v>18100</v>
+        <v>-88400</v>
       </c>
       <c r="I32" s="3">
-        <v>-429100</v>
+        <v>17500</v>
       </c>
       <c r="J32" s="3">
+        <v>-414500</v>
+      </c>
+      <c r="K32" s="3">
         <v>357900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>40700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-608300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>136200</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>622100</v>
+        <v>1394200</v>
       </c>
       <c r="E33" s="3">
-        <v>705700</v>
+        <v>601100</v>
       </c>
       <c r="F33" s="3">
-        <v>252900</v>
+        <v>681800</v>
       </c>
       <c r="G33" s="3">
-        <v>382800</v>
+        <v>244400</v>
       </c>
       <c r="H33" s="3">
+        <v>369800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>809500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>640400</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-761000</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-265600</v>
+      </c>
+      <c r="M33" s="3">
         <v>837800</v>
       </c>
-      <c r="I33" s="3">
-        <v>662800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-761000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-265600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>837800</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1818200</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>622100</v>
+        <v>1394200</v>
       </c>
       <c r="E35" s="3">
-        <v>705700</v>
+        <v>601100</v>
       </c>
       <c r="F35" s="3">
-        <v>252900</v>
+        <v>681800</v>
       </c>
       <c r="G35" s="3">
-        <v>382800</v>
+        <v>244400</v>
       </c>
       <c r="H35" s="3">
+        <v>369800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>809500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>640400</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-761000</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-265600</v>
+      </c>
+      <c r="M35" s="3">
         <v>837800</v>
       </c>
-      <c r="I35" s="3">
-        <v>662800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-761000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-265600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>837800</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1818200</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,332 +1819,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>674100</v>
+        <v>865100</v>
       </c>
       <c r="E41" s="3">
-        <v>864900</v>
+        <v>651300</v>
       </c>
       <c r="F41" s="3">
-        <v>670700</v>
+        <v>835600</v>
       </c>
       <c r="G41" s="3">
-        <v>1933000</v>
+        <v>648000</v>
       </c>
       <c r="H41" s="3">
-        <v>2662400</v>
+        <v>1867600</v>
       </c>
       <c r="I41" s="3">
-        <v>1632700</v>
+        <v>2572400</v>
       </c>
       <c r="J41" s="3">
+        <v>1577500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2231100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4720200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2381600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>755900</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>304900</v>
+        <v>342500</v>
       </c>
       <c r="E42" s="3">
-        <v>310500</v>
+        <v>294500</v>
       </c>
       <c r="F42" s="3">
-        <v>563400</v>
+        <v>300000</v>
       </c>
       <c r="G42" s="3">
-        <v>1580700</v>
+        <v>544400</v>
       </c>
       <c r="H42" s="3">
-        <v>158100</v>
+        <v>1527300</v>
       </c>
       <c r="I42" s="3">
-        <v>649200</v>
+        <v>152700</v>
       </c>
       <c r="J42" s="3">
+        <v>627300</v>
+      </c>
+      <c r="K42" s="3">
         <v>338700</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>442500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>406100</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>659400</v>
+        <v>642500</v>
       </c>
       <c r="E43" s="3">
-        <v>762100</v>
+        <v>637100</v>
       </c>
       <c r="F43" s="3">
-        <v>887500</v>
+        <v>736400</v>
       </c>
       <c r="G43" s="3">
-        <v>1890100</v>
+        <v>857500</v>
       </c>
       <c r="H43" s="3">
-        <v>1974800</v>
+        <v>1826200</v>
       </c>
       <c r="I43" s="3">
-        <v>828800</v>
+        <v>1908000</v>
       </c>
       <c r="J43" s="3">
+        <v>800700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1017300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1338500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3428000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1760700</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>53100</v>
+        <v>40400</v>
       </c>
       <c r="E44" s="3">
-        <v>61000</v>
+        <v>51300</v>
       </c>
       <c r="F44" s="3">
-        <v>65500</v>
+        <v>58900</v>
       </c>
       <c r="G44" s="3">
-        <v>61000</v>
+        <v>63300</v>
       </c>
       <c r="H44" s="3">
-        <v>100500</v>
+        <v>58900</v>
       </c>
       <c r="I44" s="3">
-        <v>73400</v>
+        <v>97100</v>
       </c>
       <c r="J44" s="3">
+        <v>70900</v>
+      </c>
+      <c r="K44" s="3">
         <v>68900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>71800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>243800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>144400</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>127600</v>
+        <v>147300</v>
       </c>
       <c r="E45" s="3">
-        <v>156900</v>
+        <v>123300</v>
       </c>
       <c r="F45" s="3">
-        <v>111800</v>
+        <v>151600</v>
       </c>
       <c r="G45" s="3">
-        <v>1321000</v>
+        <v>108000</v>
       </c>
       <c r="H45" s="3">
-        <v>111800</v>
+        <v>1276400</v>
       </c>
       <c r="I45" s="3">
-        <v>230300</v>
+        <v>108000</v>
       </c>
       <c r="J45" s="3">
+        <v>222500</v>
+      </c>
+      <c r="K45" s="3">
         <v>166000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>114800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>307400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>126800</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1819000</v>
+        <v>2037800</v>
       </c>
       <c r="E46" s="3">
-        <v>2155500</v>
+        <v>1757500</v>
       </c>
       <c r="F46" s="3">
-        <v>2298800</v>
+        <v>2082500</v>
       </c>
       <c r="G46" s="3">
-        <v>3763300</v>
+        <v>2221100</v>
       </c>
       <c r="H46" s="3">
-        <v>2758400</v>
+        <v>3636000</v>
       </c>
       <c r="I46" s="3">
-        <v>3414400</v>
+        <v>2665100</v>
       </c>
       <c r="J46" s="3">
+        <v>3298900</v>
+      </c>
+      <c r="K46" s="3">
         <v>3822000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6245400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3401600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3193900</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71100</v>
+        <v>872700</v>
       </c>
       <c r="E47" s="3">
-        <v>75600</v>
+        <v>68700</v>
       </c>
       <c r="F47" s="3">
-        <v>85800</v>
+        <v>73100</v>
       </c>
       <c r="G47" s="3">
-        <v>398600</v>
+        <v>82900</v>
       </c>
       <c r="H47" s="3">
-        <v>4457700</v>
+        <v>385100</v>
       </c>
       <c r="I47" s="3">
-        <v>2639800</v>
+        <v>4306900</v>
       </c>
       <c r="J47" s="3">
+        <v>2550500</v>
+      </c>
+      <c r="K47" s="3">
         <v>3135500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>960500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1637100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>818100</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7089600</v>
+        <v>6836700</v>
       </c>
       <c r="E48" s="3">
-        <v>7089600</v>
+        <v>6849800</v>
       </c>
       <c r="F48" s="3">
-        <v>7308700</v>
+        <v>6849800</v>
       </c>
       <c r="G48" s="3">
-        <v>13122400</v>
+        <v>7061500</v>
       </c>
       <c r="H48" s="3">
-        <v>13479200</v>
+        <v>12678600</v>
       </c>
       <c r="I48" s="3">
-        <v>6775700</v>
+        <v>13023300</v>
       </c>
       <c r="J48" s="3">
+        <v>6546600</v>
+      </c>
+      <c r="K48" s="3">
         <v>7458800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6387700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17337400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8842300</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3656000</v>
+        <v>3279300</v>
       </c>
       <c r="E49" s="3">
-        <v>3381700</v>
+        <v>3532400</v>
       </c>
       <c r="F49" s="3">
-        <v>3578100</v>
+        <v>3267300</v>
       </c>
       <c r="G49" s="3">
-        <v>7545800</v>
+        <v>3457100</v>
       </c>
       <c r="H49" s="3">
-        <v>7291700</v>
+        <v>7290600</v>
       </c>
       <c r="I49" s="3">
-        <v>3895400</v>
+        <v>7045100</v>
       </c>
       <c r="J49" s="3">
+        <v>3763600</v>
+      </c>
+      <c r="K49" s="3">
         <v>4507400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4357800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18573800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10813100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1003800</v>
+        <v>868400</v>
       </c>
       <c r="E52" s="3">
-        <v>1190100</v>
+        <v>969800</v>
       </c>
       <c r="F52" s="3">
-        <v>1412500</v>
+        <v>1149800</v>
       </c>
       <c r="G52" s="3">
-        <v>1371900</v>
+        <v>1364700</v>
       </c>
       <c r="H52" s="3">
-        <v>1566100</v>
+        <v>1325500</v>
       </c>
       <c r="I52" s="3">
-        <v>3369200</v>
+        <v>1513100</v>
       </c>
       <c r="J52" s="3">
+        <v>3255300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2027900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12996700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4744500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2610600</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13639500</v>
+        <v>13894900</v>
       </c>
       <c r="E54" s="3">
-        <v>13892400</v>
+        <v>13178200</v>
       </c>
       <c r="F54" s="3">
-        <v>14683900</v>
+        <v>13422600</v>
       </c>
       <c r="G54" s="3">
-        <v>15554500</v>
+        <v>14187300</v>
       </c>
       <c r="H54" s="3">
-        <v>16967000</v>
+        <v>15028400</v>
       </c>
       <c r="I54" s="3">
-        <v>20094600</v>
+        <v>16393100</v>
       </c>
       <c r="J54" s="3">
+        <v>19414900</v>
+      </c>
+      <c r="K54" s="3">
         <v>20951600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30948100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24486500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26278100</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,224 +2399,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>599600</v>
+        <v>561800</v>
       </c>
       <c r="E57" s="3">
-        <v>621000</v>
+        <v>579300</v>
       </c>
       <c r="F57" s="3">
-        <v>648100</v>
+        <v>600000</v>
       </c>
       <c r="G57" s="3">
-        <v>2722300</v>
+        <v>626200</v>
       </c>
       <c r="H57" s="3">
-        <v>2538200</v>
+        <v>2630200</v>
       </c>
       <c r="I57" s="3">
-        <v>873900</v>
+        <v>2452400</v>
       </c>
       <c r="J57" s="3">
+        <v>844400</v>
+      </c>
+      <c r="K57" s="3">
         <v>924700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1305100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3078800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1670300</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>936000</v>
+        <v>888000</v>
       </c>
       <c r="E58" s="3">
-        <v>1221700</v>
+        <v>904400</v>
       </c>
       <c r="F58" s="3">
-        <v>823100</v>
+        <v>1180400</v>
       </c>
       <c r="G58" s="3">
-        <v>20300</v>
+        <v>795300</v>
       </c>
       <c r="H58" s="3">
-        <v>829900</v>
+        <v>19600</v>
       </c>
       <c r="I58" s="3">
-        <v>956300</v>
+        <v>801800</v>
       </c>
       <c r="J58" s="3">
+        <v>924000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1178800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2402000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3353300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1711400</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>958600</v>
+        <v>973100</v>
       </c>
       <c r="E59" s="3">
-        <v>1131400</v>
+        <v>926200</v>
       </c>
       <c r="F59" s="3">
-        <v>1277000</v>
+        <v>1093100</v>
       </c>
       <c r="G59" s="3">
-        <v>1697000</v>
+        <v>1233800</v>
       </c>
       <c r="H59" s="3">
-        <v>1682400</v>
+        <v>1639600</v>
       </c>
       <c r="I59" s="3">
-        <v>1604500</v>
+        <v>1625500</v>
       </c>
       <c r="J59" s="3">
+        <v>1550200</v>
+      </c>
+      <c r="K59" s="3">
         <v>2138500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2697400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6428800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3202200</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2494200</v>
+        <v>2422900</v>
       </c>
       <c r="E60" s="3">
-        <v>2974000</v>
+        <v>2409800</v>
       </c>
       <c r="F60" s="3">
-        <v>2748200</v>
+        <v>2873500</v>
       </c>
       <c r="G60" s="3">
-        <v>2131700</v>
+        <v>2655300</v>
       </c>
       <c r="H60" s="3">
-        <v>2974000</v>
+        <v>2059600</v>
       </c>
       <c r="I60" s="3">
-        <v>3434700</v>
+        <v>2873500</v>
       </c>
       <c r="J60" s="3">
+        <v>3318500</v>
+      </c>
+      <c r="K60" s="3">
         <v>4242000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6404500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6431000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6583900</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7461100</v>
+        <v>7421500</v>
       </c>
       <c r="E61" s="3">
-        <v>7347100</v>
+        <v>7208700</v>
       </c>
       <c r="F61" s="3">
-        <v>8768600</v>
+        <v>7098600</v>
       </c>
       <c r="G61" s="3">
-        <v>8557400</v>
+        <v>8472000</v>
       </c>
       <c r="H61" s="3">
-        <v>8916500</v>
+        <v>8268000</v>
       </c>
       <c r="I61" s="3">
-        <v>9995900</v>
+        <v>8614900</v>
       </c>
       <c r="J61" s="3">
+        <v>9657800</v>
+      </c>
+      <c r="K61" s="3">
         <v>10610200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13942900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13581200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13664300</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>723800</v>
+        <v>526900</v>
       </c>
       <c r="E62" s="3">
-        <v>706800</v>
+        <v>699300</v>
       </c>
       <c r="F62" s="3">
-        <v>1070400</v>
+        <v>682900</v>
       </c>
       <c r="G62" s="3">
-        <v>1118900</v>
+        <v>1034200</v>
       </c>
       <c r="H62" s="3">
-        <v>835500</v>
+        <v>1081100</v>
       </c>
       <c r="I62" s="3">
-        <v>547600</v>
+        <v>807300</v>
       </c>
       <c r="J62" s="3">
+        <v>529100</v>
+      </c>
+      <c r="K62" s="3">
         <v>857000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2417500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4892700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2365200</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10680200</v>
+        <v>10373500</v>
       </c>
       <c r="E66" s="3">
-        <v>11062900</v>
+        <v>10318900</v>
       </c>
       <c r="F66" s="3">
-        <v>12563500</v>
+        <v>10688700</v>
       </c>
       <c r="G66" s="3">
-        <v>11623000</v>
+        <v>12138600</v>
       </c>
       <c r="H66" s="3">
-        <v>12656100</v>
+        <v>11229800</v>
       </c>
       <c r="I66" s="3">
-        <v>14469400</v>
+        <v>12228000</v>
       </c>
       <c r="J66" s="3">
+        <v>13980000</v>
+      </c>
+      <c r="K66" s="3">
         <v>15788200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24668000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23077800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22838800</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7100900</v>
+        <v>-6025100</v>
       </c>
       <c r="E72" s="3">
-        <v>-7115600</v>
+        <v>-6860700</v>
       </c>
       <c r="F72" s="3">
-        <v>-7156200</v>
+        <v>-6874900</v>
       </c>
       <c r="G72" s="3">
-        <v>-7008300</v>
+        <v>-6914200</v>
       </c>
       <c r="H72" s="3">
-        <v>-6391800</v>
+        <v>-6771300</v>
       </c>
       <c r="I72" s="3">
-        <v>-6774600</v>
+        <v>-6175600</v>
       </c>
       <c r="J72" s="3">
+        <v>-6545500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-6939400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6387700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11313800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4697600</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2959400</v>
+        <v>3521500</v>
       </c>
       <c r="E76" s="3">
-        <v>2829500</v>
+        <v>2859300</v>
       </c>
       <c r="F76" s="3">
-        <v>2120400</v>
+        <v>2733800</v>
       </c>
       <c r="G76" s="3">
-        <v>3931500</v>
+        <v>2048700</v>
       </c>
       <c r="H76" s="3">
-        <v>4310900</v>
+        <v>3798500</v>
       </c>
       <c r="I76" s="3">
-        <v>5625200</v>
+        <v>4165100</v>
       </c>
       <c r="J76" s="3">
+        <v>5434900</v>
+      </c>
+      <c r="K76" s="3">
         <v>5163400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6280000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1408700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3439300</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>622100</v>
+        <v>1394200</v>
       </c>
       <c r="E81" s="3">
-        <v>705700</v>
+        <v>601100</v>
       </c>
       <c r="F81" s="3">
-        <v>252900</v>
+        <v>681800</v>
       </c>
       <c r="G81" s="3">
-        <v>382800</v>
+        <v>244400</v>
       </c>
       <c r="H81" s="3">
+        <v>369800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>809500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>640400</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-761000</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-265600</v>
+      </c>
+      <c r="M81" s="3">
         <v>837800</v>
       </c>
-      <c r="I81" s="3">
-        <v>662800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-761000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-265600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>837800</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1818200</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1752400</v>
+        <v>1592700</v>
       </c>
       <c r="E83" s="3">
-        <v>1735400</v>
+        <v>1693100</v>
       </c>
       <c r="F83" s="3">
-        <v>1730900</v>
+        <v>1676700</v>
       </c>
       <c r="G83" s="3">
-        <v>1596500</v>
+        <v>1672400</v>
       </c>
       <c r="H83" s="3">
-        <v>1744500</v>
+        <v>1542500</v>
       </c>
       <c r="I83" s="3">
-        <v>1824600</v>
+        <v>1685500</v>
       </c>
       <c r="J83" s="3">
+        <v>1762900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1867500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2221300</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3039000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2305600</v>
+        <v>2320400</v>
       </c>
       <c r="E89" s="3">
-        <v>2266100</v>
+        <v>2227600</v>
       </c>
       <c r="F89" s="3">
-        <v>2380100</v>
+        <v>2189500</v>
       </c>
       <c r="G89" s="3">
-        <v>2201700</v>
+        <v>2299600</v>
       </c>
       <c r="H89" s="3">
-        <v>2164500</v>
+        <v>2127300</v>
       </c>
       <c r="I89" s="3">
-        <v>2504300</v>
+        <v>2091300</v>
       </c>
       <c r="J89" s="3">
+        <v>2419600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1754600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3412800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4395300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4698800</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1041000</v>
+        <v>-1078900</v>
       </c>
       <c r="E91" s="3">
-        <v>-969900</v>
+        <v>-1005800</v>
       </c>
       <c r="F91" s="3">
-        <v>-922500</v>
+        <v>-937100</v>
       </c>
       <c r="G91" s="3">
-        <v>-930400</v>
+        <v>-891300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1035400</v>
+        <v>-898900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1142600</v>
+        <v>-1000400</v>
       </c>
       <c r="J91" s="3">
+        <v>-1104000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1011700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1569400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1739200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2434500</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1744500</v>
+        <v>-1322200</v>
       </c>
       <c r="E94" s="3">
-        <v>-798300</v>
+        <v>-1685500</v>
       </c>
       <c r="F94" s="3">
-        <v>-435800</v>
+        <v>-771300</v>
       </c>
       <c r="G94" s="3">
-        <v>-688800</v>
+        <v>-421100</v>
       </c>
       <c r="H94" s="3">
-        <v>459500</v>
+        <v>-665500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1234100</v>
+        <v>444000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1192400</v>
+      </c>
+      <c r="K94" s="3">
         <v>1663200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4770400</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2331200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,44 +3759,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-597300</v>
+        <v>-604400</v>
       </c>
       <c r="E96" s="3">
-        <v>-578100</v>
+        <v>-577100</v>
       </c>
       <c r="F96" s="3">
-        <v>-597300</v>
+        <v>-558500</v>
       </c>
       <c r="G96" s="3">
-        <v>-580400</v>
+        <v>-577100</v>
       </c>
       <c r="H96" s="3">
-        <v>-549900</v>
+        <v>-560700</v>
       </c>
       <c r="I96" s="3">
-        <v>-558900</v>
+        <v>-531300</v>
       </c>
       <c r="J96" s="3">
+        <v>-540000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-106100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-7200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1317600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1408600</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,45 +3912,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-756500</v>
+        <v>-782200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1292800</v>
+        <v>-730900</v>
       </c>
       <c r="F100" s="3">
-        <v>-2215300</v>
+        <v>-1249100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1880000</v>
+        <v>-2140400</v>
       </c>
       <c r="H100" s="3">
-        <v>-3072300</v>
+        <v>-1816400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1689100</v>
+        <v>-2968400</v>
       </c>
       <c r="J100" s="3">
+        <v>-1632000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5311300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4555100</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2051800</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3718,67 +3966,73 @@
       <c r="E101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-195300</v>
+        <v>216000</v>
       </c>
       <c r="E102" s="3">
-        <v>175000</v>
+        <v>-188700</v>
       </c>
       <c r="F102" s="3">
-        <v>-271000</v>
+        <v>169100</v>
       </c>
       <c r="G102" s="3">
-        <v>-368100</v>
+        <v>-261800</v>
       </c>
       <c r="H102" s="3">
-        <v>-448300</v>
+        <v>-355600</v>
       </c>
       <c r="I102" s="3">
-        <v>-417800</v>
+        <v>-433100</v>
       </c>
       <c r="J102" s="3">
+        <v>-403600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1891200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3197400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>294300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>314600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5733800</v>
+        <v>5455200</v>
       </c>
       <c r="E8" s="3">
-        <v>5754600</v>
+        <v>5474900</v>
       </c>
       <c r="F8" s="3">
-        <v>5985800</v>
+        <v>5695000</v>
       </c>
       <c r="G8" s="3">
-        <v>6151600</v>
+        <v>5852700</v>
       </c>
       <c r="H8" s="3">
-        <v>6271600</v>
+        <v>5966900</v>
       </c>
       <c r="I8" s="3">
-        <v>7424700</v>
+        <v>7063900</v>
       </c>
       <c r="J8" s="3">
-        <v>7645100</v>
+        <v>7273600</v>
       </c>
       <c r="K8" s="3">
         <v>8358700</v>
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1416000</v>
+        <v>1347200</v>
       </c>
       <c r="E9" s="3">
-        <v>1400700</v>
+        <v>1332700</v>
       </c>
       <c r="F9" s="3">
-        <v>1419300</v>
+        <v>1350300</v>
       </c>
       <c r="G9" s="3">
-        <v>1453100</v>
+        <v>1382500</v>
       </c>
       <c r="H9" s="3">
-        <v>1489100</v>
+        <v>1416700</v>
       </c>
       <c r="I9" s="3">
-        <v>2210200</v>
+        <v>2102800</v>
       </c>
       <c r="J9" s="3">
-        <v>3547600</v>
+        <v>3375300</v>
       </c>
       <c r="K9" s="3">
         <v>3899900</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4317800</v>
+        <v>4108000</v>
       </c>
       <c r="E10" s="3">
-        <v>4353800</v>
+        <v>4142300</v>
       </c>
       <c r="F10" s="3">
-        <v>4566500</v>
+        <v>4344600</v>
       </c>
       <c r="G10" s="3">
-        <v>4698500</v>
+        <v>4470200</v>
       </c>
       <c r="H10" s="3">
-        <v>4782500</v>
+        <v>4550200</v>
       </c>
       <c r="I10" s="3">
-        <v>5214500</v>
+        <v>4961200</v>
       </c>
       <c r="J10" s="3">
-        <v>4097500</v>
+        <v>3898400</v>
       </c>
       <c r="K10" s="3">
         <v>4458800</v>
@@ -937,25 +937,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-883600</v>
+        <v>-840700</v>
       </c>
       <c r="E14" s="3">
-        <v>39300</v>
+        <v>37400</v>
       </c>
       <c r="F14" s="3">
-        <v>-86200</v>
+        <v>-82000</v>
       </c>
       <c r="G14" s="3">
-        <v>148400</v>
+        <v>141200</v>
       </c>
       <c r="H14" s="3">
-        <v>164700</v>
+        <v>156700</v>
       </c>
       <c r="I14" s="3">
-        <v>81800</v>
+        <v>77800</v>
       </c>
       <c r="J14" s="3">
-        <v>171300</v>
+        <v>163000</v>
       </c>
       <c r="K14" s="3">
         <v>129800</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1573100</v>
+        <v>1496700</v>
       </c>
       <c r="E15" s="3">
-        <v>1663600</v>
+        <v>1582800</v>
       </c>
       <c r="F15" s="3">
-        <v>1654900</v>
+        <v>1574500</v>
       </c>
       <c r="G15" s="3">
-        <v>1652700</v>
+        <v>1572400</v>
       </c>
       <c r="H15" s="3">
-        <v>1552400</v>
+        <v>1476900</v>
       </c>
       <c r="I15" s="3">
-        <v>1603600</v>
+        <v>1525700</v>
       </c>
       <c r="J15" s="3">
-        <v>1700700</v>
+        <v>1618100</v>
       </c>
       <c r="K15" s="3">
         <v>1829100</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3702500</v>
+        <v>3522600</v>
       </c>
       <c r="E17" s="3">
-        <v>4759600</v>
+        <v>4528400</v>
       </c>
       <c r="F17" s="3">
-        <v>4850200</v>
+        <v>4614500</v>
       </c>
       <c r="G17" s="3">
-        <v>5257100</v>
+        <v>5001600</v>
       </c>
       <c r="H17" s="3">
-        <v>5448000</v>
+        <v>5183300</v>
       </c>
       <c r="I17" s="3">
-        <v>6460400</v>
+        <v>6146400</v>
       </c>
       <c r="J17" s="3">
-        <v>6872700</v>
+        <v>6538800</v>
       </c>
       <c r="K17" s="3">
         <v>6990300</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2031300</v>
+        <v>1932600</v>
       </c>
       <c r="E18" s="3">
-        <v>994900</v>
+        <v>946600</v>
       </c>
       <c r="F18" s="3">
-        <v>1135600</v>
+        <v>1080500</v>
       </c>
       <c r="G18" s="3">
-        <v>894500</v>
+        <v>851100</v>
       </c>
       <c r="H18" s="3">
-        <v>823600</v>
+        <v>783600</v>
       </c>
       <c r="I18" s="3">
-        <v>964400</v>
+        <v>917500</v>
       </c>
       <c r="J18" s="3">
-        <v>772400</v>
+        <v>734800</v>
       </c>
       <c r="K18" s="3">
         <v>1368500</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-25100</v>
+        <v>-23900</v>
       </c>
       <c r="E20" s="3">
-        <v>-37100</v>
+        <v>-35300</v>
       </c>
       <c r="F20" s="3">
-        <v>-89500</v>
+        <v>-85100</v>
       </c>
       <c r="G20" s="3">
-        <v>37100</v>
+        <v>35300</v>
       </c>
       <c r="H20" s="3">
-        <v>88400</v>
+        <v>84100</v>
       </c>
       <c r="I20" s="3">
-        <v>-17500</v>
+        <v>-16600</v>
       </c>
       <c r="J20" s="3">
-        <v>414500</v>
+        <v>394400</v>
       </c>
       <c r="K20" s="3">
         <v>-357900</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3623100</v>
+        <v>3443300</v>
       </c>
       <c r="E21" s="3">
-        <v>2676700</v>
+        <v>2542600</v>
       </c>
       <c r="F21" s="3">
-        <v>2748400</v>
+        <v>2610900</v>
       </c>
       <c r="G21" s="3">
-        <v>2629400</v>
+        <v>2497700</v>
       </c>
       <c r="H21" s="3">
-        <v>2478000</v>
+        <v>2353900</v>
       </c>
       <c r="I21" s="3">
-        <v>2658000</v>
+        <v>2524800</v>
       </c>
       <c r="J21" s="3">
-        <v>2976600</v>
+        <v>2827800</v>
       </c>
       <c r="K21" s="3">
         <v>2882400</v>
@@ -1202,25 +1202,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>231300</v>
+        <v>220000</v>
       </c>
       <c r="E22" s="3">
-        <v>249800</v>
+        <v>237700</v>
       </c>
       <c r="F22" s="3">
-        <v>322900</v>
+        <v>307200</v>
       </c>
       <c r="G22" s="3">
-        <v>369800</v>
+        <v>351800</v>
       </c>
       <c r="H22" s="3">
-        <v>356700</v>
+        <v>339400</v>
       </c>
       <c r="I22" s="3">
-        <v>438500</v>
+        <v>417200</v>
       </c>
       <c r="J22" s="3">
-        <v>526900</v>
+        <v>501300</v>
       </c>
       <c r="K22" s="3">
         <v>665000</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1774900</v>
+        <v>1688700</v>
       </c>
       <c r="E23" s="3">
-        <v>708000</v>
+        <v>673600</v>
       </c>
       <c r="F23" s="3">
-        <v>723300</v>
+        <v>688100</v>
       </c>
       <c r="G23" s="3">
-        <v>561800</v>
+        <v>534500</v>
       </c>
       <c r="H23" s="3">
-        <v>555300</v>
+        <v>528300</v>
       </c>
       <c r="I23" s="3">
-        <v>508400</v>
+        <v>483700</v>
       </c>
       <c r="J23" s="3">
-        <v>660000</v>
+        <v>627900</v>
       </c>
       <c r="K23" s="3">
         <v>345500</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>375300</v>
+        <v>357000</v>
       </c>
       <c r="E24" s="3">
-        <v>96000</v>
+        <v>91300</v>
       </c>
       <c r="F24" s="3">
-        <v>53500</v>
+        <v>50900</v>
       </c>
       <c r="G24" s="3">
-        <v>244400</v>
+        <v>232500</v>
       </c>
       <c r="H24" s="3">
-        <v>129800</v>
+        <v>123500</v>
       </c>
       <c r="I24" s="3">
-        <v>104700</v>
+        <v>99600</v>
       </c>
       <c r="J24" s="3">
-        <v>88400</v>
+        <v>84100</v>
       </c>
       <c r="K24" s="3">
         <v>50800</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1399600</v>
+        <v>1331600</v>
       </c>
       <c r="E26" s="3">
-        <v>612000</v>
+        <v>582300</v>
       </c>
       <c r="F26" s="3">
-        <v>669800</v>
+        <v>637300</v>
       </c>
       <c r="G26" s="3">
-        <v>317500</v>
+        <v>302000</v>
       </c>
       <c r="H26" s="3">
-        <v>425500</v>
+        <v>404800</v>
       </c>
       <c r="I26" s="3">
-        <v>403600</v>
+        <v>384000</v>
       </c>
       <c r="J26" s="3">
-        <v>571600</v>
+        <v>543900</v>
       </c>
       <c r="K26" s="3">
         <v>294700</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1388700</v>
+        <v>1321200</v>
       </c>
       <c r="E27" s="3">
-        <v>601100</v>
+        <v>571900</v>
       </c>
       <c r="F27" s="3">
-        <v>668700</v>
+        <v>636200</v>
       </c>
       <c r="G27" s="3">
-        <v>255300</v>
+        <v>242900</v>
       </c>
       <c r="H27" s="3">
-        <v>369800</v>
+        <v>351800</v>
       </c>
       <c r="I27" s="3">
-        <v>340400</v>
+        <v>323800</v>
       </c>
       <c r="J27" s="3">
-        <v>493100</v>
+        <v>469100</v>
       </c>
       <c r="K27" s="3">
         <v>193100</v>
@@ -1475,25 +1475,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="G29" s="3">
-        <v>-10900</v>
+        <v>-10400</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>469100</v>
+        <v>446300</v>
       </c>
       <c r="J29" s="3">
-        <v>147300</v>
+        <v>140100</v>
       </c>
       <c r="K29" s="3">
         <v>-954100</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>25100</v>
+        <v>23900</v>
       </c>
       <c r="E32" s="3">
-        <v>37100</v>
+        <v>35300</v>
       </c>
       <c r="F32" s="3">
-        <v>89500</v>
+        <v>85100</v>
       </c>
       <c r="G32" s="3">
-        <v>-37100</v>
+        <v>-35300</v>
       </c>
       <c r="H32" s="3">
-        <v>-88400</v>
+        <v>-84100</v>
       </c>
       <c r="I32" s="3">
-        <v>17500</v>
+        <v>16600</v>
       </c>
       <c r="J32" s="3">
-        <v>-414500</v>
+        <v>-394400</v>
       </c>
       <c r="K32" s="3">
         <v>357900</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1394200</v>
+        <v>1326400</v>
       </c>
       <c r="E33" s="3">
-        <v>601100</v>
+        <v>571900</v>
       </c>
       <c r="F33" s="3">
-        <v>681800</v>
+        <v>648700</v>
       </c>
       <c r="G33" s="3">
-        <v>244400</v>
+        <v>232500</v>
       </c>
       <c r="H33" s="3">
-        <v>369800</v>
+        <v>351800</v>
       </c>
       <c r="I33" s="3">
-        <v>809500</v>
+        <v>770100</v>
       </c>
       <c r="J33" s="3">
-        <v>640400</v>
+        <v>609200</v>
       </c>
       <c r="K33" s="3">
         <v>-761000</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1394200</v>
+        <v>1326400</v>
       </c>
       <c r="E35" s="3">
-        <v>601100</v>
+        <v>571900</v>
       </c>
       <c r="F35" s="3">
-        <v>681800</v>
+        <v>648700</v>
       </c>
       <c r="G35" s="3">
-        <v>244400</v>
+        <v>232500</v>
       </c>
       <c r="H35" s="3">
-        <v>369800</v>
+        <v>351800</v>
       </c>
       <c r="I35" s="3">
-        <v>809500</v>
+        <v>770100</v>
       </c>
       <c r="J35" s="3">
-        <v>640400</v>
+        <v>609200</v>
       </c>
       <c r="K35" s="3">
         <v>-761000</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>865100</v>
+        <v>823100</v>
       </c>
       <c r="E41" s="3">
-        <v>651300</v>
+        <v>619600</v>
       </c>
       <c r="F41" s="3">
-        <v>835600</v>
+        <v>795000</v>
       </c>
       <c r="G41" s="3">
-        <v>648000</v>
+        <v>616500</v>
       </c>
       <c r="H41" s="3">
-        <v>1867600</v>
+        <v>1776900</v>
       </c>
       <c r="I41" s="3">
-        <v>2572400</v>
+        <v>2447400</v>
       </c>
       <c r="J41" s="3">
-        <v>1577500</v>
+        <v>1500800</v>
       </c>
       <c r="K41" s="3">
         <v>2231100</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>342500</v>
+        <v>325900</v>
       </c>
       <c r="E42" s="3">
-        <v>294500</v>
+        <v>280200</v>
       </c>
       <c r="F42" s="3">
-        <v>300000</v>
+        <v>285400</v>
       </c>
       <c r="G42" s="3">
-        <v>544400</v>
+        <v>517900</v>
       </c>
       <c r="H42" s="3">
-        <v>1527300</v>
+        <v>1453100</v>
       </c>
       <c r="I42" s="3">
-        <v>152700</v>
+        <v>145300</v>
       </c>
       <c r="J42" s="3">
-        <v>627300</v>
+        <v>596800</v>
       </c>
       <c r="K42" s="3">
         <v>338700</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>642500</v>
+        <v>611300</v>
       </c>
       <c r="E43" s="3">
-        <v>637100</v>
+        <v>606100</v>
       </c>
       <c r="F43" s="3">
-        <v>736400</v>
+        <v>700600</v>
       </c>
       <c r="G43" s="3">
-        <v>857500</v>
+        <v>815800</v>
       </c>
       <c r="H43" s="3">
-        <v>1826200</v>
+        <v>1737400</v>
       </c>
       <c r="I43" s="3">
-        <v>1908000</v>
+        <v>1815300</v>
       </c>
       <c r="J43" s="3">
-        <v>800700</v>
+        <v>761800</v>
       </c>
       <c r="K43" s="3">
         <v>1017300</v>
@@ -1943,25 +1943,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>40400</v>
+        <v>38400</v>
       </c>
       <c r="E44" s="3">
-        <v>51300</v>
+        <v>48800</v>
       </c>
       <c r="F44" s="3">
-        <v>58900</v>
+        <v>56000</v>
       </c>
       <c r="G44" s="3">
-        <v>63300</v>
+        <v>60200</v>
       </c>
       <c r="H44" s="3">
-        <v>58900</v>
+        <v>56000</v>
       </c>
       <c r="I44" s="3">
-        <v>97100</v>
+        <v>92400</v>
       </c>
       <c r="J44" s="3">
-        <v>70900</v>
+        <v>67500</v>
       </c>
       <c r="K44" s="3">
         <v>68900</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>147300</v>
+        <v>140100</v>
       </c>
       <c r="E45" s="3">
-        <v>123300</v>
+        <v>117300</v>
       </c>
       <c r="F45" s="3">
-        <v>151600</v>
+        <v>144300</v>
       </c>
       <c r="G45" s="3">
-        <v>108000</v>
+        <v>102800</v>
       </c>
       <c r="H45" s="3">
-        <v>1276400</v>
+        <v>1214300</v>
       </c>
       <c r="I45" s="3">
-        <v>108000</v>
+        <v>102800</v>
       </c>
       <c r="J45" s="3">
-        <v>222500</v>
+        <v>211700</v>
       </c>
       <c r="K45" s="3">
         <v>166000</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2037800</v>
+        <v>1938800</v>
       </c>
       <c r="E46" s="3">
-        <v>1757500</v>
+        <v>1672100</v>
       </c>
       <c r="F46" s="3">
-        <v>2082500</v>
+        <v>1981400</v>
       </c>
       <c r="G46" s="3">
-        <v>2221100</v>
+        <v>2113200</v>
       </c>
       <c r="H46" s="3">
-        <v>3636000</v>
+        <v>3459300</v>
       </c>
       <c r="I46" s="3">
-        <v>2665100</v>
+        <v>2535600</v>
       </c>
       <c r="J46" s="3">
-        <v>3298900</v>
+        <v>3138600</v>
       </c>
       <c r="K46" s="3">
         <v>3822000</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>872700</v>
+        <v>830300</v>
       </c>
       <c r="E47" s="3">
-        <v>68700</v>
+        <v>65400</v>
       </c>
       <c r="F47" s="3">
-        <v>73100</v>
+        <v>69500</v>
       </c>
       <c r="G47" s="3">
-        <v>82900</v>
+        <v>78900</v>
       </c>
       <c r="H47" s="3">
-        <v>385100</v>
+        <v>366400</v>
       </c>
       <c r="I47" s="3">
-        <v>4306900</v>
+        <v>4097600</v>
       </c>
       <c r="J47" s="3">
-        <v>2550500</v>
+        <v>2426600</v>
       </c>
       <c r="K47" s="3">
         <v>3135500</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6836700</v>
+        <v>6504500</v>
       </c>
       <c r="E48" s="3">
-        <v>6849800</v>
+        <v>6517000</v>
       </c>
       <c r="F48" s="3">
-        <v>6849800</v>
+        <v>6517000</v>
       </c>
       <c r="G48" s="3">
-        <v>7061500</v>
+        <v>6718300</v>
       </c>
       <c r="H48" s="3">
-        <v>12678600</v>
+        <v>12062500</v>
       </c>
       <c r="I48" s="3">
-        <v>13023300</v>
+        <v>12390500</v>
       </c>
       <c r="J48" s="3">
-        <v>6546600</v>
+        <v>6228400</v>
       </c>
       <c r="K48" s="3">
         <v>7458800</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3279300</v>
+        <v>3119900</v>
       </c>
       <c r="E49" s="3">
-        <v>3532400</v>
+        <v>3360700</v>
       </c>
       <c r="F49" s="3">
-        <v>3267300</v>
+        <v>3108500</v>
       </c>
       <c r="G49" s="3">
-        <v>3457100</v>
+        <v>3289100</v>
       </c>
       <c r="H49" s="3">
-        <v>7290600</v>
+        <v>6936300</v>
       </c>
       <c r="I49" s="3">
-        <v>7045100</v>
+        <v>6702800</v>
       </c>
       <c r="J49" s="3">
-        <v>3763600</v>
+        <v>3580800</v>
       </c>
       <c r="K49" s="3">
         <v>4507400</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>868400</v>
+        <v>826200</v>
       </c>
       <c r="E52" s="3">
-        <v>969800</v>
+        <v>922700</v>
       </c>
       <c r="F52" s="3">
-        <v>1149800</v>
+        <v>1093900</v>
       </c>
       <c r="G52" s="3">
-        <v>1364700</v>
+        <v>1298400</v>
       </c>
       <c r="H52" s="3">
-        <v>1325500</v>
+        <v>1261000</v>
       </c>
       <c r="I52" s="3">
-        <v>1513100</v>
+        <v>1439600</v>
       </c>
       <c r="J52" s="3">
-        <v>3255300</v>
+        <v>3097100</v>
       </c>
       <c r="K52" s="3">
         <v>2027900</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13894900</v>
+        <v>13219700</v>
       </c>
       <c r="E54" s="3">
-        <v>13178200</v>
+        <v>12537800</v>
       </c>
       <c r="F54" s="3">
-        <v>13422600</v>
+        <v>12770300</v>
       </c>
       <c r="G54" s="3">
-        <v>14187300</v>
+        <v>13497900</v>
       </c>
       <c r="H54" s="3">
-        <v>15028400</v>
+        <v>14298100</v>
       </c>
       <c r="I54" s="3">
-        <v>16393100</v>
+        <v>15596500</v>
       </c>
       <c r="J54" s="3">
-        <v>19414900</v>
+        <v>18471500</v>
       </c>
       <c r="K54" s="3">
         <v>20951600</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>561800</v>
+        <v>534500</v>
       </c>
       <c r="E57" s="3">
-        <v>579300</v>
+        <v>551100</v>
       </c>
       <c r="F57" s="3">
-        <v>600000</v>
+        <v>570800</v>
       </c>
       <c r="G57" s="3">
-        <v>626200</v>
+        <v>595800</v>
       </c>
       <c r="H57" s="3">
-        <v>2630200</v>
+        <v>2502400</v>
       </c>
       <c r="I57" s="3">
-        <v>2452400</v>
+        <v>2333200</v>
       </c>
       <c r="J57" s="3">
-        <v>844400</v>
+        <v>803300</v>
       </c>
       <c r="K57" s="3">
         <v>924700</v>
@@ -2445,25 +2445,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>888000</v>
+        <v>844900</v>
       </c>
       <c r="E58" s="3">
-        <v>904400</v>
+        <v>860400</v>
       </c>
       <c r="F58" s="3">
-        <v>1180400</v>
+        <v>1123000</v>
       </c>
       <c r="G58" s="3">
-        <v>795300</v>
+        <v>756600</v>
       </c>
       <c r="H58" s="3">
-        <v>19600</v>
+        <v>18700</v>
       </c>
       <c r="I58" s="3">
-        <v>801800</v>
+        <v>762900</v>
       </c>
       <c r="J58" s="3">
-        <v>924000</v>
+        <v>879100</v>
       </c>
       <c r="K58" s="3">
         <v>1178800</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>973100</v>
+        <v>925800</v>
       </c>
       <c r="E59" s="3">
-        <v>926200</v>
+        <v>881200</v>
       </c>
       <c r="F59" s="3">
-        <v>1093100</v>
+        <v>1040000</v>
       </c>
       <c r="G59" s="3">
-        <v>1233800</v>
+        <v>1173900</v>
       </c>
       <c r="H59" s="3">
-        <v>1639600</v>
+        <v>1560000</v>
       </c>
       <c r="I59" s="3">
-        <v>1625500</v>
+        <v>1546500</v>
       </c>
       <c r="J59" s="3">
-        <v>1550200</v>
+        <v>1474900</v>
       </c>
       <c r="K59" s="3">
         <v>2138500</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2422900</v>
+        <v>2305200</v>
       </c>
       <c r="E60" s="3">
-        <v>2409800</v>
+        <v>2292700</v>
       </c>
       <c r="F60" s="3">
-        <v>2873500</v>
+        <v>2733800</v>
       </c>
       <c r="G60" s="3">
-        <v>2655300</v>
+        <v>2526200</v>
       </c>
       <c r="H60" s="3">
-        <v>2059600</v>
+        <v>1959600</v>
       </c>
       <c r="I60" s="3">
-        <v>2873500</v>
+        <v>2733800</v>
       </c>
       <c r="J60" s="3">
-        <v>3318500</v>
+        <v>3157300</v>
       </c>
       <c r="K60" s="3">
         <v>4242000</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7421500</v>
+        <v>7060800</v>
       </c>
       <c r="E61" s="3">
-        <v>7208700</v>
+        <v>6858400</v>
       </c>
       <c r="F61" s="3">
-        <v>7098600</v>
+        <v>6753600</v>
       </c>
       <c r="G61" s="3">
-        <v>8472000</v>
+        <v>8060300</v>
       </c>
       <c r="H61" s="3">
-        <v>8268000</v>
+        <v>7866200</v>
       </c>
       <c r="I61" s="3">
-        <v>8614900</v>
+        <v>8196300</v>
       </c>
       <c r="J61" s="3">
-        <v>9657800</v>
+        <v>9188500</v>
       </c>
       <c r="K61" s="3">
         <v>10610200</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>526900</v>
+        <v>501300</v>
       </c>
       <c r="E62" s="3">
-        <v>699300</v>
+        <v>665300</v>
       </c>
       <c r="F62" s="3">
-        <v>682900</v>
+        <v>649700</v>
       </c>
       <c r="G62" s="3">
-        <v>1034200</v>
+        <v>983900</v>
       </c>
       <c r="H62" s="3">
-        <v>1081100</v>
+        <v>1028600</v>
       </c>
       <c r="I62" s="3">
-        <v>807300</v>
+        <v>768000</v>
       </c>
       <c r="J62" s="3">
-        <v>529100</v>
+        <v>503400</v>
       </c>
       <c r="K62" s="3">
         <v>857000</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10373500</v>
+        <v>9869400</v>
       </c>
       <c r="E66" s="3">
-        <v>10318900</v>
+        <v>9817500</v>
       </c>
       <c r="F66" s="3">
-        <v>10688700</v>
+        <v>10169300</v>
       </c>
       <c r="G66" s="3">
-        <v>12138600</v>
+        <v>11548700</v>
       </c>
       <c r="H66" s="3">
-        <v>11229800</v>
+        <v>10684100</v>
       </c>
       <c r="I66" s="3">
-        <v>12228000</v>
+        <v>11633800</v>
       </c>
       <c r="J66" s="3">
-        <v>13980000</v>
+        <v>13300700</v>
       </c>
       <c r="K66" s="3">
         <v>15788200</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6025100</v>
+        <v>-5732300</v>
       </c>
       <c r="E72" s="3">
-        <v>-6860700</v>
+        <v>-6527400</v>
       </c>
       <c r="F72" s="3">
-        <v>-6874900</v>
+        <v>-6540800</v>
       </c>
       <c r="G72" s="3">
-        <v>-6914200</v>
+        <v>-6578200</v>
       </c>
       <c r="H72" s="3">
-        <v>-6771300</v>
+        <v>-6442200</v>
       </c>
       <c r="I72" s="3">
-        <v>-6175600</v>
+        <v>-5875600</v>
       </c>
       <c r="J72" s="3">
-        <v>-6545500</v>
+        <v>-6227400</v>
       </c>
       <c r="K72" s="3">
         <v>-6939400</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3521500</v>
+        <v>3350300</v>
       </c>
       <c r="E76" s="3">
-        <v>2859300</v>
+        <v>2720300</v>
       </c>
       <c r="F76" s="3">
-        <v>2733800</v>
+        <v>2601000</v>
       </c>
       <c r="G76" s="3">
-        <v>2048700</v>
+        <v>1949200</v>
       </c>
       <c r="H76" s="3">
-        <v>3798500</v>
+        <v>3614000</v>
       </c>
       <c r="I76" s="3">
-        <v>4165100</v>
+        <v>3962700</v>
       </c>
       <c r="J76" s="3">
-        <v>5434900</v>
+        <v>5170800</v>
       </c>
       <c r="K76" s="3">
         <v>5163400</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1394200</v>
+        <v>1326400</v>
       </c>
       <c r="E81" s="3">
-        <v>601100</v>
+        <v>571900</v>
       </c>
       <c r="F81" s="3">
-        <v>681800</v>
+        <v>648700</v>
       </c>
       <c r="G81" s="3">
-        <v>244400</v>
+        <v>232500</v>
       </c>
       <c r="H81" s="3">
-        <v>369800</v>
+        <v>351800</v>
       </c>
       <c r="I81" s="3">
-        <v>809500</v>
+        <v>770100</v>
       </c>
       <c r="J81" s="3">
-        <v>640400</v>
+        <v>609200</v>
       </c>
       <c r="K81" s="3">
         <v>-761000</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1592700</v>
+        <v>1515300</v>
       </c>
       <c r="E83" s="3">
-        <v>1693100</v>
+        <v>1610800</v>
       </c>
       <c r="F83" s="3">
-        <v>1676700</v>
+        <v>1595300</v>
       </c>
       <c r="G83" s="3">
-        <v>1672400</v>
+        <v>1591100</v>
       </c>
       <c r="H83" s="3">
-        <v>1542500</v>
+        <v>1467600</v>
       </c>
       <c r="I83" s="3">
-        <v>1685500</v>
+        <v>1603600</v>
       </c>
       <c r="J83" s="3">
-        <v>1762900</v>
+        <v>1677200</v>
       </c>
       <c r="K83" s="3">
         <v>1867500</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2320400</v>
+        <v>2207600</v>
       </c>
       <c r="E89" s="3">
-        <v>2227600</v>
+        <v>2119400</v>
       </c>
       <c r="F89" s="3">
-        <v>2189500</v>
+        <v>2083100</v>
       </c>
       <c r="G89" s="3">
-        <v>2299600</v>
+        <v>2187900</v>
       </c>
       <c r="H89" s="3">
-        <v>2127300</v>
+        <v>2023900</v>
       </c>
       <c r="I89" s="3">
-        <v>2091300</v>
+        <v>1989700</v>
       </c>
       <c r="J89" s="3">
-        <v>2419600</v>
+        <v>2302100</v>
       </c>
       <c r="K89" s="3">
         <v>1754600</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1078900</v>
+        <v>-1026500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1005800</v>
+        <v>-956900</v>
       </c>
       <c r="F91" s="3">
-        <v>-937100</v>
+        <v>-891600</v>
       </c>
       <c r="G91" s="3">
-        <v>-891300</v>
+        <v>-848000</v>
       </c>
       <c r="H91" s="3">
-        <v>-898900</v>
+        <v>-855200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1000400</v>
+        <v>-951800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1104000</v>
+        <v>-1050400</v>
       </c>
       <c r="K91" s="3">
         <v>-1011700</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1322200</v>
+        <v>-1257900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1685500</v>
+        <v>-1603600</v>
       </c>
       <c r="F94" s="3">
-        <v>-771300</v>
+        <v>-733800</v>
       </c>
       <c r="G94" s="3">
-        <v>-421100</v>
+        <v>-400600</v>
       </c>
       <c r="H94" s="3">
-        <v>-665500</v>
+        <v>-633100</v>
       </c>
       <c r="I94" s="3">
-        <v>444000</v>
+        <v>422400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1192400</v>
+        <v>-1134400</v>
       </c>
       <c r="K94" s="3">
         <v>1663200</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-604400</v>
+        <v>-575000</v>
       </c>
       <c r="E96" s="3">
-        <v>-577100</v>
+        <v>-549000</v>
       </c>
       <c r="F96" s="3">
-        <v>-558500</v>
+        <v>-531400</v>
       </c>
       <c r="G96" s="3">
-        <v>-577100</v>
+        <v>-549000</v>
       </c>
       <c r="H96" s="3">
-        <v>-560700</v>
+        <v>-533500</v>
       </c>
       <c r="I96" s="3">
-        <v>-531300</v>
+        <v>-505500</v>
       </c>
       <c r="J96" s="3">
-        <v>-540000</v>
+        <v>-513800</v>
       </c>
       <c r="K96" s="3">
         <v>-106100</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-782200</v>
+        <v>-744200</v>
       </c>
       <c r="E100" s="3">
-        <v>-730900</v>
+        <v>-695400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1249100</v>
+        <v>-1188400</v>
       </c>
       <c r="G100" s="3">
-        <v>-2140400</v>
+        <v>-2036400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1816400</v>
+        <v>-1728100</v>
       </c>
       <c r="I100" s="3">
-        <v>-2968400</v>
+        <v>-2824100</v>
       </c>
       <c r="J100" s="3">
-        <v>-1632000</v>
+        <v>-1552700</v>
       </c>
       <c r="K100" s="3">
         <v>-5311300</v>
@@ -3973,13 +3973,13 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K101" s="3">
         <v>2300</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>216000</v>
+        <v>205500</v>
       </c>
       <c r="E102" s="3">
-        <v>-188700</v>
+        <v>-179600</v>
       </c>
       <c r="F102" s="3">
-        <v>169100</v>
+        <v>160900</v>
       </c>
       <c r="G102" s="3">
-        <v>-261800</v>
+        <v>-249100</v>
       </c>
       <c r="H102" s="3">
-        <v>-355600</v>
+        <v>-338400</v>
       </c>
       <c r="I102" s="3">
-        <v>-433100</v>
+        <v>-412000</v>
       </c>
       <c r="J102" s="3">
-        <v>-403600</v>
+        <v>-384000</v>
       </c>
       <c r="K102" s="3">
         <v>-1891200</v>

--- a/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5455200</v>
+        <v>5242300</v>
       </c>
       <c r="E8" s="3">
-        <v>5474900</v>
+        <v>5261300</v>
       </c>
       <c r="F8" s="3">
-        <v>5695000</v>
+        <v>5472700</v>
       </c>
       <c r="G8" s="3">
-        <v>5852700</v>
+        <v>5624300</v>
       </c>
       <c r="H8" s="3">
-        <v>5966900</v>
+        <v>5734100</v>
       </c>
       <c r="I8" s="3">
-        <v>7063900</v>
+        <v>6788300</v>
       </c>
       <c r="J8" s="3">
-        <v>7273600</v>
+        <v>6989800</v>
       </c>
       <c r="K8" s="3">
         <v>8358700</v>
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1347200</v>
+        <v>1294600</v>
       </c>
       <c r="E9" s="3">
-        <v>1332700</v>
+        <v>1280700</v>
       </c>
       <c r="F9" s="3">
-        <v>1350300</v>
+        <v>1297600</v>
       </c>
       <c r="G9" s="3">
-        <v>1382500</v>
+        <v>1328500</v>
       </c>
       <c r="H9" s="3">
-        <v>1416700</v>
+        <v>1361500</v>
       </c>
       <c r="I9" s="3">
-        <v>2102800</v>
+        <v>2020700</v>
       </c>
       <c r="J9" s="3">
-        <v>3375300</v>
+        <v>3243500</v>
       </c>
       <c r="K9" s="3">
         <v>3899900</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4108000</v>
+        <v>3947700</v>
       </c>
       <c r="E10" s="3">
-        <v>4142300</v>
+        <v>3980600</v>
       </c>
       <c r="F10" s="3">
-        <v>4344600</v>
+        <v>4175100</v>
       </c>
       <c r="G10" s="3">
-        <v>4470200</v>
+        <v>4295800</v>
       </c>
       <c r="H10" s="3">
-        <v>4550200</v>
+        <v>4372600</v>
       </c>
       <c r="I10" s="3">
-        <v>4961200</v>
+        <v>4767600</v>
       </c>
       <c r="J10" s="3">
-        <v>3898400</v>
+        <v>3746200</v>
       </c>
       <c r="K10" s="3">
         <v>4458800</v>
@@ -937,25 +937,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-840700</v>
+        <v>-807900</v>
       </c>
       <c r="E14" s="3">
-        <v>37400</v>
+        <v>35900</v>
       </c>
       <c r="F14" s="3">
-        <v>-82000</v>
+        <v>-78800</v>
       </c>
       <c r="G14" s="3">
-        <v>141200</v>
+        <v>135600</v>
       </c>
       <c r="H14" s="3">
-        <v>156700</v>
+        <v>150600</v>
       </c>
       <c r="I14" s="3">
-        <v>77800</v>
+        <v>74800</v>
       </c>
       <c r="J14" s="3">
-        <v>163000</v>
+        <v>156600</v>
       </c>
       <c r="K14" s="3">
         <v>129800</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1496700</v>
+        <v>1438300</v>
       </c>
       <c r="E15" s="3">
-        <v>1582800</v>
+        <v>1521000</v>
       </c>
       <c r="F15" s="3">
-        <v>1574500</v>
+        <v>1513100</v>
       </c>
       <c r="G15" s="3">
-        <v>1572400</v>
+        <v>1511100</v>
       </c>
       <c r="H15" s="3">
-        <v>1476900</v>
+        <v>1419300</v>
       </c>
       <c r="I15" s="3">
-        <v>1525700</v>
+        <v>1466200</v>
       </c>
       <c r="J15" s="3">
-        <v>1618100</v>
+        <v>1554900</v>
       </c>
       <c r="K15" s="3">
         <v>1829100</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3522600</v>
+        <v>3385200</v>
       </c>
       <c r="E17" s="3">
-        <v>4528400</v>
+        <v>4351700</v>
       </c>
       <c r="F17" s="3">
-        <v>4614500</v>
+        <v>4434400</v>
       </c>
       <c r="G17" s="3">
-        <v>5001600</v>
+        <v>4806500</v>
       </c>
       <c r="H17" s="3">
-        <v>5183300</v>
+        <v>4981000</v>
       </c>
       <c r="I17" s="3">
-        <v>6146400</v>
+        <v>5906600</v>
       </c>
       <c r="J17" s="3">
-        <v>6538800</v>
+        <v>6283600</v>
       </c>
       <c r="K17" s="3">
         <v>6990300</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1932600</v>
+        <v>1857200</v>
       </c>
       <c r="E18" s="3">
-        <v>946600</v>
+        <v>909600</v>
       </c>
       <c r="F18" s="3">
-        <v>1080500</v>
+        <v>1038300</v>
       </c>
       <c r="G18" s="3">
-        <v>851100</v>
+        <v>817900</v>
       </c>
       <c r="H18" s="3">
-        <v>783600</v>
+        <v>753000</v>
       </c>
       <c r="I18" s="3">
-        <v>917500</v>
+        <v>881700</v>
       </c>
       <c r="J18" s="3">
-        <v>734800</v>
+        <v>706200</v>
       </c>
       <c r="K18" s="3">
         <v>1368500</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-23900</v>
+        <v>-22900</v>
       </c>
       <c r="E20" s="3">
-        <v>-35300</v>
+        <v>-33900</v>
       </c>
       <c r="F20" s="3">
-        <v>-85100</v>
+        <v>-81800</v>
       </c>
       <c r="G20" s="3">
-        <v>35300</v>
+        <v>33900</v>
       </c>
       <c r="H20" s="3">
-        <v>84100</v>
+        <v>80800</v>
       </c>
       <c r="I20" s="3">
-        <v>-16600</v>
+        <v>-16000</v>
       </c>
       <c r="J20" s="3">
-        <v>394400</v>
+        <v>379000</v>
       </c>
       <c r="K20" s="3">
         <v>-357900</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3443300</v>
+        <v>3289100</v>
       </c>
       <c r="E21" s="3">
-        <v>2542600</v>
+        <v>2422300</v>
       </c>
       <c r="F21" s="3">
-        <v>2610900</v>
+        <v>2488100</v>
       </c>
       <c r="G21" s="3">
-        <v>2497700</v>
+        <v>2379400</v>
       </c>
       <c r="H21" s="3">
-        <v>2353900</v>
+        <v>2242900</v>
       </c>
       <c r="I21" s="3">
-        <v>2524800</v>
+        <v>2405300</v>
       </c>
       <c r="J21" s="3">
-        <v>2827800</v>
+        <v>2695500</v>
       </c>
       <c r="K21" s="3">
         <v>2882400</v>
@@ -1202,25 +1202,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>220000</v>
+        <v>211400</v>
       </c>
       <c r="E22" s="3">
-        <v>237700</v>
+        <v>228400</v>
       </c>
       <c r="F22" s="3">
-        <v>307200</v>
+        <v>295200</v>
       </c>
       <c r="G22" s="3">
-        <v>351800</v>
+        <v>338100</v>
       </c>
       <c r="H22" s="3">
-        <v>339400</v>
+        <v>326100</v>
       </c>
       <c r="I22" s="3">
-        <v>417200</v>
+        <v>401000</v>
       </c>
       <c r="J22" s="3">
-        <v>501300</v>
+        <v>481700</v>
       </c>
       <c r="K22" s="3">
         <v>665000</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1688700</v>
+        <v>1622800</v>
       </c>
       <c r="E23" s="3">
-        <v>673600</v>
+        <v>647300</v>
       </c>
       <c r="F23" s="3">
-        <v>688100</v>
+        <v>661300</v>
       </c>
       <c r="G23" s="3">
-        <v>534500</v>
+        <v>513700</v>
       </c>
       <c r="H23" s="3">
-        <v>528300</v>
+        <v>507700</v>
       </c>
       <c r="I23" s="3">
-        <v>483700</v>
+        <v>464800</v>
       </c>
       <c r="J23" s="3">
-        <v>627900</v>
+        <v>603400</v>
       </c>
       <c r="K23" s="3">
         <v>345500</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>357000</v>
+        <v>343100</v>
       </c>
       <c r="E24" s="3">
-        <v>91300</v>
+        <v>87800</v>
       </c>
       <c r="F24" s="3">
-        <v>50900</v>
+        <v>48900</v>
       </c>
       <c r="G24" s="3">
-        <v>232500</v>
+        <v>223400</v>
       </c>
       <c r="H24" s="3">
-        <v>123500</v>
+        <v>118700</v>
       </c>
       <c r="I24" s="3">
-        <v>99600</v>
+        <v>95800</v>
       </c>
       <c r="J24" s="3">
-        <v>84100</v>
+        <v>80800</v>
       </c>
       <c r="K24" s="3">
         <v>50800</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1331600</v>
+        <v>1279700</v>
       </c>
       <c r="E26" s="3">
-        <v>582300</v>
+        <v>559500</v>
       </c>
       <c r="F26" s="3">
-        <v>637300</v>
+        <v>612400</v>
       </c>
       <c r="G26" s="3">
-        <v>302000</v>
+        <v>290200</v>
       </c>
       <c r="H26" s="3">
-        <v>404800</v>
+        <v>389000</v>
       </c>
       <c r="I26" s="3">
-        <v>384000</v>
+        <v>369000</v>
       </c>
       <c r="J26" s="3">
-        <v>543900</v>
+        <v>522600</v>
       </c>
       <c r="K26" s="3">
         <v>294700</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1321200</v>
+        <v>1269700</v>
       </c>
       <c r="E27" s="3">
-        <v>571900</v>
+        <v>549600</v>
       </c>
       <c r="F27" s="3">
-        <v>636200</v>
+        <v>611400</v>
       </c>
       <c r="G27" s="3">
-        <v>242900</v>
+        <v>233400</v>
       </c>
       <c r="H27" s="3">
-        <v>351800</v>
+        <v>338100</v>
       </c>
       <c r="I27" s="3">
-        <v>323800</v>
+        <v>311200</v>
       </c>
       <c r="J27" s="3">
-        <v>469100</v>
+        <v>450800</v>
       </c>
       <c r="K27" s="3">
         <v>193100</v>
@@ -1475,25 +1475,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="G29" s="3">
-        <v>-10400</v>
+        <v>-10000</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>446300</v>
+        <v>428900</v>
       </c>
       <c r="J29" s="3">
-        <v>140100</v>
+        <v>134600</v>
       </c>
       <c r="K29" s="3">
         <v>-954100</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>23900</v>
+        <v>22900</v>
       </c>
       <c r="E32" s="3">
-        <v>35300</v>
+        <v>33900</v>
       </c>
       <c r="F32" s="3">
-        <v>85100</v>
+        <v>81800</v>
       </c>
       <c r="G32" s="3">
-        <v>-35300</v>
+        <v>-33900</v>
       </c>
       <c r="H32" s="3">
-        <v>-84100</v>
+        <v>-80800</v>
       </c>
       <c r="I32" s="3">
-        <v>16600</v>
+        <v>16000</v>
       </c>
       <c r="J32" s="3">
-        <v>-394400</v>
+        <v>-379000</v>
       </c>
       <c r="K32" s="3">
         <v>357900</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1326400</v>
+        <v>1274700</v>
       </c>
       <c r="E33" s="3">
-        <v>571900</v>
+        <v>549600</v>
       </c>
       <c r="F33" s="3">
-        <v>648700</v>
+        <v>623400</v>
       </c>
       <c r="G33" s="3">
-        <v>232500</v>
+        <v>223400</v>
       </c>
       <c r="H33" s="3">
-        <v>351800</v>
+        <v>338100</v>
       </c>
       <c r="I33" s="3">
-        <v>770100</v>
+        <v>740100</v>
       </c>
       <c r="J33" s="3">
-        <v>609200</v>
+        <v>585500</v>
       </c>
       <c r="K33" s="3">
         <v>-761000</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1326400</v>
+        <v>1274700</v>
       </c>
       <c r="E35" s="3">
-        <v>571900</v>
+        <v>549600</v>
       </c>
       <c r="F35" s="3">
-        <v>648700</v>
+        <v>623400</v>
       </c>
       <c r="G35" s="3">
-        <v>232500</v>
+        <v>223400</v>
       </c>
       <c r="H35" s="3">
-        <v>351800</v>
+        <v>338100</v>
       </c>
       <c r="I35" s="3">
-        <v>770100</v>
+        <v>740100</v>
       </c>
       <c r="J35" s="3">
-        <v>609200</v>
+        <v>585500</v>
       </c>
       <c r="K35" s="3">
         <v>-761000</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>823100</v>
+        <v>790900</v>
       </c>
       <c r="E41" s="3">
-        <v>619600</v>
+        <v>595400</v>
       </c>
       <c r="F41" s="3">
-        <v>795000</v>
+        <v>764000</v>
       </c>
       <c r="G41" s="3">
-        <v>616500</v>
+        <v>592500</v>
       </c>
       <c r="H41" s="3">
-        <v>1776900</v>
+        <v>1707500</v>
       </c>
       <c r="I41" s="3">
-        <v>2447400</v>
+        <v>2351900</v>
       </c>
       <c r="J41" s="3">
-        <v>1500800</v>
+        <v>1442200</v>
       </c>
       <c r="K41" s="3">
         <v>2231100</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>325900</v>
+        <v>313200</v>
       </c>
       <c r="E42" s="3">
-        <v>280200</v>
+        <v>269300</v>
       </c>
       <c r="F42" s="3">
-        <v>285400</v>
+        <v>274300</v>
       </c>
       <c r="G42" s="3">
-        <v>517900</v>
+        <v>497700</v>
       </c>
       <c r="H42" s="3">
-        <v>1453100</v>
+        <v>1396400</v>
       </c>
       <c r="I42" s="3">
-        <v>145300</v>
+        <v>139600</v>
       </c>
       <c r="J42" s="3">
-        <v>596800</v>
+        <v>573500</v>
       </c>
       <c r="K42" s="3">
         <v>338700</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>611300</v>
+        <v>587500</v>
       </c>
       <c r="E43" s="3">
-        <v>606100</v>
+        <v>582500</v>
       </c>
       <c r="F43" s="3">
-        <v>700600</v>
+        <v>673200</v>
       </c>
       <c r="G43" s="3">
-        <v>815800</v>
+        <v>784000</v>
       </c>
       <c r="H43" s="3">
-        <v>1737400</v>
+        <v>1669600</v>
       </c>
       <c r="I43" s="3">
-        <v>1815300</v>
+        <v>1744500</v>
       </c>
       <c r="J43" s="3">
-        <v>761800</v>
+        <v>732100</v>
       </c>
       <c r="K43" s="3">
         <v>1017300</v>
@@ -1943,25 +1943,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>38400</v>
+        <v>36900</v>
       </c>
       <c r="E44" s="3">
-        <v>48800</v>
+        <v>46900</v>
       </c>
       <c r="F44" s="3">
-        <v>56000</v>
+        <v>53900</v>
       </c>
       <c r="G44" s="3">
-        <v>60200</v>
+        <v>57800</v>
       </c>
       <c r="H44" s="3">
-        <v>56000</v>
+        <v>53900</v>
       </c>
       <c r="I44" s="3">
-        <v>92400</v>
+        <v>88800</v>
       </c>
       <c r="J44" s="3">
-        <v>67500</v>
+        <v>64800</v>
       </c>
       <c r="K44" s="3">
         <v>68900</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>140100</v>
+        <v>134600</v>
       </c>
       <c r="E45" s="3">
-        <v>117300</v>
+        <v>112700</v>
       </c>
       <c r="F45" s="3">
-        <v>144300</v>
+        <v>138600</v>
       </c>
       <c r="G45" s="3">
-        <v>102800</v>
+        <v>98700</v>
       </c>
       <c r="H45" s="3">
-        <v>1214300</v>
+        <v>1167000</v>
       </c>
       <c r="I45" s="3">
-        <v>102800</v>
+        <v>98700</v>
       </c>
       <c r="J45" s="3">
-        <v>211700</v>
+        <v>203500</v>
       </c>
       <c r="K45" s="3">
         <v>166000</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1938800</v>
+        <v>1863100</v>
       </c>
       <c r="E46" s="3">
-        <v>1672100</v>
+        <v>1606800</v>
       </c>
       <c r="F46" s="3">
-        <v>1981400</v>
+        <v>1904000</v>
       </c>
       <c r="G46" s="3">
-        <v>2113200</v>
+        <v>2030700</v>
       </c>
       <c r="H46" s="3">
-        <v>3459300</v>
+        <v>3324300</v>
       </c>
       <c r="I46" s="3">
-        <v>2535600</v>
+        <v>2436600</v>
       </c>
       <c r="J46" s="3">
-        <v>3138600</v>
+        <v>3016100</v>
       </c>
       <c r="K46" s="3">
         <v>3822000</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>830300</v>
+        <v>797900</v>
       </c>
       <c r="E47" s="3">
-        <v>65400</v>
+        <v>62800</v>
       </c>
       <c r="F47" s="3">
-        <v>69500</v>
+        <v>66800</v>
       </c>
       <c r="G47" s="3">
-        <v>78900</v>
+        <v>75800</v>
       </c>
       <c r="H47" s="3">
-        <v>366400</v>
+        <v>352100</v>
       </c>
       <c r="I47" s="3">
-        <v>4097600</v>
+        <v>3937700</v>
       </c>
       <c r="J47" s="3">
-        <v>2426600</v>
+        <v>2331900</v>
       </c>
       <c r="K47" s="3">
         <v>3135500</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6504500</v>
+        <v>6250700</v>
       </c>
       <c r="E48" s="3">
-        <v>6517000</v>
+        <v>6262700</v>
       </c>
       <c r="F48" s="3">
-        <v>6517000</v>
+        <v>6262700</v>
       </c>
       <c r="G48" s="3">
-        <v>6718300</v>
+        <v>6456200</v>
       </c>
       <c r="H48" s="3">
-        <v>12062500</v>
+        <v>11591800</v>
       </c>
       <c r="I48" s="3">
-        <v>12390500</v>
+        <v>11907000</v>
       </c>
       <c r="J48" s="3">
-        <v>6228400</v>
+        <v>5985400</v>
       </c>
       <c r="K48" s="3">
         <v>7458800</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3119900</v>
+        <v>2998200</v>
       </c>
       <c r="E49" s="3">
-        <v>3360700</v>
+        <v>3229600</v>
       </c>
       <c r="F49" s="3">
-        <v>3108500</v>
+        <v>2987200</v>
       </c>
       <c r="G49" s="3">
-        <v>3289100</v>
+        <v>3160800</v>
       </c>
       <c r="H49" s="3">
-        <v>6936300</v>
+        <v>6665600</v>
       </c>
       <c r="I49" s="3">
-        <v>6702800</v>
+        <v>6441200</v>
       </c>
       <c r="J49" s="3">
-        <v>3580800</v>
+        <v>3441000</v>
       </c>
       <c r="K49" s="3">
         <v>4507400</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>826200</v>
+        <v>793900</v>
       </c>
       <c r="E52" s="3">
-        <v>922700</v>
+        <v>886700</v>
       </c>
       <c r="F52" s="3">
-        <v>1093900</v>
+        <v>1051300</v>
       </c>
       <c r="G52" s="3">
-        <v>1298400</v>
+        <v>1247700</v>
       </c>
       <c r="H52" s="3">
-        <v>1261000</v>
+        <v>1211800</v>
       </c>
       <c r="I52" s="3">
-        <v>1439600</v>
+        <v>1383400</v>
       </c>
       <c r="J52" s="3">
-        <v>3097100</v>
+        <v>2976200</v>
       </c>
       <c r="K52" s="3">
         <v>2027900</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13219700</v>
+        <v>12703900</v>
       </c>
       <c r="E54" s="3">
-        <v>12537800</v>
+        <v>12048600</v>
       </c>
       <c r="F54" s="3">
-        <v>12770300</v>
+        <v>12272000</v>
       </c>
       <c r="G54" s="3">
-        <v>13497900</v>
+        <v>12971200</v>
       </c>
       <c r="H54" s="3">
-        <v>14298100</v>
+        <v>13740200</v>
       </c>
       <c r="I54" s="3">
-        <v>15596500</v>
+        <v>14987900</v>
       </c>
       <c r="J54" s="3">
-        <v>18471500</v>
+        <v>17750700</v>
       </c>
       <c r="K54" s="3">
         <v>20951600</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>534500</v>
+        <v>513700</v>
       </c>
       <c r="E57" s="3">
-        <v>551100</v>
+        <v>529600</v>
       </c>
       <c r="F57" s="3">
-        <v>570800</v>
+        <v>548600</v>
       </c>
       <c r="G57" s="3">
-        <v>595800</v>
+        <v>572500</v>
       </c>
       <c r="H57" s="3">
-        <v>2502400</v>
+        <v>2404700</v>
       </c>
       <c r="I57" s="3">
-        <v>2333200</v>
+        <v>2242200</v>
       </c>
       <c r="J57" s="3">
-        <v>803300</v>
+        <v>772000</v>
       </c>
       <c r="K57" s="3">
         <v>924700</v>
@@ -2445,25 +2445,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>844900</v>
+        <v>811900</v>
       </c>
       <c r="E58" s="3">
-        <v>860400</v>
+        <v>826800</v>
       </c>
       <c r="F58" s="3">
-        <v>1123000</v>
+        <v>1079200</v>
       </c>
       <c r="G58" s="3">
-        <v>756600</v>
+        <v>727100</v>
       </c>
       <c r="H58" s="3">
-        <v>18700</v>
+        <v>18000</v>
       </c>
       <c r="I58" s="3">
-        <v>762900</v>
+        <v>733100</v>
       </c>
       <c r="J58" s="3">
-        <v>879100</v>
+        <v>844800</v>
       </c>
       <c r="K58" s="3">
         <v>1178800</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>925800</v>
+        <v>889700</v>
       </c>
       <c r="E59" s="3">
-        <v>881200</v>
+        <v>846800</v>
       </c>
       <c r="F59" s="3">
-        <v>1040000</v>
+        <v>999400</v>
       </c>
       <c r="G59" s="3">
-        <v>1173900</v>
+        <v>1128100</v>
       </c>
       <c r="H59" s="3">
-        <v>1560000</v>
+        <v>1499100</v>
       </c>
       <c r="I59" s="3">
-        <v>1546500</v>
+        <v>1486100</v>
       </c>
       <c r="J59" s="3">
-        <v>1474900</v>
+        <v>1417300</v>
       </c>
       <c r="K59" s="3">
         <v>2138500</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2305200</v>
+        <v>2215200</v>
       </c>
       <c r="E60" s="3">
-        <v>2292700</v>
+        <v>2203300</v>
       </c>
       <c r="F60" s="3">
-        <v>2733800</v>
+        <v>2627200</v>
       </c>
       <c r="G60" s="3">
-        <v>2526200</v>
+        <v>2427700</v>
       </c>
       <c r="H60" s="3">
-        <v>1959600</v>
+        <v>1883100</v>
       </c>
       <c r="I60" s="3">
-        <v>2733800</v>
+        <v>2627200</v>
       </c>
       <c r="J60" s="3">
-        <v>3157300</v>
+        <v>3034100</v>
       </c>
       <c r="K60" s="3">
         <v>4242000</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7060800</v>
+        <v>6785300</v>
       </c>
       <c r="E61" s="3">
-        <v>6858400</v>
+        <v>6590800</v>
       </c>
       <c r="F61" s="3">
-        <v>6753600</v>
+        <v>6490100</v>
       </c>
       <c r="G61" s="3">
-        <v>8060300</v>
+        <v>7745800</v>
       </c>
       <c r="H61" s="3">
-        <v>7866200</v>
+        <v>7559300</v>
       </c>
       <c r="I61" s="3">
-        <v>8196300</v>
+        <v>7876500</v>
       </c>
       <c r="J61" s="3">
-        <v>9188500</v>
+        <v>8830000</v>
       </c>
       <c r="K61" s="3">
         <v>10610200</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>501300</v>
+        <v>481700</v>
       </c>
       <c r="E62" s="3">
-        <v>665300</v>
+        <v>639300</v>
       </c>
       <c r="F62" s="3">
-        <v>649700</v>
+        <v>624400</v>
       </c>
       <c r="G62" s="3">
-        <v>983900</v>
+        <v>945500</v>
       </c>
       <c r="H62" s="3">
-        <v>1028600</v>
+        <v>988400</v>
       </c>
       <c r="I62" s="3">
-        <v>768000</v>
+        <v>738100</v>
       </c>
       <c r="J62" s="3">
-        <v>503400</v>
+        <v>483700</v>
       </c>
       <c r="K62" s="3">
         <v>857000</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9869400</v>
+        <v>9484300</v>
       </c>
       <c r="E66" s="3">
-        <v>9817500</v>
+        <v>9434400</v>
       </c>
       <c r="F66" s="3">
-        <v>10169300</v>
+        <v>9772500</v>
       </c>
       <c r="G66" s="3">
-        <v>11548700</v>
+        <v>11098100</v>
       </c>
       <c r="H66" s="3">
-        <v>10684100</v>
+        <v>10267200</v>
       </c>
       <c r="I66" s="3">
-        <v>11633800</v>
+        <v>11179900</v>
       </c>
       <c r="J66" s="3">
-        <v>13300700</v>
+        <v>12781700</v>
       </c>
       <c r="K66" s="3">
         <v>15788200</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5732300</v>
+        <v>-5508600</v>
       </c>
       <c r="E72" s="3">
-        <v>-6527400</v>
+        <v>-6272600</v>
       </c>
       <c r="F72" s="3">
-        <v>-6540800</v>
+        <v>-6285600</v>
       </c>
       <c r="G72" s="3">
-        <v>-6578200</v>
+        <v>-6321500</v>
       </c>
       <c r="H72" s="3">
-        <v>-6442200</v>
+        <v>-6190900</v>
       </c>
       <c r="I72" s="3">
-        <v>-5875600</v>
+        <v>-5646300</v>
       </c>
       <c r="J72" s="3">
-        <v>-6227400</v>
+        <v>-5984400</v>
       </c>
       <c r="K72" s="3">
         <v>-6939400</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3350300</v>
+        <v>3219600</v>
       </c>
       <c r="E76" s="3">
-        <v>2720300</v>
+        <v>2614200</v>
       </c>
       <c r="F76" s="3">
-        <v>2601000</v>
+        <v>2499500</v>
       </c>
       <c r="G76" s="3">
-        <v>1949200</v>
+        <v>1873100</v>
       </c>
       <c r="H76" s="3">
-        <v>3614000</v>
+        <v>3472900</v>
       </c>
       <c r="I76" s="3">
-        <v>3962700</v>
+        <v>3808100</v>
       </c>
       <c r="J76" s="3">
-        <v>5170800</v>
+        <v>4969000</v>
       </c>
       <c r="K76" s="3">
         <v>5163400</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1326400</v>
+        <v>1274700</v>
       </c>
       <c r="E81" s="3">
-        <v>571900</v>
+        <v>549600</v>
       </c>
       <c r="F81" s="3">
-        <v>648700</v>
+        <v>623400</v>
       </c>
       <c r="G81" s="3">
-        <v>232500</v>
+        <v>223400</v>
       </c>
       <c r="H81" s="3">
-        <v>351800</v>
+        <v>338100</v>
       </c>
       <c r="I81" s="3">
-        <v>770100</v>
+        <v>740100</v>
       </c>
       <c r="J81" s="3">
-        <v>609200</v>
+        <v>585500</v>
       </c>
       <c r="K81" s="3">
         <v>-761000</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1515300</v>
+        <v>1456200</v>
       </c>
       <c r="E83" s="3">
-        <v>1610800</v>
+        <v>1548000</v>
       </c>
       <c r="F83" s="3">
-        <v>1595300</v>
+        <v>1533000</v>
       </c>
       <c r="G83" s="3">
-        <v>1591100</v>
+        <v>1529000</v>
       </c>
       <c r="H83" s="3">
-        <v>1467600</v>
+        <v>1410300</v>
       </c>
       <c r="I83" s="3">
-        <v>1603600</v>
+        <v>1541000</v>
       </c>
       <c r="J83" s="3">
-        <v>1677200</v>
+        <v>1611800</v>
       </c>
       <c r="K83" s="3">
         <v>1867500</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2207600</v>
+        <v>2121500</v>
       </c>
       <c r="E89" s="3">
-        <v>2119400</v>
+        <v>2036700</v>
       </c>
       <c r="F89" s="3">
-        <v>2083100</v>
+        <v>2001800</v>
       </c>
       <c r="G89" s="3">
-        <v>2187900</v>
+        <v>2102500</v>
       </c>
       <c r="H89" s="3">
-        <v>2023900</v>
+        <v>1944900</v>
       </c>
       <c r="I89" s="3">
-        <v>1989700</v>
+        <v>1912000</v>
       </c>
       <c r="J89" s="3">
-        <v>2302100</v>
+        <v>2212200</v>
       </c>
       <c r="K89" s="3">
         <v>1754600</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1026500</v>
+        <v>-986400</v>
       </c>
       <c r="E91" s="3">
-        <v>-956900</v>
+        <v>-919600</v>
       </c>
       <c r="F91" s="3">
-        <v>-891600</v>
+        <v>-856800</v>
       </c>
       <c r="G91" s="3">
-        <v>-848000</v>
+        <v>-814900</v>
       </c>
       <c r="H91" s="3">
-        <v>-855200</v>
+        <v>-821900</v>
       </c>
       <c r="I91" s="3">
-        <v>-951800</v>
+        <v>-914600</v>
       </c>
       <c r="J91" s="3">
-        <v>-1050400</v>
+        <v>-1009400</v>
       </c>
       <c r="K91" s="3">
         <v>-1011700</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1257900</v>
+        <v>-1208800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1603600</v>
+        <v>-1541000</v>
       </c>
       <c r="F94" s="3">
-        <v>-733800</v>
+        <v>-705200</v>
       </c>
       <c r="G94" s="3">
-        <v>-400600</v>
+        <v>-385000</v>
       </c>
       <c r="H94" s="3">
-        <v>-633100</v>
+        <v>-608400</v>
       </c>
       <c r="I94" s="3">
-        <v>422400</v>
+        <v>405900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1134400</v>
+        <v>-1090200</v>
       </c>
       <c r="K94" s="3">
         <v>1663200</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-575000</v>
+        <v>-552600</v>
       </c>
       <c r="E96" s="3">
-        <v>-549000</v>
+        <v>-527600</v>
       </c>
       <c r="F96" s="3">
-        <v>-531400</v>
+        <v>-510700</v>
       </c>
       <c r="G96" s="3">
-        <v>-549000</v>
+        <v>-527600</v>
       </c>
       <c r="H96" s="3">
-        <v>-533500</v>
+        <v>-512700</v>
       </c>
       <c r="I96" s="3">
-        <v>-505500</v>
+        <v>-485700</v>
       </c>
       <c r="J96" s="3">
-        <v>-513800</v>
+        <v>-493700</v>
       </c>
       <c r="K96" s="3">
         <v>-106100</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-744200</v>
+        <v>-715100</v>
       </c>
       <c r="E100" s="3">
-        <v>-695400</v>
+        <v>-668300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1188400</v>
+        <v>-1142000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2036400</v>
+        <v>-1956900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1728100</v>
+        <v>-1660700</v>
       </c>
       <c r="I100" s="3">
-        <v>-2824100</v>
+        <v>-2713900</v>
       </c>
       <c r="J100" s="3">
-        <v>-1552700</v>
+        <v>-1492100</v>
       </c>
       <c r="K100" s="3">
         <v>-5311300</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>205500</v>
+        <v>197500</v>
       </c>
       <c r="E102" s="3">
-        <v>-179600</v>
+        <v>-172600</v>
       </c>
       <c r="F102" s="3">
-        <v>160900</v>
+        <v>154600</v>
       </c>
       <c r="G102" s="3">
-        <v>-249100</v>
+        <v>-239400</v>
       </c>
       <c r="H102" s="3">
-        <v>-338400</v>
+        <v>-325200</v>
       </c>
       <c r="I102" s="3">
-        <v>-412000</v>
+        <v>-396000</v>
       </c>
       <c r="J102" s="3">
-        <v>-384000</v>
+        <v>-369000</v>
       </c>
       <c r="K102" s="3">
         <v>-1891200</v>

--- a/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5242300</v>
+        <v>5365300</v>
       </c>
       <c r="E8" s="3">
-        <v>5261300</v>
+        <v>5384700</v>
       </c>
       <c r="F8" s="3">
-        <v>5472700</v>
+        <v>5601100</v>
       </c>
       <c r="G8" s="3">
-        <v>5624300</v>
+        <v>5756300</v>
       </c>
       <c r="H8" s="3">
-        <v>5734100</v>
+        <v>5868600</v>
       </c>
       <c r="I8" s="3">
-        <v>6788300</v>
+        <v>6947600</v>
       </c>
       <c r="J8" s="3">
-        <v>6989800</v>
+        <v>7153800</v>
       </c>
       <c r="K8" s="3">
         <v>8358700</v>
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1294600</v>
+        <v>1325000</v>
       </c>
       <c r="E9" s="3">
-        <v>1280700</v>
+        <v>1310700</v>
       </c>
       <c r="F9" s="3">
-        <v>1297600</v>
+        <v>1328100</v>
       </c>
       <c r="G9" s="3">
-        <v>1328500</v>
+        <v>1359700</v>
       </c>
       <c r="H9" s="3">
-        <v>1361500</v>
+        <v>1393400</v>
       </c>
       <c r="I9" s="3">
-        <v>2020700</v>
+        <v>2068100</v>
       </c>
       <c r="J9" s="3">
-        <v>3243500</v>
+        <v>3319600</v>
       </c>
       <c r="K9" s="3">
         <v>3899900</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3947700</v>
+        <v>4040300</v>
       </c>
       <c r="E10" s="3">
-        <v>3980600</v>
+        <v>4074000</v>
       </c>
       <c r="F10" s="3">
-        <v>4175100</v>
+        <v>4273100</v>
       </c>
       <c r="G10" s="3">
-        <v>4295800</v>
+        <v>4396600</v>
       </c>
       <c r="H10" s="3">
-        <v>4372600</v>
+        <v>4475200</v>
       </c>
       <c r="I10" s="3">
-        <v>4767600</v>
+        <v>4879400</v>
       </c>
       <c r="J10" s="3">
-        <v>3746200</v>
+        <v>3834100</v>
       </c>
       <c r="K10" s="3">
         <v>4458800</v>
@@ -937,25 +937,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-807900</v>
+        <v>-826800</v>
       </c>
       <c r="E14" s="3">
-        <v>35900</v>
+        <v>36700</v>
       </c>
       <c r="F14" s="3">
-        <v>-78800</v>
+        <v>-80600</v>
       </c>
       <c r="G14" s="3">
-        <v>135600</v>
+        <v>138800</v>
       </c>
       <c r="H14" s="3">
-        <v>150600</v>
+        <v>154100</v>
       </c>
       <c r="I14" s="3">
-        <v>74800</v>
+        <v>76600</v>
       </c>
       <c r="J14" s="3">
-        <v>156600</v>
+        <v>160300</v>
       </c>
       <c r="K14" s="3">
         <v>129800</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1438300</v>
+        <v>1472000</v>
       </c>
       <c r="E15" s="3">
-        <v>1521000</v>
+        <v>1556700</v>
       </c>
       <c r="F15" s="3">
-        <v>1513100</v>
+        <v>1548600</v>
       </c>
       <c r="G15" s="3">
-        <v>1511100</v>
+        <v>1546500</v>
       </c>
       <c r="H15" s="3">
-        <v>1419300</v>
+        <v>1452600</v>
       </c>
       <c r="I15" s="3">
-        <v>1466200</v>
+        <v>1500600</v>
       </c>
       <c r="J15" s="3">
-        <v>1554900</v>
+        <v>1591400</v>
       </c>
       <c r="K15" s="3">
         <v>1829100</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3385200</v>
+        <v>3464600</v>
       </c>
       <c r="E17" s="3">
-        <v>4351700</v>
+        <v>4453800</v>
       </c>
       <c r="F17" s="3">
-        <v>4434400</v>
+        <v>4538500</v>
       </c>
       <c r="G17" s="3">
-        <v>4806500</v>
+        <v>4919200</v>
       </c>
       <c r="H17" s="3">
-        <v>4981000</v>
+        <v>5097900</v>
       </c>
       <c r="I17" s="3">
-        <v>5906600</v>
+        <v>6045200</v>
       </c>
       <c r="J17" s="3">
-        <v>6283600</v>
+        <v>6431000</v>
       </c>
       <c r="K17" s="3">
         <v>6990300</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1857200</v>
+        <v>1900700</v>
       </c>
       <c r="E18" s="3">
-        <v>909600</v>
+        <v>931000</v>
       </c>
       <c r="F18" s="3">
-        <v>1038300</v>
+        <v>1062700</v>
       </c>
       <c r="G18" s="3">
-        <v>817900</v>
+        <v>837100</v>
       </c>
       <c r="H18" s="3">
-        <v>753000</v>
+        <v>770700</v>
       </c>
       <c r="I18" s="3">
-        <v>881700</v>
+        <v>902400</v>
       </c>
       <c r="J18" s="3">
-        <v>706200</v>
+        <v>722700</v>
       </c>
       <c r="K18" s="3">
         <v>1368500</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-22900</v>
+        <v>-23500</v>
       </c>
       <c r="E20" s="3">
-        <v>-33900</v>
+        <v>-34700</v>
       </c>
       <c r="F20" s="3">
-        <v>-81800</v>
+        <v>-83700</v>
       </c>
       <c r="G20" s="3">
-        <v>33900</v>
+        <v>34700</v>
       </c>
       <c r="H20" s="3">
-        <v>80800</v>
+        <v>82700</v>
       </c>
       <c r="I20" s="3">
-        <v>-16000</v>
+        <v>-16300</v>
       </c>
       <c r="J20" s="3">
-        <v>379000</v>
+        <v>387900</v>
       </c>
       <c r="K20" s="3">
         <v>-357900</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3289100</v>
+        <v>3338900</v>
       </c>
       <c r="E21" s="3">
-        <v>2422300</v>
+        <v>2450000</v>
       </c>
       <c r="F21" s="3">
-        <v>2488100</v>
+        <v>2517600</v>
       </c>
       <c r="G21" s="3">
-        <v>2379400</v>
+        <v>2406400</v>
       </c>
       <c r="H21" s="3">
-        <v>2242900</v>
+        <v>2268900</v>
       </c>
       <c r="I21" s="3">
-        <v>2405300</v>
+        <v>2432800</v>
       </c>
       <c r="J21" s="3">
-        <v>2695500</v>
+        <v>2728400</v>
       </c>
       <c r="K21" s="3">
         <v>2882400</v>
@@ -1202,25 +1202,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>211400</v>
+        <v>216400</v>
       </c>
       <c r="E22" s="3">
-        <v>228400</v>
+        <v>233800</v>
       </c>
       <c r="F22" s="3">
-        <v>295200</v>
+        <v>302200</v>
       </c>
       <c r="G22" s="3">
-        <v>338100</v>
+        <v>346100</v>
       </c>
       <c r="H22" s="3">
-        <v>326100</v>
+        <v>333800</v>
       </c>
       <c r="I22" s="3">
-        <v>401000</v>
+        <v>410400</v>
       </c>
       <c r="J22" s="3">
-        <v>481700</v>
+        <v>493000</v>
       </c>
       <c r="K22" s="3">
         <v>665000</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1622800</v>
+        <v>1660800</v>
       </c>
       <c r="E23" s="3">
-        <v>647300</v>
+        <v>662500</v>
       </c>
       <c r="F23" s="3">
-        <v>661300</v>
+        <v>676800</v>
       </c>
       <c r="G23" s="3">
-        <v>513700</v>
+        <v>525700</v>
       </c>
       <c r="H23" s="3">
-        <v>507700</v>
+        <v>519600</v>
       </c>
       <c r="I23" s="3">
-        <v>464800</v>
+        <v>475700</v>
       </c>
       <c r="J23" s="3">
-        <v>603400</v>
+        <v>617600</v>
       </c>
       <c r="K23" s="3">
         <v>345500</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>343100</v>
+        <v>351200</v>
       </c>
       <c r="E24" s="3">
-        <v>87800</v>
+        <v>89800</v>
       </c>
       <c r="F24" s="3">
-        <v>48900</v>
+        <v>50000</v>
       </c>
       <c r="G24" s="3">
-        <v>223400</v>
+        <v>228700</v>
       </c>
       <c r="H24" s="3">
-        <v>118700</v>
+        <v>121500</v>
       </c>
       <c r="I24" s="3">
-        <v>95800</v>
+        <v>98000</v>
       </c>
       <c r="J24" s="3">
-        <v>80800</v>
+        <v>82700</v>
       </c>
       <c r="K24" s="3">
         <v>50800</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1279700</v>
+        <v>1309700</v>
       </c>
       <c r="E26" s="3">
-        <v>559500</v>
+        <v>572700</v>
       </c>
       <c r="F26" s="3">
-        <v>612400</v>
+        <v>626800</v>
       </c>
       <c r="G26" s="3">
-        <v>290200</v>
+        <v>297100</v>
       </c>
       <c r="H26" s="3">
-        <v>389000</v>
+        <v>398100</v>
       </c>
       <c r="I26" s="3">
-        <v>369000</v>
+        <v>377700</v>
       </c>
       <c r="J26" s="3">
-        <v>522600</v>
+        <v>534900</v>
       </c>
       <c r="K26" s="3">
         <v>294700</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1269700</v>
+        <v>1299500</v>
       </c>
       <c r="E27" s="3">
-        <v>549600</v>
+        <v>562500</v>
       </c>
       <c r="F27" s="3">
-        <v>611400</v>
+        <v>625800</v>
       </c>
       <c r="G27" s="3">
-        <v>233400</v>
+        <v>238900</v>
       </c>
       <c r="H27" s="3">
-        <v>338100</v>
+        <v>346100</v>
       </c>
       <c r="I27" s="3">
-        <v>311200</v>
+        <v>318500</v>
       </c>
       <c r="J27" s="3">
-        <v>450800</v>
+        <v>461400</v>
       </c>
       <c r="K27" s="3">
         <v>193100</v>
@@ -1475,25 +1475,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="G29" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>428900</v>
+        <v>438900</v>
       </c>
       <c r="J29" s="3">
-        <v>134600</v>
+        <v>137800</v>
       </c>
       <c r="K29" s="3">
         <v>-954100</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>22900</v>
+        <v>23500</v>
       </c>
       <c r="E32" s="3">
-        <v>33900</v>
+        <v>34700</v>
       </c>
       <c r="F32" s="3">
-        <v>81800</v>
+        <v>83700</v>
       </c>
       <c r="G32" s="3">
-        <v>-33900</v>
+        <v>-34700</v>
       </c>
       <c r="H32" s="3">
-        <v>-80800</v>
+        <v>-82700</v>
       </c>
       <c r="I32" s="3">
-        <v>16000</v>
+        <v>16300</v>
       </c>
       <c r="J32" s="3">
-        <v>-379000</v>
+        <v>-387900</v>
       </c>
       <c r="K32" s="3">
         <v>357900</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1274700</v>
+        <v>1304600</v>
       </c>
       <c r="E33" s="3">
-        <v>549600</v>
+        <v>562500</v>
       </c>
       <c r="F33" s="3">
-        <v>623400</v>
+        <v>638000</v>
       </c>
       <c r="G33" s="3">
-        <v>223400</v>
+        <v>228700</v>
       </c>
       <c r="H33" s="3">
-        <v>338100</v>
+        <v>346100</v>
       </c>
       <c r="I33" s="3">
-        <v>740100</v>
+        <v>757400</v>
       </c>
       <c r="J33" s="3">
-        <v>585500</v>
+        <v>599200</v>
       </c>
       <c r="K33" s="3">
         <v>-761000</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1274700</v>
+        <v>1304600</v>
       </c>
       <c r="E35" s="3">
-        <v>549600</v>
+        <v>562500</v>
       </c>
       <c r="F35" s="3">
-        <v>623400</v>
+        <v>638000</v>
       </c>
       <c r="G35" s="3">
-        <v>223400</v>
+        <v>228700</v>
       </c>
       <c r="H35" s="3">
-        <v>338100</v>
+        <v>346100</v>
       </c>
       <c r="I35" s="3">
-        <v>740100</v>
+        <v>757400</v>
       </c>
       <c r="J35" s="3">
-        <v>585500</v>
+        <v>599200</v>
       </c>
       <c r="K35" s="3">
         <v>-761000</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>790900</v>
+        <v>809500</v>
       </c>
       <c r="E41" s="3">
-        <v>595400</v>
+        <v>609400</v>
       </c>
       <c r="F41" s="3">
-        <v>764000</v>
+        <v>781900</v>
       </c>
       <c r="G41" s="3">
-        <v>592500</v>
+        <v>606400</v>
       </c>
       <c r="H41" s="3">
-        <v>1707500</v>
+        <v>1747600</v>
       </c>
       <c r="I41" s="3">
-        <v>2351900</v>
+        <v>2407000</v>
       </c>
       <c r="J41" s="3">
-        <v>1442200</v>
+        <v>1476100</v>
       </c>
       <c r="K41" s="3">
         <v>2231100</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>313200</v>
+        <v>320500</v>
       </c>
       <c r="E42" s="3">
-        <v>269300</v>
+        <v>275600</v>
       </c>
       <c r="F42" s="3">
-        <v>274300</v>
+        <v>280700</v>
       </c>
       <c r="G42" s="3">
-        <v>497700</v>
+        <v>509400</v>
       </c>
       <c r="H42" s="3">
-        <v>1396400</v>
+        <v>1429100</v>
       </c>
       <c r="I42" s="3">
-        <v>139600</v>
+        <v>142900</v>
       </c>
       <c r="J42" s="3">
-        <v>573500</v>
+        <v>587000</v>
       </c>
       <c r="K42" s="3">
         <v>338700</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>587500</v>
+        <v>601300</v>
       </c>
       <c r="E43" s="3">
-        <v>582500</v>
+        <v>596100</v>
       </c>
       <c r="F43" s="3">
-        <v>673200</v>
+        <v>689000</v>
       </c>
       <c r="G43" s="3">
-        <v>784000</v>
+        <v>802300</v>
       </c>
       <c r="H43" s="3">
-        <v>1669600</v>
+        <v>1708800</v>
       </c>
       <c r="I43" s="3">
-        <v>1744500</v>
+        <v>1785400</v>
       </c>
       <c r="J43" s="3">
-        <v>732100</v>
+        <v>749300</v>
       </c>
       <c r="K43" s="3">
         <v>1017300</v>
@@ -1943,25 +1943,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>36900</v>
+        <v>37800</v>
       </c>
       <c r="E44" s="3">
-        <v>46900</v>
+        <v>48000</v>
       </c>
       <c r="F44" s="3">
-        <v>53900</v>
+        <v>55100</v>
       </c>
       <c r="G44" s="3">
-        <v>57800</v>
+        <v>59200</v>
       </c>
       <c r="H44" s="3">
-        <v>53900</v>
+        <v>55100</v>
       </c>
       <c r="I44" s="3">
-        <v>88800</v>
+        <v>90900</v>
       </c>
       <c r="J44" s="3">
-        <v>64800</v>
+        <v>66400</v>
       </c>
       <c r="K44" s="3">
         <v>68900</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>134600</v>
+        <v>137800</v>
       </c>
       <c r="E45" s="3">
-        <v>112700</v>
+        <v>115400</v>
       </c>
       <c r="F45" s="3">
-        <v>138600</v>
+        <v>141900</v>
       </c>
       <c r="G45" s="3">
-        <v>98700</v>
+        <v>101100</v>
       </c>
       <c r="H45" s="3">
-        <v>1167000</v>
+        <v>1194300</v>
       </c>
       <c r="I45" s="3">
-        <v>98700</v>
+        <v>101100</v>
       </c>
       <c r="J45" s="3">
-        <v>203500</v>
+        <v>208200</v>
       </c>
       <c r="K45" s="3">
         <v>166000</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1863100</v>
+        <v>1906900</v>
       </c>
       <c r="E46" s="3">
-        <v>1606800</v>
+        <v>1644500</v>
       </c>
       <c r="F46" s="3">
-        <v>1904000</v>
+        <v>1948700</v>
       </c>
       <c r="G46" s="3">
-        <v>2030700</v>
+        <v>2078300</v>
       </c>
       <c r="H46" s="3">
-        <v>3324300</v>
+        <v>3402300</v>
       </c>
       <c r="I46" s="3">
-        <v>2436600</v>
+        <v>2493800</v>
       </c>
       <c r="J46" s="3">
-        <v>3016100</v>
+        <v>3086900</v>
       </c>
       <c r="K46" s="3">
         <v>3822000</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>797900</v>
+        <v>816600</v>
       </c>
       <c r="E47" s="3">
-        <v>62800</v>
+        <v>64300</v>
       </c>
       <c r="F47" s="3">
-        <v>66800</v>
+        <v>68400</v>
       </c>
       <c r="G47" s="3">
-        <v>75800</v>
+        <v>77600</v>
       </c>
       <c r="H47" s="3">
-        <v>352100</v>
+        <v>360300</v>
       </c>
       <c r="I47" s="3">
-        <v>3937700</v>
+        <v>4030100</v>
       </c>
       <c r="J47" s="3">
-        <v>2331900</v>
+        <v>2386600</v>
       </c>
       <c r="K47" s="3">
         <v>3135500</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6250700</v>
+        <v>6397400</v>
       </c>
       <c r="E48" s="3">
-        <v>6262700</v>
+        <v>6409600</v>
       </c>
       <c r="F48" s="3">
-        <v>6262700</v>
+        <v>6409600</v>
       </c>
       <c r="G48" s="3">
-        <v>6456200</v>
+        <v>6607600</v>
       </c>
       <c r="H48" s="3">
-        <v>11591800</v>
+        <v>11863700</v>
       </c>
       <c r="I48" s="3">
-        <v>11907000</v>
+        <v>12186300</v>
       </c>
       <c r="J48" s="3">
-        <v>5985400</v>
+        <v>6125800</v>
       </c>
       <c r="K48" s="3">
         <v>7458800</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2998200</v>
+        <v>3068500</v>
       </c>
       <c r="E49" s="3">
-        <v>3229600</v>
+        <v>3305400</v>
       </c>
       <c r="F49" s="3">
-        <v>2987200</v>
+        <v>3057300</v>
       </c>
       <c r="G49" s="3">
-        <v>3160800</v>
+        <v>3234900</v>
       </c>
       <c r="H49" s="3">
-        <v>6665600</v>
+        <v>6822000</v>
       </c>
       <c r="I49" s="3">
-        <v>6441200</v>
+        <v>6592300</v>
       </c>
       <c r="J49" s="3">
-        <v>3441000</v>
+        <v>3521800</v>
       </c>
       <c r="K49" s="3">
         <v>4507400</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>793900</v>
+        <v>812600</v>
       </c>
       <c r="E52" s="3">
-        <v>886700</v>
+        <v>907500</v>
       </c>
       <c r="F52" s="3">
-        <v>1051300</v>
+        <v>1075900</v>
       </c>
       <c r="G52" s="3">
-        <v>1247700</v>
+        <v>1277000</v>
       </c>
       <c r="H52" s="3">
-        <v>1211800</v>
+        <v>1240300</v>
       </c>
       <c r="I52" s="3">
-        <v>1383400</v>
+        <v>1415800</v>
       </c>
       <c r="J52" s="3">
-        <v>2976200</v>
+        <v>3046100</v>
       </c>
       <c r="K52" s="3">
         <v>2027900</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12703900</v>
+        <v>13001900</v>
       </c>
       <c r="E54" s="3">
-        <v>12048600</v>
+        <v>12331300</v>
       </c>
       <c r="F54" s="3">
-        <v>12272000</v>
+        <v>12559900</v>
       </c>
       <c r="G54" s="3">
-        <v>12971200</v>
+        <v>13275500</v>
       </c>
       <c r="H54" s="3">
-        <v>13740200</v>
+        <v>14062500</v>
       </c>
       <c r="I54" s="3">
-        <v>14987900</v>
+        <v>15339600</v>
       </c>
       <c r="J54" s="3">
-        <v>17750700</v>
+        <v>18167200</v>
       </c>
       <c r="K54" s="3">
         <v>20951600</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>513700</v>
+        <v>525700</v>
       </c>
       <c r="E57" s="3">
-        <v>529600</v>
+        <v>542000</v>
       </c>
       <c r="F57" s="3">
-        <v>548600</v>
+        <v>561400</v>
       </c>
       <c r="G57" s="3">
-        <v>572500</v>
+        <v>585900</v>
       </c>
       <c r="H57" s="3">
-        <v>2404700</v>
+        <v>2461100</v>
       </c>
       <c r="I57" s="3">
-        <v>2242200</v>
+        <v>2294800</v>
       </c>
       <c r="J57" s="3">
-        <v>772000</v>
+        <v>790100</v>
       </c>
       <c r="K57" s="3">
         <v>924700</v>
@@ -2445,25 +2445,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>811900</v>
+        <v>830900</v>
       </c>
       <c r="E58" s="3">
-        <v>826800</v>
+        <v>846200</v>
       </c>
       <c r="F58" s="3">
-        <v>1079200</v>
+        <v>1104500</v>
       </c>
       <c r="G58" s="3">
-        <v>727100</v>
+        <v>744200</v>
       </c>
       <c r="H58" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="I58" s="3">
-        <v>733100</v>
+        <v>750300</v>
       </c>
       <c r="J58" s="3">
-        <v>844800</v>
+        <v>864600</v>
       </c>
       <c r="K58" s="3">
         <v>1178800</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>889700</v>
+        <v>910600</v>
       </c>
       <c r="E59" s="3">
-        <v>846800</v>
+        <v>866700</v>
       </c>
       <c r="F59" s="3">
-        <v>999400</v>
+        <v>1022800</v>
       </c>
       <c r="G59" s="3">
-        <v>1128100</v>
+        <v>1154500</v>
       </c>
       <c r="H59" s="3">
-        <v>1499100</v>
+        <v>1534300</v>
       </c>
       <c r="I59" s="3">
-        <v>1486100</v>
+        <v>1521000</v>
       </c>
       <c r="J59" s="3">
-        <v>1417300</v>
+        <v>1450600</v>
       </c>
       <c r="K59" s="3">
         <v>2138500</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2215200</v>
+        <v>2267200</v>
       </c>
       <c r="E60" s="3">
-        <v>2203300</v>
+        <v>2254900</v>
       </c>
       <c r="F60" s="3">
-        <v>2627200</v>
+        <v>2688800</v>
       </c>
       <c r="G60" s="3">
-        <v>2427700</v>
+        <v>2484600</v>
       </c>
       <c r="H60" s="3">
-        <v>1883100</v>
+        <v>1927300</v>
       </c>
       <c r="I60" s="3">
-        <v>2627200</v>
+        <v>2688800</v>
       </c>
       <c r="J60" s="3">
-        <v>3034100</v>
+        <v>3105300</v>
       </c>
       <c r="K60" s="3">
         <v>4242000</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6785300</v>
+        <v>6944500</v>
       </c>
       <c r="E61" s="3">
-        <v>6590800</v>
+        <v>6745400</v>
       </c>
       <c r="F61" s="3">
-        <v>6490100</v>
+        <v>6642300</v>
       </c>
       <c r="G61" s="3">
-        <v>7745800</v>
+        <v>7927500</v>
       </c>
       <c r="H61" s="3">
-        <v>7559300</v>
+        <v>7736600</v>
       </c>
       <c r="I61" s="3">
-        <v>7876500</v>
+        <v>8061300</v>
       </c>
       <c r="J61" s="3">
-        <v>8830000</v>
+        <v>9037100</v>
       </c>
       <c r="K61" s="3">
         <v>10610200</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>481700</v>
+        <v>493000</v>
       </c>
       <c r="E62" s="3">
-        <v>639300</v>
+        <v>654300</v>
       </c>
       <c r="F62" s="3">
-        <v>624400</v>
+        <v>639000</v>
       </c>
       <c r="G62" s="3">
-        <v>945500</v>
+        <v>967700</v>
       </c>
       <c r="H62" s="3">
-        <v>988400</v>
+        <v>1011600</v>
       </c>
       <c r="I62" s="3">
-        <v>738100</v>
+        <v>755400</v>
       </c>
       <c r="J62" s="3">
-        <v>483700</v>
+        <v>495100</v>
       </c>
       <c r="K62" s="3">
         <v>857000</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9484300</v>
+        <v>9706800</v>
       </c>
       <c r="E66" s="3">
-        <v>9434400</v>
+        <v>9655700</v>
       </c>
       <c r="F66" s="3">
-        <v>9772500</v>
+        <v>10001800</v>
       </c>
       <c r="G66" s="3">
-        <v>11098100</v>
+        <v>11358400</v>
       </c>
       <c r="H66" s="3">
-        <v>10267200</v>
+        <v>10508100</v>
       </c>
       <c r="I66" s="3">
-        <v>11179900</v>
+        <v>11442100</v>
       </c>
       <c r="J66" s="3">
-        <v>12781700</v>
+        <v>13081600</v>
       </c>
       <c r="K66" s="3">
         <v>15788200</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5508600</v>
+        <v>-5637900</v>
       </c>
       <c r="E72" s="3">
-        <v>-6272600</v>
+        <v>-6419800</v>
       </c>
       <c r="F72" s="3">
-        <v>-6285600</v>
+        <v>-6433100</v>
       </c>
       <c r="G72" s="3">
-        <v>-6321500</v>
+        <v>-6469800</v>
       </c>
       <c r="H72" s="3">
-        <v>-6190900</v>
+        <v>-6336100</v>
       </c>
       <c r="I72" s="3">
-        <v>-5646300</v>
+        <v>-5778700</v>
       </c>
       <c r="J72" s="3">
-        <v>-5984400</v>
+        <v>-6124800</v>
       </c>
       <c r="K72" s="3">
         <v>-6939400</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3219600</v>
+        <v>3295100</v>
       </c>
       <c r="E76" s="3">
-        <v>2614200</v>
+        <v>2675500</v>
       </c>
       <c r="F76" s="3">
-        <v>2499500</v>
+        <v>2558100</v>
       </c>
       <c r="G76" s="3">
-        <v>1873100</v>
+        <v>1917100</v>
       </c>
       <c r="H76" s="3">
-        <v>3472900</v>
+        <v>3554400</v>
       </c>
       <c r="I76" s="3">
-        <v>3808100</v>
+        <v>3897400</v>
       </c>
       <c r="J76" s="3">
-        <v>4969000</v>
+        <v>5085600</v>
       </c>
       <c r="K76" s="3">
         <v>5163400</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1274700</v>
+        <v>1304600</v>
       </c>
       <c r="E81" s="3">
-        <v>549600</v>
+        <v>562500</v>
       </c>
       <c r="F81" s="3">
-        <v>623400</v>
+        <v>638000</v>
       </c>
       <c r="G81" s="3">
-        <v>223400</v>
+        <v>228700</v>
       </c>
       <c r="H81" s="3">
-        <v>338100</v>
+        <v>346100</v>
       </c>
       <c r="I81" s="3">
-        <v>740100</v>
+        <v>757400</v>
       </c>
       <c r="J81" s="3">
-        <v>585500</v>
+        <v>599200</v>
       </c>
       <c r="K81" s="3">
         <v>-761000</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1456200</v>
+        <v>1490400</v>
       </c>
       <c r="E83" s="3">
-        <v>1548000</v>
+        <v>1584300</v>
       </c>
       <c r="F83" s="3">
-        <v>1533000</v>
+        <v>1569000</v>
       </c>
       <c r="G83" s="3">
-        <v>1529000</v>
+        <v>1564900</v>
       </c>
       <c r="H83" s="3">
-        <v>1410300</v>
+        <v>1443400</v>
       </c>
       <c r="I83" s="3">
-        <v>1541000</v>
+        <v>1577100</v>
       </c>
       <c r="J83" s="3">
-        <v>1611800</v>
+        <v>1649600</v>
       </c>
       <c r="K83" s="3">
         <v>1867500</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2121500</v>
+        <v>2171200</v>
       </c>
       <c r="E89" s="3">
-        <v>2036700</v>
+        <v>2084500</v>
       </c>
       <c r="F89" s="3">
-        <v>2001800</v>
+        <v>2048700</v>
       </c>
       <c r="G89" s="3">
-        <v>2102500</v>
+        <v>2151800</v>
       </c>
       <c r="H89" s="3">
-        <v>1944900</v>
+        <v>1990600</v>
       </c>
       <c r="I89" s="3">
-        <v>1912000</v>
+        <v>1956900</v>
       </c>
       <c r="J89" s="3">
-        <v>2212200</v>
+        <v>2264100</v>
       </c>
       <c r="K89" s="3">
         <v>1754600</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-986400</v>
+        <v>-1009600</v>
       </c>
       <c r="E91" s="3">
-        <v>-919600</v>
+        <v>-941200</v>
       </c>
       <c r="F91" s="3">
-        <v>-856800</v>
+        <v>-876900</v>
       </c>
       <c r="G91" s="3">
-        <v>-814900</v>
+        <v>-834000</v>
       </c>
       <c r="H91" s="3">
-        <v>-821900</v>
+        <v>-841100</v>
       </c>
       <c r="I91" s="3">
-        <v>-914600</v>
+        <v>-936100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1009400</v>
+        <v>-1033000</v>
       </c>
       <c r="K91" s="3">
         <v>-1011700</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1208800</v>
+        <v>-1237200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1541000</v>
+        <v>-1577100</v>
       </c>
       <c r="F94" s="3">
-        <v>-705200</v>
+        <v>-721700</v>
       </c>
       <c r="G94" s="3">
-        <v>-385000</v>
+        <v>-394000</v>
       </c>
       <c r="H94" s="3">
-        <v>-608400</v>
+        <v>-622700</v>
       </c>
       <c r="I94" s="3">
-        <v>405900</v>
+        <v>415500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1090200</v>
+        <v>-1115700</v>
       </c>
       <c r="K94" s="3">
         <v>1663200</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-552600</v>
+        <v>-565500</v>
       </c>
       <c r="E96" s="3">
-        <v>-527600</v>
+        <v>-540000</v>
       </c>
       <c r="F96" s="3">
-        <v>-510700</v>
+        <v>-522600</v>
       </c>
       <c r="G96" s="3">
-        <v>-527600</v>
+        <v>-540000</v>
       </c>
       <c r="H96" s="3">
-        <v>-512700</v>
+        <v>-524700</v>
       </c>
       <c r="I96" s="3">
-        <v>-485700</v>
+        <v>-497100</v>
       </c>
       <c r="J96" s="3">
-        <v>-493700</v>
+        <v>-505300</v>
       </c>
       <c r="K96" s="3">
         <v>-106100</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-715100</v>
+        <v>-731900</v>
       </c>
       <c r="E100" s="3">
-        <v>-668300</v>
+        <v>-683900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1142000</v>
+        <v>-1168800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1956900</v>
+        <v>-2002800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1660700</v>
+        <v>-1699600</v>
       </c>
       <c r="I100" s="3">
-        <v>-2713900</v>
+        <v>-2777600</v>
       </c>
       <c r="J100" s="3">
-        <v>-1492100</v>
+        <v>-1527100</v>
       </c>
       <c r="K100" s="3">
         <v>-5311300</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>197500</v>
+        <v>202100</v>
       </c>
       <c r="E102" s="3">
-        <v>-172600</v>
+        <v>-176600</v>
       </c>
       <c r="F102" s="3">
-        <v>154600</v>
+        <v>158200</v>
       </c>
       <c r="G102" s="3">
-        <v>-239400</v>
+        <v>-245000</v>
       </c>
       <c r="H102" s="3">
-        <v>-325200</v>
+        <v>-332800</v>
       </c>
       <c r="I102" s="3">
-        <v>-396000</v>
+        <v>-405300</v>
       </c>
       <c r="J102" s="3">
-        <v>-369000</v>
+        <v>-377700</v>
       </c>
       <c r="K102" s="3">
         <v>-1891200</v>

--- a/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>KKPNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,191 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5365300</v>
+        <v>5636000</v>
       </c>
       <c r="E8" s="3">
-        <v>5384700</v>
+        <v>5560800</v>
       </c>
       <c r="F8" s="3">
-        <v>5601100</v>
+        <v>5581000</v>
       </c>
       <c r="G8" s="3">
-        <v>5756300</v>
+        <v>5805200</v>
       </c>
       <c r="H8" s="3">
-        <v>5868600</v>
+        <v>5966100</v>
       </c>
       <c r="I8" s="3">
-        <v>6947600</v>
+        <v>6082400</v>
       </c>
       <c r="J8" s="3">
+        <v>7200700</v>
+      </c>
+      <c r="K8" s="3">
         <v>7153800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8358700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10128200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10333300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15450900</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1325000</v>
+        <v>1459000</v>
       </c>
       <c r="E9" s="3">
-        <v>1310700</v>
+        <v>1373300</v>
       </c>
       <c r="F9" s="3">
-        <v>1328100</v>
+        <v>1358500</v>
       </c>
       <c r="G9" s="3">
-        <v>1359700</v>
+        <v>1376500</v>
       </c>
       <c r="H9" s="3">
-        <v>1393400</v>
+        <v>1409300</v>
       </c>
       <c r="I9" s="3">
-        <v>2068100</v>
+        <v>1444200</v>
       </c>
       <c r="J9" s="3">
+        <v>2143500</v>
+      </c>
+      <c r="K9" s="3">
         <v>3319600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3899900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4405600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10175200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6329200</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4040300</v>
+        <v>4177000</v>
       </c>
       <c r="E10" s="3">
-        <v>4074000</v>
+        <v>4187600</v>
       </c>
       <c r="F10" s="3">
-        <v>4273100</v>
+        <v>4222500</v>
       </c>
       <c r="G10" s="3">
-        <v>4396600</v>
+        <v>4428800</v>
       </c>
       <c r="H10" s="3">
-        <v>4475200</v>
+        <v>4556800</v>
       </c>
       <c r="I10" s="3">
-        <v>4879400</v>
+        <v>4638300</v>
       </c>
       <c r="J10" s="3">
+        <v>5057200</v>
+      </c>
+      <c r="K10" s="3">
         <v>3834100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4458800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5722600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>158100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9121700</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -888,12 +901,15 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3">
         <v>66900</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,87 +946,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-826800</v>
+        <v>8500</v>
       </c>
       <c r="E14" s="3">
-        <v>36700</v>
+        <v>-857000</v>
       </c>
       <c r="F14" s="3">
-        <v>-80600</v>
+        <v>38100</v>
       </c>
       <c r="G14" s="3">
-        <v>138800</v>
+        <v>-83600</v>
       </c>
       <c r="H14" s="3">
-        <v>154100</v>
+        <v>143900</v>
       </c>
       <c r="I14" s="3">
-        <v>76600</v>
+        <v>159800</v>
       </c>
       <c r="J14" s="3">
+        <v>79400</v>
+      </c>
+      <c r="K14" s="3">
         <v>160300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>129800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>47800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>452400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>387400</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1472000</v>
+        <v>1390200</v>
       </c>
       <c r="E15" s="3">
-        <v>1556700</v>
+        <v>1525600</v>
       </c>
       <c r="F15" s="3">
-        <v>1548600</v>
+        <v>1613500</v>
       </c>
       <c r="G15" s="3">
-        <v>1546500</v>
+        <v>1605000</v>
       </c>
       <c r="H15" s="3">
-        <v>1452600</v>
+        <v>1602900</v>
       </c>
       <c r="I15" s="3">
-        <v>1500600</v>
+        <v>1505500</v>
       </c>
       <c r="J15" s="3">
+        <v>1555300</v>
+      </c>
+      <c r="K15" s="3">
         <v>1591400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1829100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2173500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4328300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2651600</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3464600</v>
+        <v>4351600</v>
       </c>
       <c r="E17" s="3">
-        <v>4453800</v>
+        <v>3590900</v>
       </c>
       <c r="F17" s="3">
-        <v>4538500</v>
+        <v>4616100</v>
       </c>
       <c r="G17" s="3">
-        <v>4919200</v>
+        <v>4703900</v>
       </c>
       <c r="H17" s="3">
-        <v>5097900</v>
+        <v>5098500</v>
       </c>
       <c r="I17" s="3">
-        <v>6045200</v>
+        <v>5283700</v>
       </c>
       <c r="J17" s="3">
+        <v>6265500</v>
+      </c>
+      <c r="K17" s="3">
         <v>6431000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6990300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8900900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8811500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12458800</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1900700</v>
+        <v>1284400</v>
       </c>
       <c r="E18" s="3">
-        <v>931000</v>
+        <v>1970000</v>
       </c>
       <c r="F18" s="3">
-        <v>1062700</v>
+        <v>964900</v>
       </c>
       <c r="G18" s="3">
-        <v>837100</v>
+        <v>1101400</v>
       </c>
       <c r="H18" s="3">
-        <v>770700</v>
+        <v>867600</v>
       </c>
       <c r="I18" s="3">
-        <v>902400</v>
+        <v>798800</v>
       </c>
       <c r="J18" s="3">
+        <v>935300</v>
+      </c>
+      <c r="K18" s="3">
         <v>722700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1368500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1227300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1521800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2992000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,203 +1150,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-23500</v>
+        <v>-11600</v>
       </c>
       <c r="E20" s="3">
-        <v>-34700</v>
+        <v>-24300</v>
       </c>
       <c r="F20" s="3">
-        <v>-83700</v>
+        <v>-36000</v>
       </c>
       <c r="G20" s="3">
-        <v>34700</v>
+        <v>-86800</v>
       </c>
       <c r="H20" s="3">
-        <v>82700</v>
+        <v>36000</v>
       </c>
       <c r="I20" s="3">
-        <v>-16300</v>
+        <v>85700</v>
       </c>
       <c r="J20" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="K20" s="3">
         <v>387900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-357900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-40700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>608300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-136200</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3338900</v>
+        <v>2692000</v>
       </c>
       <c r="E21" s="3">
-        <v>2450000</v>
+        <v>3485100</v>
       </c>
       <c r="F21" s="3">
-        <v>2517600</v>
+        <v>2565400</v>
       </c>
       <c r="G21" s="3">
-        <v>2406400</v>
+        <v>2635200</v>
       </c>
       <c r="H21" s="3">
-        <v>2268900</v>
+        <v>2519900</v>
       </c>
       <c r="I21" s="3">
-        <v>2432800</v>
+        <v>2375400</v>
       </c>
       <c r="J21" s="3">
+        <v>2547400</v>
+      </c>
+      <c r="K21" s="3">
         <v>2728400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2882400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3398900</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5896900</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>216400</v>
+        <v>222200</v>
       </c>
       <c r="E22" s="3">
-        <v>233800</v>
+        <v>224300</v>
       </c>
       <c r="F22" s="3">
-        <v>302200</v>
+        <v>242300</v>
       </c>
       <c r="G22" s="3">
-        <v>346100</v>
+        <v>313200</v>
       </c>
       <c r="H22" s="3">
-        <v>333800</v>
+        <v>358700</v>
       </c>
       <c r="I22" s="3">
-        <v>410400</v>
+        <v>346000</v>
       </c>
       <c r="J22" s="3">
+        <v>425300</v>
+      </c>
+      <c r="K22" s="3">
         <v>493000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>665000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>873200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1561400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>777100</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1660800</v>
+        <v>1050600</v>
       </c>
       <c r="E23" s="3">
-        <v>662500</v>
+        <v>1721400</v>
       </c>
       <c r="F23" s="3">
-        <v>676800</v>
+        <v>686600</v>
       </c>
       <c r="G23" s="3">
-        <v>525700</v>
+        <v>701500</v>
       </c>
       <c r="H23" s="3">
-        <v>519600</v>
+        <v>544900</v>
       </c>
       <c r="I23" s="3">
-        <v>475700</v>
+        <v>538500</v>
       </c>
       <c r="J23" s="3">
+        <v>493000</v>
+      </c>
+      <c r="K23" s="3">
         <v>617600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>345500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>313400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>568800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2078800</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>351200</v>
+        <v>240200</v>
       </c>
       <c r="E24" s="3">
-        <v>89800</v>
+        <v>364000</v>
       </c>
       <c r="F24" s="3">
-        <v>50000</v>
+        <v>93100</v>
       </c>
       <c r="G24" s="3">
-        <v>228700</v>
+        <v>51800</v>
       </c>
       <c r="H24" s="3">
-        <v>121500</v>
+        <v>237000</v>
       </c>
       <c r="I24" s="3">
-        <v>98000</v>
+        <v>125900</v>
       </c>
       <c r="J24" s="3">
+        <v>101600</v>
+      </c>
+      <c r="K24" s="3">
         <v>82700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>50800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-37100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>224000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>260600</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1309700</v>
+        <v>810400</v>
       </c>
       <c r="E26" s="3">
-        <v>572700</v>
+        <v>1357400</v>
       </c>
       <c r="F26" s="3">
-        <v>626800</v>
+        <v>593500</v>
       </c>
       <c r="G26" s="3">
-        <v>297100</v>
+        <v>649600</v>
       </c>
       <c r="H26" s="3">
-        <v>398100</v>
+        <v>307900</v>
       </c>
       <c r="I26" s="3">
-        <v>377700</v>
+        <v>412600</v>
       </c>
       <c r="J26" s="3">
+        <v>391500</v>
+      </c>
+      <c r="K26" s="3">
         <v>534900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>294700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>350500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>344800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1818200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1299500</v>
+        <v>791400</v>
       </c>
       <c r="E27" s="3">
-        <v>562500</v>
+        <v>1346800</v>
       </c>
       <c r="F27" s="3">
-        <v>625800</v>
+        <v>583000</v>
       </c>
       <c r="G27" s="3">
-        <v>238900</v>
+        <v>648600</v>
       </c>
       <c r="H27" s="3">
-        <v>346100</v>
+        <v>247600</v>
       </c>
       <c r="I27" s="3">
-        <v>318500</v>
+        <v>358700</v>
       </c>
       <c r="J27" s="3">
+        <v>330100</v>
+      </c>
+      <c r="K27" s="3">
         <v>461400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>193100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>342100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>342600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1818200</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,48 +1525,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>5100</v>
+        <v>-5300</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="F29" s="3">
-        <v>12200</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-10200</v>
+        <v>12700</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-10600</v>
       </c>
       <c r="I29" s="3">
-        <v>438900</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>454900</v>
+      </c>
+      <c r="K29" s="3">
         <v>137800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-954100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-607700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>495200</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>23500</v>
+        <v>11600</v>
       </c>
       <c r="E32" s="3">
-        <v>34700</v>
+        <v>24300</v>
       </c>
       <c r="F32" s="3">
-        <v>83700</v>
+        <v>36000</v>
       </c>
       <c r="G32" s="3">
-        <v>-34700</v>
+        <v>86800</v>
       </c>
       <c r="H32" s="3">
-        <v>-82700</v>
+        <v>-36000</v>
       </c>
       <c r="I32" s="3">
-        <v>16300</v>
+        <v>-85700</v>
       </c>
       <c r="J32" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-387900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>357900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>40700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-608300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>136200</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1304600</v>
+        <v>786100</v>
       </c>
       <c r="E33" s="3">
-        <v>562500</v>
+        <v>1352100</v>
       </c>
       <c r="F33" s="3">
-        <v>638000</v>
+        <v>583000</v>
       </c>
       <c r="G33" s="3">
-        <v>228700</v>
+        <v>661300</v>
       </c>
       <c r="H33" s="3">
-        <v>346100</v>
+        <v>237000</v>
       </c>
       <c r="I33" s="3">
-        <v>757400</v>
+        <v>358700</v>
       </c>
       <c r="J33" s="3">
+        <v>785000</v>
+      </c>
+      <c r="K33" s="3">
         <v>599200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-761000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-265600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>837800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1818200</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1304600</v>
+        <v>786100</v>
       </c>
       <c r="E35" s="3">
-        <v>562500</v>
+        <v>1352100</v>
       </c>
       <c r="F35" s="3">
-        <v>638000</v>
+        <v>583000</v>
       </c>
       <c r="G35" s="3">
-        <v>228700</v>
+        <v>661300</v>
       </c>
       <c r="H35" s="3">
-        <v>346100</v>
+        <v>237000</v>
       </c>
       <c r="I35" s="3">
-        <v>757400</v>
+        <v>358700</v>
       </c>
       <c r="J35" s="3">
+        <v>785000</v>
+      </c>
+      <c r="K35" s="3">
         <v>599200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-761000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-265600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>837800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1818200</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,359 +1905,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>809500</v>
+        <v>422100</v>
       </c>
       <c r="E41" s="3">
-        <v>609400</v>
+        <v>839000</v>
       </c>
       <c r="F41" s="3">
-        <v>781900</v>
+        <v>631600</v>
       </c>
       <c r="G41" s="3">
-        <v>606400</v>
+        <v>810400</v>
       </c>
       <c r="H41" s="3">
-        <v>1747600</v>
+        <v>628500</v>
       </c>
       <c r="I41" s="3">
-        <v>2407000</v>
+        <v>1811300</v>
       </c>
       <c r="J41" s="3">
+        <v>2494800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1476100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2231100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4720200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2381600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>755900</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>320500</v>
+        <v>135400</v>
       </c>
       <c r="E42" s="3">
-        <v>275600</v>
+        <v>332200</v>
       </c>
       <c r="F42" s="3">
-        <v>280700</v>
+        <v>285700</v>
       </c>
       <c r="G42" s="3">
-        <v>509400</v>
+        <v>290900</v>
       </c>
       <c r="H42" s="3">
-        <v>1429100</v>
+        <v>527900</v>
       </c>
       <c r="I42" s="3">
-        <v>142900</v>
+        <v>1481200</v>
       </c>
       <c r="J42" s="3">
+        <v>148100</v>
+      </c>
+      <c r="K42" s="3">
         <v>587000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>338700</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>442500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>406100</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>601300</v>
+        <v>734300</v>
       </c>
       <c r="E43" s="3">
-        <v>596100</v>
+        <v>623200</v>
       </c>
       <c r="F43" s="3">
-        <v>689000</v>
+        <v>617900</v>
       </c>
       <c r="G43" s="3">
-        <v>802300</v>
+        <v>714200</v>
       </c>
       <c r="H43" s="3">
-        <v>1708800</v>
+        <v>831600</v>
       </c>
       <c r="I43" s="3">
-        <v>1785400</v>
+        <v>1771100</v>
       </c>
       <c r="J43" s="3">
+        <v>1850400</v>
+      </c>
+      <c r="K43" s="3">
         <v>749300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1017300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1338500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3428000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1760700</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>37800</v>
+        <v>51800</v>
       </c>
       <c r="E44" s="3">
-        <v>48000</v>
+        <v>39100</v>
       </c>
       <c r="F44" s="3">
-        <v>55100</v>
+        <v>49700</v>
       </c>
       <c r="G44" s="3">
-        <v>59200</v>
+        <v>57100</v>
       </c>
       <c r="H44" s="3">
-        <v>55100</v>
+        <v>61400</v>
       </c>
       <c r="I44" s="3">
-        <v>90900</v>
+        <v>57100</v>
       </c>
       <c r="J44" s="3">
+        <v>94200</v>
+      </c>
+      <c r="K44" s="3">
         <v>66400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>68900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>71800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>243800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>144400</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>137800</v>
+        <v>129100</v>
       </c>
       <c r="E45" s="3">
-        <v>115400</v>
+        <v>142800</v>
       </c>
       <c r="F45" s="3">
-        <v>141900</v>
+        <v>119600</v>
       </c>
       <c r="G45" s="3">
-        <v>101100</v>
+        <v>147100</v>
       </c>
       <c r="H45" s="3">
-        <v>1194300</v>
+        <v>104700</v>
       </c>
       <c r="I45" s="3">
-        <v>101100</v>
+        <v>1237900</v>
       </c>
       <c r="J45" s="3">
+        <v>104700</v>
+      </c>
+      <c r="K45" s="3">
         <v>208200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>166000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>114800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>307400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>126800</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1906900</v>
+        <v>1472700</v>
       </c>
       <c r="E46" s="3">
-        <v>1644500</v>
+        <v>1976300</v>
       </c>
       <c r="F46" s="3">
-        <v>1948700</v>
+        <v>1704400</v>
       </c>
       <c r="G46" s="3">
-        <v>2078300</v>
+        <v>2019700</v>
       </c>
       <c r="H46" s="3">
-        <v>3402300</v>
+        <v>2154100</v>
       </c>
       <c r="I46" s="3">
-        <v>2493800</v>
+        <v>3526300</v>
       </c>
       <c r="J46" s="3">
+        <v>2584700</v>
+      </c>
+      <c r="K46" s="3">
         <v>3086900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3822000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6245400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3401600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3193900</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>816600</v>
+        <v>835800</v>
       </c>
       <c r="E47" s="3">
-        <v>64300</v>
+        <v>846400</v>
       </c>
       <c r="F47" s="3">
-        <v>68400</v>
+        <v>66700</v>
       </c>
       <c r="G47" s="3">
-        <v>77600</v>
+        <v>70900</v>
       </c>
       <c r="H47" s="3">
-        <v>360300</v>
+        <v>80400</v>
       </c>
       <c r="I47" s="3">
-        <v>4030100</v>
+        <v>373500</v>
       </c>
       <c r="J47" s="3">
+        <v>4177000</v>
+      </c>
+      <c r="K47" s="3">
         <v>2386600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3135500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>960500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1637100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>818100</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6397400</v>
+        <v>6788100</v>
       </c>
       <c r="E48" s="3">
-        <v>6409600</v>
+        <v>6630500</v>
       </c>
       <c r="F48" s="3">
-        <v>6409600</v>
+        <v>6643200</v>
       </c>
       <c r="G48" s="3">
-        <v>6607600</v>
+        <v>6643200</v>
       </c>
       <c r="H48" s="3">
-        <v>11863700</v>
+        <v>6848400</v>
       </c>
       <c r="I48" s="3">
-        <v>12186300</v>
+        <v>12296100</v>
       </c>
       <c r="J48" s="3">
+        <v>12630400</v>
+      </c>
+      <c r="K48" s="3">
         <v>6125800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7458800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6387700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17337400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8842300</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3068500</v>
+        <v>3051300</v>
       </c>
       <c r="E49" s="3">
-        <v>3305400</v>
+        <v>3180300</v>
       </c>
       <c r="F49" s="3">
-        <v>3057300</v>
+        <v>3425800</v>
       </c>
       <c r="G49" s="3">
-        <v>3234900</v>
+        <v>3168700</v>
       </c>
       <c r="H49" s="3">
-        <v>6822000</v>
+        <v>3352800</v>
       </c>
       <c r="I49" s="3">
-        <v>6592300</v>
+        <v>7070600</v>
       </c>
       <c r="J49" s="3">
+        <v>6832600</v>
+      </c>
+      <c r="K49" s="3">
         <v>3521800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4507400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4357800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18573800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10813100</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>812600</v>
+        <v>508900</v>
       </c>
       <c r="E52" s="3">
-        <v>907500</v>
+        <v>842200</v>
       </c>
       <c r="F52" s="3">
-        <v>1075900</v>
+        <v>940600</v>
       </c>
       <c r="G52" s="3">
-        <v>1277000</v>
+        <v>1115100</v>
       </c>
       <c r="H52" s="3">
-        <v>1240300</v>
+        <v>1323600</v>
       </c>
       <c r="I52" s="3">
-        <v>1415800</v>
+        <v>1285500</v>
       </c>
       <c r="J52" s="3">
+        <v>1467400</v>
+      </c>
+      <c r="K52" s="3">
         <v>3046100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2027900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12996700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4744500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2610600</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13001900</v>
+        <v>12656900</v>
       </c>
       <c r="E54" s="3">
-        <v>12331300</v>
+        <v>13475700</v>
       </c>
       <c r="F54" s="3">
-        <v>12559900</v>
+        <v>12780600</v>
       </c>
       <c r="G54" s="3">
-        <v>13275500</v>
+        <v>13017600</v>
       </c>
       <c r="H54" s="3">
-        <v>14062500</v>
+        <v>13759300</v>
       </c>
       <c r="I54" s="3">
-        <v>15339600</v>
+        <v>14575000</v>
       </c>
       <c r="J54" s="3">
+        <v>15898600</v>
+      </c>
+      <c r="K54" s="3">
         <v>18167200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20951600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30948100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24486500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26278100</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,242 +2529,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>525700</v>
+        <v>624200</v>
       </c>
       <c r="E57" s="3">
-        <v>542000</v>
+        <v>544900</v>
       </c>
       <c r="F57" s="3">
-        <v>561400</v>
+        <v>561800</v>
       </c>
       <c r="G57" s="3">
-        <v>585900</v>
+        <v>581900</v>
       </c>
       <c r="H57" s="3">
-        <v>2461100</v>
+        <v>607300</v>
       </c>
       <c r="I57" s="3">
-        <v>2294800</v>
+        <v>2550800</v>
       </c>
       <c r="J57" s="3">
+        <v>2378400</v>
+      </c>
+      <c r="K57" s="3">
         <v>790100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>924700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1305100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3078800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1670300</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>830900</v>
+        <v>369200</v>
       </c>
       <c r="E58" s="3">
-        <v>846200</v>
+        <v>861200</v>
       </c>
       <c r="F58" s="3">
-        <v>1104500</v>
+        <v>877100</v>
       </c>
       <c r="G58" s="3">
-        <v>744200</v>
+        <v>1144800</v>
       </c>
       <c r="H58" s="3">
-        <v>18400</v>
+        <v>771300</v>
       </c>
       <c r="I58" s="3">
-        <v>750300</v>
+        <v>19000</v>
       </c>
       <c r="J58" s="3">
+        <v>777600</v>
+      </c>
+      <c r="K58" s="3">
         <v>864600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1178800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2402000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3353300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1711400</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>910600</v>
+        <v>786100</v>
       </c>
       <c r="E59" s="3">
-        <v>866700</v>
+        <v>943700</v>
       </c>
       <c r="F59" s="3">
-        <v>1022800</v>
+        <v>898200</v>
       </c>
       <c r="G59" s="3">
-        <v>1154500</v>
+        <v>1060100</v>
       </c>
       <c r="H59" s="3">
-        <v>1534300</v>
+        <v>1196600</v>
       </c>
       <c r="I59" s="3">
-        <v>1521000</v>
+        <v>1590200</v>
       </c>
       <c r="J59" s="3">
+        <v>1576400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1450600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2138500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2697400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6428800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3202200</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2267200</v>
+        <v>1779600</v>
       </c>
       <c r="E60" s="3">
-        <v>2254900</v>
+        <v>2349800</v>
       </c>
       <c r="F60" s="3">
-        <v>2688800</v>
+        <v>2337100</v>
       </c>
       <c r="G60" s="3">
-        <v>2484600</v>
+        <v>2786800</v>
       </c>
       <c r="H60" s="3">
-        <v>1927300</v>
+        <v>2575200</v>
       </c>
       <c r="I60" s="3">
-        <v>2688800</v>
+        <v>1997500</v>
       </c>
       <c r="J60" s="3">
+        <v>2786800</v>
+      </c>
+      <c r="K60" s="3">
         <v>3105300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4242000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6404500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6431000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6583900</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6944500</v>
+        <v>6285600</v>
       </c>
       <c r="E61" s="3">
-        <v>6745400</v>
+        <v>7197600</v>
       </c>
       <c r="F61" s="3">
-        <v>6642300</v>
+        <v>6991300</v>
       </c>
       <c r="G61" s="3">
-        <v>7927500</v>
+        <v>6884400</v>
       </c>
       <c r="H61" s="3">
-        <v>7736600</v>
+        <v>8216400</v>
       </c>
       <c r="I61" s="3">
-        <v>8061300</v>
+        <v>8018600</v>
       </c>
       <c r="J61" s="3">
+        <v>8355000</v>
+      </c>
+      <c r="K61" s="3">
         <v>9037100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10610200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13942900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13581200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13664300</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>493000</v>
+        <v>727900</v>
       </c>
       <c r="E62" s="3">
-        <v>654300</v>
+        <v>511000</v>
       </c>
       <c r="F62" s="3">
-        <v>639000</v>
+        <v>678200</v>
       </c>
       <c r="G62" s="3">
-        <v>967700</v>
+        <v>662300</v>
       </c>
       <c r="H62" s="3">
-        <v>1011600</v>
+        <v>1003000</v>
       </c>
       <c r="I62" s="3">
-        <v>755400</v>
+        <v>1048500</v>
       </c>
       <c r="J62" s="3">
+        <v>782900</v>
+      </c>
+      <c r="K62" s="3">
         <v>495100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>857000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2417500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4892700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2365200</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9706800</v>
+        <v>8795200</v>
       </c>
       <c r="E66" s="3">
-        <v>9655700</v>
+        <v>10060500</v>
       </c>
       <c r="F66" s="3">
-        <v>10001800</v>
+        <v>10007600</v>
       </c>
       <c r="G66" s="3">
-        <v>11358400</v>
+        <v>10366300</v>
       </c>
       <c r="H66" s="3">
-        <v>10508100</v>
+        <v>11772400</v>
       </c>
       <c r="I66" s="3">
-        <v>11442100</v>
+        <v>10891100</v>
       </c>
       <c r="J66" s="3">
+        <v>11859100</v>
+      </c>
+      <c r="K66" s="3">
         <v>13081600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15788200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24668000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23077800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22838800</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2923,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5637900</v>
+        <v>-5666600</v>
       </c>
       <c r="E72" s="3">
-        <v>-6419800</v>
+        <v>-5843300</v>
       </c>
       <c r="F72" s="3">
-        <v>-6433100</v>
+        <v>-6653800</v>
       </c>
       <c r="G72" s="3">
-        <v>-6469800</v>
+        <v>-6667500</v>
       </c>
       <c r="H72" s="3">
-        <v>-6336100</v>
+        <v>-6705600</v>
       </c>
       <c r="I72" s="3">
-        <v>-5778700</v>
+        <v>-6567000</v>
       </c>
       <c r="J72" s="3">
+        <v>-5989300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-6124800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6939400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6387700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11313800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4697600</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3295100</v>
+        <v>3861700</v>
       </c>
       <c r="E76" s="3">
-        <v>2675500</v>
+        <v>3415200</v>
       </c>
       <c r="F76" s="3">
-        <v>2558100</v>
+        <v>2773000</v>
       </c>
       <c r="G76" s="3">
-        <v>1917100</v>
+        <v>2651300</v>
       </c>
       <c r="H76" s="3">
-        <v>3554400</v>
+        <v>1986900</v>
       </c>
       <c r="I76" s="3">
-        <v>3897400</v>
+        <v>3684000</v>
       </c>
       <c r="J76" s="3">
+        <v>4039400</v>
+      </c>
+      <c r="K76" s="3">
         <v>5085600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5163400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6280000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1408700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3439300</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1304600</v>
+        <v>786100</v>
       </c>
       <c r="E81" s="3">
-        <v>562500</v>
+        <v>1352100</v>
       </c>
       <c r="F81" s="3">
-        <v>638000</v>
+        <v>583000</v>
       </c>
       <c r="G81" s="3">
-        <v>228700</v>
+        <v>661300</v>
       </c>
       <c r="H81" s="3">
-        <v>346100</v>
+        <v>237000</v>
       </c>
       <c r="I81" s="3">
-        <v>757400</v>
+        <v>358700</v>
       </c>
       <c r="J81" s="3">
+        <v>785000</v>
+      </c>
+      <c r="K81" s="3">
         <v>599200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-761000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-265600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>837800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1818200</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1490400</v>
+        <v>1424100</v>
       </c>
       <c r="E83" s="3">
-        <v>1584300</v>
+        <v>1544700</v>
       </c>
       <c r="F83" s="3">
-        <v>1569000</v>
+        <v>1642000</v>
       </c>
       <c r="G83" s="3">
-        <v>1564900</v>
+        <v>1626100</v>
       </c>
       <c r="H83" s="3">
-        <v>1443400</v>
+        <v>1621900</v>
       </c>
       <c r="I83" s="3">
-        <v>1577100</v>
+        <v>1496000</v>
       </c>
       <c r="J83" s="3">
+        <v>1634600</v>
+      </c>
+      <c r="K83" s="3">
         <v>1649600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1867500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2221300</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3039000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2171200</v>
+        <v>2314900</v>
       </c>
       <c r="E89" s="3">
-        <v>2084500</v>
+        <v>2250400</v>
       </c>
       <c r="F89" s="3">
-        <v>2048700</v>
+        <v>2160400</v>
       </c>
       <c r="G89" s="3">
-        <v>2151800</v>
+        <v>2123400</v>
       </c>
       <c r="H89" s="3">
-        <v>1990600</v>
+        <v>2230300</v>
       </c>
       <c r="I89" s="3">
-        <v>1956900</v>
+        <v>2063100</v>
       </c>
       <c r="J89" s="3">
+        <v>2028200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2264100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1754600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3412800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4395300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4698800</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1009600</v>
+        <v>-1016700</v>
       </c>
       <c r="E91" s="3">
-        <v>-941200</v>
+        <v>-1046400</v>
       </c>
       <c r="F91" s="3">
-        <v>-876900</v>
+        <v>-975500</v>
       </c>
       <c r="G91" s="3">
-        <v>-834000</v>
+        <v>-908800</v>
       </c>
       <c r="H91" s="3">
-        <v>-841100</v>
+        <v>-864400</v>
       </c>
       <c r="I91" s="3">
-        <v>-936100</v>
+        <v>-871800</v>
       </c>
       <c r="J91" s="3">
+        <v>-970200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1033000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1011700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1569400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1739200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2434500</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1237200</v>
+        <v>-1145800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1577100</v>
+        <v>-1282300</v>
       </c>
       <c r="F94" s="3">
-        <v>-721700</v>
+        <v>-1634600</v>
       </c>
       <c r="G94" s="3">
-        <v>-394000</v>
+        <v>-748000</v>
       </c>
       <c r="H94" s="3">
-        <v>-622700</v>
+        <v>-408400</v>
       </c>
       <c r="I94" s="3">
-        <v>415500</v>
+        <v>-645400</v>
       </c>
       <c r="J94" s="3">
+        <v>430600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1115700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1663200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4770400</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2331200</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,47 +3992,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-565500</v>
+        <v>-604100</v>
       </c>
       <c r="E96" s="3">
-        <v>-540000</v>
+        <v>-586100</v>
       </c>
       <c r="F96" s="3">
-        <v>-522600</v>
+        <v>-559700</v>
       </c>
       <c r="G96" s="3">
-        <v>-540000</v>
+        <v>-541700</v>
       </c>
       <c r="H96" s="3">
-        <v>-524700</v>
+        <v>-559700</v>
       </c>
       <c r="I96" s="3">
-        <v>-497100</v>
+        <v>-543800</v>
       </c>
       <c r="J96" s="3">
+        <v>-515200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-505300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-106100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-7200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1317600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1408600</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,48 +4157,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-731900</v>
+        <v>-1585900</v>
       </c>
       <c r="E100" s="3">
-        <v>-683900</v>
+        <v>-758600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1168800</v>
+        <v>-708900</v>
       </c>
       <c r="G100" s="3">
-        <v>-2002800</v>
+        <v>-1211400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1699600</v>
+        <v>-2075800</v>
       </c>
       <c r="I100" s="3">
-        <v>-2777600</v>
+        <v>-1761600</v>
       </c>
       <c r="J100" s="3">
+        <v>-2878800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1527100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5311300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4555100</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2051800</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3969,70 +4217,76 @@
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H101" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2300</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1200</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>202100</v>
+        <v>-416900</v>
       </c>
       <c r="E102" s="3">
-        <v>-176600</v>
+        <v>209500</v>
       </c>
       <c r="F102" s="3">
-        <v>158200</v>
+        <v>-183000</v>
       </c>
       <c r="G102" s="3">
-        <v>-245000</v>
+        <v>164000</v>
       </c>
       <c r="H102" s="3">
-        <v>-332800</v>
+        <v>-253900</v>
       </c>
       <c r="I102" s="3">
-        <v>-405300</v>
+        <v>-344900</v>
       </c>
       <c r="J102" s="3">
+        <v>-420000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-377700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1891200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3197400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>294300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>314600</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5636000</v>
+        <v>5733400</v>
       </c>
       <c r="E8" s="3">
-        <v>5560800</v>
+        <v>5660200</v>
       </c>
       <c r="F8" s="3">
-        <v>5581000</v>
+        <v>5680600</v>
       </c>
       <c r="G8" s="3">
-        <v>5805200</v>
+        <v>5909000</v>
       </c>
       <c r="H8" s="3">
-        <v>5966100</v>
+        <v>6072600</v>
       </c>
       <c r="I8" s="3">
-        <v>6082400</v>
+        <v>6191100</v>
       </c>
       <c r="J8" s="3">
-        <v>7200700</v>
+        <v>7329400</v>
       </c>
       <c r="K8" s="3">
         <v>7153800</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1459000</v>
+        <v>1485000</v>
       </c>
       <c r="E9" s="3">
-        <v>1373300</v>
+        <v>1397800</v>
       </c>
       <c r="F9" s="3">
-        <v>1358500</v>
+        <v>1382700</v>
       </c>
       <c r="G9" s="3">
-        <v>1376500</v>
+        <v>1401000</v>
       </c>
       <c r="H9" s="3">
-        <v>1409300</v>
+        <v>1434400</v>
       </c>
       <c r="I9" s="3">
-        <v>1444200</v>
+        <v>1470000</v>
       </c>
       <c r="J9" s="3">
-        <v>2143500</v>
+        <v>2181800</v>
       </c>
       <c r="K9" s="3">
         <v>3319600</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4177000</v>
+        <v>4248400</v>
       </c>
       <c r="E10" s="3">
-        <v>4187600</v>
+        <v>4262400</v>
       </c>
       <c r="F10" s="3">
-        <v>4222500</v>
+        <v>4297900</v>
       </c>
       <c r="G10" s="3">
-        <v>4428800</v>
+        <v>4507900</v>
       </c>
       <c r="H10" s="3">
-        <v>4556800</v>
+        <v>4638200</v>
       </c>
       <c r="I10" s="3">
-        <v>4638300</v>
+        <v>4721100</v>
       </c>
       <c r="J10" s="3">
-        <v>5057200</v>
+        <v>5147600</v>
       </c>
       <c r="K10" s="3">
         <v>3834100</v>
@@ -956,25 +956,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="E14" s="3">
-        <v>-857000</v>
+        <v>-872300</v>
       </c>
       <c r="F14" s="3">
-        <v>38100</v>
+        <v>38800</v>
       </c>
       <c r="G14" s="3">
-        <v>-83600</v>
+        <v>-85100</v>
       </c>
       <c r="H14" s="3">
-        <v>143900</v>
+        <v>146500</v>
       </c>
       <c r="I14" s="3">
-        <v>159800</v>
+        <v>162600</v>
       </c>
       <c r="J14" s="3">
-        <v>79400</v>
+        <v>80800</v>
       </c>
       <c r="K14" s="3">
         <v>160300</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1390200</v>
+        <v>1415000</v>
       </c>
       <c r="E15" s="3">
-        <v>1525600</v>
+        <v>1552900</v>
       </c>
       <c r="F15" s="3">
-        <v>1613500</v>
+        <v>1642300</v>
       </c>
       <c r="G15" s="3">
-        <v>1605000</v>
+        <v>1633700</v>
       </c>
       <c r="H15" s="3">
-        <v>1602900</v>
+        <v>1631500</v>
       </c>
       <c r="I15" s="3">
-        <v>1505500</v>
+        <v>1532400</v>
       </c>
       <c r="J15" s="3">
-        <v>1555300</v>
+        <v>1583000</v>
       </c>
       <c r="K15" s="3">
         <v>1591400</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4351600</v>
+        <v>4426100</v>
       </c>
       <c r="E17" s="3">
-        <v>3590900</v>
+        <v>3655000</v>
       </c>
       <c r="F17" s="3">
-        <v>4616100</v>
+        <v>4698500</v>
       </c>
       <c r="G17" s="3">
-        <v>4703900</v>
+        <v>4787900</v>
       </c>
       <c r="H17" s="3">
-        <v>5098500</v>
+        <v>5189600</v>
       </c>
       <c r="I17" s="3">
-        <v>5283700</v>
+        <v>5378000</v>
       </c>
       <c r="J17" s="3">
-        <v>6265500</v>
+        <v>6377400</v>
       </c>
       <c r="K17" s="3">
         <v>6431000</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1284400</v>
+        <v>1307400</v>
       </c>
       <c r="E18" s="3">
-        <v>1970000</v>
+        <v>2005200</v>
       </c>
       <c r="F18" s="3">
-        <v>964900</v>
+        <v>982100</v>
       </c>
       <c r="G18" s="3">
-        <v>1101400</v>
+        <v>1121100</v>
       </c>
       <c r="H18" s="3">
-        <v>867600</v>
+        <v>883100</v>
       </c>
       <c r="I18" s="3">
-        <v>798800</v>
+        <v>813100</v>
       </c>
       <c r="J18" s="3">
-        <v>935300</v>
+        <v>952000</v>
       </c>
       <c r="K18" s="3">
         <v>722700</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-11600</v>
+        <v>-11800</v>
       </c>
       <c r="E20" s="3">
-        <v>-24300</v>
+        <v>-24800</v>
       </c>
       <c r="F20" s="3">
-        <v>-36000</v>
+        <v>-36600</v>
       </c>
       <c r="G20" s="3">
-        <v>-86800</v>
+        <v>-88300</v>
       </c>
       <c r="H20" s="3">
-        <v>36000</v>
+        <v>36600</v>
       </c>
       <c r="I20" s="3">
-        <v>85700</v>
+        <v>87200</v>
       </c>
       <c r="J20" s="3">
-        <v>-16900</v>
+        <v>-17200</v>
       </c>
       <c r="K20" s="3">
         <v>387900</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2692000</v>
+        <v>2754500</v>
       </c>
       <c r="E21" s="3">
-        <v>3485100</v>
+        <v>3562900</v>
       </c>
       <c r="F21" s="3">
-        <v>2565400</v>
+        <v>2627700</v>
       </c>
       <c r="G21" s="3">
-        <v>2635200</v>
+        <v>2698700</v>
       </c>
       <c r="H21" s="3">
-        <v>2519900</v>
+        <v>2581300</v>
       </c>
       <c r="I21" s="3">
-        <v>2375400</v>
+        <v>2432900</v>
       </c>
       <c r="J21" s="3">
-        <v>2547400</v>
+        <v>2609400</v>
       </c>
       <c r="K21" s="3">
         <v>2728400</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>222200</v>
+        <v>226100</v>
       </c>
       <c r="E22" s="3">
-        <v>224300</v>
+        <v>228300</v>
       </c>
       <c r="F22" s="3">
-        <v>242300</v>
+        <v>246600</v>
       </c>
       <c r="G22" s="3">
-        <v>313200</v>
+        <v>318800</v>
       </c>
       <c r="H22" s="3">
-        <v>358700</v>
+        <v>365100</v>
       </c>
       <c r="I22" s="3">
-        <v>346000</v>
+        <v>352100</v>
       </c>
       <c r="J22" s="3">
-        <v>425300</v>
+        <v>432900</v>
       </c>
       <c r="K22" s="3">
         <v>493000</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1050600</v>
+        <v>1069400</v>
       </c>
       <c r="E23" s="3">
-        <v>1721400</v>
+        <v>1752100</v>
       </c>
       <c r="F23" s="3">
-        <v>686600</v>
+        <v>698900</v>
       </c>
       <c r="G23" s="3">
-        <v>701500</v>
+        <v>714000</v>
       </c>
       <c r="H23" s="3">
-        <v>544900</v>
+        <v>554600</v>
       </c>
       <c r="I23" s="3">
-        <v>538500</v>
+        <v>548100</v>
       </c>
       <c r="J23" s="3">
-        <v>493000</v>
+        <v>501800</v>
       </c>
       <c r="K23" s="3">
         <v>617600</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>240200</v>
+        <v>244500</v>
       </c>
       <c r="E24" s="3">
-        <v>364000</v>
+        <v>370500</v>
       </c>
       <c r="F24" s="3">
-        <v>93100</v>
+        <v>94800</v>
       </c>
       <c r="G24" s="3">
-        <v>51800</v>
+        <v>52800</v>
       </c>
       <c r="H24" s="3">
-        <v>237000</v>
+        <v>241200</v>
       </c>
       <c r="I24" s="3">
-        <v>125900</v>
+        <v>128200</v>
       </c>
       <c r="J24" s="3">
-        <v>101600</v>
+        <v>103400</v>
       </c>
       <c r="K24" s="3">
         <v>82700</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>810400</v>
+        <v>824900</v>
       </c>
       <c r="E26" s="3">
-        <v>1357400</v>
+        <v>1381700</v>
       </c>
       <c r="F26" s="3">
-        <v>593500</v>
+        <v>604100</v>
       </c>
       <c r="G26" s="3">
-        <v>649600</v>
+        <v>661200</v>
       </c>
       <c r="H26" s="3">
-        <v>307900</v>
+        <v>313400</v>
       </c>
       <c r="I26" s="3">
-        <v>412600</v>
+        <v>420000</v>
       </c>
       <c r="J26" s="3">
-        <v>391500</v>
+        <v>398500</v>
       </c>
       <c r="K26" s="3">
         <v>534900</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>791400</v>
+        <v>805500</v>
       </c>
       <c r="E27" s="3">
-        <v>1346800</v>
+        <v>1370900</v>
       </c>
       <c r="F27" s="3">
-        <v>583000</v>
+        <v>593400</v>
       </c>
       <c r="G27" s="3">
-        <v>648600</v>
+        <v>660100</v>
       </c>
       <c r="H27" s="3">
-        <v>247600</v>
+        <v>252000</v>
       </c>
       <c r="I27" s="3">
-        <v>358700</v>
+        <v>365100</v>
       </c>
       <c r="J27" s="3">
-        <v>330100</v>
+        <v>336000</v>
       </c>
       <c r="K27" s="3">
         <v>461400</v>
@@ -1535,25 +1535,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="E29" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>12700</v>
+        <v>12900</v>
       </c>
       <c r="H29" s="3">
-        <v>-10600</v>
+        <v>-10800</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>454900</v>
+        <v>463100</v>
       </c>
       <c r="K29" s="3">
         <v>137800</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="E32" s="3">
-        <v>24300</v>
+        <v>24800</v>
       </c>
       <c r="F32" s="3">
-        <v>36000</v>
+        <v>36600</v>
       </c>
       <c r="G32" s="3">
-        <v>86800</v>
+        <v>88300</v>
       </c>
       <c r="H32" s="3">
-        <v>-36000</v>
+        <v>-36600</v>
       </c>
       <c r="I32" s="3">
-        <v>-85700</v>
+        <v>-87200</v>
       </c>
       <c r="J32" s="3">
-        <v>16900</v>
+        <v>17200</v>
       </c>
       <c r="K32" s="3">
         <v>-387900</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>786100</v>
+        <v>800100</v>
       </c>
       <c r="E33" s="3">
-        <v>1352100</v>
+        <v>1376300</v>
       </c>
       <c r="F33" s="3">
-        <v>583000</v>
+        <v>593400</v>
       </c>
       <c r="G33" s="3">
-        <v>661300</v>
+        <v>673100</v>
       </c>
       <c r="H33" s="3">
-        <v>237000</v>
+        <v>241200</v>
       </c>
       <c r="I33" s="3">
-        <v>358700</v>
+        <v>365100</v>
       </c>
       <c r="J33" s="3">
-        <v>785000</v>
+        <v>799100</v>
       </c>
       <c r="K33" s="3">
         <v>599200</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>786100</v>
+        <v>800100</v>
       </c>
       <c r="E35" s="3">
-        <v>1352100</v>
+        <v>1376300</v>
       </c>
       <c r="F35" s="3">
-        <v>583000</v>
+        <v>593400</v>
       </c>
       <c r="G35" s="3">
-        <v>661300</v>
+        <v>673100</v>
       </c>
       <c r="H35" s="3">
-        <v>237000</v>
+        <v>241200</v>
       </c>
       <c r="I35" s="3">
-        <v>358700</v>
+        <v>365100</v>
       </c>
       <c r="J35" s="3">
-        <v>785000</v>
+        <v>799100</v>
       </c>
       <c r="K35" s="3">
         <v>599200</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>422100</v>
+        <v>429700</v>
       </c>
       <c r="E41" s="3">
-        <v>839000</v>
+        <v>854000</v>
       </c>
       <c r="F41" s="3">
-        <v>631600</v>
+        <v>642900</v>
       </c>
       <c r="G41" s="3">
-        <v>810400</v>
+        <v>824900</v>
       </c>
       <c r="H41" s="3">
-        <v>628500</v>
+        <v>639700</v>
       </c>
       <c r="I41" s="3">
-        <v>1811300</v>
+        <v>1843700</v>
       </c>
       <c r="J41" s="3">
-        <v>2494800</v>
+        <v>2539300</v>
       </c>
       <c r="K41" s="3">
         <v>1476100</v>
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>135400</v>
+        <v>137800</v>
       </c>
       <c r="E42" s="3">
-        <v>332200</v>
+        <v>338100</v>
       </c>
       <c r="F42" s="3">
-        <v>285700</v>
+        <v>290800</v>
       </c>
       <c r="G42" s="3">
-        <v>290900</v>
+        <v>296100</v>
       </c>
       <c r="H42" s="3">
-        <v>527900</v>
+        <v>537400</v>
       </c>
       <c r="I42" s="3">
-        <v>1481200</v>
+        <v>1507700</v>
       </c>
       <c r="J42" s="3">
-        <v>148100</v>
+        <v>150800</v>
       </c>
       <c r="K42" s="3">
         <v>587000</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>734300</v>
+        <v>747400</v>
       </c>
       <c r="E43" s="3">
-        <v>623200</v>
+        <v>634300</v>
       </c>
       <c r="F43" s="3">
-        <v>617900</v>
+        <v>628900</v>
       </c>
       <c r="G43" s="3">
-        <v>714200</v>
+        <v>726900</v>
       </c>
       <c r="H43" s="3">
-        <v>831600</v>
+        <v>846400</v>
       </c>
       <c r="I43" s="3">
-        <v>1771100</v>
+        <v>1802700</v>
       </c>
       <c r="J43" s="3">
-        <v>1850400</v>
+        <v>1883500</v>
       </c>
       <c r="K43" s="3">
         <v>749300</v>
@@ -2038,25 +2038,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>51800</v>
+        <v>52800</v>
       </c>
       <c r="E44" s="3">
-        <v>39100</v>
+        <v>39800</v>
       </c>
       <c r="F44" s="3">
-        <v>49700</v>
+        <v>50600</v>
       </c>
       <c r="G44" s="3">
-        <v>57100</v>
+        <v>58200</v>
       </c>
       <c r="H44" s="3">
-        <v>61400</v>
+        <v>62500</v>
       </c>
       <c r="I44" s="3">
-        <v>57100</v>
+        <v>58200</v>
       </c>
       <c r="J44" s="3">
-        <v>94200</v>
+        <v>95800</v>
       </c>
       <c r="K44" s="3">
         <v>66400</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>129100</v>
+        <v>131400</v>
       </c>
       <c r="E45" s="3">
-        <v>142800</v>
+        <v>145400</v>
       </c>
       <c r="F45" s="3">
-        <v>119600</v>
+        <v>121700</v>
       </c>
       <c r="G45" s="3">
-        <v>147100</v>
+        <v>149700</v>
       </c>
       <c r="H45" s="3">
-        <v>104700</v>
+        <v>106600</v>
       </c>
       <c r="I45" s="3">
-        <v>1237900</v>
+        <v>1260000</v>
       </c>
       <c r="J45" s="3">
-        <v>104700</v>
+        <v>106600</v>
       </c>
       <c r="K45" s="3">
         <v>208200</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1472700</v>
+        <v>1499000</v>
       </c>
       <c r="E46" s="3">
-        <v>1976300</v>
+        <v>2011600</v>
       </c>
       <c r="F46" s="3">
-        <v>1704400</v>
+        <v>1734900</v>
       </c>
       <c r="G46" s="3">
-        <v>2019700</v>
+        <v>2055800</v>
       </c>
       <c r="H46" s="3">
-        <v>2154100</v>
+        <v>2192600</v>
       </c>
       <c r="I46" s="3">
-        <v>3526300</v>
+        <v>3589300</v>
       </c>
       <c r="J46" s="3">
-        <v>2584700</v>
+        <v>2630900</v>
       </c>
       <c r="K46" s="3">
         <v>3086900</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>835800</v>
+        <v>850800</v>
       </c>
       <c r="E47" s="3">
-        <v>846400</v>
+        <v>861500</v>
       </c>
       <c r="F47" s="3">
-        <v>66700</v>
+        <v>67800</v>
       </c>
       <c r="G47" s="3">
-        <v>70900</v>
+        <v>72200</v>
       </c>
       <c r="H47" s="3">
-        <v>80400</v>
+        <v>81800</v>
       </c>
       <c r="I47" s="3">
-        <v>373500</v>
+        <v>380100</v>
       </c>
       <c r="J47" s="3">
-        <v>4177000</v>
+        <v>4251600</v>
       </c>
       <c r="K47" s="3">
         <v>2386600</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6788100</v>
+        <v>6909400</v>
       </c>
       <c r="E48" s="3">
-        <v>6630500</v>
+        <v>6748900</v>
       </c>
       <c r="F48" s="3">
-        <v>6643200</v>
+        <v>6761900</v>
       </c>
       <c r="G48" s="3">
-        <v>6643200</v>
+        <v>6761900</v>
       </c>
       <c r="H48" s="3">
-        <v>6848400</v>
+        <v>6970800</v>
       </c>
       <c r="I48" s="3">
-        <v>12296100</v>
+        <v>12515700</v>
       </c>
       <c r="J48" s="3">
-        <v>12630400</v>
+        <v>12856000</v>
       </c>
       <c r="K48" s="3">
         <v>6125800</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3051300</v>
+        <v>3105800</v>
       </c>
       <c r="E49" s="3">
-        <v>3180300</v>
+        <v>3237200</v>
       </c>
       <c r="F49" s="3">
-        <v>3425800</v>
+        <v>3487000</v>
       </c>
       <c r="G49" s="3">
-        <v>3168700</v>
+        <v>3225300</v>
       </c>
       <c r="H49" s="3">
-        <v>3352800</v>
+        <v>3412700</v>
       </c>
       <c r="I49" s="3">
-        <v>7070600</v>
+        <v>7196900</v>
       </c>
       <c r="J49" s="3">
-        <v>6832600</v>
+        <v>6954600</v>
       </c>
       <c r="K49" s="3">
         <v>3521800</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>508900</v>
+        <v>518000</v>
       </c>
       <c r="E52" s="3">
-        <v>842200</v>
+        <v>857200</v>
       </c>
       <c r="F52" s="3">
-        <v>940600</v>
+        <v>957400</v>
       </c>
       <c r="G52" s="3">
-        <v>1115100</v>
+        <v>1135100</v>
       </c>
       <c r="H52" s="3">
-        <v>1323600</v>
+        <v>1347200</v>
       </c>
       <c r="I52" s="3">
-        <v>1285500</v>
+        <v>1308400</v>
       </c>
       <c r="J52" s="3">
-        <v>1467400</v>
+        <v>1493700</v>
       </c>
       <c r="K52" s="3">
         <v>3046100</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12656900</v>
+        <v>12883000</v>
       </c>
       <c r="E54" s="3">
-        <v>13475700</v>
+        <v>13716500</v>
       </c>
       <c r="F54" s="3">
-        <v>12780600</v>
+        <v>13009000</v>
       </c>
       <c r="G54" s="3">
-        <v>13017600</v>
+        <v>13250200</v>
       </c>
       <c r="H54" s="3">
-        <v>13759300</v>
+        <v>14005100</v>
       </c>
       <c r="I54" s="3">
-        <v>14575000</v>
+        <v>14835400</v>
       </c>
       <c r="J54" s="3">
-        <v>15898600</v>
+        <v>16182600</v>
       </c>
       <c r="K54" s="3">
         <v>18167200</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>624200</v>
+        <v>635400</v>
       </c>
       <c r="E57" s="3">
-        <v>544900</v>
+        <v>554600</v>
       </c>
       <c r="F57" s="3">
-        <v>561800</v>
+        <v>571800</v>
       </c>
       <c r="G57" s="3">
-        <v>581900</v>
+        <v>592300</v>
       </c>
       <c r="H57" s="3">
-        <v>607300</v>
+        <v>618100</v>
       </c>
       <c r="I57" s="3">
-        <v>2550800</v>
+        <v>2596400</v>
       </c>
       <c r="J57" s="3">
-        <v>2378400</v>
+        <v>2420900</v>
       </c>
       <c r="K57" s="3">
         <v>790100</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>369200</v>
+        <v>375800</v>
       </c>
       <c r="E58" s="3">
-        <v>861200</v>
+        <v>876600</v>
       </c>
       <c r="F58" s="3">
-        <v>877100</v>
+        <v>892800</v>
       </c>
       <c r="G58" s="3">
-        <v>1144800</v>
+        <v>1165200</v>
       </c>
       <c r="H58" s="3">
-        <v>771300</v>
+        <v>785100</v>
       </c>
       <c r="I58" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="J58" s="3">
-        <v>777600</v>
+        <v>791500</v>
       </c>
       <c r="K58" s="3">
         <v>864600</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>786100</v>
+        <v>800100</v>
       </c>
       <c r="E59" s="3">
-        <v>943700</v>
+        <v>960600</v>
       </c>
       <c r="F59" s="3">
-        <v>898200</v>
+        <v>914300</v>
       </c>
       <c r="G59" s="3">
-        <v>1060100</v>
+        <v>1079100</v>
       </c>
       <c r="H59" s="3">
-        <v>1196600</v>
+        <v>1218000</v>
       </c>
       <c r="I59" s="3">
-        <v>1590200</v>
+        <v>1618600</v>
       </c>
       <c r="J59" s="3">
-        <v>1576400</v>
+        <v>1604600</v>
       </c>
       <c r="K59" s="3">
         <v>1450600</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1779600</v>
+        <v>1811300</v>
       </c>
       <c r="E60" s="3">
-        <v>2349800</v>
+        <v>2391800</v>
       </c>
       <c r="F60" s="3">
-        <v>2337100</v>
+        <v>2378900</v>
       </c>
       <c r="G60" s="3">
-        <v>2786800</v>
+        <v>2836600</v>
       </c>
       <c r="H60" s="3">
-        <v>2575200</v>
+        <v>2621200</v>
       </c>
       <c r="I60" s="3">
-        <v>1997500</v>
+        <v>2033200</v>
       </c>
       <c r="J60" s="3">
-        <v>2786800</v>
+        <v>2836600</v>
       </c>
       <c r="K60" s="3">
         <v>3105300</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6285600</v>
+        <v>6397900</v>
       </c>
       <c r="E61" s="3">
-        <v>7197600</v>
+        <v>7326200</v>
       </c>
       <c r="F61" s="3">
-        <v>6991300</v>
+        <v>7116200</v>
       </c>
       <c r="G61" s="3">
-        <v>6884400</v>
+        <v>7007400</v>
       </c>
       <c r="H61" s="3">
-        <v>8216400</v>
+        <v>8363200</v>
       </c>
       <c r="I61" s="3">
-        <v>8018600</v>
+        <v>8161800</v>
       </c>
       <c r="J61" s="3">
-        <v>8355000</v>
+        <v>8504300</v>
       </c>
       <c r="K61" s="3">
         <v>9037100</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>727900</v>
+        <v>740900</v>
       </c>
       <c r="E62" s="3">
-        <v>511000</v>
+        <v>520100</v>
       </c>
       <c r="F62" s="3">
-        <v>678200</v>
+        <v>690300</v>
       </c>
       <c r="G62" s="3">
-        <v>662300</v>
+        <v>674100</v>
       </c>
       <c r="H62" s="3">
-        <v>1003000</v>
+        <v>1020900</v>
       </c>
       <c r="I62" s="3">
-        <v>1048500</v>
+        <v>1067200</v>
       </c>
       <c r="J62" s="3">
-        <v>782900</v>
+        <v>796900</v>
       </c>
       <c r="K62" s="3">
         <v>495100</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8795200</v>
+        <v>8952300</v>
       </c>
       <c r="E66" s="3">
-        <v>10060500</v>
+        <v>10240200</v>
       </c>
       <c r="F66" s="3">
-        <v>10007600</v>
+        <v>10186400</v>
       </c>
       <c r="G66" s="3">
-        <v>10366300</v>
+        <v>10551500</v>
       </c>
       <c r="H66" s="3">
-        <v>11772400</v>
+        <v>11982700</v>
       </c>
       <c r="I66" s="3">
-        <v>10891100</v>
+        <v>11085600</v>
       </c>
       <c r="J66" s="3">
-        <v>11859100</v>
+        <v>12071000</v>
       </c>
       <c r="K66" s="3">
         <v>13081600</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5666600</v>
+        <v>-5767900</v>
       </c>
       <c r="E72" s="3">
-        <v>-5843300</v>
+        <v>-5947700</v>
       </c>
       <c r="F72" s="3">
-        <v>-6653800</v>
+        <v>-6772600</v>
       </c>
       <c r="G72" s="3">
-        <v>-6667500</v>
+        <v>-6786600</v>
       </c>
       <c r="H72" s="3">
-        <v>-6705600</v>
+        <v>-6825400</v>
       </c>
       <c r="I72" s="3">
-        <v>-6567000</v>
+        <v>-6684300</v>
       </c>
       <c r="J72" s="3">
-        <v>-5989300</v>
+        <v>-6096300</v>
       </c>
       <c r="K72" s="3">
         <v>-6124800</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3861700</v>
+        <v>3930700</v>
       </c>
       <c r="E76" s="3">
-        <v>3415200</v>
+        <v>3476200</v>
       </c>
       <c r="F76" s="3">
-        <v>2773000</v>
+        <v>2822600</v>
       </c>
       <c r="G76" s="3">
-        <v>2651300</v>
+        <v>2698700</v>
       </c>
       <c r="H76" s="3">
-        <v>1986900</v>
+        <v>2022400</v>
       </c>
       <c r="I76" s="3">
-        <v>3684000</v>
+        <v>3749800</v>
       </c>
       <c r="J76" s="3">
-        <v>4039400</v>
+        <v>4111600</v>
       </c>
       <c r="K76" s="3">
         <v>5085600</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>786100</v>
+        <v>800100</v>
       </c>
       <c r="E81" s="3">
-        <v>1352100</v>
+        <v>1376300</v>
       </c>
       <c r="F81" s="3">
-        <v>583000</v>
+        <v>593400</v>
       </c>
       <c r="G81" s="3">
-        <v>661300</v>
+        <v>673100</v>
       </c>
       <c r="H81" s="3">
-        <v>237000</v>
+        <v>241200</v>
       </c>
       <c r="I81" s="3">
-        <v>358700</v>
+        <v>365100</v>
       </c>
       <c r="J81" s="3">
-        <v>785000</v>
+        <v>799100</v>
       </c>
       <c r="K81" s="3">
         <v>599200</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1424100</v>
+        <v>1449500</v>
       </c>
       <c r="E83" s="3">
-        <v>1544700</v>
+        <v>1572300</v>
       </c>
       <c r="F83" s="3">
-        <v>1642000</v>
+        <v>1671300</v>
       </c>
       <c r="G83" s="3">
-        <v>1626100</v>
+        <v>1655200</v>
       </c>
       <c r="H83" s="3">
-        <v>1621900</v>
+        <v>1650900</v>
       </c>
       <c r="I83" s="3">
-        <v>1496000</v>
+        <v>1522700</v>
       </c>
       <c r="J83" s="3">
-        <v>1634600</v>
+        <v>1663800</v>
       </c>
       <c r="K83" s="3">
         <v>1649600</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2314900</v>
+        <v>2356300</v>
       </c>
       <c r="E89" s="3">
-        <v>2250400</v>
+        <v>2290600</v>
       </c>
       <c r="F89" s="3">
-        <v>2160400</v>
+        <v>2199000</v>
       </c>
       <c r="G89" s="3">
-        <v>2123400</v>
+        <v>2161300</v>
       </c>
       <c r="H89" s="3">
-        <v>2230300</v>
+        <v>2270100</v>
       </c>
       <c r="I89" s="3">
-        <v>2063100</v>
+        <v>2100000</v>
       </c>
       <c r="J89" s="3">
-        <v>2028200</v>
+        <v>2064400</v>
       </c>
       <c r="K89" s="3">
         <v>2264100</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1016700</v>
+        <v>-1034900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1046400</v>
+        <v>-1065100</v>
       </c>
       <c r="F91" s="3">
-        <v>-975500</v>
+        <v>-992900</v>
       </c>
       <c r="G91" s="3">
-        <v>-908800</v>
+        <v>-925100</v>
       </c>
       <c r="H91" s="3">
-        <v>-864400</v>
+        <v>-879800</v>
       </c>
       <c r="I91" s="3">
-        <v>-871800</v>
+        <v>-887400</v>
       </c>
       <c r="J91" s="3">
-        <v>-970200</v>
+        <v>-987500</v>
       </c>
       <c r="K91" s="3">
         <v>-1033000</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1145800</v>
+        <v>-1166300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1282300</v>
+        <v>-1305200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1634600</v>
+        <v>-1663800</v>
       </c>
       <c r="G94" s="3">
-        <v>-748000</v>
+        <v>-761400</v>
       </c>
       <c r="H94" s="3">
-        <v>-408400</v>
+        <v>-415700</v>
       </c>
       <c r="I94" s="3">
-        <v>-645400</v>
+        <v>-656900</v>
       </c>
       <c r="J94" s="3">
-        <v>430600</v>
+        <v>438300</v>
       </c>
       <c r="K94" s="3">
         <v>-1115700</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-604100</v>
+        <v>-614900</v>
       </c>
       <c r="E96" s="3">
-        <v>-586100</v>
+        <v>-596600</v>
       </c>
       <c r="F96" s="3">
-        <v>-559700</v>
+        <v>-569700</v>
       </c>
       <c r="G96" s="3">
-        <v>-541700</v>
+        <v>-551400</v>
       </c>
       <c r="H96" s="3">
-        <v>-559700</v>
+        <v>-569700</v>
       </c>
       <c r="I96" s="3">
-        <v>-543800</v>
+        <v>-553500</v>
       </c>
       <c r="J96" s="3">
-        <v>-515200</v>
+        <v>-524500</v>
       </c>
       <c r="K96" s="3">
         <v>-505300</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1585900</v>
+        <v>-1614300</v>
       </c>
       <c r="E100" s="3">
-        <v>-758600</v>
+        <v>-772100</v>
       </c>
       <c r="F100" s="3">
-        <v>-708900</v>
+        <v>-721500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1211400</v>
+        <v>-1233100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2075800</v>
+        <v>-2112900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1761600</v>
+        <v>-1793000</v>
       </c>
       <c r="J100" s="3">
-        <v>-2878800</v>
+        <v>-2930200</v>
       </c>
       <c r="K100" s="3">
         <v>-1527100</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-416900</v>
+        <v>-424300</v>
       </c>
       <c r="E102" s="3">
-        <v>209500</v>
+        <v>213200</v>
       </c>
       <c r="F102" s="3">
-        <v>-183000</v>
+        <v>-186300</v>
       </c>
       <c r="G102" s="3">
-        <v>164000</v>
+        <v>166900</v>
       </c>
       <c r="H102" s="3">
-        <v>-253900</v>
+        <v>-258500</v>
       </c>
       <c r="I102" s="3">
-        <v>-344900</v>
+        <v>-351100</v>
       </c>
       <c r="J102" s="3">
-        <v>-420000</v>
+        <v>-427500</v>
       </c>
       <c r="K102" s="3">
         <v>-377700</v>

--- a/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5733400</v>
+        <v>5771700</v>
       </c>
       <c r="E8" s="3">
-        <v>5660200</v>
+        <v>5698000</v>
       </c>
       <c r="F8" s="3">
-        <v>5680600</v>
+        <v>5718600</v>
       </c>
       <c r="G8" s="3">
-        <v>5909000</v>
+        <v>5948500</v>
       </c>
       <c r="H8" s="3">
-        <v>6072600</v>
+        <v>6113200</v>
       </c>
       <c r="I8" s="3">
-        <v>6191100</v>
+        <v>6232500</v>
       </c>
       <c r="J8" s="3">
-        <v>7329400</v>
+        <v>7378400</v>
       </c>
       <c r="K8" s="3">
         <v>7153800</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1485000</v>
+        <v>1495000</v>
       </c>
       <c r="E9" s="3">
-        <v>1397800</v>
+        <v>1407200</v>
       </c>
       <c r="F9" s="3">
-        <v>1382700</v>
+        <v>1392000</v>
       </c>
       <c r="G9" s="3">
-        <v>1401000</v>
+        <v>1410400</v>
       </c>
       <c r="H9" s="3">
-        <v>1434400</v>
+        <v>1444000</v>
       </c>
       <c r="I9" s="3">
-        <v>1470000</v>
+        <v>1479800</v>
       </c>
       <c r="J9" s="3">
-        <v>2181800</v>
+        <v>2196400</v>
       </c>
       <c r="K9" s="3">
         <v>3319600</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4248400</v>
+        <v>4276800</v>
       </c>
       <c r="E10" s="3">
-        <v>4262400</v>
+        <v>4290900</v>
       </c>
       <c r="F10" s="3">
-        <v>4297900</v>
+        <v>4326600</v>
       </c>
       <c r="G10" s="3">
-        <v>4507900</v>
+        <v>4538000</v>
       </c>
       <c r="H10" s="3">
-        <v>4638200</v>
+        <v>4669200</v>
       </c>
       <c r="I10" s="3">
-        <v>4721100</v>
+        <v>4752700</v>
       </c>
       <c r="J10" s="3">
-        <v>5147600</v>
+        <v>5182000</v>
       </c>
       <c r="K10" s="3">
         <v>3834100</v>
@@ -956,25 +956,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="E14" s="3">
-        <v>-872300</v>
+        <v>-878100</v>
       </c>
       <c r="F14" s="3">
-        <v>38800</v>
+        <v>39000</v>
       </c>
       <c r="G14" s="3">
-        <v>-85100</v>
+        <v>-85600</v>
       </c>
       <c r="H14" s="3">
-        <v>146500</v>
+        <v>147400</v>
       </c>
       <c r="I14" s="3">
-        <v>162600</v>
+        <v>163700</v>
       </c>
       <c r="J14" s="3">
-        <v>80800</v>
+        <v>81300</v>
       </c>
       <c r="K14" s="3">
         <v>160300</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1415000</v>
+        <v>1424500</v>
       </c>
       <c r="E15" s="3">
-        <v>1552900</v>
+        <v>1563300</v>
       </c>
       <c r="F15" s="3">
-        <v>1642300</v>
+        <v>1653300</v>
       </c>
       <c r="G15" s="3">
-        <v>1633700</v>
+        <v>1644600</v>
       </c>
       <c r="H15" s="3">
-        <v>1631500</v>
+        <v>1642400</v>
       </c>
       <c r="I15" s="3">
-        <v>1532400</v>
+        <v>1542700</v>
       </c>
       <c r="J15" s="3">
-        <v>1583000</v>
+        <v>1593600</v>
       </c>
       <c r="K15" s="3">
         <v>1591400</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4426100</v>
+        <v>4455700</v>
       </c>
       <c r="E17" s="3">
-        <v>3655000</v>
+        <v>3679400</v>
       </c>
       <c r="F17" s="3">
-        <v>4698500</v>
+        <v>4729900</v>
       </c>
       <c r="G17" s="3">
-        <v>4787900</v>
+        <v>4819900</v>
       </c>
       <c r="H17" s="3">
-        <v>5189600</v>
+        <v>5224300</v>
       </c>
       <c r="I17" s="3">
-        <v>5378000</v>
+        <v>5414000</v>
       </c>
       <c r="J17" s="3">
-        <v>6377400</v>
+        <v>6420000</v>
       </c>
       <c r="K17" s="3">
         <v>6431000</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1307400</v>
+        <v>1316100</v>
       </c>
       <c r="E18" s="3">
-        <v>2005200</v>
+        <v>2018600</v>
       </c>
       <c r="F18" s="3">
-        <v>982100</v>
+        <v>988700</v>
       </c>
       <c r="G18" s="3">
-        <v>1121100</v>
+        <v>1128500</v>
       </c>
       <c r="H18" s="3">
-        <v>883100</v>
+        <v>889000</v>
       </c>
       <c r="I18" s="3">
-        <v>813100</v>
+        <v>818500</v>
       </c>
       <c r="J18" s="3">
-        <v>952000</v>
+        <v>958300</v>
       </c>
       <c r="K18" s="3">
         <v>722700</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-11800</v>
+        <v>-11900</v>
       </c>
       <c r="E20" s="3">
-        <v>-24800</v>
+        <v>-24900</v>
       </c>
       <c r="F20" s="3">
-        <v>-36600</v>
+        <v>-36900</v>
       </c>
       <c r="G20" s="3">
-        <v>-88300</v>
+        <v>-88900</v>
       </c>
       <c r="H20" s="3">
-        <v>36600</v>
+        <v>36900</v>
       </c>
       <c r="I20" s="3">
-        <v>87200</v>
+        <v>87800</v>
       </c>
       <c r="J20" s="3">
-        <v>-17200</v>
+        <v>-17300</v>
       </c>
       <c r="K20" s="3">
         <v>387900</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2754500</v>
+        <v>2763400</v>
       </c>
       <c r="E21" s="3">
-        <v>3562900</v>
+        <v>3576400</v>
       </c>
       <c r="F21" s="3">
-        <v>2627700</v>
+        <v>2634400</v>
       </c>
       <c r="G21" s="3">
-        <v>2698700</v>
+        <v>2705900</v>
       </c>
       <c r="H21" s="3">
-        <v>2581300</v>
+        <v>2587700</v>
       </c>
       <c r="I21" s="3">
-        <v>2432900</v>
+        <v>2439200</v>
       </c>
       <c r="J21" s="3">
-        <v>2609400</v>
+        <v>2615900</v>
       </c>
       <c r="K21" s="3">
         <v>2728400</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>226100</v>
+        <v>227700</v>
       </c>
       <c r="E22" s="3">
-        <v>228300</v>
+        <v>229800</v>
       </c>
       <c r="F22" s="3">
-        <v>246600</v>
+        <v>248300</v>
       </c>
       <c r="G22" s="3">
-        <v>318800</v>
+        <v>320900</v>
       </c>
       <c r="H22" s="3">
-        <v>365100</v>
+        <v>367500</v>
       </c>
       <c r="I22" s="3">
-        <v>352100</v>
+        <v>354500</v>
       </c>
       <c r="J22" s="3">
-        <v>432900</v>
+        <v>435800</v>
       </c>
       <c r="K22" s="3">
         <v>493000</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1069400</v>
+        <v>1076500</v>
       </c>
       <c r="E23" s="3">
-        <v>1752100</v>
+        <v>1763800</v>
       </c>
       <c r="F23" s="3">
-        <v>698900</v>
+        <v>703600</v>
       </c>
       <c r="G23" s="3">
-        <v>714000</v>
+        <v>718800</v>
       </c>
       <c r="H23" s="3">
-        <v>554600</v>
+        <v>558300</v>
       </c>
       <c r="I23" s="3">
-        <v>548100</v>
+        <v>551800</v>
       </c>
       <c r="J23" s="3">
-        <v>501800</v>
+        <v>505200</v>
       </c>
       <c r="K23" s="3">
         <v>617600</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>244500</v>
+        <v>246100</v>
       </c>
       <c r="E24" s="3">
-        <v>370500</v>
+        <v>372900</v>
       </c>
       <c r="F24" s="3">
-        <v>94800</v>
+        <v>95400</v>
       </c>
       <c r="G24" s="3">
-        <v>52800</v>
+        <v>53100</v>
       </c>
       <c r="H24" s="3">
-        <v>241200</v>
+        <v>242800</v>
       </c>
       <c r="I24" s="3">
-        <v>128200</v>
+        <v>129000</v>
       </c>
       <c r="J24" s="3">
-        <v>103400</v>
+        <v>104100</v>
       </c>
       <c r="K24" s="3">
         <v>82700</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>824900</v>
+        <v>830400</v>
       </c>
       <c r="E26" s="3">
-        <v>1381700</v>
+        <v>1390900</v>
       </c>
       <c r="F26" s="3">
-        <v>604100</v>
+        <v>608200</v>
       </c>
       <c r="G26" s="3">
-        <v>661200</v>
+        <v>665600</v>
       </c>
       <c r="H26" s="3">
-        <v>313400</v>
+        <v>315500</v>
       </c>
       <c r="I26" s="3">
-        <v>420000</v>
+        <v>422800</v>
       </c>
       <c r="J26" s="3">
-        <v>398500</v>
+        <v>401100</v>
       </c>
       <c r="K26" s="3">
         <v>534900</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>805500</v>
+        <v>810900</v>
       </c>
       <c r="E27" s="3">
-        <v>1370900</v>
+        <v>1380100</v>
       </c>
       <c r="F27" s="3">
-        <v>593400</v>
+        <v>597300</v>
       </c>
       <c r="G27" s="3">
-        <v>660100</v>
+        <v>664600</v>
       </c>
       <c r="H27" s="3">
-        <v>252000</v>
+        <v>253700</v>
       </c>
       <c r="I27" s="3">
-        <v>365100</v>
+        <v>367500</v>
       </c>
       <c r="J27" s="3">
-        <v>336000</v>
+        <v>338200</v>
       </c>
       <c r="K27" s="3">
         <v>461400</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="H29" s="3">
         <v>-10800</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>463100</v>
+        <v>466200</v>
       </c>
       <c r="K29" s="3">
         <v>137800</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="E32" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="F32" s="3">
-        <v>36600</v>
+        <v>36900</v>
       </c>
       <c r="G32" s="3">
-        <v>88300</v>
+        <v>88900</v>
       </c>
       <c r="H32" s="3">
-        <v>-36600</v>
+        <v>-36900</v>
       </c>
       <c r="I32" s="3">
-        <v>-87200</v>
+        <v>-87800</v>
       </c>
       <c r="J32" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="K32" s="3">
         <v>-387900</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>800100</v>
+        <v>805500</v>
       </c>
       <c r="E33" s="3">
-        <v>1376300</v>
+        <v>1385500</v>
       </c>
       <c r="F33" s="3">
-        <v>593400</v>
+        <v>597300</v>
       </c>
       <c r="G33" s="3">
-        <v>673100</v>
+        <v>677600</v>
       </c>
       <c r="H33" s="3">
-        <v>241200</v>
+        <v>242800</v>
       </c>
       <c r="I33" s="3">
-        <v>365100</v>
+        <v>367500</v>
       </c>
       <c r="J33" s="3">
-        <v>799100</v>
+        <v>804400</v>
       </c>
       <c r="K33" s="3">
         <v>599200</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>800100</v>
+        <v>805500</v>
       </c>
       <c r="E35" s="3">
-        <v>1376300</v>
+        <v>1385500</v>
       </c>
       <c r="F35" s="3">
-        <v>593400</v>
+        <v>597300</v>
       </c>
       <c r="G35" s="3">
-        <v>673100</v>
+        <v>677600</v>
       </c>
       <c r="H35" s="3">
-        <v>241200</v>
+        <v>242800</v>
       </c>
       <c r="I35" s="3">
-        <v>365100</v>
+        <v>367500</v>
       </c>
       <c r="J35" s="3">
-        <v>799100</v>
+        <v>804400</v>
       </c>
       <c r="K35" s="3">
         <v>599200</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>429700</v>
+        <v>432600</v>
       </c>
       <c r="E41" s="3">
-        <v>854000</v>
+        <v>859700</v>
       </c>
       <c r="F41" s="3">
-        <v>642900</v>
+        <v>647200</v>
       </c>
       <c r="G41" s="3">
-        <v>824900</v>
+        <v>830400</v>
       </c>
       <c r="H41" s="3">
-        <v>639700</v>
+        <v>644000</v>
       </c>
       <c r="I41" s="3">
-        <v>1843700</v>
+        <v>1856000</v>
       </c>
       <c r="J41" s="3">
-        <v>2539300</v>
+        <v>2556300</v>
       </c>
       <c r="K41" s="3">
         <v>1476100</v>
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>137800</v>
+        <v>138800</v>
       </c>
       <c r="E42" s="3">
-        <v>338100</v>
+        <v>340400</v>
       </c>
       <c r="F42" s="3">
-        <v>290800</v>
+        <v>292700</v>
       </c>
       <c r="G42" s="3">
-        <v>296100</v>
+        <v>298100</v>
       </c>
       <c r="H42" s="3">
-        <v>537400</v>
+        <v>541000</v>
       </c>
       <c r="I42" s="3">
-        <v>1507700</v>
+        <v>1517700</v>
       </c>
       <c r="J42" s="3">
-        <v>150800</v>
+        <v>151800</v>
       </c>
       <c r="K42" s="3">
         <v>587000</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>747400</v>
+        <v>752400</v>
       </c>
       <c r="E43" s="3">
-        <v>634300</v>
+        <v>638500</v>
       </c>
       <c r="F43" s="3">
-        <v>628900</v>
+        <v>633100</v>
       </c>
       <c r="G43" s="3">
-        <v>726900</v>
+        <v>731800</v>
       </c>
       <c r="H43" s="3">
-        <v>846400</v>
+        <v>852100</v>
       </c>
       <c r="I43" s="3">
-        <v>1802700</v>
+        <v>1814800</v>
       </c>
       <c r="J43" s="3">
-        <v>1883500</v>
+        <v>1896100</v>
       </c>
       <c r="K43" s="3">
         <v>749300</v>
@@ -2038,25 +2038,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>52800</v>
+        <v>53100</v>
       </c>
       <c r="E44" s="3">
-        <v>39800</v>
+        <v>40100</v>
       </c>
       <c r="F44" s="3">
-        <v>50600</v>
+        <v>51000</v>
       </c>
       <c r="G44" s="3">
-        <v>58200</v>
+        <v>58500</v>
       </c>
       <c r="H44" s="3">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="I44" s="3">
-        <v>58200</v>
+        <v>58500</v>
       </c>
       <c r="J44" s="3">
-        <v>95800</v>
+        <v>96500</v>
       </c>
       <c r="K44" s="3">
         <v>66400</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>131400</v>
+        <v>132300</v>
       </c>
       <c r="E45" s="3">
-        <v>145400</v>
+        <v>146400</v>
       </c>
       <c r="F45" s="3">
-        <v>121700</v>
+        <v>122500</v>
       </c>
       <c r="G45" s="3">
-        <v>149700</v>
+        <v>150700</v>
       </c>
       <c r="H45" s="3">
-        <v>106600</v>
+        <v>107300</v>
       </c>
       <c r="I45" s="3">
-        <v>1260000</v>
+        <v>1268400</v>
       </c>
       <c r="J45" s="3">
-        <v>106600</v>
+        <v>107300</v>
       </c>
       <c r="K45" s="3">
         <v>208200</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1499000</v>
+        <v>1509100</v>
       </c>
       <c r="E46" s="3">
-        <v>2011600</v>
+        <v>2025100</v>
       </c>
       <c r="F46" s="3">
-        <v>1734900</v>
+        <v>1746500</v>
       </c>
       <c r="G46" s="3">
-        <v>2055800</v>
+        <v>2069500</v>
       </c>
       <c r="H46" s="3">
-        <v>2192600</v>
+        <v>2207200</v>
       </c>
       <c r="I46" s="3">
-        <v>3589300</v>
+        <v>3613300</v>
       </c>
       <c r="J46" s="3">
-        <v>2630900</v>
+        <v>2648500</v>
       </c>
       <c r="K46" s="3">
         <v>3086900</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>850800</v>
+        <v>856400</v>
       </c>
       <c r="E47" s="3">
-        <v>861500</v>
+        <v>867300</v>
       </c>
       <c r="F47" s="3">
-        <v>67800</v>
+        <v>68300</v>
       </c>
       <c r="G47" s="3">
-        <v>72200</v>
+        <v>72600</v>
       </c>
       <c r="H47" s="3">
-        <v>81800</v>
+        <v>82400</v>
       </c>
       <c r="I47" s="3">
-        <v>380100</v>
+        <v>382700</v>
       </c>
       <c r="J47" s="3">
-        <v>4251600</v>
+        <v>4280000</v>
       </c>
       <c r="K47" s="3">
         <v>2386600</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6909400</v>
+        <v>6955600</v>
       </c>
       <c r="E48" s="3">
-        <v>6748900</v>
+        <v>6794100</v>
       </c>
       <c r="F48" s="3">
-        <v>6761900</v>
+        <v>6807100</v>
       </c>
       <c r="G48" s="3">
-        <v>6761900</v>
+        <v>6807100</v>
       </c>
       <c r="H48" s="3">
-        <v>6970800</v>
+        <v>7017400</v>
       </c>
       <c r="I48" s="3">
-        <v>12515700</v>
+        <v>12599400</v>
       </c>
       <c r="J48" s="3">
-        <v>12856000</v>
+        <v>12942000</v>
       </c>
       <c r="K48" s="3">
         <v>6125800</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3105800</v>
+        <v>3126500</v>
       </c>
       <c r="E49" s="3">
-        <v>3237200</v>
+        <v>3258800</v>
       </c>
       <c r="F49" s="3">
-        <v>3487000</v>
+        <v>3510300</v>
       </c>
       <c r="G49" s="3">
-        <v>3225300</v>
+        <v>3246900</v>
       </c>
       <c r="H49" s="3">
-        <v>3412700</v>
+        <v>3435500</v>
       </c>
       <c r="I49" s="3">
-        <v>7196900</v>
+        <v>7245000</v>
       </c>
       <c r="J49" s="3">
-        <v>6954600</v>
+        <v>7001100</v>
       </c>
       <c r="K49" s="3">
         <v>3521800</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>518000</v>
+        <v>521500</v>
       </c>
       <c r="E52" s="3">
-        <v>857200</v>
+        <v>862900</v>
       </c>
       <c r="F52" s="3">
-        <v>957400</v>
+        <v>963800</v>
       </c>
       <c r="G52" s="3">
-        <v>1135100</v>
+        <v>1142600</v>
       </c>
       <c r="H52" s="3">
-        <v>1347200</v>
+        <v>1356200</v>
       </c>
       <c r="I52" s="3">
-        <v>1308400</v>
+        <v>1317200</v>
       </c>
       <c r="J52" s="3">
-        <v>1493700</v>
+        <v>1503600</v>
       </c>
       <c r="K52" s="3">
         <v>3046100</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12883000</v>
+        <v>12969100</v>
       </c>
       <c r="E54" s="3">
-        <v>13716500</v>
+        <v>13808200</v>
       </c>
       <c r="F54" s="3">
-        <v>13009000</v>
+        <v>13095900</v>
       </c>
       <c r="G54" s="3">
-        <v>13250200</v>
+        <v>13338800</v>
       </c>
       <c r="H54" s="3">
-        <v>14005100</v>
+        <v>14098700</v>
       </c>
       <c r="I54" s="3">
-        <v>14835400</v>
+        <v>14934600</v>
       </c>
       <c r="J54" s="3">
-        <v>16182600</v>
+        <v>16290800</v>
       </c>
       <c r="K54" s="3">
         <v>18167200</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>635400</v>
+        <v>639600</v>
       </c>
       <c r="E57" s="3">
-        <v>554600</v>
+        <v>558300</v>
       </c>
       <c r="F57" s="3">
-        <v>571800</v>
+        <v>575700</v>
       </c>
       <c r="G57" s="3">
-        <v>592300</v>
+        <v>596300</v>
       </c>
       <c r="H57" s="3">
-        <v>618100</v>
+        <v>622300</v>
       </c>
       <c r="I57" s="3">
-        <v>2596400</v>
+        <v>2613800</v>
       </c>
       <c r="J57" s="3">
-        <v>2420900</v>
+        <v>2437100</v>
       </c>
       <c r="K57" s="3">
         <v>790100</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>375800</v>
+        <v>378400</v>
       </c>
       <c r="E58" s="3">
-        <v>876600</v>
+        <v>882500</v>
       </c>
       <c r="F58" s="3">
-        <v>892800</v>
+        <v>898700</v>
       </c>
       <c r="G58" s="3">
-        <v>1165200</v>
+        <v>1173000</v>
       </c>
       <c r="H58" s="3">
-        <v>785100</v>
+        <v>790300</v>
       </c>
       <c r="I58" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="J58" s="3">
-        <v>791500</v>
+        <v>796800</v>
       </c>
       <c r="K58" s="3">
         <v>864600</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800100</v>
+        <v>805500</v>
       </c>
       <c r="E59" s="3">
-        <v>960600</v>
+        <v>967000</v>
       </c>
       <c r="F59" s="3">
-        <v>914300</v>
+        <v>920400</v>
       </c>
       <c r="G59" s="3">
-        <v>1079100</v>
+        <v>1086300</v>
       </c>
       <c r="H59" s="3">
-        <v>1218000</v>
+        <v>1226100</v>
       </c>
       <c r="I59" s="3">
-        <v>1618600</v>
+        <v>1629400</v>
       </c>
       <c r="J59" s="3">
-        <v>1604600</v>
+        <v>1615300</v>
       </c>
       <c r="K59" s="3">
         <v>1450600</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1811300</v>
+        <v>1823500</v>
       </c>
       <c r="E60" s="3">
-        <v>2391800</v>
+        <v>2407800</v>
       </c>
       <c r="F60" s="3">
-        <v>2378900</v>
+        <v>2394800</v>
       </c>
       <c r="G60" s="3">
-        <v>2836600</v>
+        <v>2855500</v>
       </c>
       <c r="H60" s="3">
-        <v>2621200</v>
+        <v>2638700</v>
       </c>
       <c r="I60" s="3">
-        <v>2033200</v>
+        <v>2046800</v>
       </c>
       <c r="J60" s="3">
-        <v>2836600</v>
+        <v>2855500</v>
       </c>
       <c r="K60" s="3">
         <v>3105300</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6397900</v>
+        <v>6440600</v>
       </c>
       <c r="E61" s="3">
-        <v>7326200</v>
+        <v>7375100</v>
       </c>
       <c r="F61" s="3">
-        <v>7116200</v>
+        <v>7163700</v>
       </c>
       <c r="G61" s="3">
-        <v>7007400</v>
+        <v>7054200</v>
       </c>
       <c r="H61" s="3">
-        <v>8363200</v>
+        <v>8419100</v>
       </c>
       <c r="I61" s="3">
-        <v>8161800</v>
+        <v>8216400</v>
       </c>
       <c r="J61" s="3">
-        <v>8504300</v>
+        <v>8561100</v>
       </c>
       <c r="K61" s="3">
         <v>9037100</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>740900</v>
+        <v>745900</v>
       </c>
       <c r="E62" s="3">
-        <v>520100</v>
+        <v>523600</v>
       </c>
       <c r="F62" s="3">
-        <v>690300</v>
+        <v>694900</v>
       </c>
       <c r="G62" s="3">
-        <v>674100</v>
+        <v>678600</v>
       </c>
       <c r="H62" s="3">
-        <v>1020900</v>
+        <v>1027700</v>
       </c>
       <c r="I62" s="3">
-        <v>1067200</v>
+        <v>1074300</v>
       </c>
       <c r="J62" s="3">
-        <v>796900</v>
+        <v>802200</v>
       </c>
       <c r="K62" s="3">
         <v>495100</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8952300</v>
+        <v>9012100</v>
       </c>
       <c r="E66" s="3">
-        <v>10240200</v>
+        <v>10308700</v>
       </c>
       <c r="F66" s="3">
-        <v>10186400</v>
+        <v>10254500</v>
       </c>
       <c r="G66" s="3">
-        <v>10551500</v>
+        <v>10622000</v>
       </c>
       <c r="H66" s="3">
-        <v>11982700</v>
+        <v>12062800</v>
       </c>
       <c r="I66" s="3">
-        <v>11085600</v>
+        <v>11159700</v>
       </c>
       <c r="J66" s="3">
-        <v>12071000</v>
+        <v>12151700</v>
       </c>
       <c r="K66" s="3">
         <v>13081600</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5767900</v>
+        <v>-5806400</v>
       </c>
       <c r="E72" s="3">
-        <v>-5947700</v>
+        <v>-5987500</v>
       </c>
       <c r="F72" s="3">
-        <v>-6772600</v>
+        <v>-6817900</v>
       </c>
       <c r="G72" s="3">
-        <v>-6786600</v>
+        <v>-6832000</v>
       </c>
       <c r="H72" s="3">
-        <v>-6825400</v>
+        <v>-6871000</v>
       </c>
       <c r="I72" s="3">
-        <v>-6684300</v>
+        <v>-6729000</v>
       </c>
       <c r="J72" s="3">
-        <v>-6096300</v>
+        <v>-6137100</v>
       </c>
       <c r="K72" s="3">
         <v>-6124800</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3930700</v>
+        <v>3957000</v>
       </c>
       <c r="E76" s="3">
-        <v>3476200</v>
+        <v>3499500</v>
       </c>
       <c r="F76" s="3">
-        <v>2822600</v>
+        <v>2841400</v>
       </c>
       <c r="G76" s="3">
-        <v>2698700</v>
+        <v>2716800</v>
       </c>
       <c r="H76" s="3">
-        <v>2022400</v>
+        <v>2035900</v>
       </c>
       <c r="I76" s="3">
-        <v>3749800</v>
+        <v>3774800</v>
       </c>
       <c r="J76" s="3">
-        <v>4111600</v>
+        <v>4139100</v>
       </c>
       <c r="K76" s="3">
         <v>5085600</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>800100</v>
+        <v>805500</v>
       </c>
       <c r="E81" s="3">
-        <v>1376300</v>
+        <v>1385500</v>
       </c>
       <c r="F81" s="3">
-        <v>593400</v>
+        <v>597300</v>
       </c>
       <c r="G81" s="3">
-        <v>673100</v>
+        <v>677600</v>
       </c>
       <c r="H81" s="3">
-        <v>241200</v>
+        <v>242800</v>
       </c>
       <c r="I81" s="3">
-        <v>365100</v>
+        <v>367500</v>
       </c>
       <c r="J81" s="3">
-        <v>799100</v>
+        <v>804400</v>
       </c>
       <c r="K81" s="3">
         <v>599200</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1449500</v>
+        <v>1459200</v>
       </c>
       <c r="E83" s="3">
-        <v>1572300</v>
+        <v>1582800</v>
       </c>
       <c r="F83" s="3">
-        <v>1671300</v>
+        <v>1682500</v>
       </c>
       <c r="G83" s="3">
-        <v>1655200</v>
+        <v>1666300</v>
       </c>
       <c r="H83" s="3">
-        <v>1650900</v>
+        <v>1661900</v>
       </c>
       <c r="I83" s="3">
-        <v>1522700</v>
+        <v>1532900</v>
       </c>
       <c r="J83" s="3">
-        <v>1663800</v>
+        <v>1674900</v>
       </c>
       <c r="K83" s="3">
         <v>1649600</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2356300</v>
+        <v>2372000</v>
       </c>
       <c r="E89" s="3">
-        <v>2290600</v>
+        <v>2305900</v>
       </c>
       <c r="F89" s="3">
-        <v>2199000</v>
+        <v>2213700</v>
       </c>
       <c r="G89" s="3">
-        <v>2161300</v>
+        <v>2175800</v>
       </c>
       <c r="H89" s="3">
-        <v>2270100</v>
+        <v>2285300</v>
       </c>
       <c r="I89" s="3">
-        <v>2100000</v>
+        <v>2114000</v>
       </c>
       <c r="J89" s="3">
-        <v>2064400</v>
+        <v>2078200</v>
       </c>
       <c r="K89" s="3">
         <v>2264100</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1034900</v>
+        <v>-1041800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1065100</v>
+        <v>-1072200</v>
       </c>
       <c r="F91" s="3">
-        <v>-992900</v>
+        <v>-999500</v>
       </c>
       <c r="G91" s="3">
-        <v>-925100</v>
+        <v>-931200</v>
       </c>
       <c r="H91" s="3">
-        <v>-879800</v>
+        <v>-885700</v>
       </c>
       <c r="I91" s="3">
-        <v>-887400</v>
+        <v>-893300</v>
       </c>
       <c r="J91" s="3">
-        <v>-987500</v>
+        <v>-994100</v>
       </c>
       <c r="K91" s="3">
         <v>-1033000</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1166300</v>
+        <v>-1174100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1305200</v>
+        <v>-1313900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1663800</v>
+        <v>-1674900</v>
       </c>
       <c r="G94" s="3">
-        <v>-761400</v>
+        <v>-766500</v>
       </c>
       <c r="H94" s="3">
-        <v>-415700</v>
+        <v>-418500</v>
       </c>
       <c r="I94" s="3">
-        <v>-656900</v>
+        <v>-661300</v>
       </c>
       <c r="J94" s="3">
-        <v>438300</v>
+        <v>441200</v>
       </c>
       <c r="K94" s="3">
         <v>-1115700</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-614900</v>
+        <v>-619000</v>
       </c>
       <c r="E96" s="3">
-        <v>-596600</v>
+        <v>-600600</v>
       </c>
       <c r="F96" s="3">
-        <v>-569700</v>
+        <v>-573500</v>
       </c>
       <c r="G96" s="3">
-        <v>-551400</v>
+        <v>-555100</v>
       </c>
       <c r="H96" s="3">
-        <v>-569700</v>
+        <v>-573500</v>
       </c>
       <c r="I96" s="3">
-        <v>-553500</v>
+        <v>-557200</v>
       </c>
       <c r="J96" s="3">
-        <v>-524500</v>
+        <v>-528000</v>
       </c>
       <c r="K96" s="3">
         <v>-505300</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1614300</v>
+        <v>-1625100</v>
       </c>
       <c r="E100" s="3">
-        <v>-772100</v>
+        <v>-777300</v>
       </c>
       <c r="F100" s="3">
-        <v>-721500</v>
+        <v>-726300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1233100</v>
+        <v>-1241300</v>
       </c>
       <c r="H100" s="3">
-        <v>-2112900</v>
+        <v>-2127000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1793000</v>
+        <v>-1805000</v>
       </c>
       <c r="J100" s="3">
-        <v>-2930200</v>
+        <v>-2949800</v>
       </c>
       <c r="K100" s="3">
         <v>-1527100</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-424300</v>
+        <v>-427100</v>
       </c>
       <c r="E102" s="3">
-        <v>213200</v>
+        <v>214700</v>
       </c>
       <c r="F102" s="3">
-        <v>-186300</v>
+        <v>-187500</v>
       </c>
       <c r="G102" s="3">
-        <v>166900</v>
+        <v>168000</v>
       </c>
       <c r="H102" s="3">
-        <v>-258500</v>
+        <v>-260200</v>
       </c>
       <c r="I102" s="3">
-        <v>-351100</v>
+        <v>-353400</v>
       </c>
       <c r="J102" s="3">
-        <v>-427500</v>
+        <v>-430400</v>
       </c>
       <c r="K102" s="3">
         <v>-377700</v>

--- a/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KKPNY_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5771700</v>
+        <v>5776500</v>
       </c>
       <c r="E8" s="3">
-        <v>5698000</v>
+        <v>5702800</v>
       </c>
       <c r="F8" s="3">
-        <v>5718600</v>
+        <v>5723400</v>
       </c>
       <c r="G8" s="3">
-        <v>5948500</v>
+        <v>5953400</v>
       </c>
       <c r="H8" s="3">
-        <v>6113200</v>
+        <v>6118300</v>
       </c>
       <c r="I8" s="3">
-        <v>6232500</v>
+        <v>6237700</v>
       </c>
       <c r="J8" s="3">
-        <v>7378400</v>
+        <v>7384500</v>
       </c>
       <c r="K8" s="3">
         <v>7153800</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1495000</v>
+        <v>1496200</v>
       </c>
       <c r="E9" s="3">
-        <v>1407200</v>
+        <v>1408300</v>
       </c>
       <c r="F9" s="3">
-        <v>1392000</v>
+        <v>1393100</v>
       </c>
       <c r="G9" s="3">
-        <v>1410400</v>
+        <v>1411600</v>
       </c>
       <c r="H9" s="3">
-        <v>1444000</v>
+        <v>1445200</v>
       </c>
       <c r="I9" s="3">
-        <v>1479800</v>
+        <v>1481000</v>
       </c>
       <c r="J9" s="3">
-        <v>2196400</v>
+        <v>2198200</v>
       </c>
       <c r="K9" s="3">
         <v>3319600</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4276800</v>
+        <v>4280300</v>
       </c>
       <c r="E10" s="3">
-        <v>4290900</v>
+        <v>4294400</v>
       </c>
       <c r="F10" s="3">
-        <v>4326600</v>
+        <v>4330200</v>
       </c>
       <c r="G10" s="3">
-        <v>4538000</v>
+        <v>4541800</v>
       </c>
       <c r="H10" s="3">
-        <v>4669200</v>
+        <v>4673100</v>
       </c>
       <c r="I10" s="3">
-        <v>4752700</v>
+        <v>4756600</v>
       </c>
       <c r="J10" s="3">
-        <v>5182000</v>
+        <v>5186300</v>
       </c>
       <c r="K10" s="3">
         <v>3834100</v>
@@ -959,22 +959,22 @@
         <v>8700</v>
       </c>
       <c r="E14" s="3">
-        <v>-878100</v>
+        <v>-878900</v>
       </c>
       <c r="F14" s="3">
-        <v>39000</v>
+        <v>39100</v>
       </c>
       <c r="G14" s="3">
-        <v>-85600</v>
+        <v>-85700</v>
       </c>
       <c r="H14" s="3">
-        <v>147400</v>
+        <v>147600</v>
       </c>
       <c r="I14" s="3">
-        <v>163700</v>
+        <v>163800</v>
       </c>
       <c r="J14" s="3">
-        <v>81300</v>
+        <v>81400</v>
       </c>
       <c r="K14" s="3">
         <v>160300</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1424500</v>
+        <v>1425700</v>
       </c>
       <c r="E15" s="3">
-        <v>1563300</v>
+        <v>1564600</v>
       </c>
       <c r="F15" s="3">
-        <v>1653300</v>
+        <v>1654600</v>
       </c>
       <c r="G15" s="3">
-        <v>1644600</v>
+        <v>1645900</v>
       </c>
       <c r="H15" s="3">
-        <v>1642400</v>
+        <v>1643800</v>
       </c>
       <c r="I15" s="3">
-        <v>1542700</v>
+        <v>1544000</v>
       </c>
       <c r="J15" s="3">
-        <v>1593600</v>
+        <v>1595000</v>
       </c>
       <c r="K15" s="3">
         <v>1591400</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4455700</v>
+        <v>4459400</v>
       </c>
       <c r="E17" s="3">
-        <v>3679400</v>
+        <v>3682500</v>
       </c>
       <c r="F17" s="3">
-        <v>4729900</v>
+        <v>4733900</v>
       </c>
       <c r="G17" s="3">
-        <v>4819900</v>
+        <v>4823900</v>
       </c>
       <c r="H17" s="3">
-        <v>5224300</v>
+        <v>5228600</v>
       </c>
       <c r="I17" s="3">
-        <v>5414000</v>
+        <v>5418500</v>
       </c>
       <c r="J17" s="3">
-        <v>6420000</v>
+        <v>6425400</v>
       </c>
       <c r="K17" s="3">
         <v>6431000</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1316100</v>
+        <v>1317200</v>
       </c>
       <c r="E18" s="3">
-        <v>2018600</v>
+        <v>2020300</v>
       </c>
       <c r="F18" s="3">
-        <v>988700</v>
+        <v>989500</v>
       </c>
       <c r="G18" s="3">
-        <v>1128500</v>
+        <v>1129500</v>
       </c>
       <c r="H18" s="3">
-        <v>889000</v>
+        <v>889700</v>
       </c>
       <c r="I18" s="3">
-        <v>818500</v>
+        <v>819200</v>
       </c>
       <c r="J18" s="3">
-        <v>958300</v>
+        <v>959100</v>
       </c>
       <c r="K18" s="3">
         <v>722700</v>
@@ -1160,22 +1160,22 @@
         <v>-11900</v>
       </c>
       <c r="E20" s="3">
-        <v>-24900</v>
+        <v>-25000</v>
       </c>
       <c r="F20" s="3">
         <v>-36900</v>
       </c>
       <c r="G20" s="3">
-        <v>-88900</v>
+        <v>-89000</v>
       </c>
       <c r="H20" s="3">
         <v>36900</v>
       </c>
       <c r="I20" s="3">
-        <v>87800</v>
+        <v>87900</v>
       </c>
       <c r="J20" s="3">
-        <v>-17300</v>
+        <v>-17400</v>
       </c>
       <c r="K20" s="3">
         <v>387900</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2763400</v>
+        <v>2765100</v>
       </c>
       <c r="E21" s="3">
-        <v>3576400</v>
+        <v>3578800</v>
       </c>
       <c r="F21" s="3">
-        <v>2634400</v>
+        <v>2635900</v>
       </c>
       <c r="G21" s="3">
-        <v>2705900</v>
+        <v>2707500</v>
       </c>
       <c r="H21" s="3">
-        <v>2587700</v>
+        <v>2589300</v>
       </c>
       <c r="I21" s="3">
-        <v>2439200</v>
+        <v>2440700</v>
       </c>
       <c r="J21" s="3">
-        <v>2615900</v>
+        <v>2617500</v>
       </c>
       <c r="K21" s="3">
         <v>2728400</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>227700</v>
+        <v>227900</v>
       </c>
       <c r="E22" s="3">
-        <v>229800</v>
+        <v>230000</v>
       </c>
       <c r="F22" s="3">
-        <v>248300</v>
+        <v>248500</v>
       </c>
       <c r="G22" s="3">
-        <v>320900</v>
+        <v>321200</v>
       </c>
       <c r="H22" s="3">
-        <v>367500</v>
+        <v>367800</v>
       </c>
       <c r="I22" s="3">
-        <v>354500</v>
+        <v>354800</v>
       </c>
       <c r="J22" s="3">
-        <v>435800</v>
+        <v>436200</v>
       </c>
       <c r="K22" s="3">
         <v>493000</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1076500</v>
+        <v>1077400</v>
       </c>
       <c r="E23" s="3">
-        <v>1763800</v>
+        <v>1765300</v>
       </c>
       <c r="F23" s="3">
-        <v>703600</v>
+        <v>704200</v>
       </c>
       <c r="G23" s="3">
-        <v>718800</v>
+        <v>719400</v>
       </c>
       <c r="H23" s="3">
-        <v>558300</v>
+        <v>558800</v>
       </c>
       <c r="I23" s="3">
-        <v>551800</v>
+        <v>552300</v>
       </c>
       <c r="J23" s="3">
-        <v>505200</v>
+        <v>505600</v>
       </c>
       <c r="K23" s="3">
         <v>617600</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>246100</v>
+        <v>246300</v>
       </c>
       <c r="E24" s="3">
-        <v>372900</v>
+        <v>373200</v>
       </c>
       <c r="F24" s="3">
-        <v>95400</v>
+        <v>95500</v>
       </c>
       <c r="G24" s="3">
-        <v>53100</v>
+        <v>53200</v>
       </c>
       <c r="H24" s="3">
-        <v>242800</v>
+        <v>243000</v>
       </c>
       <c r="I24" s="3">
-        <v>129000</v>
+        <v>129100</v>
       </c>
       <c r="J24" s="3">
-        <v>104100</v>
+        <v>104200</v>
       </c>
       <c r="K24" s="3">
         <v>82700</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>830400</v>
+        <v>831100</v>
       </c>
       <c r="E26" s="3">
-        <v>1390900</v>
+        <v>1392100</v>
       </c>
       <c r="F26" s="3">
-        <v>608200</v>
+        <v>608700</v>
       </c>
       <c r="G26" s="3">
-        <v>665600</v>
+        <v>666200</v>
       </c>
       <c r="H26" s="3">
-        <v>315500</v>
+        <v>315700</v>
       </c>
       <c r="I26" s="3">
-        <v>422800</v>
+        <v>423200</v>
       </c>
       <c r="J26" s="3">
-        <v>401100</v>
+        <v>401500</v>
       </c>
       <c r="K26" s="3">
         <v>534900</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>810900</v>
+        <v>811600</v>
       </c>
       <c r="E27" s="3">
-        <v>1380100</v>
+        <v>1381200</v>
       </c>
       <c r="F27" s="3">
-        <v>597300</v>
+        <v>597800</v>
       </c>
       <c r="G27" s="3">
-        <v>664600</v>
+        <v>665100</v>
       </c>
       <c r="H27" s="3">
-        <v>253700</v>
+        <v>253900</v>
       </c>
       <c r="I27" s="3">
-        <v>367500</v>
+        <v>367800</v>
       </c>
       <c r="J27" s="3">
-        <v>338200</v>
+        <v>338500</v>
       </c>
       <c r="K27" s="3">
         <v>461400</v>
@@ -1547,13 +1547,13 @@
         <v>13000</v>
       </c>
       <c r="H29" s="3">
-        <v>-10800</v>
+        <v>-10900</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>466200</v>
+        <v>466600</v>
       </c>
       <c r="K29" s="3">
         <v>137800</v>
@@ -1664,22 +1664,22 @@
         <v>11900</v>
       </c>
       <c r="E32" s="3">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="F32" s="3">
         <v>36900</v>
       </c>
       <c r="G32" s="3">
-        <v>88900</v>
+        <v>89000</v>
       </c>
       <c r="H32" s="3">
         <v>-36900</v>
       </c>
       <c r="I32" s="3">
-        <v>-87800</v>
+        <v>-87900</v>
       </c>
       <c r="J32" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="K32" s="3">
         <v>-387900</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>805500</v>
+        <v>806200</v>
       </c>
       <c r="E33" s="3">
-        <v>1385500</v>
+        <v>1386600</v>
       </c>
       <c r="F33" s="3">
-        <v>597300</v>
+        <v>597800</v>
       </c>
       <c r="G33" s="3">
-        <v>677600</v>
+        <v>678100</v>
       </c>
       <c r="H33" s="3">
-        <v>242800</v>
+        <v>243000</v>
       </c>
       <c r="I33" s="3">
-        <v>367500</v>
+        <v>367800</v>
       </c>
       <c r="J33" s="3">
-        <v>804400</v>
+        <v>805100</v>
       </c>
       <c r="K33" s="3">
         <v>599200</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>805500</v>
+        <v>806200</v>
       </c>
       <c r="E35" s="3">
-        <v>1385500</v>
+        <v>1386600</v>
       </c>
       <c r="F35" s="3">
-        <v>597300</v>
+        <v>597800</v>
       </c>
       <c r="G35" s="3">
-        <v>677600</v>
+        <v>678100</v>
       </c>
       <c r="H35" s="3">
-        <v>242800</v>
+        <v>243000</v>
       </c>
       <c r="I35" s="3">
-        <v>367500</v>
+        <v>367800</v>
       </c>
       <c r="J35" s="3">
-        <v>804400</v>
+        <v>805100</v>
       </c>
       <c r="K35" s="3">
         <v>599200</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>432600</v>
+        <v>432900</v>
       </c>
       <c r="E41" s="3">
-        <v>859700</v>
+        <v>860400</v>
       </c>
       <c r="F41" s="3">
-        <v>647200</v>
+        <v>647700</v>
       </c>
       <c r="G41" s="3">
-        <v>830400</v>
+        <v>831100</v>
       </c>
       <c r="H41" s="3">
-        <v>644000</v>
+        <v>644500</v>
       </c>
       <c r="I41" s="3">
-        <v>1856000</v>
+        <v>1857500</v>
       </c>
       <c r="J41" s="3">
-        <v>2556300</v>
+        <v>2558400</v>
       </c>
       <c r="K41" s="3">
         <v>1476100</v>
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>138800</v>
+        <v>138900</v>
       </c>
       <c r="E42" s="3">
-        <v>340400</v>
+        <v>340700</v>
       </c>
       <c r="F42" s="3">
-        <v>292700</v>
+        <v>292900</v>
       </c>
       <c r="G42" s="3">
-        <v>298100</v>
+        <v>298400</v>
       </c>
       <c r="H42" s="3">
-        <v>541000</v>
+        <v>541400</v>
       </c>
       <c r="I42" s="3">
-        <v>1517700</v>
+        <v>1519000</v>
       </c>
       <c r="J42" s="3">
-        <v>151800</v>
+        <v>151900</v>
       </c>
       <c r="K42" s="3">
         <v>587000</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>752400</v>
+        <v>753000</v>
       </c>
       <c r="E43" s="3">
-        <v>638500</v>
+        <v>639100</v>
       </c>
       <c r="F43" s="3">
-        <v>633100</v>
+        <v>633600</v>
       </c>
       <c r="G43" s="3">
-        <v>731800</v>
+        <v>732400</v>
       </c>
       <c r="H43" s="3">
-        <v>852100</v>
+        <v>852800</v>
       </c>
       <c r="I43" s="3">
-        <v>1814800</v>
+        <v>1816300</v>
       </c>
       <c r="J43" s="3">
-        <v>1896100</v>
+        <v>1897700</v>
       </c>
       <c r="K43" s="3">
         <v>749300</v>
@@ -2038,7 +2038,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>53100</v>
+        <v>53200</v>
       </c>
       <c r="E44" s="3">
         <v>40100</v>
@@ -2047,16 +2047,16 @@
         <v>51000</v>
       </c>
       <c r="G44" s="3">
-        <v>58500</v>
+        <v>58600</v>
       </c>
       <c r="H44" s="3">
         <v>62900</v>
       </c>
       <c r="I44" s="3">
-        <v>58500</v>
+        <v>58600</v>
       </c>
       <c r="J44" s="3">
-        <v>96500</v>
+        <v>96600</v>
       </c>
       <c r="K44" s="3">
         <v>66400</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>132300</v>
+        <v>132400</v>
       </c>
       <c r="E45" s="3">
-        <v>146400</v>
+        <v>146500</v>
       </c>
       <c r="F45" s="3">
-        <v>122500</v>
+        <v>122600</v>
       </c>
       <c r="G45" s="3">
-        <v>150700</v>
+        <v>150800</v>
       </c>
       <c r="H45" s="3">
-        <v>107300</v>
+        <v>107400</v>
       </c>
       <c r="I45" s="3">
-        <v>1268400</v>
+        <v>1269500</v>
       </c>
       <c r="J45" s="3">
-        <v>107300</v>
+        <v>107400</v>
       </c>
       <c r="K45" s="3">
         <v>208200</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1509100</v>
+        <v>1510300</v>
       </c>
       <c r="E46" s="3">
-        <v>2025100</v>
+        <v>2026800</v>
       </c>
       <c r="F46" s="3">
-        <v>1746500</v>
+        <v>1747900</v>
       </c>
       <c r="G46" s="3">
-        <v>2069500</v>
+        <v>2071300</v>
       </c>
       <c r="H46" s="3">
-        <v>2207200</v>
+        <v>2209100</v>
       </c>
       <c r="I46" s="3">
-        <v>3613300</v>
+        <v>3616300</v>
       </c>
       <c r="J46" s="3">
-        <v>2648500</v>
+        <v>2650700</v>
       </c>
       <c r="K46" s="3">
         <v>3086900</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>856400</v>
+        <v>857100</v>
       </c>
       <c r="E47" s="3">
-        <v>867300</v>
+        <v>868000</v>
       </c>
       <c r="F47" s="3">
-        <v>68300</v>
+        <v>68400</v>
       </c>
       <c r="G47" s="3">
-        <v>72600</v>
+        <v>72700</v>
       </c>
       <c r="H47" s="3">
-        <v>82400</v>
+        <v>82500</v>
       </c>
       <c r="I47" s="3">
-        <v>382700</v>
+        <v>383000</v>
       </c>
       <c r="J47" s="3">
-        <v>4280000</v>
+        <v>4283600</v>
       </c>
       <c r="K47" s="3">
         <v>2386600</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6955600</v>
+        <v>6961400</v>
       </c>
       <c r="E48" s="3">
-        <v>6794100</v>
+        <v>6799700</v>
       </c>
       <c r="F48" s="3">
-        <v>6807100</v>
+        <v>6812700</v>
       </c>
       <c r="G48" s="3">
-        <v>6807100</v>
+        <v>6812700</v>
       </c>
       <c r="H48" s="3">
-        <v>7017400</v>
+        <v>7023200</v>
       </c>
       <c r="I48" s="3">
-        <v>12599400</v>
+        <v>12609900</v>
       </c>
       <c r="J48" s="3">
-        <v>12942000</v>
+        <v>12952700</v>
       </c>
       <c r="K48" s="3">
         <v>6125800</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3126500</v>
+        <v>3129100</v>
       </c>
       <c r="E49" s="3">
-        <v>3258800</v>
+        <v>3261500</v>
       </c>
       <c r="F49" s="3">
-        <v>3510300</v>
+        <v>3513200</v>
       </c>
       <c r="G49" s="3">
-        <v>3246900</v>
+        <v>3249600</v>
       </c>
       <c r="H49" s="3">
-        <v>3435500</v>
+        <v>3438400</v>
       </c>
       <c r="I49" s="3">
-        <v>7245000</v>
+        <v>7251100</v>
       </c>
       <c r="J49" s="3">
-        <v>7001100</v>
+        <v>7006900</v>
       </c>
       <c r="K49" s="3">
         <v>3521800</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>521500</v>
+        <v>521900</v>
       </c>
       <c r="E52" s="3">
-        <v>862900</v>
+        <v>863700</v>
       </c>
       <c r="F52" s="3">
-        <v>963800</v>
+        <v>964600</v>
       </c>
       <c r="G52" s="3">
-        <v>1142600</v>
+        <v>1143600</v>
       </c>
       <c r="H52" s="3">
-        <v>1356200</v>
+        <v>1357300</v>
       </c>
       <c r="I52" s="3">
-        <v>1317200</v>
+        <v>1318300</v>
       </c>
       <c r="J52" s="3">
-        <v>1503600</v>
+        <v>1504900</v>
       </c>
       <c r="K52" s="3">
         <v>3046100</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12969100</v>
+        <v>12979900</v>
       </c>
       <c r="E54" s="3">
-        <v>13808200</v>
+        <v>13819600</v>
       </c>
       <c r="F54" s="3">
-        <v>13095900</v>
+        <v>13106800</v>
       </c>
       <c r="G54" s="3">
-        <v>13338800</v>
+        <v>13349800</v>
       </c>
       <c r="H54" s="3">
-        <v>14098700</v>
+        <v>14110400</v>
       </c>
       <c r="I54" s="3">
-        <v>14934600</v>
+        <v>14947000</v>
       </c>
       <c r="J54" s="3">
-        <v>16290800</v>
+        <v>16304300</v>
       </c>
       <c r="K54" s="3">
         <v>18167200</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>639600</v>
+        <v>640100</v>
       </c>
       <c r="E57" s="3">
-        <v>558300</v>
+        <v>558800</v>
       </c>
       <c r="F57" s="3">
-        <v>575700</v>
+        <v>576100</v>
       </c>
       <c r="G57" s="3">
-        <v>596300</v>
+        <v>596800</v>
       </c>
       <c r="H57" s="3">
-        <v>622300</v>
+        <v>622800</v>
       </c>
       <c r="I57" s="3">
-        <v>2613800</v>
+        <v>2615900</v>
       </c>
       <c r="J57" s="3">
-        <v>2437100</v>
+        <v>2439100</v>
       </c>
       <c r="K57" s="3">
         <v>790100</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>378400</v>
+        <v>378700</v>
       </c>
       <c r="E58" s="3">
-        <v>882500</v>
+        <v>883200</v>
       </c>
       <c r="F58" s="3">
-        <v>898700</v>
+        <v>899500</v>
       </c>
       <c r="G58" s="3">
-        <v>1173000</v>
+        <v>1174000</v>
       </c>
       <c r="H58" s="3">
-        <v>790300</v>
+        <v>791000</v>
       </c>
       <c r="I58" s="3">
         <v>19500</v>
       </c>
       <c r="J58" s="3">
-        <v>796800</v>
+        <v>797500</v>
       </c>
       <c r="K58" s="3">
         <v>864600</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>805500</v>
+        <v>806200</v>
       </c>
       <c r="E59" s="3">
-        <v>967000</v>
+        <v>967800</v>
       </c>
       <c r="F59" s="3">
-        <v>920400</v>
+        <v>921200</v>
       </c>
       <c r="G59" s="3">
-        <v>1086300</v>
+        <v>1087200</v>
       </c>
       <c r="H59" s="3">
-        <v>1226100</v>
+        <v>1227100</v>
       </c>
       <c r="I59" s="3">
-        <v>1629400</v>
+        <v>1630800</v>
       </c>
       <c r="J59" s="3">
-        <v>1615300</v>
+        <v>1616600</v>
       </c>
       <c r="K59" s="3">
         <v>1450600</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1823500</v>
+        <v>1825000</v>
       </c>
       <c r="E60" s="3">
-        <v>2407800</v>
+        <v>2409800</v>
       </c>
       <c r="F60" s="3">
-        <v>2394800</v>
+        <v>2396800</v>
       </c>
       <c r="G60" s="3">
-        <v>2855500</v>
+        <v>2857900</v>
       </c>
       <c r="H60" s="3">
-        <v>2638700</v>
+        <v>2640900</v>
       </c>
       <c r="I60" s="3">
-        <v>2046800</v>
+        <v>2048500</v>
       </c>
       <c r="J60" s="3">
-        <v>2855500</v>
+        <v>2857900</v>
       </c>
       <c r="K60" s="3">
         <v>3105300</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6440600</v>
+        <v>6446000</v>
       </c>
       <c r="E61" s="3">
-        <v>7375100</v>
+        <v>7381300</v>
       </c>
       <c r="F61" s="3">
-        <v>7163700</v>
+        <v>7169700</v>
       </c>
       <c r="G61" s="3">
-        <v>7054200</v>
+        <v>7060100</v>
       </c>
       <c r="H61" s="3">
-        <v>8419100</v>
+        <v>8426100</v>
       </c>
       <c r="I61" s="3">
-        <v>8216400</v>
+        <v>8223200</v>
       </c>
       <c r="J61" s="3">
-        <v>8561100</v>
+        <v>8568200</v>
       </c>
       <c r="K61" s="3">
         <v>9037100</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>745900</v>
+        <v>746500</v>
       </c>
       <c r="E62" s="3">
-        <v>523600</v>
+        <v>524100</v>
       </c>
       <c r="F62" s="3">
-        <v>694900</v>
+        <v>695500</v>
       </c>
       <c r="G62" s="3">
-        <v>678600</v>
+        <v>679200</v>
       </c>
       <c r="H62" s="3">
-        <v>1027700</v>
+        <v>1028600</v>
       </c>
       <c r="I62" s="3">
-        <v>1074300</v>
+        <v>1075200</v>
       </c>
       <c r="J62" s="3">
-        <v>802200</v>
+        <v>802900</v>
       </c>
       <c r="K62" s="3">
         <v>495100</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9012100</v>
+        <v>9019600</v>
       </c>
       <c r="E66" s="3">
-        <v>10308700</v>
+        <v>10317300</v>
       </c>
       <c r="F66" s="3">
-        <v>10254500</v>
+        <v>10263000</v>
       </c>
       <c r="G66" s="3">
-        <v>10622000</v>
+        <v>10630800</v>
       </c>
       <c r="H66" s="3">
-        <v>12062800</v>
+        <v>12072800</v>
       </c>
       <c r="I66" s="3">
-        <v>11159700</v>
+        <v>11169000</v>
       </c>
       <c r="J66" s="3">
-        <v>12151700</v>
+        <v>12161800</v>
       </c>
       <c r="K66" s="3">
         <v>13081600</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5806400</v>
+        <v>-5811300</v>
       </c>
       <c r="E72" s="3">
-        <v>-5987500</v>
+        <v>-5992500</v>
       </c>
       <c r="F72" s="3">
-        <v>-6817900</v>
+        <v>-6823600</v>
       </c>
       <c r="G72" s="3">
-        <v>-6832000</v>
+        <v>-6837700</v>
       </c>
       <c r="H72" s="3">
-        <v>-6871000</v>
+        <v>-6876700</v>
       </c>
       <c r="I72" s="3">
-        <v>-6729000</v>
+        <v>-6734600</v>
       </c>
       <c r="J72" s="3">
-        <v>-6137100</v>
+        <v>-6142200</v>
       </c>
       <c r="K72" s="3">
         <v>-6124800</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3957000</v>
+        <v>3960300</v>
       </c>
       <c r="E76" s="3">
-        <v>3499500</v>
+        <v>3502400</v>
       </c>
       <c r="F76" s="3">
-        <v>2841400</v>
+        <v>2843800</v>
       </c>
       <c r="G76" s="3">
-        <v>2716800</v>
+        <v>2719000</v>
       </c>
       <c r="H76" s="3">
-        <v>2035900</v>
+        <v>2037600</v>
       </c>
       <c r="I76" s="3">
-        <v>3774800</v>
+        <v>3778000</v>
       </c>
       <c r="J76" s="3">
-        <v>4139100</v>
+        <v>4142500</v>
       </c>
       <c r="K76" s="3">
         <v>5085600</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>805500</v>
+        <v>806200</v>
       </c>
       <c r="E81" s="3">
-        <v>1385500</v>
+        <v>1386600</v>
       </c>
       <c r="F81" s="3">
-        <v>597300</v>
+        <v>597800</v>
       </c>
       <c r="G81" s="3">
-        <v>677600</v>
+        <v>678100</v>
       </c>
       <c r="H81" s="3">
-        <v>242800</v>
+        <v>243000</v>
       </c>
       <c r="I81" s="3">
-        <v>367500</v>
+        <v>367800</v>
       </c>
       <c r="J81" s="3">
-        <v>804400</v>
+        <v>805100</v>
       </c>
       <c r="K81" s="3">
         <v>599200</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1459200</v>
+        <v>1460400</v>
       </c>
       <c r="E83" s="3">
-        <v>1582800</v>
+        <v>1584100</v>
       </c>
       <c r="F83" s="3">
-        <v>1682500</v>
+        <v>1683900</v>
       </c>
       <c r="G83" s="3">
-        <v>1666300</v>
+        <v>1667600</v>
       </c>
       <c r="H83" s="3">
-        <v>1661900</v>
+        <v>1663300</v>
       </c>
       <c r="I83" s="3">
-        <v>1532900</v>
+        <v>1534200</v>
       </c>
       <c r="J83" s="3">
-        <v>1674900</v>
+        <v>1676300</v>
       </c>
       <c r="K83" s="3">
         <v>1649600</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2372000</v>
+        <v>2374000</v>
       </c>
       <c r="E89" s="3">
-        <v>2305900</v>
+        <v>2307800</v>
       </c>
       <c r="F89" s="3">
-        <v>2213700</v>
+        <v>2215600</v>
       </c>
       <c r="G89" s="3">
-        <v>2175800</v>
+        <v>2177600</v>
       </c>
       <c r="H89" s="3">
-        <v>2285300</v>
+        <v>2287200</v>
       </c>
       <c r="I89" s="3">
-        <v>2114000</v>
+        <v>2115800</v>
       </c>
       <c r="J89" s="3">
-        <v>2078200</v>
+        <v>2079900</v>
       </c>
       <c r="K89" s="3">
         <v>2264100</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1041800</v>
+        <v>-1042700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1072200</v>
+        <v>-1073100</v>
       </c>
       <c r="F91" s="3">
-        <v>-999500</v>
+        <v>-1000400</v>
       </c>
       <c r="G91" s="3">
-        <v>-931200</v>
+        <v>-932000</v>
       </c>
       <c r="H91" s="3">
-        <v>-885700</v>
+        <v>-886400</v>
       </c>
       <c r="I91" s="3">
-        <v>-893300</v>
+        <v>-894000</v>
       </c>
       <c r="J91" s="3">
-        <v>-994100</v>
+        <v>-994900</v>
       </c>
       <c r="K91" s="3">
         <v>-1033000</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1174100</v>
+        <v>-1175100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1313900</v>
+        <v>-1315000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1674900</v>
+        <v>-1676300</v>
       </c>
       <c r="G94" s="3">
-        <v>-766500</v>
+        <v>-767100</v>
       </c>
       <c r="H94" s="3">
-        <v>-418500</v>
+        <v>-418800</v>
       </c>
       <c r="I94" s="3">
-        <v>-661300</v>
+        <v>-661900</v>
       </c>
       <c r="J94" s="3">
-        <v>441200</v>
+        <v>441600</v>
       </c>
       <c r="K94" s="3">
         <v>-1115700</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-619000</v>
+        <v>-619500</v>
       </c>
       <c r="E96" s="3">
-        <v>-600600</v>
+        <v>-601100</v>
       </c>
       <c r="F96" s="3">
-        <v>-573500</v>
+        <v>-574000</v>
       </c>
       <c r="G96" s="3">
-        <v>-555100</v>
+        <v>-555500</v>
       </c>
       <c r="H96" s="3">
-        <v>-573500</v>
+        <v>-574000</v>
       </c>
       <c r="I96" s="3">
-        <v>-557200</v>
+        <v>-557700</v>
       </c>
       <c r="J96" s="3">
-        <v>-528000</v>
+        <v>-528400</v>
       </c>
       <c r="K96" s="3">
         <v>-505300</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1625100</v>
+        <v>-1626400</v>
       </c>
       <c r="E100" s="3">
-        <v>-777300</v>
+        <v>-777900</v>
       </c>
       <c r="F100" s="3">
-        <v>-726300</v>
+        <v>-727000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1241300</v>
+        <v>-1242300</v>
       </c>
       <c r="H100" s="3">
-        <v>-2127000</v>
+        <v>-2128800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1805000</v>
+        <v>-1806500</v>
       </c>
       <c r="J100" s="3">
-        <v>-2949800</v>
+        <v>-2952300</v>
       </c>
       <c r="K100" s="3">
         <v>-1527100</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-427100</v>
+        <v>-427500</v>
       </c>
       <c r="E102" s="3">
-        <v>214700</v>
+        <v>214800</v>
       </c>
       <c r="F102" s="3">
-        <v>-187500</v>
+        <v>-187700</v>
       </c>
       <c r="G102" s="3">
-        <v>168000</v>
+        <v>168200</v>
       </c>
       <c r="H102" s="3">
-        <v>-260200</v>
+        <v>-260400</v>
       </c>
       <c r="I102" s="3">
-        <v>-353400</v>
+        <v>-353700</v>
       </c>
       <c r="J102" s="3">
-        <v>-430400</v>
+        <v>-430700</v>
       </c>
       <c r="K102" s="3">
         <v>-377700</v>
